--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\francoanyx.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B95CE2-721E-4842-89BE-E5E3E5288133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD731531-30FB-4DCE-B46B-38F886A98A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
@@ -6534,7 +6534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6787,7 +6787,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -6908,8 +6907,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E367" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E367" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E345" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E345" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1B48A49-4D48-4A1E-89CF-C9F61C327FFC}" name="producto" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{C3AA694B-486B-4DC2-9B24-35452D57BE82}" name="Descripcion" dataDxfId="3"/>
@@ -7238,10 +7237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7266,7 +7265,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="92" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>851</v>
       </c>
@@ -7283,7 +7282,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="92" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
         <v>855</v>
       </c>
@@ -7300,7 +7299,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="92" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
         <v>857</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="92" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
         <v>859</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="92" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
         <v>862</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="92" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
         <v>864</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="92" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
         <v>867</v>
       </c>
@@ -7385,189 +7384,391 @@
         <v>854</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="92" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-    </row>
-    <row r="10" spans="1:5" s="92" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="s">
+        <v>805</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>757</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D9" s="90">
+        <v>18</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>759</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D10" s="90">
+        <v>4</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
+      <c r="A11" s="90" t="s">
+        <v>807</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>761</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D11" s="90">
+        <v>15</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
+      <c r="A12" s="90" t="s">
+        <v>808</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>763</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D12" s="90">
+        <v>2</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
+      <c r="A13" s="90" t="s">
+        <v>809</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>765</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D13" s="90">
+        <v>8</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
+      <c r="A14" s="90" t="s">
+        <v>810</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>767</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D14" s="90">
+        <v>3</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
+      <c r="A15" s="90" t="s">
+        <v>811</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>769</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D15" s="90">
+        <v>20</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
+      <c r="A16" s="90" t="s">
+        <v>812</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D16" s="90">
+        <v>12</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
+      <c r="A17" s="90" t="s">
+        <v>838</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>822</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D17" s="90">
+        <v>1</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
+      <c r="A18" s="90" t="s">
+        <v>839</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>823</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D18" s="90">
+        <v>1</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
+      <c r="A19" s="90" t="s">
+        <v>813</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>742</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>836</v>
+      </c>
+      <c r="D19" s="90">
+        <v>17</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="90" t="s">
+        <v>773</v>
+      </c>
+      <c r="B20" s="90" t="s">
+        <v>774</v>
+      </c>
       <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
+      <c r="D20" s="90">
+        <v>2</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
+      <c r="A21" s="90" t="s">
+        <v>775</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>776</v>
+      </c>
       <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
+      <c r="D21" s="90">
+        <v>1</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="90" t="s">
+        <v>777</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>778</v>
+      </c>
       <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
+      <c r="D22" s="90">
+        <v>2</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
+      <c r="A23" s="90" t="s">
+        <v>824</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>825</v>
+      </c>
       <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
+      <c r="D23" s="90">
+        <v>1</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="90" t="s">
+        <v>779</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>780</v>
+      </c>
       <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
+      <c r="D24" s="90">
+        <v>1</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="90" t="s">
+        <v>814</v>
+      </c>
+      <c r="B25" s="90" t="s">
+        <v>782</v>
+      </c>
       <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="91"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90"/>
+      <c r="D25" s="90">
+        <v>1</v>
+      </c>
+      <c r="E25" s="91" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="90" t="s">
+        <v>815</v>
+      </c>
+      <c r="B26" s="90" t="s">
+        <v>784</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>837</v>
+      </c>
+      <c r="D26" s="90">
+        <v>4</v>
+      </c>
+      <c r="E26" s="91" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="90" t="s">
+        <v>816</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>796</v>
+      </c>
       <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
+      <c r="D27" s="90">
+        <v>2</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
+      <c r="A28" s="90" t="s">
+        <v>844</v>
+      </c>
+      <c r="B28" s="90" t="s">
+        <v>826</v>
+      </c>
       <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
+      <c r="D28" s="90">
+        <v>148</v>
+      </c>
+      <c r="E28" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
+      <c r="A29" s="90" t="s">
+        <v>845</v>
+      </c>
+      <c r="B29" s="90" t="s">
+        <v>827</v>
+      </c>
       <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
+      <c r="D29" s="90">
+        <v>100</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91"/>
+      <c r="A30" s="90" t="s">
+        <v>846</v>
+      </c>
+      <c r="B30" s="90" t="s">
+        <v>828</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>820</v>
+      </c>
+      <c r="D30" s="90">
+        <v>46</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="B31" s="90" t="s">
-        <v>757</v>
+        <v>829</v>
       </c>
       <c r="C31" s="90" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="D31" s="90">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E31" s="91" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="B32" s="90" t="s">
-        <v>759</v>
+        <v>830</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="D32" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" s="91" t="s">
         <v>850</v>
@@ -7575,31 +7776,29 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>761</v>
+        <v>800</v>
       </c>
       <c r="C33" s="90" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="D33" s="90">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E33" s="91" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>763</v>
-      </c>
-      <c r="C34" s="90" t="s">
-        <v>835</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="C34" s="90"/>
       <c r="D34" s="90">
         <v>2</v>
       </c>
@@ -7609,16 +7808,16 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="B35" s="90" t="s">
-        <v>765</v>
+        <v>831</v>
       </c>
       <c r="C35" s="90" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="D35" s="90">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E35" s="91" t="s">
         <v>850</v>
@@ -7626,16 +7825,16 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>767</v>
+        <v>832</v>
       </c>
       <c r="C36" s="90" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="D36" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" s="91" t="s">
         <v>850</v>
@@ -7643,16 +7842,16 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>769</v>
+        <v>833</v>
       </c>
       <c r="C37" s="90" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="D37" s="90">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E37" s="91" t="s">
         <v>850</v>
@@ -7660,374 +7859,174 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
-        <v>812</v>
+        <v>843</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>771</v>
+        <v>834</v>
       </c>
       <c r="C38" s="90" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="D38" s="90">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E38" s="91" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="90" t="s">
-        <v>838</v>
-      </c>
-      <c r="B39" s="90" t="s">
-        <v>822</v>
-      </c>
-      <c r="C39" s="90" t="s">
-        <v>835</v>
-      </c>
-      <c r="D39" s="90">
-        <v>1</v>
-      </c>
-      <c r="E39" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="90" t="s">
-        <v>839</v>
-      </c>
-      <c r="B40" s="90" t="s">
-        <v>823</v>
-      </c>
-      <c r="C40" s="90" t="s">
-        <v>835</v>
-      </c>
-      <c r="D40" s="90">
-        <v>1</v>
-      </c>
-      <c r="E40" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="90" t="s">
-        <v>813</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>742</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>836</v>
-      </c>
-      <c r="D41" s="90">
-        <v>17</v>
-      </c>
-      <c r="E41" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="90" t="s">
-        <v>773</v>
-      </c>
-      <c r="B42" s="90" t="s">
-        <v>774</v>
-      </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90">
-        <v>2</v>
-      </c>
-      <c r="E42" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="90" t="s">
-        <v>775</v>
-      </c>
-      <c r="B43" s="90" t="s">
-        <v>776</v>
-      </c>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90">
-        <v>1</v>
-      </c>
-      <c r="E43" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="90" t="s">
-        <v>777</v>
-      </c>
-      <c r="B44" s="90" t="s">
-        <v>778</v>
-      </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90">
-        <v>2</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="90" t="s">
-        <v>824</v>
-      </c>
-      <c r="B45" s="90" t="s">
-        <v>825</v>
-      </c>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90">
-        <v>1</v>
-      </c>
-      <c r="E45" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="90" t="s">
-        <v>779</v>
-      </c>
-      <c r="B46" s="90" t="s">
-        <v>780</v>
-      </c>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90">
-        <v>1</v>
-      </c>
-      <c r="E46" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="90" t="s">
-        <v>814</v>
-      </c>
-      <c r="B47" s="90" t="s">
-        <v>782</v>
-      </c>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90">
-        <v>1</v>
-      </c>
-      <c r="E47" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="90" t="s">
-        <v>815</v>
-      </c>
-      <c r="B48" s="90" t="s">
-        <v>784</v>
-      </c>
-      <c r="C48" s="90" t="s">
-        <v>837</v>
-      </c>
-      <c r="D48" s="90">
-        <v>4</v>
-      </c>
-      <c r="E48" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="90" t="s">
-        <v>816</v>
-      </c>
-      <c r="B49" s="90" t="s">
-        <v>796</v>
-      </c>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90">
-        <v>2</v>
-      </c>
-      <c r="E49" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="90" t="s">
-        <v>844</v>
-      </c>
-      <c r="B50" s="90" t="s">
-        <v>826</v>
-      </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90">
-        <v>148</v>
-      </c>
-      <c r="E50" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="90" t="s">
-        <v>845</v>
-      </c>
-      <c r="B51" s="90" t="s">
-        <v>827</v>
-      </c>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90">
-        <v>100</v>
-      </c>
-      <c r="E51" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="90" t="s">
-        <v>846</v>
-      </c>
-      <c r="B52" s="90" t="s">
-        <v>828</v>
-      </c>
-      <c r="C52" s="90" t="s">
-        <v>820</v>
-      </c>
-      <c r="D52" s="90">
-        <v>46</v>
-      </c>
-      <c r="E52" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="90" t="s">
-        <v>847</v>
-      </c>
-      <c r="B53" s="90" t="s">
-        <v>829</v>
-      </c>
-      <c r="C53" s="90" t="s">
-        <v>820</v>
-      </c>
-      <c r="D53" s="90">
-        <v>64</v>
-      </c>
-      <c r="E53" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="90" t="s">
-        <v>848</v>
-      </c>
-      <c r="B54" s="90" t="s">
-        <v>830</v>
-      </c>
-      <c r="C54" s="90" t="s">
-        <v>820</v>
-      </c>
-      <c r="D54" s="90">
-        <v>1</v>
-      </c>
-      <c r="E54" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="90" t="s">
-        <v>817</v>
-      </c>
-      <c r="B55" s="90" t="s">
-        <v>800</v>
-      </c>
-      <c r="C55" s="90" t="s">
-        <v>820</v>
-      </c>
-      <c r="D55" s="90">
-        <v>8</v>
-      </c>
-      <c r="E55" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="90" t="s">
-        <v>818</v>
-      </c>
-      <c r="B56" s="90" t="s">
-        <v>802</v>
-      </c>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90">
-        <v>2</v>
-      </c>
-      <c r="E56" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="90" t="s">
-        <v>840</v>
-      </c>
-      <c r="B57" s="90" t="s">
-        <v>831</v>
-      </c>
-      <c r="C57" s="90" t="s">
-        <v>821</v>
-      </c>
-      <c r="D57" s="90">
-        <v>3</v>
-      </c>
-      <c r="E57" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="90" t="s">
-        <v>841</v>
-      </c>
-      <c r="B58" s="90" t="s">
-        <v>832</v>
-      </c>
-      <c r="C58" s="90" t="s">
-        <v>821</v>
-      </c>
-      <c r="D58" s="90">
-        <v>1</v>
-      </c>
-      <c r="E58" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
-        <v>842</v>
-      </c>
-      <c r="B59" s="90" t="s">
-        <v>833</v>
-      </c>
-      <c r="C59" s="90" t="s">
-        <v>821</v>
-      </c>
-      <c r="D59" s="90">
-        <v>3</v>
-      </c>
-      <c r="E59" s="91" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="90" t="s">
-        <v>843</v>
-      </c>
-      <c r="B60" s="90" t="s">
-        <v>834</v>
-      </c>
-      <c r="C60" s="90" t="s">
-        <v>821</v>
-      </c>
-      <c r="D60" s="90">
-        <v>4</v>
-      </c>
-      <c r="E60" s="91" t="s">
-        <v>850</v>
-      </c>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
@@ -10023,160 +10022,6 @@
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
-    </row>
-    <row r="346" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
-      <c r="E346" s="1"/>
-    </row>
-    <row r="347" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A347" s="1"/>
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-      <c r="D347" s="1"/>
-      <c r="E347" s="1"/>
-    </row>
-    <row r="348" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
-      <c r="E348" s="1"/>
-    </row>
-    <row r="349" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
-      <c r="D349" s="1"/>
-      <c r="E349" s="1"/>
-    </row>
-    <row r="350" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
-      <c r="D350" s="1"/>
-      <c r="E350" s="1"/>
-    </row>
-    <row r="351" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
-      <c r="D351" s="1"/>
-      <c r="E351" s="1"/>
-    </row>
-    <row r="352" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
-      <c r="D352" s="1"/>
-      <c r="E352" s="1"/>
-    </row>
-    <row r="353" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A353" s="1"/>
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
-      <c r="E353" s="1"/>
-    </row>
-    <row r="354" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
-      <c r="E354" s="1"/>
-    </row>
-    <row r="355" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
-      <c r="D355" s="1"/>
-      <c r="E355" s="1"/>
-    </row>
-    <row r="356" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
-      <c r="D356" s="1"/>
-      <c r="E356" s="1"/>
-    </row>
-    <row r="357" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
-      <c r="D357" s="1"/>
-      <c r="E357" s="1"/>
-    </row>
-    <row r="358" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
-      <c r="D358" s="1"/>
-      <c r="E358" s="1"/>
-    </row>
-    <row r="359" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
-      <c r="D359" s="1"/>
-      <c r="E359" s="1"/>
-    </row>
-    <row r="360" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
-      <c r="D360" s="1"/>
-      <c r="E360" s="1"/>
-    </row>
-    <row r="361" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
-      <c r="D361" s="1"/>
-      <c r="E361" s="1"/>
-    </row>
-    <row r="362" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A362" s="1"/>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="1"/>
-      <c r="E362" s="1"/>
-    </row>
-    <row r="363" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
-      <c r="C363" s="1"/>
-      <c r="D363" s="1"/>
-      <c r="E363" s="1"/>
-    </row>
-    <row r="364" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
-      <c r="D364" s="1"/>
-      <c r="E364" s="1"/>
-    </row>
-    <row r="365" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A365" s="1"/>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
-      <c r="D365" s="1"/>
-      <c r="E365" s="1"/>
-    </row>
-    <row r="366" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
-      <c r="D366" s="1"/>
-      <c r="E366" s="1"/>
-    </row>
-    <row r="367" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A367" s="1"/>
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
-      <c r="D367" s="1"/>
-      <c r="E367" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\francoanyx.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD731531-30FB-4DCE-B46B-38F886A98A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D315BC5-CED3-479E-9F25-55362C58395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="870">
   <si>
     <t>producto</t>
   </si>
@@ -6231,6 +6231,9 @@
   </si>
   <si>
     <t>2M External SAS (SFF8470) to Mini SAS (SFF8088) 1x SAS Cable</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -7240,7 +7243,7 @@
   <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD30"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7578,7 +7581,9 @@
       <c r="B20" s="90" t="s">
         <v>774</v>
       </c>
-      <c r="C20" s="90"/>
+      <c r="C20" s="90" t="s">
+        <v>869</v>
+      </c>
       <c r="D20" s="90">
         <v>2</v>
       </c>
@@ -7593,7 +7598,9 @@
       <c r="B21" s="90" t="s">
         <v>776</v>
       </c>
-      <c r="C21" s="90"/>
+      <c r="C21" s="90" t="s">
+        <v>869</v>
+      </c>
       <c r="D21" s="90">
         <v>1</v>
       </c>
@@ -7608,7 +7615,9 @@
       <c r="B22" s="90" t="s">
         <v>778</v>
       </c>
-      <c r="C22" s="90"/>
+      <c r="C22" s="90" t="s">
+        <v>869</v>
+      </c>
       <c r="D22" s="90">
         <v>2</v>
       </c>
@@ -7623,7 +7632,9 @@
       <c r="B23" s="90" t="s">
         <v>825</v>
       </c>
-      <c r="C23" s="90"/>
+      <c r="C23" s="90" t="s">
+        <v>869</v>
+      </c>
       <c r="D23" s="90">
         <v>1</v>
       </c>
@@ -7638,7 +7649,9 @@
       <c r="B24" s="90" t="s">
         <v>780</v>
       </c>
-      <c r="C24" s="90"/>
+      <c r="C24" s="90" t="s">
+        <v>869</v>
+      </c>
       <c r="D24" s="90">
         <v>1</v>
       </c>
@@ -7653,7 +7666,9 @@
       <c r="B25" s="90" t="s">
         <v>782</v>
       </c>
-      <c r="C25" s="90"/>
+      <c r="C25" s="90" t="s">
+        <v>869</v>
+      </c>
       <c r="D25" s="90">
         <v>1</v>
       </c>
@@ -7685,7 +7700,9 @@
       <c r="B27" s="90" t="s">
         <v>796</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="90" t="s">
+        <v>869</v>
+      </c>
       <c r="D27" s="90">
         <v>2</v>
       </c>
@@ -7700,7 +7717,9 @@
       <c r="B28" s="90" t="s">
         <v>826</v>
       </c>
-      <c r="C28" s="90"/>
+      <c r="C28" s="90" t="s">
+        <v>869</v>
+      </c>
       <c r="D28" s="90">
         <v>148</v>
       </c>
@@ -7715,7 +7734,9 @@
       <c r="B29" s="90" t="s">
         <v>827</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="90" t="s">
+        <v>869</v>
+      </c>
       <c r="D29" s="90">
         <v>100</v>
       </c>
@@ -7798,7 +7819,9 @@
       <c r="B34" s="90" t="s">
         <v>802</v>
       </c>
-      <c r="C34" s="90"/>
+      <c r="C34" s="90" t="s">
+        <v>869</v>
+      </c>
       <c r="D34" s="90">
         <v>2</v>
       </c>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D315BC5-CED3-479E-9F25-55362C58395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80056E6C-3D6D-4ACC-B3FC-B8B6521D62E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="1170">
   <si>
     <t>producto</t>
   </si>
@@ -6234,6 +6235,910 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>PNETR6</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>APC Modulo protector conta sobretenciones for CAT6 or CAT5/5e Network Line</t>
+  </si>
+  <si>
+    <t>Río Informática SA</t>
+  </si>
+  <si>
+    <t>matiasc@rioinformtica.com.ar</t>
+  </si>
+  <si>
+    <t>PTEL2R</t>
+  </si>
+  <si>
+    <t>APC Surge Module for Analog Phone Line, Replaceable, 1U, use with PRM4 or PRM24 Rackmount Chassis</t>
+  </si>
+  <si>
+    <t>0M9614</t>
+  </si>
+  <si>
+    <t>APC PDU Cord Retention Tray Bracket Kit 0M-9614 for AP7862 AP7864 AP7540 NOB</t>
+  </si>
+  <si>
+    <t>0M756H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APC 0M756H SU032A rackmount rails for 1U 2U 3U or 5U UPS </t>
+  </si>
+  <si>
+    <t>CE-4200</t>
+  </si>
+  <si>
+    <t>GLC</t>
+  </si>
+  <si>
+    <t>Cable UTP Cat6 24AWG (0.6M)</t>
+  </si>
+  <si>
+    <t>CE-4019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable UTP Cat6 24AWG (1.8M) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigalan </t>
+  </si>
+  <si>
+    <t>Patchcord  U/UTP GIGALAN CAT.6 -CM- T568A/B 3M</t>
+  </si>
+  <si>
+    <t>Patchcord  U/UTP GIGALAN CAT.6 -CM- T568A/B 1M</t>
+  </si>
+  <si>
+    <t>NPC06UVDB-BK008F</t>
+  </si>
+  <si>
+    <t>Commscope</t>
+  </si>
+  <si>
+    <t>CABLE NPC CAT 6,UTP,CM,BK 8FT</t>
+  </si>
+  <si>
+    <t>NPC06UVDB-BK004F</t>
+  </si>
+  <si>
+    <t>CABLE NPC CAT 6,UTP,CM,BK 4FT</t>
+  </si>
+  <si>
+    <t>1375055-4</t>
+  </si>
+  <si>
+    <t>Commscope SL Series Rj45 Jack. CAT 6</t>
+  </si>
+  <si>
+    <t>1375055-2</t>
+  </si>
+  <si>
+    <t>Commscope NETCONNECT Rj45 Jack, SL110. CAT 6 BLK</t>
+  </si>
+  <si>
+    <t>1375191-2</t>
+  </si>
+  <si>
+    <t>Commscope SL 110 Series Modular jack, RJ45, Category 5</t>
+  </si>
+  <si>
+    <t>Patc Panel Descargado 760237040 | CPP-UDDM-SL-1U-24</t>
+  </si>
+  <si>
+    <t>6-2111979-3</t>
+  </si>
+  <si>
+    <t>Furukawa</t>
+  </si>
+  <si>
+    <t>Modular Plug Kit, category 6, shielded, 8-position, 5.1 – 6.0 mm max cable jack OD</t>
+  </si>
+  <si>
+    <t>Furukawa Keystone Jack Gigalan Cat 6 T568A/B 10/180 White</t>
+  </si>
+  <si>
+    <t>Conector Macho Cat 6 Cabo Sólido 8 UTP Position x 50</t>
+  </si>
+  <si>
+    <t>NKFP24Y</t>
+  </si>
+  <si>
+    <t>Panduit</t>
+  </si>
+  <si>
+    <t>Pachera NK Descargada 24P Modular 1U</t>
+  </si>
+  <si>
+    <t>NK6TMIW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetKet Cat 6, 8 Position, 8Wire, Universal Jack </t>
+  </si>
+  <si>
+    <t>1657100-2</t>
+  </si>
+  <si>
+    <t>Tyco Electronics</t>
+  </si>
+  <si>
+    <t>Organizador de cables UTP Horizontal 1U 19" Negro</t>
+  </si>
+  <si>
+    <t>PIX-515</t>
+  </si>
+  <si>
+    <t>PIX-515-MEM-128 128MB 2x64MB Memoria para Cisco Pix 515/E</t>
+  </si>
+  <si>
+    <t>dh-ipc-hfw2531tp-zas-27135-s2</t>
+  </si>
+  <si>
+    <t>Dahua</t>
+  </si>
+  <si>
+    <t>Dahua-dh-ipc-hfw2531tp-zas-27135-s2</t>
+  </si>
+  <si>
+    <t>0W8FW5</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Disco Dell Exos 7E2 2TB SATA 6 Gbps 7.2k RPM 3.5 (ST2000NM0018)</t>
+  </si>
+  <si>
+    <t>638W8LT+P22</t>
+  </si>
+  <si>
+    <t>PC HP 280 G5 i3-10105 4GB 1TB FREE + P22v Monitor</t>
+  </si>
+  <si>
+    <t>4S057LT</t>
+  </si>
+  <si>
+    <t>NOTEBOOK HP PB440G8 i7-1165G7 8GB 512GB SSD W10Pro</t>
+  </si>
+  <si>
+    <t>692G7LT#ABM</t>
+  </si>
+  <si>
+    <t>Notebook HP EliteBook 840 G9</t>
+  </si>
+  <si>
+    <t>JD190A</t>
+  </si>
+  <si>
+    <t>HPE Aruba</t>
+  </si>
+  <si>
+    <t>HPE X290 500/800 1m RPS Cable (JD190A)</t>
+  </si>
+  <si>
+    <t>JL682A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARUBA ION 1930 24G 4SFP+ SWITCH (JL682A)</t>
+  </si>
+  <si>
+    <t>JL685A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARUBA ION 1930 48G 4SFP+ SWITCH (JL685A)</t>
+  </si>
+  <si>
+    <t>JL075A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARUBA 3810M 16FSP+ 2-Slot Switch </t>
+  </si>
+  <si>
+    <t>JD183A</t>
+  </si>
+  <si>
+    <t>HPE RPS 800 Redundant Power Supply (JD183A)</t>
+  </si>
+  <si>
+    <t>R2X01A</t>
+  </si>
+  <si>
+    <t>Aruba Instant On AP12  (RW) Acces Point</t>
+  </si>
+  <si>
+    <t>Q2R20A</t>
+  </si>
+  <si>
+    <t>HPE MSA 1050 12GB SAS DC LFF Storage</t>
+  </si>
+  <si>
+    <t>P11065-DN1</t>
+  </si>
+  <si>
+    <t>HPE MS WS19 (4-Core) Std Add Lic AMS SW</t>
+  </si>
+  <si>
+    <t>P40502-B21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE </t>
+  </si>
+  <si>
+    <t>HPE 480GB SATA MU SFF BC MV SSD</t>
+  </si>
+  <si>
+    <t>861681-B21</t>
+  </si>
+  <si>
+    <t>HPE 2TB SATA7.2K LFF LP DS HDD 861681-B21</t>
+  </si>
+  <si>
+    <t>458947-B21</t>
+  </si>
+  <si>
+    <t>HPE 160GB SATA NCQ NHP 3,5"</t>
+  </si>
+  <si>
+    <t>Q1580B</t>
+  </si>
+  <si>
+    <t>Hp Dat 160gb Usb Internal Tape Drive (q1580b)</t>
+  </si>
+  <si>
+    <t>709493-B21</t>
+  </si>
+  <si>
+    <t>Hp Ml350p Gen8 Intel Xeon E5-2620v2 (709493-b21)</t>
+  </si>
+  <si>
+    <t>777279-001</t>
+  </si>
+  <si>
+    <t>Hpe Backplane 2.5 Sff Sff 8 Bay Dl380 G9 777279-001</t>
+  </si>
+  <si>
+    <t>719167-B21</t>
+  </si>
+  <si>
+    <t>HP 2.0m External Mini SAS High Density to Mini SAS Cable - 716197-B21</t>
+  </si>
+  <si>
+    <t>719049-B21</t>
+  </si>
+  <si>
+    <t>719049-B21 HP Xeon E5-2640v3 2.6GHz DL380 G9</t>
+  </si>
+  <si>
+    <t>764632-B21</t>
+  </si>
+  <si>
+    <t>HP Office DVD+RW Drive Interno Óptico 764632-B21</t>
+  </si>
+  <si>
+    <t>764637-B21</t>
+  </si>
+  <si>
+    <t>HP Office DVD+RW Drive Interno Óptico 764637-B21</t>
+  </si>
+  <si>
+    <t>364507-B21</t>
+  </si>
+  <si>
+    <t>364507-B21 Floppy disk - 1.44 MB - 3.5 G4</t>
+  </si>
+  <si>
+    <t>417836-B21</t>
+  </si>
+  <si>
+    <t>HP Smart Array P400 P400i 24in Battery Cable Kit</t>
+  </si>
+  <si>
+    <t>405148-B21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405148-B21 HP 512MB BBWC Option for Smart Array P400
+</t>
+  </si>
+  <si>
+    <t>AF563A</t>
+  </si>
+  <si>
+    <t>1.83m 16A C13 Power Cord</t>
+  </si>
+  <si>
+    <t>433098-B21</t>
+  </si>
+  <si>
+    <t>Intel Xeon E5320 ML370 G5</t>
+  </si>
+  <si>
+    <t>331346-B21</t>
+  </si>
+  <si>
+    <t>HP CD-RW/DVD-ROM 48X Carbon Combo Drive Option Kit</t>
+  </si>
+  <si>
+    <t>867810-B21</t>
+  </si>
+  <si>
+    <t>DL38X Gen10 High Port Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">407339-B21 </t>
+  </si>
+  <si>
+    <t>407339-B21 HP 2M External MINI SAS Cable</t>
+  </si>
+  <si>
+    <t>657197-001</t>
+  </si>
+  <si>
+    <t>SLIMLINE OPTICAL DRIVE SATA CABLE HP DL380 G8</t>
+  </si>
+  <si>
+    <t>406595-002</t>
+  </si>
+  <si>
+    <t>430062-001 - HP Ultrium 6250 SAS External Cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">756903-001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SATA Cable a Granel Unidad Óptica De HP 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">663771-001 </t>
+  </si>
+  <si>
+    <t>HP SATA Optical Drive Split Y Cable 663771-001 683358-001 for DL160P G8 DL360 G7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">448180-001 </t>
+  </si>
+  <si>
+    <t>Cable SATA 450mm acodado HP ProLiant Ml110 G5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">667526-002 </t>
+  </si>
+  <si>
+    <t>Hp 28 Sata Optical Drive Dual Cable</t>
+  </si>
+  <si>
+    <t>39Y9809</t>
+  </si>
+  <si>
+    <t>SATA IBM XSERIES 18 pulgadas 39Y9810 39Y9809</t>
+  </si>
+  <si>
+    <t>39Y9810</t>
+  </si>
+  <si>
+    <t>SATA IBM XSERIES 18 pulgadas 39Y9810 39Y9810</t>
+  </si>
+  <si>
+    <t>P03849-B21</t>
+  </si>
+  <si>
+    <t>HPE GPU 2x8P Cable Kit</t>
+  </si>
+  <si>
+    <t>757914-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">773203-001 </t>
+  </si>
+  <si>
+    <t>HP OPTICAL DRIVE SATA 900MM CABLE FOR HPE PROLIANT DL120 ML350 GEN9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">484355-006 </t>
+  </si>
+  <si>
+    <t>HP 12 SATA Cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">484355-001 </t>
+  </si>
+  <si>
+    <t>HP 484355-001 SATA Cable PROLIANT Dl360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">381868-002 </t>
+  </si>
+  <si>
+    <t>Hp Compaq 381868-002 19-inch Serial Ata Sata 7-pin Hd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">381868-004 </t>
+  </si>
+  <si>
+    <t>Compaq 381868-004 SATA cable ML110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412978-B21 </t>
+  </si>
+  <si>
+    <t>Hp Server Migration Pack - Physical To Proliant</t>
+  </si>
+  <si>
+    <t>TC407A</t>
+  </si>
+  <si>
+    <t>HPE StoreEver Autoloader TapeAssure Advanced LTU (TC407A)</t>
+  </si>
+  <si>
+    <t>652235-B21</t>
+  </si>
+  <si>
+    <t>HP 12.7mm SATA DWVRW Jb Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">789648-B21 </t>
+  </si>
+  <si>
+    <t>HP ML110 Gen9 Mini SAS H240 Cable Kit</t>
+  </si>
+  <si>
+    <t>755384-B21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE DL360 GEN9 E5-2630v3 KIT </t>
+  </si>
+  <si>
+    <t>724865-B21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP DL380 GEN9 UNIVERSAL MEDIA BAY KIT </t>
+  </si>
+  <si>
+    <t>P18450-B21</t>
+  </si>
+  <si>
+    <t>HPE DX 32GB (1x32GB) Dual Rank x4 DDR4-2933 CAS-21-21-21 Registered Smart FIO Memory Kit</t>
+  </si>
+  <si>
+    <t>819411-001</t>
+  </si>
+  <si>
+    <t>HPE Memoria Server 16GB</t>
+  </si>
+  <si>
+    <t>735302-001</t>
+  </si>
+  <si>
+    <t>HPE Memoria Server 8GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">731656-081 </t>
+  </si>
+  <si>
+    <t>P06192-001</t>
+  </si>
+  <si>
+    <t>HPE Memoria Server 64gb</t>
+  </si>
+  <si>
+    <t>P06033-B21</t>
+  </si>
+  <si>
+    <t>HPE Memoria Server 32GB</t>
+  </si>
+  <si>
+    <t>774026-001</t>
+  </si>
+  <si>
+    <t>Adaptador hard drive 3.5 Caddy Tray LFF SATA G9 &amp; G10</t>
+  </si>
+  <si>
+    <t>234672_b21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rackmount Sliding Shelf Kit for Rack 7000 9000 and 10000 Series </t>
+  </si>
+  <si>
+    <t>Q2078A</t>
+  </si>
+  <si>
+    <t>HPE LTO-8 Ultrium 30 TB RW Data Cartridg</t>
+  </si>
+  <si>
+    <t>P11606-001</t>
+  </si>
+  <si>
+    <t>Disipador Heatsink</t>
+  </si>
+  <si>
+    <t>P21868-B21</t>
+  </si>
+  <si>
+    <t>HPE 32GB microSD RAID 1 USB BOOT DRIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM1-1292-080CN </t>
+  </si>
+  <si>
+    <t>LaserJet RM1-1292-080CN - Bandeja (250 hojas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG5-5651-000CN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaserJet 9000/9040/9050 Transfer Guide Assembly 
+</t>
+  </si>
+  <si>
+    <t>Q3701A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hewlett Packard Q3701A#484 (829160539706) Analog Fax Accessory
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF9-1394-000   </t>
+  </si>
+  <si>
+    <t>Rodillo De Transferencia Hp Laserjet 8100</t>
+  </si>
+  <si>
+    <t>717378-001</t>
+  </si>
+  <si>
+    <t>HP BATERIA 717378-001 740363-001 Lithium-Polymer Battery for HP EliteBook 820 G1, 4500mAh, 46Wh, 11.25V</t>
+  </si>
+  <si>
+    <t>485041-001</t>
+  </si>
+  <si>
+    <t>Battery (Primary) - 6 Cell Lithium-ion 10.8V 47Wh HP DV4 DV5 CQ40</t>
+  </si>
+  <si>
+    <t>805291-001</t>
+  </si>
+  <si>
+    <t>Battery Pack (primary) 4-cell lithium-ion (Li-Ion) 14.8v 3.0Ah</t>
+  </si>
+  <si>
+    <t>454668-001</t>
+  </si>
+  <si>
+    <t>HP  Battery 40 WH 454668-001 436426-311 436426-351 HSTNN-CB45 HSTNN-OB45 Compatible with HP EliteBook 2730p 2740P 2760P 2710</t>
+  </si>
+  <si>
+    <t>933321-855</t>
+  </si>
+  <si>
+    <t>Battery li-ion 3 cell 11.55v 50Wh 4.33Ah LI (SS03XL/ SS03050XL-PL)</t>
+  </si>
+  <si>
+    <t>592260-542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP </t>
+  </si>
+  <si>
+    <t>HP 592260-542 Laptop Charger Adapter (10.8V 4400Mah 55Wh 7.4Mm Pin) MU06XL</t>
+  </si>
+  <si>
+    <t>714149-002</t>
+  </si>
+  <si>
+    <t>710412-001 / HP AC Adapter Mini Smart 19,5V 3,33A 65W (714149-002)</t>
+  </si>
+  <si>
+    <t>408851-B21</t>
+  </si>
+  <si>
+    <t>Memoria DDR2 HP 2x2GB</t>
+  </si>
+  <si>
+    <t>397409-B21</t>
+  </si>
+  <si>
+    <t>Memoria DDR2 HP 2x512</t>
+  </si>
+  <si>
+    <t>450258-B21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memoria DDR2 HP 512 MB </t>
+  </si>
+  <si>
+    <t>413507-B21</t>
+  </si>
+  <si>
+    <t>M391T2953 GZ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memoria DDR2 1GB </t>
+  </si>
+  <si>
+    <t>M378T2953EZ3</t>
+  </si>
+  <si>
+    <t>HP/Samsung</t>
+  </si>
+  <si>
+    <t>Memoria DDR2 1GB</t>
+  </si>
+  <si>
+    <t>677774-002</t>
+  </si>
+  <si>
+    <t>HP Envy Pavilion ProBook EliteBook 65 Watt Smart Pin AC Adapter Charger 19.5V 3.33A 677774-002</t>
+  </si>
+  <si>
+    <t>M89065-001</t>
+  </si>
+  <si>
+    <t>L674440-001 65W ADAPTER, nPFC, USB-C 1.8</t>
+  </si>
+  <si>
+    <t>D9Y32AA</t>
+  </si>
+  <si>
+    <t>HP 2013 UltraSlim Docking Station</t>
+  </si>
+  <si>
+    <t>QY776AA#ABM</t>
+  </si>
+  <si>
+    <t>HP USB Keyboad LTNA</t>
+  </si>
+  <si>
+    <t>672652-001</t>
+  </si>
+  <si>
+    <t>Mouse HP 672652-001</t>
+  </si>
+  <si>
+    <t>C4705-60082</t>
+  </si>
+  <si>
+    <t>Correa Plotter Hp 450 24 C4705-60082</t>
+  </si>
+  <si>
+    <t>RH7-1657-000</t>
+  </si>
+  <si>
+    <t>HP Cooler para FAN 9000  24V 0.18A</t>
+  </si>
+  <si>
+    <t>L25296-002</t>
+  </si>
+  <si>
+    <t>HP AC Adapter 45W</t>
+  </si>
+  <si>
+    <t>L25296-001</t>
+  </si>
+  <si>
+    <t>DK-2205</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>CINTA DK2205 BROTHER - CONTINUA 62MM // 30.48MTS</t>
+  </si>
+  <si>
+    <t>W1105A</t>
+  </si>
+  <si>
+    <t>Cartucho Laser HP 105A</t>
+  </si>
+  <si>
+    <t>C9736A</t>
+  </si>
+  <si>
+    <t>Color Laserjet Image Fuser Kit 5500 Series</t>
+  </si>
+  <si>
+    <t>CF258A</t>
+  </si>
+  <si>
+    <t>Cartucho Laser HP M404 / MFP 428 (CF258A)</t>
+  </si>
+  <si>
+    <t>Q3961A</t>
+  </si>
+  <si>
+    <t>HP Cartucho de toner 122A Cyan</t>
+  </si>
+  <si>
+    <t>Q3963A</t>
+  </si>
+  <si>
+    <t>HP Cartucho de toner 122A Magenta</t>
+  </si>
+  <si>
+    <t>Q7570AC</t>
+  </si>
+  <si>
+    <t>HP Cartucho de toner Q7570AC</t>
+  </si>
+  <si>
+    <t>CE310A</t>
+  </si>
+  <si>
+    <t>HP Cartucho de toner 126A Negro</t>
+  </si>
+  <si>
+    <t>CE313A</t>
+  </si>
+  <si>
+    <t>HP Cartucho de toner 126A Magenta</t>
+  </si>
+  <si>
+    <t>CZ129A</t>
+  </si>
+  <si>
+    <t>HP 711 BK LA Ink Cartridge (38 ml)</t>
+  </si>
+  <si>
+    <t>CZ130A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INK CARTRIDGE LA 711 29ML CYAN </t>
+  </si>
+  <si>
+    <t>CZ131A</t>
+  </si>
+  <si>
+    <t>INK CARTRIDGE LA 711 29ML MAG</t>
+  </si>
+  <si>
+    <t>3ED71A</t>
+  </si>
+  <si>
+    <t>HP 712 80-ml Black Ink Cartridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ED70A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP 712 38-ml Black Ink Cartridge </t>
+  </si>
+  <si>
+    <t>3ED67A</t>
+  </si>
+  <si>
+    <t>HP 712 29-ml Cyan Ink Cartridge</t>
+  </si>
+  <si>
+    <t>3ED68A</t>
+  </si>
+  <si>
+    <t>HP 712 29-ml Magenta Ink Cartridge</t>
+  </si>
+  <si>
+    <t>3ED69A</t>
+  </si>
+  <si>
+    <t>HP 712 29-ml Yellow Ink Cartridge</t>
+  </si>
+  <si>
+    <t>3ED77A</t>
+  </si>
+  <si>
+    <t>HP 712 29-ml Cyan Ink Cartridge 3 PACK</t>
+  </si>
+  <si>
+    <t>3ED78A</t>
+  </si>
+  <si>
+    <t>HP 712 29-ml Magenta Ink Cartridge 3 PACK</t>
+  </si>
+  <si>
+    <t>3ED79A</t>
+  </si>
+  <si>
+    <t>HP 712 29-ml Yellow Ink Cartridge 3 PACK</t>
+  </si>
+  <si>
+    <t>L0S71AL</t>
+  </si>
+  <si>
+    <t>HP 954XL Black Ink Cartridge</t>
+  </si>
+  <si>
+    <t>L0S65AL</t>
+  </si>
+  <si>
+    <t>HP 954XL Magenta Ink Cartridge</t>
+  </si>
+  <si>
+    <t>CRS326-24S+2Q+RM</t>
+  </si>
+  <si>
+    <t>MikroTik</t>
+  </si>
+  <si>
+    <t>Switch MikroTik CRS326-24S+2Q+RM</t>
+  </si>
+  <si>
+    <t>CCR1036-8G-2S+EM</t>
+  </si>
+  <si>
+    <t>MiktoTik</t>
+  </si>
+  <si>
+    <t>MikroTik CCR1036-8G-2S+EM | Router | 8x RJ45 1000Mb/s, 2x SFP+, 1x USB</t>
+  </si>
+  <si>
+    <t>455883-B21</t>
+  </si>
+  <si>
+    <t>10G SFP+ Optical Transceiver - 10Gbe SFP+ module 10G SR</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Lenovo 100-240V 1.8A 65W AC Adapter 36200291 for Lenovo ADLX65NLT2A ThinkPad Series. Lenovo Part Number: 36200291</t>
+  </si>
+  <si>
+    <t>7ZT7A00544</t>
+  </si>
+  <si>
+    <t>Placa de red lenovo CA 1gb 2-Port RJ45 LOM</t>
+  </si>
+  <si>
+    <t>HFM256GD3HX015N</t>
+  </si>
+  <si>
+    <t>256gb Ssd M.2 Nvme 2242 With 2280 Caddy Included By Lenovo SK hynix</t>
+  </si>
+  <si>
+    <t>11SY004FAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop TC neo 50s Gen 3 I3-12100, 8GB,256 SSD, Free Dos, 3 YOS </t>
+  </si>
+  <si>
+    <t>962-00105-15A001</t>
+  </si>
+  <si>
+    <t>Grandstream</t>
+  </si>
+  <si>
+    <t>Grandstream GRP2602P Telefono IP 4xSIP HD 10/100 POE</t>
+  </si>
+  <si>
+    <t>TB32DP2T</t>
+  </si>
+  <si>
+    <t>StarTech</t>
+  </si>
+  <si>
+    <t>Thunderbolt 3 to Dual DisplayPort Adapter for Mac or Windows</t>
+  </si>
+  <si>
+    <t>DGD120P</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Sony DGD120P Computer Cartidge</t>
+  </si>
+  <si>
+    <t>X18-45392</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Win Pro 8.1 64Bit Spanish Latam 1PK DSP OEI DVD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win 10 Home 64Bit Spanish Latam 1pk DSP OEM DVD </t>
   </si>
 </sst>
 </file>
@@ -6244,7 +7149,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6364,8 +7269,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6450,8 +7398,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6532,12 +7492,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6789,6 +7773,55 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7242,8 +8275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
   <dimension ref="A1:E345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7897,1755 +8930,3193 @@
         <v>850</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-    </row>
-    <row r="154" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-    </row>
-    <row r="155" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-    </row>
-    <row r="156" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-    </row>
-    <row r="173" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-    </row>
-    <row r="174" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-    </row>
-    <row r="176" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-    </row>
-    <row r="177" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-    </row>
-    <row r="179" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-    </row>
-    <row r="182" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-    </row>
-    <row r="183" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-    </row>
-    <row r="184" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-    </row>
-    <row r="185" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-    </row>
-    <row r="186" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-    </row>
-    <row r="187" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-    </row>
-    <row r="188" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-    </row>
-    <row r="189" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-    </row>
-    <row r="190" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-    </row>
-    <row r="191" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-    </row>
-    <row r="192" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-    </row>
-    <row r="193" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-    </row>
-    <row r="194" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-    </row>
-    <row r="195" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-    </row>
-    <row r="196" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-    </row>
-    <row r="197" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-    </row>
-    <row r="198" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-    </row>
-    <row r="199" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-    </row>
-    <row r="200" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-    </row>
-    <row r="201" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-    </row>
-    <row r="202" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-    </row>
-    <row r="203" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-    </row>
-    <row r="204" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-    </row>
-    <row r="205" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-    </row>
-    <row r="206" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-    </row>
-    <row r="207" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-    </row>
-    <row r="208" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-    </row>
-    <row r="209" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-    </row>
-    <row r="210" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-    </row>
-    <row r="211" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-    </row>
-    <row r="212" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-    </row>
-    <row r="213" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-    </row>
-    <row r="214" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-    </row>
-    <row r="215" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-    </row>
-    <row r="216" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-    </row>
-    <row r="217" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-    </row>
-    <row r="218" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-    </row>
-    <row r="219" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-    </row>
-    <row r="220" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-    </row>
-    <row r="221" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-    </row>
-    <row r="222" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-    </row>
-    <row r="223" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-    </row>
-    <row r="224" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-    </row>
-    <row r="225" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-    </row>
-    <row r="226" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-    </row>
-    <row r="227" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-    </row>
-    <row r="228" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-    </row>
-    <row r="229" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-    </row>
-    <row r="230" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-    </row>
-    <row r="231" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-    </row>
-    <row r="232" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-    </row>
-    <row r="233" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-    </row>
-    <row r="234" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-    </row>
-    <row r="235" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-    </row>
-    <row r="236" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-    </row>
-    <row r="237" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-    </row>
-    <row r="238" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-    </row>
-    <row r="239" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-    </row>
-    <row r="240" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-    </row>
-    <row r="241" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-    </row>
-    <row r="242" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-    </row>
-    <row r="243" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-    </row>
-    <row r="244" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-    </row>
-    <row r="245" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-    </row>
-    <row r="246" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-    </row>
-    <row r="247" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-    </row>
-    <row r="248" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-    </row>
-    <row r="249" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-    </row>
-    <row r="250" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-    </row>
-    <row r="251" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-    </row>
-    <row r="252" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-    </row>
-    <row r="253" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-    </row>
-    <row r="254" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-    </row>
-    <row r="255" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-    </row>
-    <row r="256" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-    </row>
-    <row r="257" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-    </row>
-    <row r="258" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-    </row>
-    <row r="259" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-    </row>
-    <row r="260" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-    </row>
-    <row r="261" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-    </row>
-    <row r="262" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-    </row>
-    <row r="263" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-    </row>
-    <row r="264" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-    </row>
-    <row r="265" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-    </row>
-    <row r="266" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-    </row>
-    <row r="267" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-    </row>
-    <row r="268" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-    </row>
-    <row r="269" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-    </row>
-    <row r="270" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-    </row>
-    <row r="271" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-    </row>
-    <row r="272" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-    </row>
-    <row r="273" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-    </row>
-    <row r="274" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
-    </row>
-    <row r="275" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-    </row>
-    <row r="276" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-    </row>
-    <row r="277" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-    </row>
-    <row r="278" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-    </row>
-    <row r="279" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
-    </row>
-    <row r="280" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
-    </row>
-    <row r="281" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-    </row>
-    <row r="282" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
-    </row>
-    <row r="283" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-    </row>
-    <row r="284" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-    </row>
-    <row r="285" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-    </row>
-    <row r="286" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-    </row>
-    <row r="287" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-    </row>
-    <row r="288" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="90" t="s">
+        <v>870</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>872</v>
+      </c>
+      <c r="C39" s="90" t="s">
+        <v>871</v>
+      </c>
+      <c r="D39" s="90">
+        <v>9</v>
+      </c>
+      <c r="E39" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="90" t="s">
+        <v>875</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>876</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>871</v>
+      </c>
+      <c r="D40" s="90">
+        <v>1</v>
+      </c>
+      <c r="E40" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="90" t="s">
+        <v>877</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>878</v>
+      </c>
+      <c r="C41" s="90" t="s">
+        <v>871</v>
+      </c>
+      <c r="D41" s="90">
+        <v>3</v>
+      </c>
+      <c r="E41" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="90" t="s">
+        <v>879</v>
+      </c>
+      <c r="B42" s="90" t="s">
+        <v>880</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>871</v>
+      </c>
+      <c r="D42" s="90">
+        <v>1</v>
+      </c>
+      <c r="E42" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="90" t="s">
+        <v>881</v>
+      </c>
+      <c r="B43" s="90" t="s">
+        <v>883</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>882</v>
+      </c>
+      <c r="D43" s="90">
+        <v>13</v>
+      </c>
+      <c r="E43" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="90" t="s">
+        <v>884</v>
+      </c>
+      <c r="B44" s="90" t="s">
+        <v>885</v>
+      </c>
+      <c r="C44" s="90" t="s">
+        <v>882</v>
+      </c>
+      <c r="D44" s="90">
+        <v>2</v>
+      </c>
+      <c r="E44" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="90">
+        <v>35123105</v>
+      </c>
+      <c r="B45" s="90" t="s">
+        <v>887</v>
+      </c>
+      <c r="C45" s="90" t="s">
+        <v>886</v>
+      </c>
+      <c r="D45" s="90">
+        <v>1</v>
+      </c>
+      <c r="E45" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="90">
+        <v>35123101</v>
+      </c>
+      <c r="B46" s="90" t="s">
+        <v>888</v>
+      </c>
+      <c r="C46" s="90" t="s">
+        <v>886</v>
+      </c>
+      <c r="D46" s="90">
+        <v>1</v>
+      </c>
+      <c r="E46" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="90" t="s">
+        <v>889</v>
+      </c>
+      <c r="B47" s="90" t="s">
+        <v>891</v>
+      </c>
+      <c r="C47" s="90" t="s">
+        <v>890</v>
+      </c>
+      <c r="D47" s="90">
+        <v>1</v>
+      </c>
+      <c r="E47" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="90" t="s">
+        <v>892</v>
+      </c>
+      <c r="B48" s="90" t="s">
+        <v>893</v>
+      </c>
+      <c r="C48" s="90" t="s">
+        <v>890</v>
+      </c>
+      <c r="D48" s="90">
+        <v>1</v>
+      </c>
+      <c r="E48" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="90" t="s">
+        <v>894</v>
+      </c>
+      <c r="B49" s="90" t="s">
+        <v>895</v>
+      </c>
+      <c r="C49" s="90" t="s">
+        <v>890</v>
+      </c>
+      <c r="D49" s="90">
+        <v>25</v>
+      </c>
+      <c r="E49" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="90" t="s">
+        <v>896</v>
+      </c>
+      <c r="B50" s="90" t="s">
+        <v>897</v>
+      </c>
+      <c r="C50" s="90" t="s">
+        <v>890</v>
+      </c>
+      <c r="D50" s="90">
+        <v>191</v>
+      </c>
+      <c r="E50" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="90" t="s">
+        <v>898</v>
+      </c>
+      <c r="B51" s="90" t="s">
+        <v>899</v>
+      </c>
+      <c r="C51" s="90" t="s">
+        <v>890</v>
+      </c>
+      <c r="D51" s="90">
+        <v>6</v>
+      </c>
+      <c r="E51" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="90">
+        <v>760237040</v>
+      </c>
+      <c r="B52" s="90" t="s">
+        <v>900</v>
+      </c>
+      <c r="C52" s="90" t="s">
+        <v>890</v>
+      </c>
+      <c r="D52" s="90">
+        <v>8</v>
+      </c>
+      <c r="E52" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="90" t="s">
+        <v>901</v>
+      </c>
+      <c r="B53" s="90" t="s">
+        <v>903</v>
+      </c>
+      <c r="C53" s="90" t="s">
+        <v>902</v>
+      </c>
+      <c r="D53" s="90">
+        <v>100</v>
+      </c>
+      <c r="E53" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="90">
+        <v>35030621</v>
+      </c>
+      <c r="B54" s="90" t="s">
+        <v>904</v>
+      </c>
+      <c r="C54" s="90" t="s">
+        <v>902</v>
+      </c>
+      <c r="D54" s="90">
+        <v>42</v>
+      </c>
+      <c r="E54" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="90">
+        <v>35050282</v>
+      </c>
+      <c r="B55" s="90" t="s">
+        <v>905</v>
+      </c>
+      <c r="C55" s="90" t="s">
+        <v>902</v>
+      </c>
+      <c r="D55" s="90">
+        <v>2</v>
+      </c>
+      <c r="E55" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="90" t="s">
+        <v>906</v>
+      </c>
+      <c r="B56" s="90" t="s">
+        <v>908</v>
+      </c>
+      <c r="C56" s="90" t="s">
+        <v>907</v>
+      </c>
+      <c r="D56" s="90">
+        <v>8</v>
+      </c>
+      <c r="E56" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="90" t="s">
+        <v>909</v>
+      </c>
+      <c r="B57" s="90" t="s">
+        <v>910</v>
+      </c>
+      <c r="C57" s="90" t="s">
+        <v>907</v>
+      </c>
+      <c r="D57" s="90">
+        <v>192</v>
+      </c>
+      <c r="E57" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="90" t="s">
+        <v>911</v>
+      </c>
+      <c r="B58" s="90" t="s">
+        <v>913</v>
+      </c>
+      <c r="C58" s="90" t="s">
+        <v>912</v>
+      </c>
+      <c r="D58" s="90">
+        <v>1</v>
+      </c>
+      <c r="E58" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="90" t="s">
+        <v>914</v>
+      </c>
+      <c r="B59" s="90" t="s">
+        <v>915</v>
+      </c>
+      <c r="C59" s="90" t="s">
+        <v>852</v>
+      </c>
+      <c r="D59" s="90">
+        <v>1</v>
+      </c>
+      <c r="E59" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="90" t="s">
+        <v>916</v>
+      </c>
+      <c r="B60" s="90" t="s">
+        <v>918</v>
+      </c>
+      <c r="C60" s="90" t="s">
+        <v>917</v>
+      </c>
+      <c r="D60" s="90">
+        <v>5</v>
+      </c>
+      <c r="E60" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="90" t="s">
+        <v>919</v>
+      </c>
+      <c r="B61" s="90" t="s">
+        <v>921</v>
+      </c>
+      <c r="C61" s="90" t="s">
+        <v>920</v>
+      </c>
+      <c r="D61" s="90">
+        <v>1</v>
+      </c>
+      <c r="E61" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="90" t="s">
+        <v>922</v>
+      </c>
+      <c r="B62" s="90" t="s">
+        <v>923</v>
+      </c>
+      <c r="C62" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D62" s="90">
+        <v>9</v>
+      </c>
+      <c r="E62" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="90" t="s">
+        <v>924</v>
+      </c>
+      <c r="B63" s="90" t="s">
+        <v>925</v>
+      </c>
+      <c r="C63" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D63" s="90">
+        <v>4</v>
+      </c>
+      <c r="E63" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="90" t="s">
+        <v>926</v>
+      </c>
+      <c r="B64" s="90" t="s">
+        <v>927</v>
+      </c>
+      <c r="C64" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D64" s="90">
+        <v>1</v>
+      </c>
+      <c r="E64" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="90" t="s">
+        <v>928</v>
+      </c>
+      <c r="B65" s="90" t="s">
+        <v>930</v>
+      </c>
+      <c r="C65" s="90" t="s">
+        <v>929</v>
+      </c>
+      <c r="D65" s="90">
+        <v>1</v>
+      </c>
+      <c r="E65" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="90" t="s">
+        <v>931</v>
+      </c>
+      <c r="B66" s="90" t="s">
+        <v>932</v>
+      </c>
+      <c r="C66" s="90" t="s">
+        <v>929</v>
+      </c>
+      <c r="D66" s="90">
+        <v>1</v>
+      </c>
+      <c r="E66" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="90" t="s">
+        <v>933</v>
+      </c>
+      <c r="B67" s="90" t="s">
+        <v>934</v>
+      </c>
+      <c r="C67" s="90" t="s">
+        <v>929</v>
+      </c>
+      <c r="D67" s="90">
+        <v>2</v>
+      </c>
+      <c r="E67" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="90" t="s">
+        <v>935</v>
+      </c>
+      <c r="B68" s="90" t="s">
+        <v>936</v>
+      </c>
+      <c r="C68" s="90" t="s">
+        <v>929</v>
+      </c>
+      <c r="D68" s="90">
+        <v>1</v>
+      </c>
+      <c r="E68" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="90" t="s">
+        <v>937</v>
+      </c>
+      <c r="B69" s="90" t="s">
+        <v>938</v>
+      </c>
+      <c r="C69" s="90" t="s">
+        <v>929</v>
+      </c>
+      <c r="D69" s="90">
+        <v>3</v>
+      </c>
+      <c r="E69" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="90" t="s">
+        <v>939</v>
+      </c>
+      <c r="B70" s="90" t="s">
+        <v>940</v>
+      </c>
+      <c r="C70" s="90" t="s">
+        <v>929</v>
+      </c>
+      <c r="D70" s="90">
+        <v>2</v>
+      </c>
+      <c r="E70" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="90" t="s">
+        <v>941</v>
+      </c>
+      <c r="B71" s="90" t="s">
+        <v>942</v>
+      </c>
+      <c r="C71" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D71" s="90">
+        <v>1</v>
+      </c>
+      <c r="E71" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="90" t="s">
+        <v>943</v>
+      </c>
+      <c r="B72" s="90" t="s">
+        <v>944</v>
+      </c>
+      <c r="C72" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D72" s="90">
+        <v>2</v>
+      </c>
+      <c r="E72" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="90" t="s">
+        <v>945</v>
+      </c>
+      <c r="B73" s="90" t="s">
+        <v>947</v>
+      </c>
+      <c r="C73" s="90" t="s">
+        <v>946</v>
+      </c>
+      <c r="D73" s="90">
+        <v>1</v>
+      </c>
+      <c r="E73" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="90" t="s">
+        <v>948</v>
+      </c>
+      <c r="B74" s="90" t="s">
+        <v>949</v>
+      </c>
+      <c r="C74" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D74" s="90">
+        <v>1</v>
+      </c>
+      <c r="E74" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="90" t="s">
+        <v>950</v>
+      </c>
+      <c r="B75" s="90" t="s">
+        <v>951</v>
+      </c>
+      <c r="C75" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D75" s="90">
+        <v>1</v>
+      </c>
+      <c r="E75" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="90" t="s">
+        <v>952</v>
+      </c>
+      <c r="B76" s="90" t="s">
+        <v>953</v>
+      </c>
+      <c r="C76" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D76" s="90">
+        <v>6</v>
+      </c>
+      <c r="E76" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="90" t="s">
+        <v>954</v>
+      </c>
+      <c r="B77" s="90" t="s">
+        <v>955</v>
+      </c>
+      <c r="C77" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D77" s="90">
+        <v>4</v>
+      </c>
+      <c r="E77" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="90" t="s">
+        <v>956</v>
+      </c>
+      <c r="B78" s="90" t="s">
+        <v>957</v>
+      </c>
+      <c r="C78" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D78" s="90">
+        <v>1</v>
+      </c>
+      <c r="E78" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="90" t="s">
+        <v>958</v>
+      </c>
+      <c r="B79" s="90" t="s">
+        <v>959</v>
+      </c>
+      <c r="C79" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D79" s="90">
+        <v>2</v>
+      </c>
+      <c r="E79" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="90" t="s">
+        <v>960</v>
+      </c>
+      <c r="B80" s="90" t="s">
+        <v>961</v>
+      </c>
+      <c r="C80" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D80" s="90">
+        <v>1</v>
+      </c>
+      <c r="E80" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="90" t="s">
+        <v>962</v>
+      </c>
+      <c r="B81" s="90" t="s">
+        <v>963</v>
+      </c>
+      <c r="C81" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D81" s="90">
+        <v>2</v>
+      </c>
+      <c r="E81" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="90" t="s">
+        <v>964</v>
+      </c>
+      <c r="B82" s="90" t="s">
+        <v>965</v>
+      </c>
+      <c r="C82" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D82" s="90">
+        <v>1</v>
+      </c>
+      <c r="E82" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="90" t="s">
+        <v>966</v>
+      </c>
+      <c r="B83" s="90" t="s">
+        <v>967</v>
+      </c>
+      <c r="C83" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D83" s="90">
+        <v>1</v>
+      </c>
+      <c r="E83" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="90" t="s">
+        <v>968</v>
+      </c>
+      <c r="B84" s="90" t="s">
+        <v>969</v>
+      </c>
+      <c r="C84" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D84" s="90">
+        <v>1</v>
+      </c>
+      <c r="E84" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A85" s="90" t="s">
+        <v>970</v>
+      </c>
+      <c r="B85" s="90" t="s">
+        <v>971</v>
+      </c>
+      <c r="C85" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D85" s="90">
+        <v>1</v>
+      </c>
+      <c r="E85" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="90" t="s">
+        <v>972</v>
+      </c>
+      <c r="B86" s="90" t="s">
+        <v>973</v>
+      </c>
+      <c r="C86" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D86" s="90">
+        <v>1</v>
+      </c>
+      <c r="E86" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="90" t="s">
+        <v>974</v>
+      </c>
+      <c r="B87" s="90" t="s">
+        <v>975</v>
+      </c>
+      <c r="C87" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D87" s="90">
+        <v>1</v>
+      </c>
+      <c r="E87" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="90" t="s">
+        <v>976</v>
+      </c>
+      <c r="B88" s="90" t="s">
+        <v>977</v>
+      </c>
+      <c r="C88" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D88" s="90">
+        <v>1</v>
+      </c>
+      <c r="E88" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="90" t="s">
+        <v>978</v>
+      </c>
+      <c r="B89" s="90" t="s">
+        <v>979</v>
+      </c>
+      <c r="C89" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D89" s="90">
+        <v>2</v>
+      </c>
+      <c r="E89" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="90" t="s">
+        <v>980</v>
+      </c>
+      <c r="B90" s="90" t="s">
+        <v>981</v>
+      </c>
+      <c r="C90" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D90" s="90">
+        <v>1</v>
+      </c>
+      <c r="E90" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="90" t="s">
+        <v>982</v>
+      </c>
+      <c r="B91" s="90" t="s">
+        <v>983</v>
+      </c>
+      <c r="C91" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D91" s="90">
+        <v>7</v>
+      </c>
+      <c r="E91" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="90" t="s">
+        <v>984</v>
+      </c>
+      <c r="B92" s="90" t="s">
+        <v>985</v>
+      </c>
+      <c r="C92" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D92" s="90">
+        <v>1</v>
+      </c>
+      <c r="E92" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="90" t="s">
+        <v>986</v>
+      </c>
+      <c r="B93" s="90" t="s">
+        <v>987</v>
+      </c>
+      <c r="C93" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D93" s="90">
+        <v>10</v>
+      </c>
+      <c r="E93" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="90" t="s">
+        <v>988</v>
+      </c>
+      <c r="B94" s="90" t="s">
+        <v>989</v>
+      </c>
+      <c r="C94" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D94" s="90">
+        <v>4</v>
+      </c>
+      <c r="E94" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="90" t="s">
+        <v>990</v>
+      </c>
+      <c r="B95" s="90" t="s">
+        <v>991</v>
+      </c>
+      <c r="C95" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D95" s="90">
+        <v>4</v>
+      </c>
+      <c r="E95" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="90" t="s">
+        <v>992</v>
+      </c>
+      <c r="B96" s="90" t="s">
+        <v>993</v>
+      </c>
+      <c r="C96" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D96" s="90">
+        <v>15</v>
+      </c>
+      <c r="E96" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="90" t="s">
+        <v>994</v>
+      </c>
+      <c r="B97" s="90" t="s">
+        <v>995</v>
+      </c>
+      <c r="C97" s="90" t="s">
+        <v>865</v>
+      </c>
+      <c r="D97" s="90">
+        <v>2</v>
+      </c>
+      <c r="E97" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="90" t="s">
+        <v>996</v>
+      </c>
+      <c r="B98" s="90" t="s">
+        <v>997</v>
+      </c>
+      <c r="C98" s="90" t="s">
+        <v>865</v>
+      </c>
+      <c r="D98" s="90">
+        <v>1</v>
+      </c>
+      <c r="E98" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="90" t="s">
+        <v>998</v>
+      </c>
+      <c r="B99" s="90" t="s">
+        <v>999</v>
+      </c>
+      <c r="C99" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D99" s="90">
+        <v>4</v>
+      </c>
+      <c r="E99" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="90" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B100" s="90"/>
+      <c r="C100" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D100" s="90">
+        <v>5</v>
+      </c>
+      <c r="E100" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="90" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B101" s="90" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C101" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D101" s="90">
+        <v>11</v>
+      </c>
+      <c r="E101" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="90" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B102" s="90" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C102" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D102" s="90">
+        <v>2</v>
+      </c>
+      <c r="E102" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="90" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B103" s="90" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C103" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D103" s="90">
+        <v>1</v>
+      </c>
+      <c r="E103" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="90" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B104" s="90" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C104" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D104" s="90">
+        <v>1</v>
+      </c>
+      <c r="E104" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="90" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B105" s="90" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C105" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D105" s="90">
+        <v>1</v>
+      </c>
+      <c r="E105" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="90" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B106" s="90" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C106" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D106" s="90">
+        <v>2</v>
+      </c>
+      <c r="E106" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A107" s="90" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B107" s="90" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C107" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D107" s="90">
+        <v>1</v>
+      </c>
+      <c r="E107" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="90" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B108" s="90" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C108" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D108" s="90">
+        <v>1</v>
+      </c>
+      <c r="E108" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="90" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B109" s="90" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C109" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D109" s="90">
+        <v>1</v>
+      </c>
+      <c r="E109" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="90" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B110" s="90" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C110" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D110" s="90">
+        <v>1</v>
+      </c>
+      <c r="E110" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="90" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B111" s="90" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C111" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D111" s="90">
+        <v>1</v>
+      </c>
+      <c r="E111" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A112" s="90" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B112" s="90" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C112" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D112" s="90">
+        <v>1</v>
+      </c>
+      <c r="E112" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="90" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B113" s="90" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C113" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D113" s="90">
+        <v>1</v>
+      </c>
+      <c r="E113" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="90" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B114" s="90" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C114" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D114" s="90">
+        <v>2</v>
+      </c>
+      <c r="E114" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="90" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B115" s="90" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C115" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D115" s="90">
+        <v>1</v>
+      </c>
+      <c r="E115" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="90" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B116" s="90" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C116" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D116" s="90">
+        <v>1</v>
+      </c>
+      <c r="E116" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="90" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B117" s="90" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C117" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D117" s="90">
+        <v>1</v>
+      </c>
+      <c r="E117" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="90" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B118" s="90" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C118" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D118" s="90">
+        <v>12</v>
+      </c>
+      <c r="E118" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="90" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B119" s="90" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C119" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D119" s="90">
+        <v>1</v>
+      </c>
+      <c r="E119" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="90" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B120" s="90" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C120" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D120" s="90">
+        <v>10</v>
+      </c>
+      <c r="E120" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="90" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B121" s="90" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C121" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D121" s="90">
+        <v>2</v>
+      </c>
+      <c r="E121" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="90" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B122" s="90" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C122" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D122" s="90">
+        <v>4</v>
+      </c>
+      <c r="E122" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="90" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B123" s="90" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C123" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D123" s="90">
+        <v>1</v>
+      </c>
+      <c r="E123" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A124" s="90" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B124" s="90" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C124" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D124" s="90">
+        <v>1</v>
+      </c>
+      <c r="E124" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A125" s="90" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B125" s="90" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C125" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D125" s="90">
+        <v>1</v>
+      </c>
+      <c r="E125" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="90" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B126" s="90" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C126" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D126" s="90">
+        <v>1</v>
+      </c>
+      <c r="E126" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A127" s="90" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B127" s="90" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C127" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D127" s="90">
+        <v>1</v>
+      </c>
+      <c r="E127" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="90" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B128" s="90" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C128" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D128" s="90">
+        <v>1</v>
+      </c>
+      <c r="E128" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="90" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B129" s="90" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C129" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D129" s="90">
+        <v>3</v>
+      </c>
+      <c r="E129" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="90" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B130" s="90" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C130" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D130" s="90">
+        <v>1</v>
+      </c>
+      <c r="E130" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="90" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B131" s="90" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C131" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D131" s="90">
+        <v>1</v>
+      </c>
+      <c r="E131" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="90" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B132" s="90" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C132" s="90" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D132" s="90">
+        <v>1</v>
+      </c>
+      <c r="E132" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="90" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B133" s="90" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C133" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D133" s="90">
+        <v>8</v>
+      </c>
+      <c r="E133" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="90" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B134" s="90" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C134" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D134" s="90">
+        <v>1</v>
+      </c>
+      <c r="E134" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="90" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B135" s="90" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C135" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D135" s="90">
+        <v>23</v>
+      </c>
+      <c r="E135" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="90" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B136" s="90" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C136" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D136" s="90">
+        <v>2</v>
+      </c>
+      <c r="E136" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="90" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B137" s="90" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C137" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D137" s="90">
+        <v>2</v>
+      </c>
+      <c r="E137" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="90" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B138" s="90" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C138" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D138" s="90">
+        <v>1</v>
+      </c>
+      <c r="E138" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="90" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B139" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C139" s="90" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D139" s="90">
+        <v>2</v>
+      </c>
+      <c r="E139" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A140" s="90" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B140" s="90" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C140" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D140" s="90">
+        <v>1</v>
+      </c>
+      <c r="E140" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="90" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B141" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C141" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D141" s="90">
+        <v>1</v>
+      </c>
+      <c r="E141" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="90" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B142" s="90" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C142" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D142" s="90">
+        <v>2</v>
+      </c>
+      <c r="E142" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="90" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B143" s="90" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C143" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D143" s="90">
+        <v>1</v>
+      </c>
+      <c r="E143" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="90" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B144" s="90" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C144" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D144" s="90">
+        <v>1</v>
+      </c>
+      <c r="E144" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="90" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B145" s="90" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C145" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D145" s="90">
+        <v>2</v>
+      </c>
+      <c r="E145" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="90" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B146" s="90" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C146" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D146" s="90">
+        <v>1</v>
+      </c>
+      <c r="E146" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="90" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B147" s="90" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C147" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D147" s="90">
+        <v>1</v>
+      </c>
+      <c r="E147" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="90" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B148" s="90" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C148" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D148" s="90">
+        <v>2</v>
+      </c>
+      <c r="E148" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="90" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B149" s="90" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C149" s="90" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D149" s="90">
+        <v>198</v>
+      </c>
+      <c r="E149" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="90" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B150" s="90" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C150" s="90" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D150" s="90">
+        <v>11</v>
+      </c>
+      <c r="E150" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="90" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B151" s="90" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C151" s="90" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D151" s="90">
+        <v>3</v>
+      </c>
+      <c r="E151" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="90" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B152" s="90" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C152" s="90" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D152" s="90">
+        <v>2</v>
+      </c>
+      <c r="E152" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B153" s="90" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C153" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D153" s="90">
+        <v>2</v>
+      </c>
+      <c r="E153" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="90" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B154" s="90" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C154" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D154" s="90">
+        <v>1</v>
+      </c>
+      <c r="E154" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="90" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B155" s="90" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C155" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D155" s="90">
+        <v>1</v>
+      </c>
+      <c r="E155" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="90" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B156" s="90" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C156" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D156" s="90">
+        <v>1</v>
+      </c>
+      <c r="E156" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="90" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B157" s="90" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C157" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D157" s="90">
+        <v>1</v>
+      </c>
+      <c r="E157" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="90" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B158" s="90" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C158" s="90" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D158" s="90">
+        <v>6</v>
+      </c>
+      <c r="E158" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="90" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B159" s="90" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C159" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D159" s="90">
+        <v>8</v>
+      </c>
+      <c r="E159" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="90" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B160" s="90" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C160" s="90" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D160" s="90">
+        <v>8</v>
+      </c>
+      <c r="E160" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="90" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B161" s="90" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C161" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D161" s="90">
+        <v>4</v>
+      </c>
+      <c r="E161" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="90" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B162" s="90" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C162" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D162" s="90">
+        <v>19</v>
+      </c>
+      <c r="E162" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="90" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B163" s="90" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C163" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D163" s="90">
+        <v>9</v>
+      </c>
+      <c r="E163" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="90" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B164" s="90" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C164" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D164" s="90">
+        <v>10</v>
+      </c>
+      <c r="E164" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="90" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B165" s="90" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C165" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D165" s="90">
+        <v>13</v>
+      </c>
+      <c r="E165" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="90" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B166" s="90" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C166" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D166" s="90">
+        <v>2</v>
+      </c>
+      <c r="E166" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="90" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B167" s="90" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C167" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D167" s="90">
+        <v>2</v>
+      </c>
+      <c r="E167" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="90" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B168" s="90" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C168" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D168" s="90">
+        <v>2</v>
+      </c>
+      <c r="E168" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="90" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B169" s="90" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C169" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D169" s="90">
+        <v>3</v>
+      </c>
+      <c r="E169" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="90" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B170" s="90" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C170" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D170" s="90">
+        <v>3</v>
+      </c>
+      <c r="E170" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="90" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B171" s="90" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C171" s="90" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D171" s="90">
+        <v>1</v>
+      </c>
+      <c r="E171" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A172" s="90" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B172" s="90" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C172" s="90" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D172" s="90">
+        <v>1</v>
+      </c>
+      <c r="E172" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="90" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B173" s="90" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C173" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D173" s="90">
+        <v>2</v>
+      </c>
+      <c r="E173" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A174" s="90">
+        <v>36200291</v>
+      </c>
+      <c r="B174" s="90" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C174" s="90" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D174" s="90">
+        <v>1</v>
+      </c>
+      <c r="E174" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="90" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B175" s="90" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C175" s="90" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D175" s="90">
+        <v>2</v>
+      </c>
+      <c r="E175" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A176" s="90" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B176" s="90" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C176" s="90" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D176" s="90">
+        <v>14</v>
+      </c>
+      <c r="E176" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A177" s="90" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B177" s="90" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C177" s="90" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D177" s="90">
+        <v>1</v>
+      </c>
+      <c r="E177" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="90" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B178" s="90" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C178" s="90" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D178" s="90">
+        <v>45</v>
+      </c>
+      <c r="E178" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="90" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B179" s="90" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C179" s="90" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D179" s="90">
+        <v>4</v>
+      </c>
+      <c r="E179" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="90" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B180" s="90" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C180" s="90" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D180" s="90">
+        <v>1</v>
+      </c>
+      <c r="E180" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="90" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B181" s="90" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C181" s="90" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D181" s="90">
+        <v>4</v>
+      </c>
+      <c r="E181" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="90" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B182" s="90" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C182" s="90" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D182" s="90">
+        <v>4</v>
+      </c>
+      <c r="E182" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="90"/>
+      <c r="B183" s="90"/>
+      <c r="C183" s="90"/>
+      <c r="D183" s="90"/>
+      <c r="E183" s="91"/>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="90"/>
+      <c r="B184" s="90"/>
+      <c r="C184" s="90"/>
+      <c r="D184" s="90"/>
+      <c r="E184" s="91"/>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="90"/>
+      <c r="B185" s="90"/>
+      <c r="C185" s="90"/>
+      <c r="D185" s="90"/>
+      <c r="E185" s="91"/>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="90"/>
+      <c r="B186" s="90"/>
+      <c r="C186" s="90"/>
+      <c r="D186" s="90"/>
+      <c r="E186" s="91"/>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="90"/>
+      <c r="B187" s="90"/>
+      <c r="C187" s="90"/>
+      <c r="D187" s="90"/>
+      <c r="E187" s="91"/>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="90"/>
+      <c r="B188" s="90"/>
+      <c r="C188" s="90"/>
+      <c r="D188" s="90"/>
+      <c r="E188" s="91"/>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="90"/>
+      <c r="B189" s="90"/>
+      <c r="C189" s="90"/>
+      <c r="D189" s="90"/>
+      <c r="E189" s="91"/>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="90"/>
+      <c r="B190" s="90"/>
+      <c r="C190" s="90"/>
+      <c r="D190" s="90"/>
+      <c r="E190" s="91"/>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="90"/>
+      <c r="B191" s="90"/>
+      <c r="C191" s="90"/>
+      <c r="D191" s="90"/>
+      <c r="E191" s="91"/>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="90"/>
+      <c r="B192" s="90"/>
+      <c r="C192" s="90"/>
+      <c r="D192" s="90"/>
+      <c r="E192" s="91"/>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="90"/>
+      <c r="B193" s="90"/>
+      <c r="C193" s="90"/>
+      <c r="D193" s="90"/>
+      <c r="E193" s="91"/>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="90"/>
+      <c r="B194" s="90"/>
+      <c r="C194" s="90"/>
+      <c r="D194" s="90"/>
+      <c r="E194" s="91"/>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="90"/>
+      <c r="B195" s="90"/>
+      <c r="C195" s="90"/>
+      <c r="D195" s="90"/>
+      <c r="E195" s="91"/>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="90"/>
+      <c r="B196" s="90"/>
+      <c r="C196" s="90"/>
+      <c r="D196" s="90"/>
+      <c r="E196" s="91"/>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="90"/>
+      <c r="B197" s="90"/>
+      <c r="C197" s="90"/>
+      <c r="D197" s="90"/>
+      <c r="E197" s="91"/>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="90"/>
+      <c r="B198" s="90"/>
+      <c r="C198" s="90"/>
+      <c r="D198" s="90"/>
+      <c r="E198" s="91"/>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="90"/>
+      <c r="B199" s="90"/>
+      <c r="C199" s="90"/>
+      <c r="D199" s="90"/>
+      <c r="E199" s="91"/>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="90"/>
+      <c r="B200" s="90"/>
+      <c r="C200" s="90"/>
+      <c r="D200" s="90"/>
+      <c r="E200" s="91"/>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="90"/>
+      <c r="B201" s="90"/>
+      <c r="C201" s="90"/>
+      <c r="D201" s="90"/>
+      <c r="E201" s="91"/>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="90"/>
+      <c r="B202" s="90"/>
+      <c r="C202" s="90"/>
+      <c r="D202" s="90"/>
+      <c r="E202" s="91"/>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="90"/>
+      <c r="B203" s="90"/>
+      <c r="C203" s="90"/>
+      <c r="D203" s="90"/>
+      <c r="E203" s="91"/>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="90"/>
+      <c r="B204" s="90"/>
+      <c r="C204" s="90"/>
+      <c r="D204" s="90"/>
+      <c r="E204" s="91"/>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="90"/>
+      <c r="B205" s="90"/>
+      <c r="C205" s="90"/>
+      <c r="D205" s="90"/>
+      <c r="E205" s="91"/>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="90"/>
+      <c r="B206" s="90"/>
+      <c r="C206" s="90"/>
+      <c r="D206" s="90"/>
+      <c r="E206" s="91"/>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="90"/>
+      <c r="B207" s="90"/>
+      <c r="C207" s="90"/>
+      <c r="D207" s="90"/>
+      <c r="E207" s="91"/>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="90"/>
+      <c r="B208" s="90"/>
+      <c r="C208" s="90"/>
+      <c r="D208" s="90"/>
+      <c r="E208" s="91"/>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="90"/>
+      <c r="B209" s="90"/>
+      <c r="C209" s="90"/>
+      <c r="D209" s="90"/>
+      <c r="E209" s="91"/>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="90"/>
+      <c r="B210" s="90"/>
+      <c r="C210" s="90"/>
+      <c r="D210" s="90"/>
+      <c r="E210" s="91"/>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="90"/>
+      <c r="B211" s="90"/>
+      <c r="C211" s="90"/>
+      <c r="D211" s="90"/>
+      <c r="E211" s="91"/>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="90"/>
+      <c r="B212" s="90"/>
+      <c r="C212" s="90"/>
+      <c r="D212" s="90"/>
+      <c r="E212" s="91"/>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="90"/>
+      <c r="B213" s="90"/>
+      <c r="C213" s="90"/>
+      <c r="D213" s="90"/>
+      <c r="E213" s="91"/>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="90"/>
+      <c r="B214" s="90"/>
+      <c r="C214" s="90"/>
+      <c r="D214" s="90"/>
+      <c r="E214" s="91"/>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="90"/>
+      <c r="B215" s="90"/>
+      <c r="C215" s="90"/>
+      <c r="D215" s="90"/>
+      <c r="E215" s="91"/>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="90"/>
+      <c r="B216" s="90"/>
+      <c r="C216" s="90"/>
+      <c r="D216" s="90"/>
+      <c r="E216" s="91"/>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="90"/>
+      <c r="B217" s="90"/>
+      <c r="C217" s="90"/>
+      <c r="D217" s="90"/>
+      <c r="E217" s="91"/>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="90"/>
+      <c r="B218" s="90"/>
+      <c r="C218" s="90"/>
+      <c r="D218" s="90"/>
+      <c r="E218" s="91"/>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="90"/>
+      <c r="B219" s="90"/>
+      <c r="C219" s="90"/>
+      <c r="D219" s="90"/>
+      <c r="E219" s="91"/>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="90"/>
+      <c r="B220" s="90"/>
+      <c r="C220" s="90"/>
+      <c r="D220" s="90"/>
+      <c r="E220" s="91"/>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="90"/>
+      <c r="B221" s="90"/>
+      <c r="C221" s="90"/>
+      <c r="D221" s="90"/>
+      <c r="E221" s="91"/>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="90"/>
+      <c r="B222" s="90"/>
+      <c r="C222" s="90"/>
+      <c r="D222" s="90"/>
+      <c r="E222" s="91"/>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="90"/>
+      <c r="B223" s="90"/>
+      <c r="C223" s="90"/>
+      <c r="D223" s="90"/>
+      <c r="E223" s="91"/>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="90"/>
+      <c r="B224" s="90"/>
+      <c r="C224" s="90"/>
+      <c r="D224" s="90"/>
+      <c r="E224" s="91"/>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="90"/>
+      <c r="B225" s="90"/>
+      <c r="C225" s="90"/>
+      <c r="D225" s="90"/>
+      <c r="E225" s="91"/>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="90"/>
+      <c r="B226" s="90"/>
+      <c r="C226" s="90"/>
+      <c r="D226" s="90"/>
+      <c r="E226" s="91"/>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="90"/>
+      <c r="B227" s="90"/>
+      <c r="C227" s="90"/>
+      <c r="D227" s="90"/>
+      <c r="E227" s="91"/>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="90"/>
+      <c r="B228" s="90"/>
+      <c r="C228" s="90"/>
+      <c r="D228" s="90"/>
+      <c r="E228" s="91"/>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="90"/>
+      <c r="B229" s="90"/>
+      <c r="C229" s="90"/>
+      <c r="D229" s="90"/>
+      <c r="E229" s="91"/>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="90"/>
+      <c r="B230" s="90"/>
+      <c r="C230" s="90"/>
+      <c r="D230" s="90"/>
+      <c r="E230" s="91"/>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="90"/>
+      <c r="B231" s="90"/>
+      <c r="C231" s="90"/>
+      <c r="D231" s="90"/>
+      <c r="E231" s="91"/>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="90"/>
+      <c r="B232" s="90"/>
+      <c r="C232" s="90"/>
+      <c r="D232" s="90"/>
+      <c r="E232" s="91"/>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="90"/>
+      <c r="B233" s="90"/>
+      <c r="C233" s="90"/>
+      <c r="D233" s="90"/>
+      <c r="E233" s="91"/>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="90"/>
+      <c r="B234" s="90"/>
+      <c r="C234" s="90"/>
+      <c r="D234" s="90"/>
+      <c r="E234" s="91"/>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="90"/>
+      <c r="B235" s="90"/>
+      <c r="C235" s="90"/>
+      <c r="D235" s="90"/>
+      <c r="E235" s="91"/>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="90"/>
+      <c r="B236" s="90"/>
+      <c r="C236" s="90"/>
+      <c r="D236" s="90"/>
+      <c r="E236" s="91"/>
+    </row>
+    <row r="237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="90"/>
+      <c r="B237" s="90"/>
+      <c r="C237" s="90"/>
+      <c r="D237" s="90"/>
+      <c r="E237" s="91"/>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="90"/>
+      <c r="B238" s="90"/>
+      <c r="C238" s="90"/>
+      <c r="D238" s="90"/>
+      <c r="E238" s="91"/>
+    </row>
+    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="90"/>
+      <c r="B239" s="90"/>
+      <c r="C239" s="90"/>
+      <c r="D239" s="90"/>
+      <c r="E239" s="91"/>
+    </row>
+    <row r="240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="90"/>
+      <c r="B240" s="90"/>
+      <c r="C240" s="90"/>
+      <c r="D240" s="90"/>
+      <c r="E240" s="91"/>
+    </row>
+    <row r="241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="90"/>
+      <c r="B241" s="90"/>
+      <c r="C241" s="90"/>
+      <c r="D241" s="90"/>
+      <c r="E241" s="91"/>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="90"/>
+      <c r="B242" s="90"/>
+      <c r="C242" s="90"/>
+      <c r="D242" s="90"/>
+      <c r="E242" s="91"/>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="90"/>
+      <c r="B243" s="90"/>
+      <c r="C243" s="90"/>
+      <c r="D243" s="90"/>
+      <c r="E243" s="91"/>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="90"/>
+      <c r="B244" s="90"/>
+      <c r="C244" s="90"/>
+      <c r="D244" s="90"/>
+      <c r="E244" s="91"/>
+    </row>
+    <row r="245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="90"/>
+      <c r="B245" s="90"/>
+      <c r="C245" s="90"/>
+      <c r="D245" s="90"/>
+      <c r="E245" s="91"/>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="90"/>
+      <c r="B246" s="90"/>
+      <c r="C246" s="90"/>
+      <c r="D246" s="90"/>
+      <c r="E246" s="91"/>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="90"/>
+      <c r="B247" s="90"/>
+      <c r="C247" s="90"/>
+      <c r="D247" s="90"/>
+      <c r="E247" s="91"/>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="90"/>
+      <c r="B248" s="90"/>
+      <c r="C248" s="90"/>
+      <c r="D248" s="90"/>
+      <c r="E248" s="91"/>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="90"/>
+      <c r="B249" s="90"/>
+      <c r="C249" s="90"/>
+      <c r="D249" s="90"/>
+      <c r="E249" s="91"/>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="90"/>
+      <c r="B250" s="90"/>
+      <c r="C250" s="90"/>
+      <c r="D250" s="90"/>
+      <c r="E250" s="91"/>
+    </row>
+    <row r="251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="90"/>
+      <c r="B251" s="90"/>
+      <c r="C251" s="90"/>
+      <c r="D251" s="90"/>
+      <c r="E251" s="91"/>
+    </row>
+    <row r="252" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="90"/>
+      <c r="B252" s="90"/>
+      <c r="C252" s="90"/>
+      <c r="D252" s="90"/>
+      <c r="E252" s="91"/>
+    </row>
+    <row r="253" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="90"/>
+      <c r="B253" s="90"/>
+      <c r="C253" s="90"/>
+      <c r="D253" s="90"/>
+      <c r="E253" s="91"/>
+    </row>
+    <row r="254" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="90"/>
+      <c r="B254" s="90"/>
+      <c r="C254" s="90"/>
+      <c r="D254" s="90"/>
+      <c r="E254" s="91"/>
+    </row>
+    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="90"/>
+      <c r="B255" s="90"/>
+      <c r="C255" s="90"/>
+      <c r="D255" s="90"/>
+      <c r="E255" s="91"/>
+    </row>
+    <row r="256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="90"/>
+      <c r="B256" s="90"/>
+      <c r="C256" s="90"/>
+      <c r="D256" s="90"/>
+      <c r="E256" s="91"/>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="90"/>
+      <c r="B257" s="90"/>
+      <c r="C257" s="90"/>
+      <c r="D257" s="90"/>
+      <c r="E257" s="91"/>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="90"/>
+      <c r="B258" s="90"/>
+      <c r="C258" s="90"/>
+      <c r="D258" s="90"/>
+      <c r="E258" s="91"/>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="90"/>
+      <c r="B259" s="90"/>
+      <c r="C259" s="90"/>
+      <c r="D259" s="90"/>
+      <c r="E259" s="91"/>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="90"/>
+      <c r="B260" s="90"/>
+      <c r="C260" s="90"/>
+      <c r="D260" s="90"/>
+      <c r="E260" s="91"/>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="90"/>
+      <c r="B261" s="90"/>
+      <c r="C261" s="90"/>
+      <c r="D261" s="90"/>
+      <c r="E261" s="91"/>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="90"/>
+      <c r="B262" s="90"/>
+      <c r="C262" s="90"/>
+      <c r="D262" s="90"/>
+      <c r="E262" s="91"/>
+    </row>
+    <row r="263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="90"/>
+      <c r="B263" s="90"/>
+      <c r="C263" s="90"/>
+      <c r="D263" s="90"/>
+      <c r="E263" s="91"/>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="90"/>
+      <c r="B264" s="90"/>
+      <c r="C264" s="90"/>
+      <c r="D264" s="90"/>
+      <c r="E264" s="91"/>
+    </row>
+    <row r="265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="90"/>
+      <c r="B265" s="90"/>
+      <c r="C265" s="90"/>
+      <c r="D265" s="90"/>
+      <c r="E265" s="91"/>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="90"/>
+      <c r="B266" s="90"/>
+      <c r="C266" s="90"/>
+      <c r="D266" s="90"/>
+      <c r="E266" s="91"/>
+    </row>
+    <row r="267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="90"/>
+      <c r="B267" s="90"/>
+      <c r="C267" s="90"/>
+      <c r="D267" s="90"/>
+      <c r="E267" s="91"/>
+    </row>
+    <row r="268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="90"/>
+      <c r="B268" s="90"/>
+      <c r="C268" s="90"/>
+      <c r="D268" s="90"/>
+      <c r="E268" s="91"/>
+    </row>
+    <row r="269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="90"/>
+      <c r="B269" s="90"/>
+      <c r="C269" s="90"/>
+      <c r="D269" s="90"/>
+      <c r="E269" s="91"/>
+    </row>
+    <row r="270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="90"/>
+      <c r="B270" s="90"/>
+      <c r="C270" s="90"/>
+      <c r="D270" s="90"/>
+      <c r="E270" s="91"/>
+    </row>
+    <row r="271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="90"/>
+      <c r="B271" s="90"/>
+      <c r="C271" s="90"/>
+      <c r="D271" s="90"/>
+      <c r="E271" s="91"/>
+    </row>
+    <row r="272" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="90"/>
+      <c r="B272" s="90"/>
+      <c r="C272" s="90"/>
+      <c r="D272" s="90"/>
+      <c r="E272" s="91"/>
+    </row>
+    <row r="273" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="90"/>
+      <c r="B273" s="90"/>
+      <c r="C273" s="90"/>
+      <c r="D273" s="90"/>
+      <c r="E273" s="91"/>
+    </row>
+    <row r="274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="90"/>
+      <c r="B274" s="90"/>
+      <c r="C274" s="90"/>
+      <c r="D274" s="90"/>
+      <c r="E274" s="91"/>
+    </row>
+    <row r="275" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="90"/>
+      <c r="B275" s="90"/>
+      <c r="C275" s="90"/>
+      <c r="D275" s="90"/>
+      <c r="E275" s="91"/>
+    </row>
+    <row r="276" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="90"/>
+      <c r="B276" s="90"/>
+      <c r="C276" s="90"/>
+      <c r="D276" s="90"/>
+      <c r="E276" s="91"/>
+    </row>
+    <row r="277" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="90"/>
+      <c r="B277" s="90"/>
+      <c r="C277" s="90"/>
+      <c r="D277" s="90"/>
+      <c r="E277" s="91"/>
+    </row>
+    <row r="278" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="90"/>
+      <c r="B278" s="90"/>
+      <c r="C278" s="90"/>
+      <c r="D278" s="90"/>
+      <c r="E278" s="91"/>
+    </row>
+    <row r="279" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="90"/>
+      <c r="B279" s="90"/>
+      <c r="C279" s="90"/>
+      <c r="D279" s="90"/>
+      <c r="E279" s="91"/>
+    </row>
+    <row r="280" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="90"/>
+      <c r="B280" s="90"/>
+      <c r="C280" s="90"/>
+      <c r="D280" s="90"/>
+      <c r="E280" s="91"/>
+    </row>
+    <row r="281" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="90"/>
+      <c r="B281" s="90"/>
+      <c r="C281" s="90"/>
+      <c r="D281" s="90"/>
+      <c r="E281" s="91"/>
+    </row>
+    <row r="282" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="90"/>
+      <c r="B282" s="90"/>
+      <c r="C282" s="90"/>
+      <c r="D282" s="90"/>
+      <c r="E282" s="91"/>
+    </row>
+    <row r="283" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="90"/>
+      <c r="B283" s="90"/>
+      <c r="C283" s="90"/>
+      <c r="D283" s="90"/>
+      <c r="E283" s="91"/>
+    </row>
+    <row r="284" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="90"/>
+      <c r="B284" s="90"/>
+      <c r="C284" s="90"/>
+      <c r="D284" s="90"/>
+      <c r="E284" s="91"/>
+    </row>
+    <row r="285" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="90"/>
+      <c r="B285" s="90"/>
+      <c r="C285" s="90"/>
+      <c r="D285" s="90"/>
+      <c r="E285" s="91"/>
+    </row>
+    <row r="286" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="90"/>
+      <c r="B286" s="90"/>
+      <c r="C286" s="90"/>
+      <c r="D286" s="90"/>
+      <c r="E286" s="91"/>
+    </row>
+    <row r="287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="90"/>
+      <c r="B287" s="90"/>
+      <c r="C287" s="90"/>
+      <c r="D287" s="90"/>
+      <c r="E287" s="91"/>
+    </row>
+    <row r="288" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="90"/>
+      <c r="B288" s="90"/>
+      <c r="C288" s="90"/>
+      <c r="D288" s="90"/>
+      <c r="E288" s="91"/>
     </row>
     <row r="289" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
@@ -10055,11 +12526,155 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{EC25493B-62C4-4803-B2C1-73EFA79355A6}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{4EBF3B23-A04D-420B-A344-3678F2F62D4C}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{BFFE00CF-8E00-4B63-BCE1-D22836F7BE26}"/>
+    <hyperlink ref="E39" r:id="rId8" xr:uid="{43B8369B-E0A0-42C5-A21D-AA08B15F89EF}"/>
+    <hyperlink ref="E40" r:id="rId9" xr:uid="{F0198EFE-DE26-49C0-97B7-7E4B88B8612F}"/>
+    <hyperlink ref="E41" r:id="rId10" xr:uid="{1791DEB3-0935-4BCC-8550-168674FDF1FB}"/>
+    <hyperlink ref="E42" r:id="rId11" xr:uid="{62057205-5F68-4C69-8EDA-1FD164FE3387}"/>
+    <hyperlink ref="E43" r:id="rId12" xr:uid="{2F7497F3-7258-43FD-90AA-2FB167286153}"/>
+    <hyperlink ref="E44" r:id="rId13" xr:uid="{CB897016-302A-437B-B680-5431F58E196D}"/>
+    <hyperlink ref="E45" r:id="rId14" xr:uid="{19334966-4D2E-4F7F-A9B7-4F15CFF2EF3F}"/>
+    <hyperlink ref="E46" r:id="rId15" xr:uid="{80F31428-C73B-4707-8846-2DF1127341E7}"/>
+    <hyperlink ref="E47" r:id="rId16" xr:uid="{CA50D4D1-D311-440C-83A4-0DBE19CDEC8B}"/>
+    <hyperlink ref="E48" r:id="rId17" xr:uid="{F4CD0860-DA1F-4919-9201-20B789AF6A41}"/>
+    <hyperlink ref="E49" r:id="rId18" xr:uid="{88FC515F-2EBD-4DCA-8CA5-C3667D3FAEAB}"/>
+    <hyperlink ref="E50" r:id="rId19" xr:uid="{B88DD982-D7B4-40A4-A42D-8B2AA3D50059}"/>
+    <hyperlink ref="E51" r:id="rId20" xr:uid="{52AAB0B8-728A-4887-971D-1873A14AD164}"/>
+    <hyperlink ref="E52" r:id="rId21" xr:uid="{0B350BD9-11DF-4DCB-927B-CD99AAAE5615}"/>
+    <hyperlink ref="E53" r:id="rId22" xr:uid="{2D290FD3-0C7C-494D-A998-A464AD739236}"/>
+    <hyperlink ref="E54" r:id="rId23" xr:uid="{3CAA19B1-836E-4859-BDF2-0AB7417CDBF1}"/>
+    <hyperlink ref="E55" r:id="rId24" xr:uid="{379B34EC-7771-4F55-A366-636115614627}"/>
+    <hyperlink ref="E56" r:id="rId25" xr:uid="{6C61ED76-0063-4929-B432-FE196612D1AC}"/>
+    <hyperlink ref="E57" r:id="rId26" xr:uid="{710CC989-24DC-443C-BDFE-FEE8A446F256}"/>
+    <hyperlink ref="E58" r:id="rId27" xr:uid="{1F302017-25C3-483C-BF90-EF76C4374BAA}"/>
+    <hyperlink ref="E59" r:id="rId28" xr:uid="{5471C39B-596B-43DD-AB52-F449DE0457C9}"/>
+    <hyperlink ref="E60" r:id="rId29" xr:uid="{7F476F9A-12AB-49A6-B501-A5CAAE3EB7A6}"/>
+    <hyperlink ref="E61" r:id="rId30" xr:uid="{D558F72F-D24A-4257-A283-8B7D5F753511}"/>
+    <hyperlink ref="E62" r:id="rId31" xr:uid="{BAA32676-45DD-44C3-95BB-E04125F1457C}"/>
+    <hyperlink ref="E63" r:id="rId32" xr:uid="{9707FDA8-5C21-4BDE-B6DC-AB8779EEBD88}"/>
+    <hyperlink ref="E64" r:id="rId33" xr:uid="{E56AC2FA-F52B-4F76-B2D2-3B88CA22859B}"/>
+    <hyperlink ref="E65" r:id="rId34" xr:uid="{8EF44573-4723-4715-997A-B748498D99FE}"/>
+    <hyperlink ref="E66" r:id="rId35" xr:uid="{86169863-FCDB-4F3A-B1EF-2CE597126A1B}"/>
+    <hyperlink ref="E67" r:id="rId36" xr:uid="{E9653EF3-CDBC-48C6-B78A-D34D72D1E335}"/>
+    <hyperlink ref="E68" r:id="rId37" xr:uid="{4EDD1993-FE46-427A-A511-539369423029}"/>
+    <hyperlink ref="E69" r:id="rId38" xr:uid="{99F22C26-AAB9-4F21-BBC8-F93E92FD9F95}"/>
+    <hyperlink ref="E70" r:id="rId39" xr:uid="{378FB1E2-BD76-4C60-8065-B70353723F72}"/>
+    <hyperlink ref="E71" r:id="rId40" xr:uid="{B92B55E1-14AF-48FA-B784-275710590038}"/>
+    <hyperlink ref="E72" r:id="rId41" xr:uid="{C2F6AFF1-8A3A-440A-BEC6-1B79C2B04A05}"/>
+    <hyperlink ref="E73" r:id="rId42" xr:uid="{8F7BB7F6-0004-4F07-89F7-C404F69E4474}"/>
+    <hyperlink ref="E74" r:id="rId43" xr:uid="{E01762EE-60F9-44A6-A8B7-83AB640F0073}"/>
+    <hyperlink ref="E75" r:id="rId44" xr:uid="{91D2D448-E99E-4EF9-B3DE-72CA2A6D6EF4}"/>
+    <hyperlink ref="E76" r:id="rId45" xr:uid="{82344718-9A69-46BC-8F7E-BF0B9E69D589}"/>
+    <hyperlink ref="E77" r:id="rId46" xr:uid="{F8744E70-B3EF-476A-ADD6-FE8293C8AD27}"/>
+    <hyperlink ref="E78" r:id="rId47" xr:uid="{30BA5F27-885A-4392-88EA-73F60FEDD007}"/>
+    <hyperlink ref="E79" r:id="rId48" xr:uid="{B31EE9C3-8442-4908-8039-45A57A5A4BAF}"/>
+    <hyperlink ref="E80" r:id="rId49" xr:uid="{12545E4F-9826-43F9-9FAC-24EB1C591FF5}"/>
+    <hyperlink ref="E81" r:id="rId50" xr:uid="{0BCBFF2E-88A8-4594-8078-83511911EE6A}"/>
+    <hyperlink ref="E82" r:id="rId51" xr:uid="{357F590C-DD0E-4949-86A6-14BF1E450794}"/>
+    <hyperlink ref="E83" r:id="rId52" xr:uid="{05D56E2B-A807-40E1-B178-9F1AFCE7C84D}"/>
+    <hyperlink ref="E84" r:id="rId53" xr:uid="{2D2DF832-DD5A-4307-BA71-60674D667AF8}"/>
+    <hyperlink ref="E85" r:id="rId54" xr:uid="{BD1F75C3-26B9-4E7D-BBD5-490A2AC8433A}"/>
+    <hyperlink ref="E86" r:id="rId55" xr:uid="{2861E717-C92A-43F2-BE11-8833DB9AB62F}"/>
+    <hyperlink ref="E87" r:id="rId56" xr:uid="{6CCB7954-B064-4A7A-AE6B-CA6DAB9D80C6}"/>
+    <hyperlink ref="E88" r:id="rId57" xr:uid="{CD9CDD54-4B4E-4BF5-80C4-24590DF24968}"/>
+    <hyperlink ref="E89" r:id="rId58" xr:uid="{C011357E-4544-4194-B913-CA4BC2C9487F}"/>
+    <hyperlink ref="E90" r:id="rId59" xr:uid="{981CDFC1-FD0E-41CC-B548-3E50780C87E3}"/>
+    <hyperlink ref="E91" r:id="rId60" xr:uid="{E639A320-8A7A-4A05-B46F-3CB2B0403B6B}"/>
+    <hyperlink ref="E92" r:id="rId61" xr:uid="{0EB7BEAC-3F74-4312-9536-CF3E57BCE3F4}"/>
+    <hyperlink ref="E93" r:id="rId62" xr:uid="{54E1FBAC-7D5C-422F-9610-2E202CFF3394}"/>
+    <hyperlink ref="E94" r:id="rId63" xr:uid="{B78EF396-0BBD-4BBA-B8D1-F3B9B807D8AE}"/>
+    <hyperlink ref="E95" r:id="rId64" xr:uid="{58FDCF06-932D-4A58-B222-AD92A5DF8B06}"/>
+    <hyperlink ref="E96" r:id="rId65" xr:uid="{CF3CA6DB-19A6-4BA5-813B-B84760B84802}"/>
+    <hyperlink ref="E97" r:id="rId66" xr:uid="{F375154E-D023-4A60-B009-A93681721538}"/>
+    <hyperlink ref="E98" r:id="rId67" xr:uid="{E2BC7969-9FCC-4B11-9BC1-C84C53684F58}"/>
+    <hyperlink ref="E99" r:id="rId68" xr:uid="{02919D35-26EE-485A-B971-A244C6D86B72}"/>
+    <hyperlink ref="E100" r:id="rId69" xr:uid="{8625937D-41BF-4851-BAEA-B66E0EF20B5D}"/>
+    <hyperlink ref="E101" r:id="rId70" xr:uid="{F985B7D5-A109-4C13-9756-D4F4A57D6F79}"/>
+    <hyperlink ref="E102" r:id="rId71" xr:uid="{39DCF522-5932-4E67-B802-269DFD1D1934}"/>
+    <hyperlink ref="E103" r:id="rId72" xr:uid="{72BA40C5-8C4A-4CAB-A9BB-F74EA22BB9BA}"/>
+    <hyperlink ref="E104" r:id="rId73" xr:uid="{B6225835-5D1E-43C4-B50B-23A98DBF1657}"/>
+    <hyperlink ref="E105" r:id="rId74" xr:uid="{6EA5F864-CCCB-490D-BE90-66581183F009}"/>
+    <hyperlink ref="E106" r:id="rId75" xr:uid="{DD9EFE03-C1E6-4C04-BBDA-1474D50836FC}"/>
+    <hyperlink ref="E107" r:id="rId76" xr:uid="{62577223-3F75-4052-851F-7282FAADC687}"/>
+    <hyperlink ref="E108" r:id="rId77" xr:uid="{1A4E38A1-1F49-42D7-B4B9-FBB905D3E6FE}"/>
+    <hyperlink ref="E109" r:id="rId78" xr:uid="{5FA58DD3-8C3E-4D7E-B5B1-C5C3E1B14355}"/>
+    <hyperlink ref="E110" r:id="rId79" xr:uid="{F9F7A2F8-D506-4576-9797-B07AF013FF46}"/>
+    <hyperlink ref="E111" r:id="rId80" xr:uid="{B9C54BA8-238F-42EC-B8B5-EF2754B264CF}"/>
+    <hyperlink ref="E112" r:id="rId81" xr:uid="{7BEC9796-14CE-455D-86DF-BE4BA169168D}"/>
+    <hyperlink ref="E113" r:id="rId82" xr:uid="{79E2402A-85BE-4C79-B4C9-BAE61AF34BEB}"/>
+    <hyperlink ref="E114" r:id="rId83" xr:uid="{AEAED2B8-E745-4BB2-B38A-F543D2E46F24}"/>
+    <hyperlink ref="E115" r:id="rId84" xr:uid="{8DB7D954-2F55-44B3-B84B-9262441C9873}"/>
+    <hyperlink ref="E116" r:id="rId85" xr:uid="{07573454-E353-48E5-B202-BB9C62C548D2}"/>
+    <hyperlink ref="E117" r:id="rId86" xr:uid="{F850B40B-ADC6-405F-90CF-DF61D51D20F5}"/>
+    <hyperlink ref="E118" r:id="rId87" xr:uid="{5D8538B0-69F1-40EC-AB80-B4B7BA922089}"/>
+    <hyperlink ref="E119" r:id="rId88" xr:uid="{23172353-4C45-42F5-9EC4-085067BEBC3C}"/>
+    <hyperlink ref="E120" r:id="rId89" xr:uid="{29293D3C-4E90-4C3D-8705-32480A29C922}"/>
+    <hyperlink ref="E121" r:id="rId90" xr:uid="{45709E2D-96DC-477F-ADA6-762F6E23665D}"/>
+    <hyperlink ref="E122" r:id="rId91" xr:uid="{E7C62F23-DDD1-4B37-87F1-11123B81250A}"/>
+    <hyperlink ref="E123" r:id="rId92" xr:uid="{1BE53296-9876-41D3-8298-5FD955C51E8C}"/>
+    <hyperlink ref="E124" r:id="rId93" xr:uid="{721ED2CE-DB6B-4008-AD6D-1FE10066FC44}"/>
+    <hyperlink ref="E125" r:id="rId94" xr:uid="{9BDA5917-4BA5-4B8E-B944-254C799713F9}"/>
+    <hyperlink ref="E126" r:id="rId95" xr:uid="{BD86E955-F684-4A8F-A336-0649D06615CB}"/>
+    <hyperlink ref="E127" r:id="rId96" xr:uid="{F8A7D775-529A-420B-BC67-DFBAE774CE33}"/>
+    <hyperlink ref="E128" r:id="rId97" xr:uid="{9627EDED-6399-4846-A51B-577D086F702F}"/>
+    <hyperlink ref="E129" r:id="rId98" xr:uid="{BEBEC460-9ED6-4312-AABE-735B45ED1D4D}"/>
+    <hyperlink ref="E130" r:id="rId99" xr:uid="{869D730F-B7A2-46DD-BAEB-3BBCB267BDF1}"/>
+    <hyperlink ref="E131" r:id="rId100" xr:uid="{F95EC82A-DC88-423D-A0D9-1B769BE52457}"/>
+    <hyperlink ref="E132" r:id="rId101" xr:uid="{BC32C844-8307-496B-8742-61D7082C1D63}"/>
+    <hyperlink ref="E133" r:id="rId102" xr:uid="{C3232849-2850-4B8B-83EE-B85804DEAF75}"/>
+    <hyperlink ref="E134" r:id="rId103" xr:uid="{A86D00B5-D88A-4993-8AAC-16289D7571A5}"/>
+    <hyperlink ref="E135" r:id="rId104" xr:uid="{7F668CC4-AFFF-45A9-B8BD-5B4660B54271}"/>
+    <hyperlink ref="E136" r:id="rId105" xr:uid="{442D1248-3E2D-46BD-8E13-C9A418E858FA}"/>
+    <hyperlink ref="E137" r:id="rId106" xr:uid="{129989D1-8FB6-4E80-8E48-DF939AA2596C}"/>
+    <hyperlink ref="E138" r:id="rId107" xr:uid="{7D8FC941-9F29-4B28-988C-30BDA56EF020}"/>
+    <hyperlink ref="E139" r:id="rId108" xr:uid="{8C020B48-EA75-4DB4-A7EF-90AEF580B4D0}"/>
+    <hyperlink ref="E140" r:id="rId109" xr:uid="{7AD7FDDD-8180-4469-BC54-A3C44B13C20B}"/>
+    <hyperlink ref="E141" r:id="rId110" xr:uid="{26A41FB8-FDD4-4D19-BF43-DE74553BB14B}"/>
+    <hyperlink ref="E142" r:id="rId111" xr:uid="{71D379AD-15A8-458E-B9E9-ED7ED0F503BE}"/>
+    <hyperlink ref="E143" r:id="rId112" xr:uid="{91196E1F-C1D4-4709-9318-16FC8F9D2440}"/>
+    <hyperlink ref="E144" r:id="rId113" xr:uid="{43526F3F-9704-48F1-9206-576E13AF85AC}"/>
+    <hyperlink ref="E145" r:id="rId114" xr:uid="{48602F83-AF65-427B-BE00-B0FFEC7046EC}"/>
+    <hyperlink ref="E146" r:id="rId115" xr:uid="{3C024A21-1703-4E55-8F85-4956AEDEA1B7}"/>
+    <hyperlink ref="E147" r:id="rId116" xr:uid="{174C349E-388D-4FA1-AAB6-9F6BBDE40556}"/>
+    <hyperlink ref="E148" r:id="rId117" xr:uid="{1EEB2523-EB91-4E79-B78E-E6D48C3B391C}"/>
+    <hyperlink ref="E149" r:id="rId118" xr:uid="{67FB7303-AEF8-408B-8371-BF4C4BB55EF8}"/>
+    <hyperlink ref="E150" r:id="rId119" xr:uid="{9433F44D-6FC5-4357-817E-D98319AF722A}"/>
+    <hyperlink ref="E151" r:id="rId120" xr:uid="{821FF3FC-FA9A-4964-92D3-21A442642F11}"/>
+    <hyperlink ref="E152" r:id="rId121" xr:uid="{51DC386A-7437-4AA3-A10C-E8E52337DFAE}"/>
+    <hyperlink ref="E153" r:id="rId122" xr:uid="{2F6EBEE9-7AC8-4F8F-AB79-A4E9170B8A1A}"/>
+    <hyperlink ref="E154" r:id="rId123" xr:uid="{B242B9BB-15EF-4733-8724-99ABEE796664}"/>
+    <hyperlink ref="E155" r:id="rId124" xr:uid="{345F2F0B-744F-49F9-8F1A-65B6EF6EF4FD}"/>
+    <hyperlink ref="E156" r:id="rId125" xr:uid="{A9526A5D-8F97-4CB0-A8E9-D49883AC587A}"/>
+    <hyperlink ref="E157" r:id="rId126" xr:uid="{594EEAC2-4D1F-4146-B4F5-9FABC7586084}"/>
+    <hyperlink ref="E158" r:id="rId127" xr:uid="{5129DEF3-7030-497C-8C5E-7B5D515B12F7}"/>
+    <hyperlink ref="E159" r:id="rId128" xr:uid="{8BB8A70E-D229-4B45-9309-9E6819982681}"/>
+    <hyperlink ref="E160" r:id="rId129" xr:uid="{26E2FB10-3625-483D-A4F3-4154F7153F8F}"/>
+    <hyperlink ref="E161" r:id="rId130" xr:uid="{73152CF1-B910-4D99-B87D-CC44EAFB1F44}"/>
+    <hyperlink ref="E162" r:id="rId131" xr:uid="{971E3545-24F7-42B4-95E6-63BEC8154089}"/>
+    <hyperlink ref="E163" r:id="rId132" xr:uid="{3FBF4801-16AF-400C-9B3D-FF4FE32B1525}"/>
+    <hyperlink ref="E164" r:id="rId133" xr:uid="{19229E93-1B05-4C83-AF77-34E53287821D}"/>
+    <hyperlink ref="E165" r:id="rId134" xr:uid="{70E016B6-F209-4593-BFEF-60264B64AE71}"/>
+    <hyperlink ref="E166" r:id="rId135" xr:uid="{56DECB5C-66D1-45FF-AAEA-501C9249D477}"/>
+    <hyperlink ref="E167" r:id="rId136" xr:uid="{907E2F98-0809-4751-99BD-6EF09279326E}"/>
+    <hyperlink ref="E168" r:id="rId137" xr:uid="{BD4B67E8-96F3-495C-B0FC-4439FCFC9563}"/>
+    <hyperlink ref="E169" r:id="rId138" xr:uid="{E1D1C54D-F158-4E9D-9F43-FF4DBC263B88}"/>
+    <hyperlink ref="E170" r:id="rId139" xr:uid="{01808F89-CA57-448A-A09E-0D9B212A3DCF}"/>
+    <hyperlink ref="E171" r:id="rId140" xr:uid="{1B0C5D43-2F24-4CC7-8C60-A7BD0426F33A}"/>
+    <hyperlink ref="E172" r:id="rId141" xr:uid="{95C4A5E7-6329-4A35-ADC2-B5857D3B0CAA}"/>
+    <hyperlink ref="E173" r:id="rId142" xr:uid="{DB2BED94-6F46-460C-A636-AF86CD29AEDC}"/>
+    <hyperlink ref="E174" r:id="rId143" xr:uid="{BB63290C-56CC-479A-A73E-1176EA94D0D1}"/>
+    <hyperlink ref="E175" r:id="rId144" xr:uid="{47500863-309A-4002-8CF9-1231D8095C66}"/>
+    <hyperlink ref="E176" r:id="rId145" xr:uid="{400178C8-5445-46DF-859B-9142ED20C280}"/>
+    <hyperlink ref="E177" r:id="rId146" xr:uid="{5D42B728-7A43-41B1-8200-99F6B82FC51A}"/>
+    <hyperlink ref="E178" r:id="rId147" xr:uid="{3891693D-CB68-4F0B-9F97-C3F1646AB60A}"/>
+    <hyperlink ref="E179" r:id="rId148" xr:uid="{F618642B-10C0-44EE-94F4-62B2D27415A0}"/>
+    <hyperlink ref="E180" r:id="rId149" xr:uid="{F89E4A4A-6E14-457A-87E8-7BF0944B7C63}"/>
+    <hyperlink ref="E181" r:id="rId150" xr:uid="{94882609-5374-4EBE-99AA-05E1D5CF2C3E}"/>
+    <hyperlink ref="E182" r:id="rId151" xr:uid="{B8333A9E-0F3F-41FA-A29B-C67C5BBEFBCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId152"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId153"/>
   </tableParts>
 </worksheet>
 </file>
@@ -16108,4 +18723,3043 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5525112C-F786-47A2-9E31-EB673F8613F8}">
+  <dimension ref="A1:F144"/>
+  <sheetViews>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>872</v>
+      </c>
+      <c r="D1" s="96">
+        <v>9</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>875</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>876</v>
+      </c>
+      <c r="D2" s="96">
+        <v>1</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
+        <v>877</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>871</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>878</v>
+      </c>
+      <c r="D3" s="96">
+        <v>3</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
+        <v>879</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>871</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>880</v>
+      </c>
+      <c r="D4" s="96">
+        <v>1</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="94" t="s">
+        <v>881</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>882</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>883</v>
+      </c>
+      <c r="D5" s="96">
+        <v>13</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
+        <v>884</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>882</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>885</v>
+      </c>
+      <c r="D6" s="96">
+        <v>2</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="94">
+        <v>35123105</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>886</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>887</v>
+      </c>
+      <c r="D7" s="96">
+        <v>1</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F7" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="94">
+        <v>35123101</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>886</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>888</v>
+      </c>
+      <c r="D8" s="96">
+        <v>1</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
+        <v>889</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>890</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>891</v>
+      </c>
+      <c r="D9" s="96">
+        <v>1</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>892</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>890</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>893</v>
+      </c>
+      <c r="D10" s="96">
+        <v>1</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>894</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>890</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>895</v>
+      </c>
+      <c r="D11" s="99">
+        <v>25</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="100" t="s">
+        <v>896</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>897</v>
+      </c>
+      <c r="D12" s="101">
+        <v>191</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
+        <v>898</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>890</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>899</v>
+      </c>
+      <c r="D13" s="96">
+        <v>6</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="94">
+        <v>760237040</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>890</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>900</v>
+      </c>
+      <c r="D14" s="96">
+        <v>8</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="94" t="s">
+        <v>901</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>902</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>903</v>
+      </c>
+      <c r="D15" s="96">
+        <v>100</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F15" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="94">
+        <v>35030621</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>902</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>904</v>
+      </c>
+      <c r="D16" s="96">
+        <v>42</v>
+      </c>
+      <c r="E16" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F16" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="94">
+        <v>35050282</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>902</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>905</v>
+      </c>
+      <c r="D17" s="96">
+        <v>2</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F17" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="94" t="s">
+        <v>906</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>907</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>908</v>
+      </c>
+      <c r="D18" s="96">
+        <v>8</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F18" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="94" t="s">
+        <v>909</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>907</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>910</v>
+      </c>
+      <c r="D19" s="96">
+        <v>192</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="94" t="s">
+        <v>911</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>912</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>913</v>
+      </c>
+      <c r="D20" s="96">
+        <v>1</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F20" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="94" t="s">
+        <v>914</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>852</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>915</v>
+      </c>
+      <c r="D21" s="96">
+        <v>1</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="94" t="s">
+        <v>916</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>917</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>918</v>
+      </c>
+      <c r="D22" s="96">
+        <v>5</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F22" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="94" t="s">
+        <v>919</v>
+      </c>
+      <c r="B23" s="94" t="s">
+        <v>920</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>921</v>
+      </c>
+      <c r="D23" s="106">
+        <v>1</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F23" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
+        <v>922</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>923</v>
+      </c>
+      <c r="D24" s="96">
+        <v>9</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F24" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="95" t="s">
+        <v>924</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>925</v>
+      </c>
+      <c r="D25" s="96">
+        <v>4</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F25" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="100" t="s">
+        <v>926</v>
+      </c>
+      <c r="B26" s="100" t="s">
+        <v>821</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>927</v>
+      </c>
+      <c r="D26" s="101">
+        <v>1</v>
+      </c>
+      <c r="E26" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F26" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="94" t="s">
+        <v>928</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>929</v>
+      </c>
+      <c r="C27" s="94" t="s">
+        <v>930</v>
+      </c>
+      <c r="D27" s="96">
+        <v>1</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F27" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="B28" s="95" t="s">
+        <v>929</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>932</v>
+      </c>
+      <c r="D28" s="96">
+        <v>1</v>
+      </c>
+      <c r="E28" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F28" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="94" t="s">
+        <v>933</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>929</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>934</v>
+      </c>
+      <c r="D29" s="96">
+        <v>2</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F29" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="94" t="s">
+        <v>935</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>929</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>936</v>
+      </c>
+      <c r="D30" s="96">
+        <v>1</v>
+      </c>
+      <c r="E30" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F30" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="94" t="s">
+        <v>937</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>929</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>938</v>
+      </c>
+      <c r="D31" s="96">
+        <v>3</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F31" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="94" t="s">
+        <v>939</v>
+      </c>
+      <c r="B32" s="95" t="s">
+        <v>929</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>940</v>
+      </c>
+      <c r="D32" s="96">
+        <v>2</v>
+      </c>
+      <c r="E32" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F32" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="94" t="s">
+        <v>941</v>
+      </c>
+      <c r="B33" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>942</v>
+      </c>
+      <c r="D33" s="96">
+        <v>1</v>
+      </c>
+      <c r="E33" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F33" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="94" t="s">
+        <v>943</v>
+      </c>
+      <c r="B34" s="94" t="s">
+        <v>860</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>944</v>
+      </c>
+      <c r="D34" s="96">
+        <v>2</v>
+      </c>
+      <c r="E34" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F34" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="94" t="s">
+        <v>945</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>946</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>947</v>
+      </c>
+      <c r="D35" s="96">
+        <v>1</v>
+      </c>
+      <c r="E35" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F35" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="94" t="s">
+        <v>948</v>
+      </c>
+      <c r="B36" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>949</v>
+      </c>
+      <c r="D36" s="96">
+        <v>1</v>
+      </c>
+      <c r="E36" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F36" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="94" t="s">
+        <v>950</v>
+      </c>
+      <c r="B37" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>951</v>
+      </c>
+      <c r="D37" s="96">
+        <v>1</v>
+      </c>
+      <c r="E37" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F37" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="94" t="s">
+        <v>952</v>
+      </c>
+      <c r="B38" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>953</v>
+      </c>
+      <c r="D38" s="96">
+        <v>6</v>
+      </c>
+      <c r="E38" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F38" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="94" t="s">
+        <v>954</v>
+      </c>
+      <c r="B39" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>955</v>
+      </c>
+      <c r="D39" s="96">
+        <v>4</v>
+      </c>
+      <c r="E39" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F39" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="102" t="s">
+        <v>956</v>
+      </c>
+      <c r="B40" s="98" t="s">
+        <v>860</v>
+      </c>
+      <c r="C40" s="102" t="s">
+        <v>957</v>
+      </c>
+      <c r="D40" s="99">
+        <v>1</v>
+      </c>
+      <c r="E40" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F40" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="94" t="s">
+        <v>958</v>
+      </c>
+      <c r="B41" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>959</v>
+      </c>
+      <c r="D41" s="96">
+        <v>2</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F41" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="98" t="s">
+        <v>960</v>
+      </c>
+      <c r="B42" s="98" t="s">
+        <v>860</v>
+      </c>
+      <c r="C42" s="98" t="s">
+        <v>961</v>
+      </c>
+      <c r="D42" s="99">
+        <v>1</v>
+      </c>
+      <c r="E42" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F42" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="94" t="s">
+        <v>962</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>963</v>
+      </c>
+      <c r="D43" s="96">
+        <v>2</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F43" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="94" t="s">
+        <v>964</v>
+      </c>
+      <c r="B44" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C44" s="94" t="s">
+        <v>965</v>
+      </c>
+      <c r="D44" s="96">
+        <v>1</v>
+      </c>
+      <c r="E44" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F44" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="94" t="s">
+        <v>966</v>
+      </c>
+      <c r="B45" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C45" s="94" t="s">
+        <v>967</v>
+      </c>
+      <c r="D45" s="96">
+        <v>1</v>
+      </c>
+      <c r="E45" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F45" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="94" t="s">
+        <v>968</v>
+      </c>
+      <c r="B46" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C46" s="94" t="s">
+        <v>969</v>
+      </c>
+      <c r="D46" s="96">
+        <v>1</v>
+      </c>
+      <c r="E46" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F46" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="94" t="s">
+        <v>970</v>
+      </c>
+      <c r="B47" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C47" s="94" t="s">
+        <v>971</v>
+      </c>
+      <c r="D47" s="96">
+        <v>1</v>
+      </c>
+      <c r="E47" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F47" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="94" t="s">
+        <v>972</v>
+      </c>
+      <c r="B48" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C48" s="94" t="s">
+        <v>973</v>
+      </c>
+      <c r="D48" s="96">
+        <v>1</v>
+      </c>
+      <c r="E48" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F48" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="94" t="s">
+        <v>974</v>
+      </c>
+      <c r="B49" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>975</v>
+      </c>
+      <c r="D49" s="96">
+        <v>1</v>
+      </c>
+      <c r="E49" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F49" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="94" t="s">
+        <v>976</v>
+      </c>
+      <c r="B50" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C50" s="94" t="s">
+        <v>977</v>
+      </c>
+      <c r="D50" s="96">
+        <v>1</v>
+      </c>
+      <c r="E50" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F50" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="94" t="s">
+        <v>978</v>
+      </c>
+      <c r="B51" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C51" s="94" t="s">
+        <v>979</v>
+      </c>
+      <c r="D51" s="96">
+        <v>2</v>
+      </c>
+      <c r="E51" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F51" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="94" t="s">
+        <v>980</v>
+      </c>
+      <c r="B52" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C52" s="94" t="s">
+        <v>981</v>
+      </c>
+      <c r="D52" s="96">
+        <v>1</v>
+      </c>
+      <c r="E52" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F52" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="94" t="s">
+        <v>982</v>
+      </c>
+      <c r="B53" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C53" s="94" t="s">
+        <v>983</v>
+      </c>
+      <c r="D53" s="96">
+        <v>7</v>
+      </c>
+      <c r="E53" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F53" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="98" t="s">
+        <v>984</v>
+      </c>
+      <c r="B54" s="98" t="s">
+        <v>860</v>
+      </c>
+      <c r="C54" s="98" t="s">
+        <v>985</v>
+      </c>
+      <c r="D54" s="99">
+        <v>1</v>
+      </c>
+      <c r="E54" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F54" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="94" t="s">
+        <v>986</v>
+      </c>
+      <c r="B55" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C55" s="94" t="s">
+        <v>987</v>
+      </c>
+      <c r="D55" s="96">
+        <v>10</v>
+      </c>
+      <c r="E55" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F55" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="94" t="s">
+        <v>988</v>
+      </c>
+      <c r="B56" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C56" s="94" t="s">
+        <v>989</v>
+      </c>
+      <c r="D56" s="96">
+        <v>4</v>
+      </c>
+      <c r="E56" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F56" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="94" t="s">
+        <v>990</v>
+      </c>
+      <c r="B57" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C57" s="94" t="s">
+        <v>991</v>
+      </c>
+      <c r="D57" s="96">
+        <v>4</v>
+      </c>
+      <c r="E57" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F57" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="94" t="s">
+        <v>992</v>
+      </c>
+      <c r="B58" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C58" s="94" t="s">
+        <v>993</v>
+      </c>
+      <c r="D58" s="96">
+        <v>15</v>
+      </c>
+      <c r="E58" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F58" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="B59" s="98" t="s">
+        <v>865</v>
+      </c>
+      <c r="C59" s="98" t="s">
+        <v>995</v>
+      </c>
+      <c r="D59" s="99">
+        <v>2</v>
+      </c>
+      <c r="E59" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F59" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="98" t="s">
+        <v>996</v>
+      </c>
+      <c r="B60" s="98" t="s">
+        <v>865</v>
+      </c>
+      <c r="C60" s="98" t="s">
+        <v>997</v>
+      </c>
+      <c r="D60" s="99">
+        <v>1</v>
+      </c>
+      <c r="E60" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F60" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="98" t="s">
+        <v>998</v>
+      </c>
+      <c r="B61" s="98" t="s">
+        <v>860</v>
+      </c>
+      <c r="C61" s="98" t="s">
+        <v>999</v>
+      </c>
+      <c r="D61" s="99">
+        <v>4</v>
+      </c>
+      <c r="E61" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F61" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="98" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B62" s="98" t="s">
+        <v>860</v>
+      </c>
+      <c r="C62" s="98"/>
+      <c r="D62" s="99">
+        <v>5</v>
+      </c>
+      <c r="E62" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F62" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="94" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B63" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C63" s="94" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D63" s="96">
+        <v>11</v>
+      </c>
+      <c r="E63" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F63" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="94" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B64" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C64" s="94" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D64" s="96">
+        <v>2</v>
+      </c>
+      <c r="E64" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F64" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="94" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B65" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C65" s="94" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D65" s="96">
+        <v>1</v>
+      </c>
+      <c r="E65" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F65" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="94" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B66" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C66" s="94" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D66" s="96">
+        <v>1</v>
+      </c>
+      <c r="E66" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F66" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="94" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B67" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C67" s="94" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D67" s="96">
+        <v>1</v>
+      </c>
+      <c r="E67" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F67" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="94" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B68" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C68" s="94" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D68" s="96">
+        <v>2</v>
+      </c>
+      <c r="E68" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F68" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="94" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B69" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C69" s="94" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D69" s="96">
+        <v>1</v>
+      </c>
+      <c r="E69" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F69" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="94" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B70" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C70" s="94" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D70" s="96">
+        <v>1</v>
+      </c>
+      <c r="E70" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F70" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="94" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B71" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C71" s="94" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D71" s="96">
+        <v>1</v>
+      </c>
+      <c r="E71" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F71" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="94" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B72" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C72" s="94" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D72" s="96">
+        <v>1</v>
+      </c>
+      <c r="E72" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F72" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="94" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B73" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C73" s="94" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D73" s="96">
+        <v>1</v>
+      </c>
+      <c r="E73" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F73" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="94" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B74" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C74" s="94" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D74" s="96">
+        <v>1</v>
+      </c>
+      <c r="E74" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F74" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="94" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B75" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C75" s="94" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D75" s="96">
+        <v>1</v>
+      </c>
+      <c r="E75" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F75" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="94" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B76" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="C76" s="94" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D76" s="96">
+        <v>2</v>
+      </c>
+      <c r="E76" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F76" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="94" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B77" s="94" t="s">
+        <v>860</v>
+      </c>
+      <c r="C77" s="94" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D77" s="96">
+        <v>1</v>
+      </c>
+      <c r="E77" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F77" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="94" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B78" s="94" t="s">
+        <v>860</v>
+      </c>
+      <c r="C78" s="94" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D78" s="96">
+        <v>1</v>
+      </c>
+      <c r="E78" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F78" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="94" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B79" s="94" t="s">
+        <v>860</v>
+      </c>
+      <c r="C79" s="94" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D79" s="96">
+        <v>1</v>
+      </c>
+      <c r="E79" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F79" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="94" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B80" s="94" t="s">
+        <v>860</v>
+      </c>
+      <c r="C80" s="94" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D80" s="96">
+        <v>12</v>
+      </c>
+      <c r="E80" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F80" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="95" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B81" s="94" t="s">
+        <v>860</v>
+      </c>
+      <c r="C81" s="95" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D81" s="96">
+        <v>1</v>
+      </c>
+      <c r="E81" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F81" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="98" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B82" s="98" t="s">
+        <v>860</v>
+      </c>
+      <c r="C82" s="95" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D82" s="96">
+        <v>10</v>
+      </c>
+      <c r="E82" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F82" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="95" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B83" s="103" t="s">
+        <v>860</v>
+      </c>
+      <c r="C83" s="95" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D83" s="96">
+        <v>2</v>
+      </c>
+      <c r="E83" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F83" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="98" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B84" s="98" t="s">
+        <v>860</v>
+      </c>
+      <c r="C84" s="98" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D84" s="96">
+        <v>4</v>
+      </c>
+      <c r="E84" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F84" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="94" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B85" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="C85" s="94" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D85" s="96">
+        <v>1</v>
+      </c>
+      <c r="E85" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F85" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="94" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B86" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="C86" s="94" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D86" s="96">
+        <v>1</v>
+      </c>
+      <c r="E86" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F86" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="94" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B87" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="C87" s="94" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D87" s="96">
+        <v>1</v>
+      </c>
+      <c r="E87" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F87" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="94" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B88" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="C88" s="94" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D88" s="96">
+        <v>1</v>
+      </c>
+      <c r="E88" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F88" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="94" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B89" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C89" s="94" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D89" s="96">
+        <v>1</v>
+      </c>
+      <c r="E89" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F89" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="94" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B90" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C90" s="94" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D90" s="96">
+        <v>1</v>
+      </c>
+      <c r="E90" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F90" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="94" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B91" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C91" s="94" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D91" s="96">
+        <v>3</v>
+      </c>
+      <c r="E91" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F91" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="94" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B92" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C92" s="94" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D92" s="96">
+        <v>1</v>
+      </c>
+      <c r="E92" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F92" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="94" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B93" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C93" s="94" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D93" s="96">
+        <v>1</v>
+      </c>
+      <c r="E93" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F93" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="94" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B94" s="94" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C94" s="94" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D94" s="96">
+        <v>1</v>
+      </c>
+      <c r="E94" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F94" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="94" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B95" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C95" s="94" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D95" s="96">
+        <v>8</v>
+      </c>
+      <c r="E95" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F95" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="94" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B96" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C96" s="94" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D96" s="96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F96" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="94" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B97" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C97" s="94" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D97" s="104">
+        <v>23</v>
+      </c>
+      <c r="E97" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F97" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="94" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B98" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C98" s="94" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D98" s="96">
+        <v>2</v>
+      </c>
+      <c r="E98" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F98" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="94" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B99" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C99" s="94" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D99" s="96">
+        <v>2</v>
+      </c>
+      <c r="E99" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F99" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="94" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B100" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C100" s="94" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D100" s="96">
+        <v>1</v>
+      </c>
+      <c r="E100" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F100" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="94" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B101" s="94" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C101" s="94" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D101" s="96">
+        <v>2</v>
+      </c>
+      <c r="E101" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F101" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="94" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B102" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C102" s="94" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D102" s="96">
+        <v>1</v>
+      </c>
+      <c r="E102" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F102" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="94" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B103" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C103" s="94" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D103" s="96">
+        <v>1</v>
+      </c>
+      <c r="E103" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F103" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="94" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B104" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C104" s="94" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D104" s="96">
+        <v>2</v>
+      </c>
+      <c r="E104" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F104" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="94" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B105" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C105" s="94" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D105" s="96">
+        <v>1</v>
+      </c>
+      <c r="E105" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F105" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="94" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B106" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C106" s="94" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D106" s="96">
+        <v>1</v>
+      </c>
+      <c r="E106" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F106" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="98" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B107" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C107" s="98" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D107" s="99">
+        <v>2</v>
+      </c>
+      <c r="E107" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F107" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="95" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B108" s="94" t="s">
+        <v>821</v>
+      </c>
+      <c r="C108" s="95" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D108" s="96">
+        <v>1</v>
+      </c>
+      <c r="E108" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F108" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="98" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B109" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C109" s="98" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D109" s="99">
+        <v>1</v>
+      </c>
+      <c r="E109" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F109" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="100" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B110" s="100" t="s">
+        <v>821</v>
+      </c>
+      <c r="C110" s="100" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D110" s="101">
+        <v>2</v>
+      </c>
+      <c r="E110" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F110" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="94" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B111" s="94" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C111" s="94" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D111" s="96">
+        <v>198</v>
+      </c>
+      <c r="E111" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F111" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="94" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B112" s="95" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C112" s="94" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D112" s="96">
+        <v>11</v>
+      </c>
+      <c r="E112" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F112" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="94" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B113" s="95" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C113" s="94" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D113" s="96">
+        <v>3</v>
+      </c>
+      <c r="E113" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F113" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="94" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B114" s="95" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C114" s="94" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D114" s="96">
+        <v>2</v>
+      </c>
+      <c r="E114" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F114" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="94" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B115" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="C115" s="94" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D115" s="96">
+        <v>2</v>
+      </c>
+      <c r="E115" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F115" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="94" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B116" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="C116" s="94" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D116" s="96">
+        <v>1</v>
+      </c>
+      <c r="E116" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F116" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="98" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B117" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C117" s="98" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D117" s="99">
+        <v>1</v>
+      </c>
+      <c r="E117" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F117" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="102" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B118" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C118" s="102" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D118" s="99">
+        <v>1</v>
+      </c>
+      <c r="E118" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F118" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="102" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B119" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C119" s="102" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D119" s="99">
+        <v>1</v>
+      </c>
+      <c r="E119" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F119" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="102" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B120" s="98" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C120" s="102" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D120" s="99">
+        <v>6</v>
+      </c>
+      <c r="E120" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F120" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="102" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B121" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C121" s="102" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D121" s="99">
+        <v>8</v>
+      </c>
+      <c r="E121" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F121" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="102" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B122" s="98" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C122" s="102" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D122" s="96">
+        <v>8</v>
+      </c>
+      <c r="E122" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F122" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="102" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B123" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C123" s="102" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D123" s="96">
+        <v>4</v>
+      </c>
+      <c r="E123" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F123" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="102" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B124" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C124" s="102" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D124" s="96">
+        <v>19</v>
+      </c>
+      <c r="E124" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F124" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="102" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B125" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C125" s="102" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D125" s="96">
+        <v>9</v>
+      </c>
+      <c r="E125" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F125" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="102" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B126" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C126" s="102" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D126" s="96">
+        <v>10</v>
+      </c>
+      <c r="E126" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F126" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="102" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B127" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C127" s="102" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D127" s="96">
+        <v>13</v>
+      </c>
+      <c r="E127" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F127" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="102" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B128" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C128" s="102" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D128" s="96">
+        <v>2</v>
+      </c>
+      <c r="E128" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F128" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="102" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B129" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C129" s="102" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D129" s="96">
+        <v>2</v>
+      </c>
+      <c r="E129" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F129" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="102" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B130" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C130" s="102" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D130" s="96">
+        <v>2</v>
+      </c>
+      <c r="E130" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F130" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="102" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B131" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C131" s="102" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D131" s="96">
+        <v>3</v>
+      </c>
+      <c r="E131" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F131" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="102" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B132" s="98" t="s">
+        <v>821</v>
+      </c>
+      <c r="C132" s="102" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D132" s="96">
+        <v>3</v>
+      </c>
+      <c r="E132" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F132" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="107" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B133" s="103" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C133" s="95" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D133" s="96">
+        <v>1</v>
+      </c>
+      <c r="E133" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F133" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="108" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B134" s="94" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C134" s="94" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D134" s="96">
+        <v>1</v>
+      </c>
+      <c r="E134" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F134" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="98" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B135" s="98" t="s">
+        <v>860</v>
+      </c>
+      <c r="C135" s="98" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D135" s="99">
+        <v>2</v>
+      </c>
+      <c r="E135" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F135" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="94">
+        <v>36200291</v>
+      </c>
+      <c r="B136" s="95" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C136" s="94" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D136" s="96">
+        <v>1</v>
+      </c>
+      <c r="E136" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F136" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="102" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B137" s="98" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C137" s="102" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D137" s="96">
+        <v>2</v>
+      </c>
+      <c r="E137" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F137" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="102" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B138" s="98" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C138" s="102" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D138" s="96">
+        <v>14</v>
+      </c>
+      <c r="E138" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F138" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="102" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B139" s="98" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C139" s="102" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D139" s="96">
+        <v>1</v>
+      </c>
+      <c r="E139" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F139" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="94" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B140" s="94" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C140" s="94" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D140" s="96">
+        <v>45</v>
+      </c>
+      <c r="E140" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F140" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="105" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B141" s="105" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C141" s="105" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D141" s="95">
+        <v>4</v>
+      </c>
+      <c r="E141" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F141" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="95" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B142" s="103" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C142" s="95" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D142" s="96">
+        <v>1</v>
+      </c>
+      <c r="E142" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F142" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="94" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B143" s="103" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C143" s="95" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D143" s="96">
+        <v>4</v>
+      </c>
+      <c r="E143" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F143" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="94" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B144" s="103" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C144" s="95" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D144" s="96">
+        <v>4</v>
+      </c>
+      <c r="E144" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="F144" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{1C441B54-1C3C-4BFE-8E5F-2D4247C0C006}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{A5393685-2F04-4F66-8DC4-3B5F8A8E6367}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{3A860960-1687-4537-9AA5-FD8429BDA435}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{23E6ACBA-6278-4A5B-AA6E-489EC9D09371}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{7D521A04-A058-4723-92CD-3C630F1166D5}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{9D63A3AB-B57B-465B-BCC9-A174D42506B4}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{01702E78-CA25-4592-B313-C6B8B47530F5}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{0016611E-FAA3-4B5A-9386-A4D45A3D7F9C}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{C89B0481-C5E0-49A6-87AA-FAC7B90A68CE}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{4C679264-D2F5-43F7-81CF-362735ACAE1C}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{99480E47-20F8-42F8-BDB2-D28A17657210}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{8BB83ADB-9CD0-4AB4-A1E1-1F6841E0CFC8}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{0DFB54C7-E019-4F18-821E-36755820543D}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{2166EEB4-2C73-4B60-BB9C-624921D83E1B}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{00D30625-F2F0-42EA-B108-3BB145B35863}"/>
+    <hyperlink ref="F16" r:id="rId16" xr:uid="{A86E0343-81AC-4D78-AB14-BA82F47930A1}"/>
+    <hyperlink ref="F17" r:id="rId17" xr:uid="{481DF5C3-2A4C-4966-BC6C-FD0A6C5F1CDB}"/>
+    <hyperlink ref="F18" r:id="rId18" xr:uid="{59262295-D693-42A8-924F-E28AACCAD950}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{5FDE5C50-1995-4BCB-934B-F230CA9D75C8}"/>
+    <hyperlink ref="F20" r:id="rId20" xr:uid="{D222B44E-8299-4A9F-83E9-327575846F1E}"/>
+    <hyperlink ref="F21" r:id="rId21" xr:uid="{0DD57B98-36E0-4CA7-9C2F-83FAF7E9A33D}"/>
+    <hyperlink ref="F22" r:id="rId22" xr:uid="{87B2BA6A-FE5E-48B8-A9B0-E020B90B5726}"/>
+    <hyperlink ref="F23" r:id="rId23" xr:uid="{EE631905-640E-46E2-B47D-F1CABBF1ADDD}"/>
+    <hyperlink ref="F24" r:id="rId24" xr:uid="{3B83D8F5-3640-4042-863F-F3AB19C4F5D6}"/>
+    <hyperlink ref="F25" r:id="rId25" xr:uid="{EA25623D-EDBA-4023-88FD-6301CFE0697A}"/>
+    <hyperlink ref="F26" r:id="rId26" xr:uid="{A9B637DD-4A19-4048-94EC-C971FA763549}"/>
+    <hyperlink ref="F27" r:id="rId27" xr:uid="{9A0AB754-401C-4E72-B5F8-095E813CD207}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{3DD25787-6C63-41CD-B718-FE696D4D39BB}"/>
+    <hyperlink ref="F29" r:id="rId29" xr:uid="{149F128A-5435-4C3F-9DE2-38C82B2FA3C7}"/>
+    <hyperlink ref="F30" r:id="rId30" xr:uid="{B2E5049A-A61F-4117-AFC9-43818D7EF58D}"/>
+    <hyperlink ref="F31" r:id="rId31" xr:uid="{87851BE7-5461-4C7D-9996-C85A1212AF19}"/>
+    <hyperlink ref="F32" r:id="rId32" xr:uid="{6D37B0A4-955C-4607-AC9E-91B4DE1FCC89}"/>
+    <hyperlink ref="F33" r:id="rId33" xr:uid="{E3F6B094-0ABB-40EB-9895-C5414D5AE22C}"/>
+    <hyperlink ref="F34" r:id="rId34" xr:uid="{0EB0D497-FD37-47BD-9155-32A883820468}"/>
+    <hyperlink ref="F35" r:id="rId35" xr:uid="{87C54078-1ACD-4851-AA93-B61FDB1DE565}"/>
+    <hyperlink ref="F36" r:id="rId36" xr:uid="{749D6194-B163-4BA1-887B-8762FEA738FA}"/>
+    <hyperlink ref="F37" r:id="rId37" xr:uid="{52E4D33A-EC97-4A6C-9BB4-6980E67FDF21}"/>
+    <hyperlink ref="F38" r:id="rId38" xr:uid="{9961FC4B-293C-45E8-B087-4E0224C99B16}"/>
+    <hyperlink ref="F39" r:id="rId39" xr:uid="{210450C9-75B6-4A7C-82F2-D7DCBE93A81C}"/>
+    <hyperlink ref="F40" r:id="rId40" xr:uid="{39E09B51-E015-4536-93DD-35B1D1A4824E}"/>
+    <hyperlink ref="F41" r:id="rId41" xr:uid="{25572089-F35C-44B3-A9DE-4BC886FA450C}"/>
+    <hyperlink ref="F42" r:id="rId42" xr:uid="{C8951EB9-6B30-43DE-BE71-A313FFB7E7EA}"/>
+    <hyperlink ref="F43" r:id="rId43" xr:uid="{38C1043A-66BB-43A8-9DEA-0FF92DD3770E}"/>
+    <hyperlink ref="F44" r:id="rId44" xr:uid="{286F97B5-EF0D-476F-B62E-0AC600580AEC}"/>
+    <hyperlink ref="F45" r:id="rId45" xr:uid="{8301FE96-173E-4C94-92E2-5F8BEFED7AD4}"/>
+    <hyperlink ref="F46" r:id="rId46" xr:uid="{F0272B03-2C2D-4172-B35A-1D13559C1454}"/>
+    <hyperlink ref="F47" r:id="rId47" xr:uid="{6E655212-E7FA-4965-B505-5EB16D176065}"/>
+    <hyperlink ref="F48" r:id="rId48" xr:uid="{21B214C0-BFBD-4714-9547-D5BFA30B8407}"/>
+    <hyperlink ref="F49" r:id="rId49" xr:uid="{5311392E-211A-47CC-BAFC-3DB7AAA706F8}"/>
+    <hyperlink ref="F50" r:id="rId50" xr:uid="{C96D7FED-CFFC-4010-AC7F-875212220094}"/>
+    <hyperlink ref="F51" r:id="rId51" xr:uid="{9C3957C8-A462-4464-B2EE-FD50A1D9DE50}"/>
+    <hyperlink ref="F52" r:id="rId52" xr:uid="{41138A4B-4E71-4DF0-93C4-67FCD67DDCBE}"/>
+    <hyperlink ref="F53" r:id="rId53" xr:uid="{9C242D6C-E0DF-404D-8D1F-23C6B9C47AE2}"/>
+    <hyperlink ref="F54" r:id="rId54" xr:uid="{D8DF1E4D-3267-4291-9C99-0D2085D3C94A}"/>
+    <hyperlink ref="F55" r:id="rId55" xr:uid="{EA28FDB7-6980-4871-BE20-7EE03F133737}"/>
+    <hyperlink ref="F56" r:id="rId56" xr:uid="{739413D9-9339-47D3-9A9B-1F45540FD6FF}"/>
+    <hyperlink ref="F57" r:id="rId57" xr:uid="{11F99D97-C571-43A3-8215-ED3CEF87821D}"/>
+    <hyperlink ref="F58" r:id="rId58" xr:uid="{5BC28631-B500-4731-877F-49B614C2545F}"/>
+    <hyperlink ref="F59" r:id="rId59" xr:uid="{0200AAD4-8FDB-467C-B7EB-C340DF219AC8}"/>
+    <hyperlink ref="F60" r:id="rId60" xr:uid="{BEF25171-FC68-4D57-B5E6-DA683D008C5C}"/>
+    <hyperlink ref="F61" r:id="rId61" xr:uid="{9FFE763D-4E43-44F8-92BB-C503B0820359}"/>
+    <hyperlink ref="F62" r:id="rId62" xr:uid="{22EBACA2-A0F4-451B-B8EB-C0EC4B77E742}"/>
+    <hyperlink ref="F63" r:id="rId63" xr:uid="{31EB02BF-0EC3-439D-B894-C35C4A12593B}"/>
+    <hyperlink ref="F64" r:id="rId64" xr:uid="{9AC129F8-BDEB-4BB2-A10B-DAB6E8BB70E8}"/>
+    <hyperlink ref="F65" r:id="rId65" xr:uid="{3FD06752-7CDE-49BF-8921-AED678917128}"/>
+    <hyperlink ref="F66" r:id="rId66" xr:uid="{42DDEB9A-9510-496A-A2B2-06204BE7377C}"/>
+    <hyperlink ref="F67" r:id="rId67" xr:uid="{E48AC73C-A9C7-4A65-A99F-C437859676A9}"/>
+    <hyperlink ref="F68" r:id="rId68" xr:uid="{72C99663-4DAD-45F6-9B04-687B17D0F79D}"/>
+    <hyperlink ref="F69" r:id="rId69" xr:uid="{E5B5FBB5-4800-4E8C-A6C1-84E9979726B4}"/>
+    <hyperlink ref="F70" r:id="rId70" xr:uid="{0A394BC2-9987-4220-880E-99C734C03C14}"/>
+    <hyperlink ref="F71" r:id="rId71" xr:uid="{0B61F1B2-F995-419A-ADA4-085107284403}"/>
+    <hyperlink ref="F72" r:id="rId72" xr:uid="{24773E69-A454-434D-9C67-106EE8B32834}"/>
+    <hyperlink ref="F73" r:id="rId73" xr:uid="{6E912A90-D3F0-4D3F-9772-A1B7CAFCF748}"/>
+    <hyperlink ref="F74" r:id="rId74" xr:uid="{81BD9763-26A3-47F7-85E8-12979A013EB9}"/>
+    <hyperlink ref="F75" r:id="rId75" xr:uid="{A9CD0771-F607-49DC-A83B-B666DEAA1F61}"/>
+    <hyperlink ref="F76" r:id="rId76" xr:uid="{574D8778-F876-4B7B-BFED-2A15FB8FCF9B}"/>
+    <hyperlink ref="F77" r:id="rId77" xr:uid="{28B293A2-B754-48BB-ACE1-76AE288187C4}"/>
+    <hyperlink ref="F78" r:id="rId78" xr:uid="{0C4C8A11-FC92-48BC-83DE-04EB1A75C062}"/>
+    <hyperlink ref="F79" r:id="rId79" xr:uid="{01F2A6E8-68F7-45B0-A025-0B37130BEDA1}"/>
+    <hyperlink ref="F80" r:id="rId80" xr:uid="{8F889976-C9E0-4332-BE9A-F95E2F573694}"/>
+    <hyperlink ref="F81" r:id="rId81" xr:uid="{0A870BA9-7B88-4463-B776-3D888134C103}"/>
+    <hyperlink ref="F82" r:id="rId82" xr:uid="{A00C5C83-8411-4290-A058-06DFBDC59C6A}"/>
+    <hyperlink ref="F83" r:id="rId83" xr:uid="{EDC514F6-935B-41BE-931C-695616CE4FED}"/>
+    <hyperlink ref="F84" r:id="rId84" xr:uid="{9475FF03-DA6C-42D3-92A1-99CFE63FF787}"/>
+    <hyperlink ref="F85" r:id="rId85" xr:uid="{094BA064-0886-4913-B146-D9FDB3C5A955}"/>
+    <hyperlink ref="F86" r:id="rId86" xr:uid="{B629C70D-9B5E-472C-917A-C7703E5D8AF4}"/>
+    <hyperlink ref="F87" r:id="rId87" xr:uid="{F7A1F8F7-980C-486F-83C5-9AA4593FB3EA}"/>
+    <hyperlink ref="F88" r:id="rId88" xr:uid="{80005E37-E891-4121-B9A1-78B9E3BC1E75}"/>
+    <hyperlink ref="F89" r:id="rId89" xr:uid="{F261CAF2-33AA-46FF-A426-41BF411B7BF4}"/>
+    <hyperlink ref="F90" r:id="rId90" xr:uid="{77E6C531-60AB-4B8B-9762-419BF3BE18A3}"/>
+    <hyperlink ref="F91" r:id="rId91" xr:uid="{CC8EBEA7-B418-44BD-B2C6-F3D9E961C2B5}"/>
+    <hyperlink ref="F92" r:id="rId92" xr:uid="{1D072B26-2A9B-47CC-BEE0-9860848D8AC3}"/>
+    <hyperlink ref="F93" r:id="rId93" xr:uid="{B5E4DA08-4CF1-4758-8A31-FA689544E439}"/>
+    <hyperlink ref="F94" r:id="rId94" xr:uid="{89A018A6-6D2E-4C5F-BB8C-BB41AFFB0D18}"/>
+    <hyperlink ref="F95" r:id="rId95" xr:uid="{D55F192B-47B9-43C1-8C2E-21B201BFBFA5}"/>
+    <hyperlink ref="F96" r:id="rId96" xr:uid="{5C4F2538-7EB9-412E-B87F-4B9F8310ED18}"/>
+    <hyperlink ref="F97" r:id="rId97" xr:uid="{9E0583A6-78B2-4F18-9840-327D9AC5AC5E}"/>
+    <hyperlink ref="F98" r:id="rId98" xr:uid="{67C6CB16-ECF8-4AC3-B0EE-A67E9CE19D5C}"/>
+    <hyperlink ref="F99" r:id="rId99" xr:uid="{EEDBD563-128C-4E00-B5C2-EC490AED4BBF}"/>
+    <hyperlink ref="F100" r:id="rId100" xr:uid="{2B6B9641-7C0D-40A0-8849-FA2DFB46C494}"/>
+    <hyperlink ref="F101" r:id="rId101" xr:uid="{E0383D20-CE12-4F0A-AC35-AE86403CF711}"/>
+    <hyperlink ref="F102" r:id="rId102" xr:uid="{EA878FB6-A943-440A-85CC-08AE82163C19}"/>
+    <hyperlink ref="F103" r:id="rId103" xr:uid="{46C9A6B1-0627-42CD-9F21-3F501D6859D3}"/>
+    <hyperlink ref="F104" r:id="rId104" xr:uid="{366DC402-38D3-4082-B771-96F6DDD9F5C9}"/>
+    <hyperlink ref="F105" r:id="rId105" xr:uid="{8A473224-A1D3-48B8-8C28-93404AB05156}"/>
+    <hyperlink ref="F106" r:id="rId106" xr:uid="{3A9EA75A-8F5C-4D9F-A9B0-21A82B95AC3D}"/>
+    <hyperlink ref="F107" r:id="rId107" xr:uid="{020B3179-A134-45F9-BB99-0809E57668FC}"/>
+    <hyperlink ref="F108" r:id="rId108" xr:uid="{1D40994D-2125-4277-80D9-C113BECE2074}"/>
+    <hyperlink ref="F109" r:id="rId109" xr:uid="{E86BA9F0-314C-4C9D-B92D-F98E261E8198}"/>
+    <hyperlink ref="F110" r:id="rId110" xr:uid="{5F68BC7B-14D9-468D-BBD4-320AF21C7551}"/>
+    <hyperlink ref="F111" r:id="rId111" xr:uid="{2527BF33-5692-49CD-862D-91288E7F9CD6}"/>
+    <hyperlink ref="F112" r:id="rId112" xr:uid="{AF9D633D-AFF6-435E-B282-5D5AFED07370}"/>
+    <hyperlink ref="F113" r:id="rId113" xr:uid="{38CC76C1-BA3A-462B-B564-87E2CA842DDB}"/>
+    <hyperlink ref="F114" r:id="rId114" xr:uid="{59657319-6A3D-49FD-B788-C820092CD373}"/>
+    <hyperlink ref="F115" r:id="rId115" xr:uid="{9B32A59E-7EDC-4ADE-8D14-22200177C9C6}"/>
+    <hyperlink ref="F116" r:id="rId116" xr:uid="{BDD2F940-907B-4553-B3E9-031546049C2D}"/>
+    <hyperlink ref="F117" r:id="rId117" xr:uid="{22A5E568-2E46-4634-92F9-DDE4EF26CBD2}"/>
+    <hyperlink ref="F118" r:id="rId118" xr:uid="{8C809AF4-DD04-414F-A1CA-B1F2BBDB101B}"/>
+    <hyperlink ref="F119" r:id="rId119" xr:uid="{6DB51271-F9A6-4794-909B-B94DE353D01F}"/>
+    <hyperlink ref="F120" r:id="rId120" xr:uid="{EC96007A-7B85-4F4B-B7DD-E867F428801B}"/>
+    <hyperlink ref="F121" r:id="rId121" xr:uid="{C425C930-D692-465E-A4FD-A5636F3AB359}"/>
+    <hyperlink ref="F122" r:id="rId122" xr:uid="{8501FE1E-CBA3-4F55-AA41-8651D07CAF0B}"/>
+    <hyperlink ref="F123" r:id="rId123" xr:uid="{4A6AC9CD-1AEF-4107-A807-397B3281FC43}"/>
+    <hyperlink ref="F124" r:id="rId124" xr:uid="{5AE6EEDB-4465-4827-84C1-10E5B6D6033B}"/>
+    <hyperlink ref="F125" r:id="rId125" xr:uid="{759E2618-59D8-4C81-B249-4DAC2CF3984C}"/>
+    <hyperlink ref="F126" r:id="rId126" xr:uid="{0746507C-02C4-49F9-A16A-A31A1CB2E4F7}"/>
+    <hyperlink ref="F127" r:id="rId127" xr:uid="{21F7E228-E37B-4367-948D-48139F6BC083}"/>
+    <hyperlink ref="F128" r:id="rId128" xr:uid="{07129EE9-2EB4-4F0A-AE82-C34A3EEFA8FA}"/>
+    <hyperlink ref="F129" r:id="rId129" xr:uid="{95124B67-66BC-45DE-AEE7-C591628ABD35}"/>
+    <hyperlink ref="F130" r:id="rId130" xr:uid="{76809E61-DA09-4BB0-9848-24AFB418DC20}"/>
+    <hyperlink ref="F131" r:id="rId131" xr:uid="{5EEFD5A4-0EE0-4D62-A1A2-DF5B8FE05E71}"/>
+    <hyperlink ref="F132" r:id="rId132" xr:uid="{F7A972D3-AB3A-4997-BCD4-8153B9312406}"/>
+    <hyperlink ref="F133" r:id="rId133" xr:uid="{1A2B0C8E-9ACE-44E4-9FF5-6B9855F606C6}"/>
+    <hyperlink ref="F134" r:id="rId134" xr:uid="{330F53DE-8678-4DC8-BBAD-3DFBA470C9E5}"/>
+    <hyperlink ref="F135" r:id="rId135" xr:uid="{B2C63162-1AEF-49B2-B421-0B1D6C971A37}"/>
+    <hyperlink ref="F136" r:id="rId136" xr:uid="{BF8E72C6-664C-4BAF-8574-7B7145EAD7FE}"/>
+    <hyperlink ref="F137" r:id="rId137" xr:uid="{B0165272-03D6-4AC2-9C2B-FEB2E38EFA05}"/>
+    <hyperlink ref="F138" r:id="rId138" xr:uid="{1C457F9C-7759-47EB-B274-23C97993A869}"/>
+    <hyperlink ref="F139" r:id="rId139" xr:uid="{15A92103-B0AF-4EEF-B461-85F2ADFB50FE}"/>
+    <hyperlink ref="F140" r:id="rId140" xr:uid="{88523F12-125A-4791-99A5-8748000D0FCF}"/>
+    <hyperlink ref="F141" r:id="rId141" xr:uid="{CD485E07-960D-4EED-893C-3ABFECA7894D}"/>
+    <hyperlink ref="F142" r:id="rId142" xr:uid="{CD292941-CC30-4D03-B6A8-87408A773702}"/>
+    <hyperlink ref="F143" r:id="rId143" xr:uid="{8393B098-18F3-48D4-8BDD-3F72F3BDC046}"/>
+    <hyperlink ref="F144" r:id="rId144" xr:uid="{BB62F589-0D9C-42E4-8AC3-867D7F9FA2AD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D04A58-9CFE-4C7C-ADC4-5C7BF0C03C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B966D1-B8FE-4419-B88D-CEFAE4A07216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="1353">
   <si>
     <t>producto</t>
   </si>
@@ -7685,6 +7685,9 @@
   </si>
   <si>
     <t>marcelo.o@ipser.com.ar</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -8489,8 +8492,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E315" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E315" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E313" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E313" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1B48A49-4D48-4A1E-89CF-C9F61C327FFC}" name="producto" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{C3AA694B-486B-4DC2-9B24-35452D57BE82}" name="Descripcion" dataDxfId="3"/>
@@ -8819,10 +8822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10007,7 +10010,9 @@
       <c r="A70" s="90" t="s">
         <v>956</v>
       </c>
-      <c r="B70" s="90"/>
+      <c r="B70" s="90" t="s">
+        <v>1352</v>
+      </c>
       <c r="C70" s="90" t="s">
         <v>817</v>
       </c>
@@ -10528,7 +10533,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="90" t="s">
         <v>1016</v>
       </c>
@@ -10545,7 +10550,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="90" t="s">
         <v>1018</v>
       </c>
@@ -10562,7 +10567,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A103" s="90" t="s">
         <v>1021</v>
       </c>
@@ -10579,7 +10584,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="90" t="s">
         <v>1023</v>
       </c>
@@ -10596,7 +10601,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="90" t="s">
         <v>1025</v>
       </c>
@@ -10613,7 +10618,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="90" t="s">
         <v>1027</v>
       </c>
@@ -10630,7 +10635,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="90" t="s">
         <v>1029</v>
       </c>
@@ -10647,7 +10652,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="90" t="s">
         <v>1030</v>
       </c>
@@ -10664,7 +10669,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="90" t="s">
         <v>1032</v>
       </c>
@@ -10698,7 +10703,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="90" t="s">
         <v>1037</v>
       </c>
@@ -10715,7 +10720,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="90" t="s">
         <v>1039</v>
       </c>
@@ -10732,7 +10737,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="90" t="s">
         <v>1041</v>
       </c>
@@ -10749,7 +10754,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="90" t="s">
         <v>1043</v>
       </c>
@@ -10766,7 +10771,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="90" t="s">
         <v>1045</v>
       </c>
@@ -10783,7 +10788,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="90" t="s">
         <v>1047</v>
       </c>
@@ -10800,7 +10805,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="90" t="s">
         <v>1049</v>
       </c>
@@ -10817,7 +10822,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="90" t="s">
         <v>1051</v>
       </c>
@@ -10834,7 +10839,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="90" t="s">
         <v>1052</v>
       </c>
@@ -10851,7 +10856,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="90" t="s">
         <v>1055</v>
       </c>
@@ -10868,7 +10873,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="90" t="s">
         <v>1057</v>
       </c>
@@ -10885,7 +10890,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="90" t="s">
         <v>1059</v>
       </c>
@@ -10902,7 +10907,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="90" t="s">
         <v>1061</v>
       </c>
@@ -10919,7 +10924,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="90" t="s">
         <v>1063</v>
       </c>
@@ -10936,7 +10941,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="90" t="s">
         <v>1065</v>
       </c>
@@ -10953,7 +10958,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="90" t="s">
         <v>1067</v>
       </c>
@@ -10970,7 +10975,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="90" t="s">
         <v>1069</v>
       </c>
@@ -10987,7 +10992,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="90" t="s">
         <v>1071</v>
       </c>
@@ -11004,7 +11009,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="90" t="s">
         <v>1073</v>
       </c>
@@ -11021,7 +11026,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="90" t="s">
         <v>1075</v>
       </c>
@@ -11038,7 +11043,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="90" t="s">
         <v>1077</v>
       </c>
@@ -11055,7 +11060,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="90" t="s">
         <v>1079</v>
       </c>
@@ -11072,7 +11077,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="90" t="s">
         <v>1081</v>
       </c>
@@ -11089,7 +11094,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="90" t="s">
         <v>1083</v>
       </c>
@@ -11106,7 +11111,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="90" t="s">
         <v>1085</v>
       </c>
@@ -11123,7 +11128,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="90" t="s">
         <v>1087</v>
       </c>
@@ -11140,7 +11145,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="90" t="s">
         <v>1089</v>
       </c>
@@ -11157,7 +11162,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" s="90" t="s">
         <v>1091</v>
       </c>
@@ -11174,7 +11179,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="90" t="s">
         <v>1093</v>
       </c>
@@ -11191,7 +11196,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="90" t="s">
         <v>1095</v>
       </c>
@@ -11208,7 +11213,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="90" t="s">
         <v>1097</v>
       </c>
@@ -11225,7 +11230,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A142" s="90" t="s">
         <v>1100</v>
       </c>
@@ -11242,7 +11247,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="90" t="s">
         <v>1103</v>
       </c>
@@ -11276,7 +11281,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="90" t="s">
         <v>1107</v>
       </c>
@@ -11293,7 +11298,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A146" s="90" t="s">
         <v>1109</v>
       </c>
@@ -11310,7 +11315,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A147" s="90" t="s">
         <v>1111</v>
       </c>
@@ -11327,7 +11332,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="90" t="s">
         <v>1113</v>
       </c>
@@ -11344,7 +11349,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="90" t="s">
         <v>1116</v>
       </c>
@@ -11361,7 +11366,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="90" t="s">
         <v>1119</v>
       </c>
@@ -11378,7 +11383,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="90" t="s">
         <v>1122</v>
       </c>
@@ -11395,7 +11400,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="90" t="s">
         <v>1122</v>
       </c>
@@ -11412,7 +11417,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="90" t="s">
         <v>1126</v>
       </c>
@@ -11429,7 +11434,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="90" t="s">
         <v>1127</v>
       </c>
@@ -11446,7 +11451,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="90" t="s">
         <v>1128</v>
       </c>
@@ -11463,7 +11468,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="90" t="s">
         <v>1129</v>
       </c>
@@ -11480,7 +11485,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="90" t="s">
         <v>1130</v>
       </c>
@@ -11497,7 +11502,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="90" t="s">
         <v>1131</v>
       </c>
@@ -11514,7 +11519,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="90" t="s">
         <v>1132</v>
       </c>
@@ -11531,7 +11536,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="90" t="s">
         <v>1133</v>
       </c>
@@ -11548,7 +11553,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="90" t="s">
         <v>1134</v>
       </c>
@@ -11565,7 +11570,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="90" t="s">
         <v>1135</v>
       </c>
@@ -11582,7 +11587,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="90" t="s">
         <v>1136</v>
       </c>
@@ -11599,7 +11604,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="90" t="s">
         <v>1137</v>
       </c>
@@ -11616,7 +11621,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="90" t="s">
         <v>1138</v>
       </c>
@@ -11633,7 +11638,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="90" t="s">
         <v>1139</v>
       </c>
@@ -11650,7 +11655,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="90" t="s">
         <v>1140</v>
       </c>
@@ -11667,7 +11672,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="90" t="s">
         <v>1141</v>
       </c>
@@ -11684,7 +11689,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="90" t="s">
         <v>1142</v>
       </c>
@@ -11701,7 +11706,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="90" t="s">
         <v>1143</v>
       </c>
@@ -11718,7 +11723,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="90" t="s">
         <v>1144</v>
       </c>
@@ -11735,7 +11740,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="90" t="s">
         <v>1145</v>
       </c>
@@ -11752,7 +11757,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="90" t="s">
         <v>1146</v>
       </c>
@@ -11769,7 +11774,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="90" t="s">
         <v>1147</v>
       </c>
@@ -11786,7 +11791,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="90" t="s">
         <v>1148</v>
       </c>
@@ -11803,7 +11808,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="90" t="s">
         <v>1149</v>
       </c>
@@ -11820,7 +11825,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="90" t="s">
         <v>1150</v>
       </c>
@@ -11837,7 +11842,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="90" t="s">
         <v>1151</v>
       </c>
@@ -11854,7 +11859,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="90" t="s">
         <v>1152</v>
       </c>
@@ -11871,7 +11876,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="90" t="s">
         <v>1151</v>
       </c>
@@ -11888,7 +11893,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="90" t="s">
         <v>1153</v>
       </c>
@@ -11905,7 +11910,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="90" t="s">
         <v>1154</v>
       </c>
@@ -11922,7 +11927,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="90" t="s">
         <v>1155</v>
       </c>
@@ -11939,7 +11944,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="90" t="s">
         <v>1156</v>
       </c>
@@ -11956,7 +11961,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="90" t="s">
         <v>1157</v>
       </c>
@@ -11973,7 +11978,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="90" t="s">
         <v>1158</v>
       </c>
@@ -11990,7 +11995,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="90" t="s">
         <v>1159</v>
       </c>
@@ -12007,7 +12012,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="90" t="s">
         <v>1160</v>
       </c>
@@ -12024,7 +12029,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="90" t="s">
         <v>1161</v>
       </c>
@@ -12041,7 +12046,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="90" t="s">
         <v>1162</v>
       </c>
@@ -12058,7 +12063,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="90" t="s">
         <v>1163</v>
       </c>
@@ -12075,7 +12080,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="90" t="s">
         <v>1164</v>
       </c>
@@ -12092,7 +12097,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="90" t="s">
         <v>1165</v>
       </c>
@@ -12109,7 +12114,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="90" t="s">
         <v>1166</v>
       </c>
@@ -12126,7 +12131,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="90" t="s">
         <v>1167</v>
       </c>
@@ -12143,7 +12148,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="90" t="s">
         <v>1168</v>
       </c>
@@ -12160,7 +12165,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="90" t="s">
         <v>1169</v>
       </c>
@@ -12177,7 +12182,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="90" t="s">
         <v>1170</v>
       </c>
@@ -12194,7 +12199,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="90" t="s">
         <v>1171</v>
       </c>
@@ -12211,7 +12216,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="90" t="s">
         <v>1172</v>
       </c>
@@ -12228,7 +12233,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="90" t="s">
         <v>1173</v>
       </c>
@@ -12245,7 +12250,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="90" t="s">
         <v>1174</v>
       </c>
@@ -12262,7 +12267,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="90" t="s">
         <v>1175</v>
       </c>
@@ -12279,7 +12284,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="90" t="s">
         <v>1176</v>
       </c>
@@ -12296,7 +12301,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="90" t="s">
         <v>1177</v>
       </c>
@@ -12313,7 +12318,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="90" t="s">
         <v>1178</v>
       </c>
@@ -12330,7 +12335,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="90" t="s">
         <v>1179</v>
       </c>
@@ -12347,7 +12352,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="90" t="s">
         <v>1180</v>
       </c>
@@ -12364,7 +12369,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="90" t="s">
         <v>1181</v>
       </c>
@@ -12381,7 +12386,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="90" t="s">
         <v>1182</v>
       </c>
@@ -12398,7 +12403,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="90" t="s">
         <v>1183</v>
       </c>
@@ -12415,7 +12420,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="90" t="s">
         <v>1184</v>
       </c>
@@ -12432,7 +12437,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="90" t="s">
         <v>1185</v>
       </c>
@@ -12449,7 +12454,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="90" t="s">
         <v>1186</v>
       </c>
@@ -12466,7 +12471,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="90" t="s">
         <v>1187</v>
       </c>
@@ -12483,7 +12488,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="90" t="s">
         <v>1188</v>
       </c>
@@ -12500,7 +12505,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="90" t="s">
         <v>1189</v>
       </c>
@@ -12517,7 +12522,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="90" t="s">
         <v>1190</v>
       </c>
@@ -12534,7 +12539,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="90" t="s">
         <v>1191</v>
       </c>
@@ -12551,7 +12556,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="90" t="s">
         <v>1192</v>
       </c>
@@ -12568,7 +12573,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="90" t="s">
         <v>1193</v>
       </c>
@@ -12585,7 +12590,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="90" t="s">
         <v>1194</v>
       </c>
@@ -12602,7 +12607,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="90" t="s">
         <v>1195</v>
       </c>
@@ -12619,7 +12624,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="90" t="s">
         <v>1196</v>
       </c>
@@ -12636,7 +12641,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="90" t="s">
         <v>1197</v>
       </c>
@@ -12653,7 +12658,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="90" t="s">
         <v>1198</v>
       </c>
@@ -12670,7 +12675,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="90" t="s">
         <v>1199</v>
       </c>
@@ -12687,7 +12692,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="90" t="s">
         <v>1200</v>
       </c>
@@ -12704,7 +12709,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="90" t="s">
         <v>1201</v>
       </c>
@@ -12721,7 +12726,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="90" t="s">
         <v>1202</v>
       </c>
@@ -12738,7 +12743,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="90" t="s">
         <v>1203</v>
       </c>
@@ -12755,7 +12760,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="90" t="s">
         <v>1204</v>
       </c>
@@ -12772,7 +12777,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="90" t="s">
         <v>1205</v>
       </c>
@@ -12789,7 +12794,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="90" t="s">
         <v>1206</v>
       </c>
@@ -12806,7 +12811,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="90" t="s">
         <v>1207</v>
       </c>
@@ -12823,7 +12828,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="90" t="s">
         <v>1208</v>
       </c>
@@ -12840,7 +12845,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="90" t="s">
         <v>1209</v>
       </c>
@@ -12857,7 +12862,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="90" t="s">
         <v>1063</v>
       </c>
@@ -12874,7 +12879,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="90" t="s">
         <v>1210</v>
       </c>
@@ -12891,7 +12896,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="90" t="s">
         <v>1211</v>
       </c>
@@ -12908,7 +12913,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="90" t="s">
         <v>1212</v>
       </c>
@@ -12925,7 +12930,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="90" t="s">
         <v>1213</v>
       </c>
@@ -12942,7 +12947,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="90" t="s">
         <v>1214</v>
       </c>
@@ -12959,7 +12964,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="90" t="s">
         <v>1215</v>
       </c>
@@ -12976,7 +12981,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="90" t="s">
         <v>1216</v>
       </c>
@@ -12993,7 +12998,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="90" t="s">
         <v>1217</v>
       </c>
@@ -13010,7 +13015,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="90" t="s">
         <v>1218</v>
       </c>
@@ -13027,7 +13032,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="90" t="s">
         <v>1219</v>
       </c>
@@ -13044,7 +13049,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="90" t="s">
         <v>1220</v>
       </c>
@@ -13061,7 +13066,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="90" t="s">
         <v>1221</v>
       </c>
@@ -13078,7 +13083,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="90" t="s">
         <v>1222</v>
       </c>
@@ -13095,7 +13100,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="90">
         <v>43895002</v>
       </c>
@@ -13112,7 +13117,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="90" t="s">
         <v>1223</v>
       </c>
@@ -13129,7 +13134,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="90" t="s">
         <v>1224</v>
       </c>
@@ -13146,7 +13151,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="90" t="s">
         <v>1225</v>
       </c>
@@ -13163,7 +13168,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="90" t="s">
         <v>1226</v>
       </c>
@@ -13180,7 +13185,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="90" t="s">
         <v>1227</v>
       </c>
@@ -13197,7 +13202,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="90" t="s">
         <v>1228</v>
       </c>
@@ -13214,7 +13219,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="90" t="s">
         <v>1229</v>
       </c>
@@ -13231,7 +13236,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="90" t="s">
         <v>1230</v>
       </c>
@@ -13248,7 +13253,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="90" t="s">
         <v>1231</v>
       </c>
@@ -13265,7 +13270,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="90" t="s">
         <v>1232</v>
       </c>
@@ -13282,7 +13287,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="90" t="s">
         <v>1233</v>
       </c>
@@ -13299,7 +13304,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="90" t="s">
         <v>1234</v>
       </c>
@@ -13316,7 +13321,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="90" t="s">
         <v>1235</v>
       </c>
@@ -13333,7 +13338,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="90" t="s">
         <v>1236</v>
       </c>
@@ -13350,7 +13355,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="90" t="s">
         <v>1237</v>
       </c>
@@ -13367,7 +13372,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="90" t="s">
         <v>1238</v>
       </c>
@@ -13384,7 +13389,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="90" t="s">
         <v>1239</v>
       </c>
@@ -13401,7 +13406,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="90" t="s">
         <v>1240</v>
       </c>
@@ -13418,7 +13423,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="90" t="s">
         <v>1241</v>
       </c>
@@ -13435,7 +13440,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="90" t="s">
         <v>1242</v>
       </c>
@@ -13452,7 +13457,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="90" t="s">
         <v>1243</v>
       </c>
@@ -13469,7 +13474,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="90" t="s">
         <v>1244</v>
       </c>
@@ -13486,7 +13491,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="90" t="s">
         <v>1245</v>
       </c>
@@ -13503,7 +13508,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="90" t="s">
         <v>1246</v>
       </c>
@@ -13520,7 +13525,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="90" t="s">
         <v>1247</v>
       </c>
@@ -13537,7 +13542,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="90" t="s">
         <v>1248</v>
       </c>
@@ -13554,7 +13559,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="90" t="s">
         <v>1249</v>
       </c>
@@ -13571,7 +13576,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="90" t="s">
         <v>1250</v>
       </c>
@@ -13588,7 +13593,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="90" t="s">
         <v>1251</v>
       </c>
@@ -13605,7 +13610,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="90" t="s">
         <v>1135</v>
       </c>
@@ -13622,7 +13627,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="90" t="s">
         <v>1134</v>
       </c>
@@ -13639,7 +13644,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="90" t="s">
         <v>1252</v>
       </c>
@@ -13656,7 +13661,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="90" t="s">
         <v>1253</v>
       </c>
@@ -13673,7 +13678,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="90" t="s">
         <v>1254</v>
       </c>
@@ -13690,7 +13695,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="90" t="s">
         <v>1255</v>
       </c>
@@ -13707,7 +13712,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="90" t="s">
         <v>1256</v>
       </c>
@@ -13724,7 +13729,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="90" t="s">
         <v>1257</v>
       </c>
@@ -13741,7 +13746,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="90" t="s">
         <v>1258</v>
       </c>
@@ -13758,7 +13763,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="90" t="s">
         <v>1259</v>
       </c>
@@ -13775,7 +13780,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="90" t="s">
         <v>1260</v>
       </c>
@@ -13792,7 +13797,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="90" t="s">
         <v>1261</v>
       </c>
@@ -13809,7 +13814,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="90" t="s">
         <v>1262</v>
       </c>
@@ -13826,7 +13831,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="90" t="s">
         <v>1263</v>
       </c>
@@ -13843,7 +13848,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="90" t="s">
         <v>1242</v>
       </c>
@@ -13860,7 +13865,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="90" t="s">
         <v>1264</v>
       </c>
@@ -13877,7 +13882,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="90" t="s">
         <v>1265</v>
       </c>
@@ -13894,7 +13899,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="90" t="s">
         <v>1266</v>
       </c>
@@ -13911,7 +13916,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="90" t="s">
         <v>1267</v>
       </c>
@@ -13928,7 +13933,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="90" t="s">
         <v>1245</v>
       </c>
@@ -13945,7 +13950,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="90" t="s">
         <v>1268</v>
       </c>
@@ -13962,7 +13967,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="90" t="s">
         <v>1269</v>
       </c>
@@ -13979,7 +13984,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="90" t="s">
         <v>1270</v>
       </c>
@@ -13996,7 +14001,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="90" t="s">
         <v>1271</v>
       </c>
@@ -14013,7 +14018,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="90" t="s">
         <v>1272</v>
       </c>
@@ -14030,7 +14035,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="90" t="s">
         <v>1273</v>
       </c>
@@ -14047,7 +14052,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="90" t="s">
         <v>1274</v>
       </c>
@@ -14064,7 +14069,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="90" t="s">
         <v>1275</v>
       </c>
@@ -14081,7 +14086,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="90" t="s">
         <v>1057</v>
       </c>
@@ -14098,7 +14103,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="90" t="s">
         <v>1276</v>
       </c>
@@ -14115,7 +14120,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="90" t="s">
         <v>1277</v>
       </c>
@@ -14132,7 +14137,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="90" t="s">
         <v>1278</v>
       </c>
@@ -14148,20 +14153,6 @@
       <c r="E313" s="91" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A314" s="90"/>
-      <c r="B314" s="90"/>
-      <c r="C314" s="90"/>
-      <c r="D314" s="90"/>
-      <c r="E314" s="91"/>
-    </row>
-    <row r="315" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A315" s="90"/>
-      <c r="B315" s="90"/>
-      <c r="C315" s="90"/>
-      <c r="D315" s="90"/>
-      <c r="E315" s="91"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B966D1-B8FE-4419-B88D-CEFAE4A07216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC26A5F-5363-4235-ADE3-AC52AA1BE02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
+    <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="1607">
   <si>
     <t>producto</t>
   </si>
@@ -7688,6 +7688,856 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>60M44LA</t>
+  </si>
+  <si>
+    <t>615Y5LA</t>
+  </si>
+  <si>
+    <t>4S055LT</t>
+  </si>
+  <si>
+    <t>4V2X2LT</t>
+  </si>
+  <si>
+    <t>618U3LT</t>
+  </si>
+  <si>
+    <t>8ZN63LT</t>
+  </si>
+  <si>
+    <t>2N6G3LT</t>
+  </si>
+  <si>
+    <t>428Z6EP</t>
+  </si>
+  <si>
+    <t>67K19LC</t>
+  </si>
+  <si>
+    <t>8TH85EC</t>
+  </si>
+  <si>
+    <t>20V17UC</t>
+  </si>
+  <si>
+    <t>37C26LT</t>
+  </si>
+  <si>
+    <t>4S8A4EC</t>
+  </si>
+  <si>
+    <t>618R3LT</t>
+  </si>
+  <si>
+    <t>8FZ05LP</t>
+  </si>
+  <si>
+    <t>618R4LT</t>
+  </si>
+  <si>
+    <t>59D09LT</t>
+  </si>
+  <si>
+    <t>441M8LS</t>
+  </si>
+  <si>
+    <t>4S5G6LT</t>
+  </si>
+  <si>
+    <t>4S5G6LT/16G</t>
+  </si>
+  <si>
+    <t>44V37LT</t>
+  </si>
+  <si>
+    <t>4V9K6UC</t>
+  </si>
+  <si>
+    <t>11SWS2HF00</t>
+  </si>
+  <si>
+    <t>20TBS7RE00</t>
+  </si>
+  <si>
+    <t>20YDS06K00</t>
+  </si>
+  <si>
+    <t>20YDS06J00</t>
+  </si>
+  <si>
+    <t>20YHS05H00</t>
+  </si>
+  <si>
+    <t>20YHS05J00</t>
+  </si>
+  <si>
+    <t>20X2S89800</t>
+  </si>
+  <si>
+    <t>20X2S8TT00</t>
+  </si>
+  <si>
+    <t>20X2SAW100</t>
+  </si>
+  <si>
+    <t>20X2S94Q00</t>
+  </si>
+  <si>
+    <t>20X6S2HT00</t>
+  </si>
+  <si>
+    <t>20X6S1PF00</t>
+  </si>
+  <si>
+    <t>20X6S24C00</t>
+  </si>
+  <si>
+    <t>11T4S8DK00</t>
+  </si>
+  <si>
+    <t>20VYS37G00</t>
+  </si>
+  <si>
+    <t>20W1S14E0A</t>
+  </si>
+  <si>
+    <t>20W1S14E0AUPG</t>
+  </si>
+  <si>
+    <t>20W1SB6000</t>
+  </si>
+  <si>
+    <t>20W1SD1E00</t>
+  </si>
+  <si>
+    <t>20W1SGUC00</t>
+  </si>
+  <si>
+    <t>21AJS33V00</t>
+  </si>
+  <si>
+    <t>20W1SC4700</t>
+  </si>
+  <si>
+    <t>20W1SFS600</t>
+  </si>
+  <si>
+    <t>21AJS4E500</t>
+  </si>
+  <si>
+    <t>21CGS2H900</t>
+  </si>
+  <si>
+    <t>20XLS2VT00</t>
+  </si>
+  <si>
+    <t>20XLA00BAR</t>
+  </si>
+  <si>
+    <t>20XLS2K200</t>
+  </si>
+  <si>
+    <t>20XLS2N900</t>
+  </si>
+  <si>
+    <t>20XLS37200</t>
+  </si>
+  <si>
+    <t>21CGS1XM00</t>
+  </si>
+  <si>
+    <t>21CGS1XM00+3YP</t>
+  </si>
+  <si>
+    <t>21CGS3ES00</t>
+  </si>
+  <si>
+    <t>20WNS7VH00</t>
+  </si>
+  <si>
+    <t>20XGS1X900</t>
+  </si>
+  <si>
+    <t>20XGS1XA00</t>
+  </si>
+  <si>
+    <t>21DBS0LL00</t>
+  </si>
+  <si>
+    <t>20VE00L4AR</t>
+  </si>
+  <si>
+    <t>WL-UG69DK1</t>
+  </si>
+  <si>
+    <t>WDS500G2B0B</t>
+  </si>
+  <si>
+    <t>WDS480G2G0C</t>
+  </si>
+  <si>
+    <t>WD4005FZBX</t>
+  </si>
+  <si>
+    <t>WD20PURZ</t>
+  </si>
+  <si>
+    <t>VM3AL0N1A4A20F</t>
+  </si>
+  <si>
+    <t>VM3001VMCRADLE</t>
+  </si>
+  <si>
+    <t>VM2015BRKTKIT</t>
+  </si>
+  <si>
+    <t>VM2014BRKTKIT</t>
+  </si>
+  <si>
+    <t>TZE-FX231</t>
+  </si>
+  <si>
+    <t>TOOLBAL</t>
+  </si>
+  <si>
+    <t>SNVS/500G</t>
+  </si>
+  <si>
+    <t>SNV2S/500G</t>
+  </si>
+  <si>
+    <t>SA400S37/480G</t>
+  </si>
+  <si>
+    <t>RB/750GR3</t>
+  </si>
+  <si>
+    <t>PX6E01000000012</t>
+  </si>
+  <si>
+    <t>P300P256GM28</t>
+  </si>
+  <si>
+    <t>OEM5160</t>
+  </si>
+  <si>
+    <t>OCN1</t>
+  </si>
+  <si>
+    <t>NS-MIDPHD</t>
+  </si>
+  <si>
+    <t>NOUSAR2X39G</t>
+  </si>
+  <si>
+    <t>MLT-D205L</t>
+  </si>
+  <si>
+    <t>LS27AM500NLXZB</t>
+  </si>
+  <si>
+    <t>KVR32S22S8/16</t>
+  </si>
+  <si>
+    <t>KVR32S22S6/8</t>
+  </si>
+  <si>
+    <t>KVR32N22S8/16</t>
+  </si>
+  <si>
+    <t>KVR32N22S6/8</t>
+  </si>
+  <si>
+    <t>KCP432SS8/16</t>
+  </si>
+  <si>
+    <t>KCP432SS6/8</t>
+  </si>
+  <si>
+    <t>KCP426NS8/8GB</t>
+  </si>
+  <si>
+    <t>286J4AA</t>
+  </si>
+  <si>
+    <t>HEDA61KHB0</t>
+  </si>
+  <si>
+    <t>HCJWT</t>
+  </si>
+  <si>
+    <t>EST-209745-101</t>
+  </si>
+  <si>
+    <t>DQS301-24012</t>
+  </si>
+  <si>
+    <t>DOCK419USZ</t>
+  </si>
+  <si>
+    <t>CX096-03482</t>
+  </si>
+  <si>
+    <t>CMW-450</t>
+  </si>
+  <si>
+    <t>981-000014</t>
+  </si>
+  <si>
+    <t>910-005902</t>
+  </si>
+  <si>
+    <t>9000160KEYBRD</t>
+  </si>
+  <si>
+    <t>8C7514</t>
+  </si>
+  <si>
+    <t>851-810-002</t>
+  </si>
+  <si>
+    <t>6MT4T</t>
+  </si>
+  <si>
+    <t>631341-B21</t>
+  </si>
+  <si>
+    <t>5353235N3</t>
+  </si>
+  <si>
+    <t>328883</t>
+  </si>
+  <si>
+    <t>322461</t>
+  </si>
+  <si>
+    <t>1WWHW</t>
+  </si>
+  <si>
+    <t>1280IFR-3SER</t>
+  </si>
+  <si>
+    <t>100080</t>
+  </si>
+  <si>
+    <t>006R01704</t>
+  </si>
+  <si>
+    <t>006R01703</t>
+  </si>
+  <si>
+    <t>006R01702</t>
+  </si>
+  <si>
+    <t>006R01701</t>
+  </si>
+  <si>
+    <t>NO DISPONIBLE</t>
+  </si>
+  <si>
+    <t>KINGSTON</t>
+  </si>
+  <si>
+    <t>WESTERN DIGITAL</t>
+  </si>
+  <si>
+    <t>SAPPHIRE</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>BROTHER</t>
+  </si>
+  <si>
+    <t>MIKROTIK</t>
+  </si>
+  <si>
+    <t>METROLOGIC</t>
+  </si>
+  <si>
+    <t>SIN MARCA</t>
+  </si>
+  <si>
+    <t>TARGUS</t>
+  </si>
+  <si>
+    <t>NISUTA</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>HP PERIFERICOS</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>PLANTRONICS</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>LOGITECH</t>
+  </si>
+  <si>
+    <t>MANHATTAN</t>
+  </si>
+  <si>
+    <t>XEROX INSUMOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP 280 G5 SFF i510505 4GB/1TB Fdos PC 111 (Intel  i510505 Generacion 10) incluye kit teclado + mouse cableado usb_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP 280 G5 SFF i5-10500 8GB/1TB PC W10 pro (Intel i5-10500  Generacion 10)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP PB440G8 i5-1135G7 14 HD 8GB/512 W10p 1.1.0 (Intel I5-1135G7 Generacion 11)_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA PB440G8 I5-1135G7 14 HD 8GB256GB W10P 1/1/0 (Intel I5-1135G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP PROBOOK 450G8 CORE I5 1135G7 8GB 512GB SSD 15.6? W11 PRO 1.1.0. (Intel I5 1135G7 Generacion 11)_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP PB450G7 i7-10510U 15 8GB/1T W10Pro 110 (Intel i7-10510U Generacion 10)_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hp Probook 640 G8 i5 8gb 256 ssd W10P 110 (Intel i5 1135G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP PB640G8 i5-1145G7 vpro 14 4GB/128 PC W10 Pro (Intel i5-1145G7 Generacion 11)_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB 640 G8 i5-1145G7 vPro 16GB SSD 256GB W11P6 1.1.0 (Intel i5-1145G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP EB735G6 R5-3500U 13 16GB/512 W10P 330 (Ryzen R5-3500U Generacion 3)_x000D_
+_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP EB840G7 i5-10310U 14 16GB/256 W10P 330 (Intel  i5-10310U Generacion 10)_x000D_
+_x000D_
+_x000D_
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP EB840G7 i5-10210U 14 8GB/512 W10P 110 (Intel i5-10210U Generacion 10)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTEBOOK HP 840G8 i5-1135G7 8/512 W10P 1.1.0 (Intel I5-1135G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP EB840G8 i5-1145G7 14 16GB/256 W11P 3.3.0. (Intel i5-1145G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA EB840G8 I5-1135G7 14IN8.512GB W11P DG 1/1/0 (Intel I5-1135G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP EB840G6 i7-8665U 14 16GB/256 W10P 330 (Intel i7-8665U Generacion 8)_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB HP 14 840 I7-1165G7 16GB SSD512GB W10PRO (Intel i7-1165G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB840G8 i7-1165G7 14 8GB/512ssd W11P (Intel i7-1165G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA EB 840 G8 I7-1165G7 16GB 256GB 14IN W10P6 1/1/0 (Intel i7-1165G7 Generacion 11)_x000D_
+_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>HP EliteBook 840 G8 14" Notebook - Full HD - 1920 x 1080 - Intel Core i7 11th Gen i7-1165G7 Quad-core (4 Core) - 8 GB(2 slots de 4gb) - 512 GB SSD - Windows 10 Pro - (Intel i7-1165G7 Generacion 11)_x000D_
+_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB 840G8 i7G7 16GB 512SSD W10P 110 (Intel i7-1165G7 Generacion 11)_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP EliteBook 840 G8 14" Notebook - Full HD - 1920 x 1080 - Intel Core i7 11th Gen i7-1165G7 Quad-core (4 Core) - 16 GB Total RAM - 512 GB SSD - Windows 10 Pro (Intel i7-1165G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP EB845G8 R5-5650U 14 16GB/512 W10P (Ryzen R5-5650U Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP EB845G8 R5-5650U 14 16GB/512 W10P 330 (Ryzen R5-5650U Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neo 50s G3 i5-12400  16GB 512SSD W11P 333_x000D_
+	_x000D_
+_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E14 G2 i5 16 512 W10P 333 (Intel i5-1135G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t>NOT LN E14 G3 R5 8G 256GB SSD M.2 2242 PCIe® 3.0x4 NVMe® FDOS 3.3.3.(upgrade disco: One SSD mode: one drive, 1x M.2 SSD• M.2 2280 SSD up to 1TB, • M.2 2242 SSD up to 512GB,) (Ryzen R5 5500U Generacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notebook Lenovo E14 G3 Ryzen 7, 8Gb 256GB SSD M.2 2242 PCIe® 3.0x4 NVMe® FDOS 3YOnsite (upgrade disco: One SSD mode: one drive, 1x M.2 SSD• M.2 2280 SSD up to 1TB, • M.2 2242 SSD up to 512GB,) (Ryzen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB LENOVO TP "15.6 E15 G3 R5-5500U 8GB SSD256 FDOS 3.3.3. (Ryzen R5-5500U Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB LENOVO TP "15.6 E15 G3 R7-5700U 8GB SSD256 FDOS 3.3.3. (Ryzen R7-5700U Generacion 5)_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTB LNV L14 I7-1165G7 8GB 512 SSD 10P 3Y NORJ45 NI DONGLE (Intel i7-1165G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L14 G2 i7-1165G7 16 256 W10Pro FHD PS NO RJ45 (Intel i7-1165G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP L14 G2 I7 16G 512G W11D 333 (Intel i7-1165G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L14 G2 i7-1165G7 16 256 W10Pro FHD ADP sin RJ45 (Intel i7-1165G7 Generacion 11)_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP L14 AMD G2 R5 16G 512G 11D 3.3.3 (Ryzen R5 5600U Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP L14 G2 R7 5850_PRO 16G 512GB SSD M.2 2242 NVMe TLC W10P 333 (Upgrade de disco: SSD M.2 2242 PCIe) (Ryzen  R7 5850 Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP L14 G2 R7_PRO 16G 512 GB SSD M.2 2242 PCIe TLC W10P 333 NO DONGLE NI RJ45 (Upgrade del disco: SSD M.2 2242 PCIe) (Ryzen AMD Ryzen™ 7 PRO 5850U Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop TC M70q i5  Gen 3_Intel Q670_Tiny 8GB 256SSD W11P 333 -  2 x puerto serial + 1 x puerto VESA_x000D_
+	_x000D_
+_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P14s, Intel Core i7-1165G7, Quadro T500 4GB, 16GB, 1TB SSD, W10P 3YOS (Intel i7-1165G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t>T14 Gen2 (ENGLISH KEYBOARD) Intel Core i5-1145G7 vPro (2.60GHz, 8MB) 14.0 1920x1080 Non-Touch, Windows 10 Pro 64, 16.0GB, 1x256GB SSD, M.2 2280, PCIe NVMe, OPAL2.0, TLC, Intel® UHD Graphics, Bluetooth</t>
+  </si>
+  <si>
+    <t>T14 Gen2 (ENGLISH KEYBOARD) Intel Core i5-1145G7 vPro (2.60GHz, 8MB) 14.0 1920x1080 Non-Touch, Windows 10 Pro 64, 32GB, 1x 500GB SSD, M.2 2280 PCIe NVMe, OPAL2.0, TLC, Intel® UHD Graphics, Bluetooth 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP T14 G2 I5 8G 256G 10P UHD 3y ONSITE no tiene el puerto RJ45 Nativo, sino vía dongle USB-C a Ethernet (Intel I5-1135G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP T14 G2 I5 8G 256G10P333NoRJ45 (Intel i5-1135G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP T14 G2 I5 Vpro 16G 512G W11P 3.3.3 (Intel i5-1145G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notebook ThinkPad T14 G3 i5-1235U, 16GB, 512SSD, Win10p, Wty 3Y On-Site (Intel i5-1235U Generacion 12)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14 G2 i7-1165G7 16 256 W10Pro FHD 333 NO RJ45 ni dongle (Intel i7-1165G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP T14 G2 I7 Vpro 16G 512G 11D 3.3.3. (Intel i7-1185G7 Generacion 11)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP T14 G3 I7 16G 512G W11P Downgrade a W10P 3 Year Premier support on site (Intel i7-1255U Generacion 12)_x000D_
+</t>
+  </si>
+  <si>
+    <t>Notebook ThinkPad T14 G3 R5 16GB 512SSD W10P 3 YEARS ON SITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThinkPad T14 G2 RYZEN 7 5850U 16GB 512GB W10P, 3YOS (Ryzen RYZEN 7 5850U Generacion 5)_x000D_
+                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14 G2 R7-5850 16 512 W10Pro FHD +3Y Premier Support + 3Y Accidental Damage Protection. (Ryzen AMD Ryzen™ 7 PRO 5850U Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14 G2 R7-5850 16 256 W10Pro FHD 333 NO RJ45 ni dongle (Ryzen  R7-5850  Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14 G2 R7-5850 16 512 W10Pro FHD 333 PS (Ryzen R7-5850 Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP T14 AMD G2 R7_PRO 16G 512G W11P Downgrade a W10P 333 (Ryzen AMD Ryzen™ 7 PRO 5000 Series Mobile Processors Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"NB TP T14 G3 R7_PRO 16G 512G W11P Downgrade a W10P 333 (Ryzen AMD Ryzen™ 7 PRO 6850U (8C / 16T, 2.7 / 4.7GHz, 4MB L2 /
+16MB L3) Generacion 6)"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14 G3 R7 16G 512G W11D 3Y PremierSP (Ryzen AMD Ryzen™ 7 PRO 6850U Generacion 6)_x000D_
+</t>
+  </si>
+  <si>
+    <t>T14 Gen3 R7 6850U 16GB 512SSD W11P, 333+ PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThinkPad T14s G2, Intel Core i7- 1185G7 vPro (3.00GHz, 12MB) 14.0 1920 x 1080, Windows 10 Pro 64, 16.0GB, 1x256GB SSD, M.2 2280, 333 PS ADPPCIe NVMe, OPAL2.0, TLC, Intel® Iris® Xe Graphics, BT (Intel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP T14s AMD G2 R5_PRO 16G 512G W11P 333 (Ryzen RYZEN 5 PRO 5650U Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB TP T14s AMD G2 R5_PRO 16G 512G W11D 333 (Ryzen RYZEN 5 PRO 5650U Generacion 5)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notebook T15p G3 i7 vpro 16GB 1TB SSD W10P RTX3050 4GB 333 (Intel i7-12800H vPro Generacion 12)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo ThinkBook 15 G2 i5 8gb 256 2Y PS free dos (Intel i5-1135G7 Generacion 11)_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>Docking Station Hub Wavlink Usb Typ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD 500G WD SSD BLUE3D M.2 2280_x000D_
+</t>
+  </si>
+  <si>
+    <t>DISCO SSD WD GREEN SN350 480GB M.2 PCIE</t>
+  </si>
+  <si>
+    <t>HD 4T WD SATAIII BLACK</t>
+  </si>
+  <si>
+    <t>Disco Rigido 2TB WD SATA 6 64MB Purple (WD20PURZ)</t>
+  </si>
+  <si>
+    <t>VM3A / Indoor Capacitive / Android ML GMS / Device Client Pack / 4GB / 32GB / 802.11abgnac / Internal WLAN Antennas / Bluetooth / FCC</t>
+  </si>
+  <si>
+    <t>VM3001VMCRADLE VM SERIES DOCK WITH INTEGRAL POWER SUPPLY, Enhanced I/O, 10 TO 60 VDC, DC POWER CABLE INCLUDED</t>
+  </si>
+  <si>
+    <t>VM2015BRKTKIT VM2 RAM mount kit for keyboard &amp; computer, flat clamp base, medium arm 215 mm (8.5 inch), ’D’ ball for dock rear, keyboard mount</t>
+  </si>
+  <si>
+    <t>HONEYWELL, ACCESSORY, RAM MOUNT KIT FOR VM2, KEYBOARD AND COMPUTER, FLAT CLAMP BASE, SHORT ARM 5IN, 128MM, BALL FOR VEHICLE DOCK REAR, KEYBOARD MOUNT</t>
+  </si>
+  <si>
+    <t>CINTA P/ROTU BROTHER TZEFX231 12MM FLEX NEG/BLA TZE-FX231</t>
+  </si>
+  <si>
+    <t>HONEYWELL, ACCESSORY, TAKE UP_x000D_
+REEL/BALANCER FOR THE INDUSTRIAL_x000D_
+SCANNERS, 6.6 FT RETRACTING CABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingston - Unidad en estado sólido - 500 GB - interno - M.2 2280 - PCI Express 3.0 x4 (NVMe)_x000D_
+</t>
+  </si>
+  <si>
+    <t>Kingston NV2 - SSD - 500 GB - interno - M.2 2280 - PCIe 4.0 x4 (NVMe)</t>
+  </si>
+  <si>
+    <t>Kingston SSDNow A400 - Unidad en estado sólido - 480 GB - interno - 2.5" - SATA 6Gb/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTER-AP MIKROTIK RB/750GR3 s/ Fuente          _x000D_
+</t>
+  </si>
+  <si>
+    <t>PXie Series PX6ie Industrial Printer</t>
+  </si>
+  <si>
+    <t>DISCO PATRIOT P300 256GB M.2 PCI-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEM5160 10536 Avery Easy Peel White Adress Labels for Laser Printers 1''x2-5/8  </t>
+  </si>
+  <si>
+    <t>MALETIN TARGUS PARA NOTEBOOK HASTA 15,4" NEGRO,MATERIAL. 600D POLIESTER. BOLSILLO EXTERNO. GARANTIA DE POR VIDA.</t>
+  </si>
+  <si>
+    <t>Cable mini Display Port macho a HDMI hembra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Battery Li-Ion 4 Cell 7.6V 7500mAh (60Wh) For Dell Latitude 7490 7480 7280 7290</t>
+  </si>
+  <si>
+    <t>TONER SAMSUNG MLT-D205L 5000 PAGINAS</t>
+  </si>
+  <si>
+    <t>MONITOR SAMSUNG FLAT 27" AM500 SMART TV</t>
+  </si>
+  <si>
+    <t>KVR32S22S8/16 16G KI 3200 DDR4 NO-ECC SODIMM</t>
+  </si>
+  <si>
+    <t>8G KI DDR4 KVR32S22S6/8</t>
+  </si>
+  <si>
+    <t>MEMORIA KINGSTON 16 GB DDR4  KVR32N22S8/16</t>
+  </si>
+  <si>
+    <t>MEMORIA KINGSTON 8 GB DDR4  KVR32N22S6/8</t>
+  </si>
+  <si>
+    <t>SODIMM DDR4 16GB KINGSTON 3200 CL19 KCP</t>
+  </si>
+  <si>
+    <t>8G KI DDR4 3200 SODIMM</t>
+  </si>
+  <si>
+    <t>Kingston - DDR4 - 8 GB - DIMM de 288 espigas - 2666 MHz / PC4-21300 - CL19 - 1.2 V - sin búfer - no ECC</t>
+  </si>
+  <si>
+    <t>HP 225 Mouse y Teclado alámbrico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEDA61KHB0 - HONEYWELL EDA61K CUNA DE CARGA_x000D_
+</t>
+  </si>
+  <si>
+    <t>Battery 6 Cell Lithium-Ion 11.1V 60Whr Black para Latitude E6430</t>
+  </si>
+  <si>
+    <t>Blackwire C3220 USB-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUENTE PARA MIKROTIK 24V 1.2A_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"USB-C DP Alt Mode Single Video 4K HDMI/VGA
+Docking Station with 100W PD Pass-Thru"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parlantes CX Black USB 2.0 Audio Digital </t>
+  </si>
+  <si>
+    <t>SOPORTE MONITORES TFT CMW-450</t>
+  </si>
+  <si>
+    <t>Logitech USB Headset H390</t>
+  </si>
+  <si>
+    <t>Mouse Logitech Wir M190 Black</t>
+  </si>
+  <si>
+    <t>9000160KEYBRD Windows Laptop Style 95 key rugged keyboard with integrated 2 button mouse, USB Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEBRA XPLORE- DS2208SR7U2100SGW - LA DS2208-SR BLACK W/ PERP STAND USB KIT DS2208-SR00007ZZWW </t>
+  </si>
+  <si>
+    <t>Fuente Univ Adptr w/Bead,12V 3.5×1.4mm, Level VI (AC adapter for Desktop Single Dock &amp; Quad Battery Charger</t>
+  </si>
+  <si>
+    <t>Battery Li-ion PRIMARY, 4Cell 7.6V 62WHR, 4C, LITHIUM, SIMPLO For Latitude E5470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">631341-B21    KIT TECLADO+MOUSE HP USB USB_x000D_
+</t>
+  </si>
+  <si>
+    <t>53-53235-N-3_x000D_
+Cable USB, black, Type A, 2.9m (9.5´), coiled, host power</t>
+  </si>
+  <si>
+    <t>ADAPTADOR DVI (MACHO) A VGA (HEMBRA) MANHATTAN</t>
+  </si>
+  <si>
+    <t>ADAPTADOR DISPLAY PORT MINI A HDMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1WWHW ( TRHFF ) BATTERY Li-ion PRIMARY, 11.1V 43WHR, 3Cell, LITHIUM, SIMPL For Dell Inspiron 14-5447, Inspiron 15-5547/5542, Dell Latitude 14 3450 , Dell Latitude 15 3550 </t>
+  </si>
+  <si>
+    <t>1280iFR-3SER Serial Kit: 1D, FR focus, red scanner (1280iFR-3), RS232 black, DB9 Female, 3m coiled cable (CBL-020-300-C00), with vibrator</t>
+  </si>
+  <si>
+    <t>MOCHILA P/NOTEBOOK PORTDESIGNS 14/15.6 AVORIAZ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow Toner Cartridge Sold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MagentaToner Cartridge Sold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyan Toner Cartridge Sold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Toner Cartridge </t>
+  </si>
+  <si>
+    <t>info@taccocalpinisa.com.ar</t>
+  </si>
+  <si>
+    <t>generico</t>
+  </si>
+  <si>
+    <t>comercial3@anyx.com.ar</t>
   </si>
 </sst>
 </file>
@@ -8070,7 +8920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -8372,6 +9222,11 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -8492,8 +9347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E313" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E313" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E436" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E436" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1B48A49-4D48-4A1E-89CF-C9F61C327FFC}" name="producto" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{C3AA694B-486B-4DC2-9B24-35452D57BE82}" name="Descripcion" dataDxfId="3"/>
@@ -8822,10 +9677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="D441" sqref="D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10448,7 +11303,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="90" t="s">
         <v>1006</v>
       </c>
@@ -10482,7 +11337,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="90" t="s">
         <v>1010</v>
       </c>
@@ -10499,7 +11354,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="90" t="s">
         <v>1012</v>
       </c>
@@ -10516,7 +11371,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="90" t="s">
         <v>1014</v>
       </c>
@@ -14152,6 +15007,2097 @@
       </c>
       <c r="E313" s="91" t="s">
         <v>1351</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A314" s="90" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B314" s="90" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C314" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D314" s="90">
+        <v>359</v>
+      </c>
+      <c r="E314" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A315" s="90" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B315" s="90" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C315" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D315" s="90">
+        <v>4</v>
+      </c>
+      <c r="E315" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="90" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B316" s="90" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C316" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D316" s="90">
+        <v>5</v>
+      </c>
+      <c r="E316" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A317" s="90" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B317" s="90" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C317" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D317" s="90">
+        <v>14</v>
+      </c>
+      <c r="E317" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A318" s="90" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B318" s="90" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C318" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D318" s="90">
+        <v>21</v>
+      </c>
+      <c r="E318" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A319" s="90" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B319" s="90" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C319" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D319" s="90">
+        <v>1</v>
+      </c>
+      <c r="E319" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A320" s="90" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B320" s="90" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C320" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D320" s="90">
+        <v>4</v>
+      </c>
+      <c r="E320" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A321" s="90" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B321" s="90" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C321" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D321" s="90">
+        <v>1</v>
+      </c>
+      <c r="E321" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A322" s="90" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B322" s="90" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C322" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D322" s="90">
+        <v>1</v>
+      </c>
+      <c r="E322" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A323" s="90" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B323" s="90" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C323" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D323" s="90">
+        <v>1</v>
+      </c>
+      <c r="E323" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A324" s="90" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B324" s="90" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C324" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D324" s="90">
+        <v>1</v>
+      </c>
+      <c r="E324" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A325" s="90" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B325" s="90" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C325" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D325" s="90">
+        <v>4</v>
+      </c>
+      <c r="E325" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A326" s="90" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B326" s="90" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C326" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D326" s="90">
+        <v>1</v>
+      </c>
+      <c r="E326" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A327" s="90" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B327" s="90" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C327" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D327" s="90">
+        <v>8</v>
+      </c>
+      <c r="E327" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A328" s="90" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B328" s="90" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C328" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D328" s="90">
+        <v>2</v>
+      </c>
+      <c r="E328" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A329" s="90" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B329" s="90" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C329" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D329" s="90">
+        <v>2</v>
+      </c>
+      <c r="E329" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A330" s="90" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B330" s="90" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C330" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D330" s="90">
+        <v>1</v>
+      </c>
+      <c r="E330" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A331" s="90" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B331" s="90" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C331" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D331" s="90">
+        <v>42</v>
+      </c>
+      <c r="E331" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A332" s="90" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B332" s="90" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C332" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D332" s="90">
+        <v>15</v>
+      </c>
+      <c r="E332" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A333" s="90" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B333" s="90" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C333" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D333" s="90">
+        <v>33</v>
+      </c>
+      <c r="E333" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A334" s="90" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B334" s="90" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C334" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D334" s="90">
+        <v>0</v>
+      </c>
+      <c r="E334" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A335" s="90" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B335" s="90" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C335" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D335" s="90">
+        <v>2</v>
+      </c>
+      <c r="E335" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A336" s="90" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B336" s="90" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C336" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D336" s="90">
+        <v>15</v>
+      </c>
+      <c r="E336" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A337" s="90" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B337" s="90" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C337" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D337" s="90">
+        <v>3</v>
+      </c>
+      <c r="E337" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A338" s="90" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B338" s="90" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C338" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D338" s="90">
+        <v>98</v>
+      </c>
+      <c r="E338" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A339" s="90" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B339" s="90" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C339" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D339" s="90">
+        <v>4</v>
+      </c>
+      <c r="E339" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A340" s="90" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B340" s="90" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C340" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D340" s="90">
+        <v>16</v>
+      </c>
+      <c r="E340" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A341" s="90" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B341" s="90" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C341" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D341" s="90">
+        <v>11</v>
+      </c>
+      <c r="E341" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A342" s="90" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B342" s="90" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C342" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D342" s="90">
+        <v>19</v>
+      </c>
+      <c r="E342" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A343" s="90" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B343" s="90" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C343" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D343" s="90">
+        <v>19</v>
+      </c>
+      <c r="E343" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A344" s="90" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B344" s="90" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C344" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D344" s="90">
+        <v>24</v>
+      </c>
+      <c r="E344" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A345" s="90" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B345" s="90" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C345" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D345" s="90">
+        <v>26</v>
+      </c>
+      <c r="E345" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A346" s="90" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B346" s="90" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C346" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D346" s="90">
+        <v>81</v>
+      </c>
+      <c r="E346" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A347" s="90" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B347" s="90" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C347" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D347" s="90">
+        <v>28</v>
+      </c>
+      <c r="E347" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A348" s="90" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B348" s="90" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C348" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D348" s="90">
+        <v>1</v>
+      </c>
+      <c r="E348" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A349" s="90" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B349" s="90" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C349" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D349" s="90">
+        <v>4</v>
+      </c>
+      <c r="E349" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A350" s="90" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B350" s="90" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C350" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D350" s="90">
+        <v>20</v>
+      </c>
+      <c r="E350" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A351" s="90" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B351" s="90" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C351" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D351" s="90">
+        <v>49</v>
+      </c>
+      <c r="E351" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A352" s="90" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B352" s="90" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C352" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D352" s="90">
+        <v>3</v>
+      </c>
+      <c r="E352" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A353" s="90" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B353" s="90" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C353" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D353" s="90">
+        <v>199</v>
+      </c>
+      <c r="E353" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A354" s="90" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B354" s="90" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C354" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D354" s="90">
+        <v>1</v>
+      </c>
+      <c r="E354" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A355" s="90" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B355" s="90" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C355" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D355" s="90">
+        <v>7</v>
+      </c>
+      <c r="E355" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A356" s="90" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B356" s="90" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C356" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D356" s="90">
+        <v>25</v>
+      </c>
+      <c r="E356" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A357" s="90" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B357" s="90" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C357" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D357" s="90">
+        <v>43</v>
+      </c>
+      <c r="E357" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A358" s="90" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B358" s="90" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C358" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D358" s="90">
+        <v>47</v>
+      </c>
+      <c r="E358" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A359" s="90" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B359" s="90" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C359" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D359" s="90">
+        <v>1</v>
+      </c>
+      <c r="E359" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A360" s="90" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B360" s="90" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C360" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D360" s="90">
+        <v>1</v>
+      </c>
+      <c r="E360" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A361" s="90" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B361" s="90" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C361" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D361" s="90">
+        <v>1</v>
+      </c>
+      <c r="E361" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A362" s="90" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B362" s="90" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C362" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D362" s="90">
+        <v>100</v>
+      </c>
+      <c r="E362" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A363" s="90" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B363" s="90" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C363" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D363" s="90">
+        <v>6</v>
+      </c>
+      <c r="E363" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A364" s="90" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B364" s="90" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C364" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D364" s="90">
+        <v>185</v>
+      </c>
+      <c r="E364" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A365" s="90" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B365" s="90" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C365" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D365" s="90">
+        <v>39</v>
+      </c>
+      <c r="E365" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A366" s="90" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B366" s="90" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C366" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D366" s="90">
+        <v>1</v>
+      </c>
+      <c r="E366" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A367" s="90" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B367" s="90" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C367" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D367" s="90">
+        <v>48</v>
+      </c>
+      <c r="E367" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A368" s="90" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B368" s="90" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C368" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D368" s="90">
+        <v>13</v>
+      </c>
+      <c r="E368" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A369" s="90" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B369" s="90" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C369" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D369" s="90">
+        <v>187</v>
+      </c>
+      <c r="E369" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A370" s="90" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B370" s="90" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C370" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D370" s="90">
+        <v>35</v>
+      </c>
+      <c r="E370" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A371" s="90" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B371" s="90" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C371" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D371" s="90">
+        <v>26</v>
+      </c>
+      <c r="E371" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A372" s="90" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B372" s="90" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C372" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D372" s="90">
+        <v>25</v>
+      </c>
+      <c r="E372" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A373" s="90" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B373" s="90" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C373" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D373" s="90">
+        <v>18</v>
+      </c>
+      <c r="E373" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A374" s="90" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B374" s="90" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C374" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D374" s="90">
+        <v>35</v>
+      </c>
+      <c r="E374" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A375" s="90" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B375" s="90" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C375" s="90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D375" s="90">
+        <v>24</v>
+      </c>
+      <c r="E375" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A376" s="90" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B376" s="90" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C376" s="90" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D376" s="90">
+        <v>10</v>
+      </c>
+      <c r="E376" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A377" s="90" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B377" s="90" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C377" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D377" s="90">
+        <v>2</v>
+      </c>
+      <c r="E377" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A378" s="90" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B378" s="90" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C378" s="90" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D378" s="90">
+        <v>1</v>
+      </c>
+      <c r="E378" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A379" s="90" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B379" s="90" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C379" s="90" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D379" s="90">
+        <v>2</v>
+      </c>
+      <c r="E379" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A380" s="90" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B380" s="90" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C380" s="90" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D380" s="90">
+        <v>3</v>
+      </c>
+      <c r="E380" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A381" s="90" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B381" s="90" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C381" s="90" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D381" s="90">
+        <v>4</v>
+      </c>
+      <c r="E381" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A382" s="90" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B382" s="90" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C382" s="90" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D382" s="90">
+        <v>4</v>
+      </c>
+      <c r="E382" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A383" s="90" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B383" s="90" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C383" s="90" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D383" s="90">
+        <v>2</v>
+      </c>
+      <c r="E383" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A384" s="90" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B384" s="90" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C384" s="90" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D384" s="90">
+        <v>2</v>
+      </c>
+      <c r="E384" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A385" s="90" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B385" s="90" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C385" s="90" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D385" s="90">
+        <v>5</v>
+      </c>
+      <c r="E385" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A386" s="90" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B386" s="90" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C386" s="90" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D386" s="90">
+        <v>2</v>
+      </c>
+      <c r="E386" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A387" s="90" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B387" s="90" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C387" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D387" s="90">
+        <v>22</v>
+      </c>
+      <c r="E387" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A388" s="90" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B388" s="90" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C388" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D388" s="90">
+        <v>7</v>
+      </c>
+      <c r="E388" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A389" s="90" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B389" s="90" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C389" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D389" s="90">
+        <v>5</v>
+      </c>
+      <c r="E389" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A390" s="90" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B390" s="90" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C390" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D390" s="90">
+        <v>5</v>
+      </c>
+      <c r="E390" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A391" s="90" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B391" s="90" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C391" s="90" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D391" s="90">
+        <v>2</v>
+      </c>
+      <c r="E391" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A392" s="90" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B392" s="90" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C392" s="90" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D392" s="90">
+        <v>3</v>
+      </c>
+      <c r="E392" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A393" s="90" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B393" s="90" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C393" s="90" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D393" s="90">
+        <v>2</v>
+      </c>
+      <c r="E393" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A394" s="90" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B394" s="90" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C394" s="90" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D394" s="90">
+        <v>1</v>
+      </c>
+      <c r="E394" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A395" s="90" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B395" s="90" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C395" s="90" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D395" s="90">
+        <v>2</v>
+      </c>
+      <c r="E395" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A396" s="90" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B396" s="90" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C396" s="90" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D396" s="90">
+        <v>6</v>
+      </c>
+      <c r="E396" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A397" s="90" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B397" s="90" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C397" s="90" t="s">
+        <v>822</v>
+      </c>
+      <c r="D397" s="90">
+        <v>1</v>
+      </c>
+      <c r="E397" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A398" s="90" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B398" s="90" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C398" s="90" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D398" s="90">
+        <v>2</v>
+      </c>
+      <c r="E398" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A399" s="90" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B399" s="90" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C399" s="90" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D399" s="90">
+        <v>23</v>
+      </c>
+      <c r="E399" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A400" s="90" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B400" s="90" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C400" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D400" s="90">
+        <v>51</v>
+      </c>
+      <c r="E400" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A401" s="90" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B401" s="90" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C401" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D401" s="90">
+        <v>9</v>
+      </c>
+      <c r="E401" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A402" s="90" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B402" s="90" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C402" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D402" s="90">
+        <v>21</v>
+      </c>
+      <c r="E402" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A403" s="90" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B403" s="90" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C403" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D403" s="90">
+        <v>46</v>
+      </c>
+      <c r="E403" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A404" s="90" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B404" s="90" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C404" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D404" s="90">
+        <v>64</v>
+      </c>
+      <c r="E404" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A405" s="90" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B405" s="90" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C405" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D405" s="90">
+        <v>27</v>
+      </c>
+      <c r="E405" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A406" s="90" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B406" s="90" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C406" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D406" s="90">
+        <v>30</v>
+      </c>
+      <c r="E406" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A407" s="90" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B407" s="90" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C407" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D407" s="90">
+        <v>13</v>
+      </c>
+      <c r="E407" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A408" s="90" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B408" s="90" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C408" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D408" s="90">
+        <v>4</v>
+      </c>
+      <c r="E408" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A409" s="90" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B409" s="90" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C409" s="90" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D409" s="90">
+        <v>97</v>
+      </c>
+      <c r="E409" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A410" s="90" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B410" s="90" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C410" s="90" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D410" s="90">
+        <v>1</v>
+      </c>
+      <c r="E410" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A411" s="90" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B411" s="90" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C411" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D411" s="90">
+        <v>2</v>
+      </c>
+      <c r="E411" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A412" s="90" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B412" s="90" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C412" s="90" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D412" s="90">
+        <v>12</v>
+      </c>
+      <c r="E412" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A413" s="90" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B413" s="90" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C413" s="90" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D413" s="90">
+        <v>17</v>
+      </c>
+      <c r="E413" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A414" s="90" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B414" s="90" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C414" s="90" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D414" s="90">
+        <v>4</v>
+      </c>
+      <c r="E414" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A415" s="90" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B415" s="90" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C415" s="90" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D415" s="90">
+        <v>40</v>
+      </c>
+      <c r="E415" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A416" s="90" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B416" s="90" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C416" s="90" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D416" s="90">
+        <v>1</v>
+      </c>
+      <c r="E416" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A417" s="90" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B417" s="90" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C417" s="90" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D417" s="90">
+        <v>1</v>
+      </c>
+      <c r="E417" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A418" s="90" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B418" s="90" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C418" s="90" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D418" s="90">
+        <v>1</v>
+      </c>
+      <c r="E418" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A419" s="90" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B419" s="90" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C419" s="90" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D419" s="90">
+        <v>1</v>
+      </c>
+      <c r="E419" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A420" s="90" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B420" s="90" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C420" s="90" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D420" s="90">
+        <v>2</v>
+      </c>
+      <c r="E420" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A421" s="90" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B421" s="90" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C421" s="90" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D421" s="90">
+        <v>4</v>
+      </c>
+      <c r="E421" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A422" s="90" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B422" s="90" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C422" s="90" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D422" s="90">
+        <v>40</v>
+      </c>
+      <c r="E422" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A423" s="90" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B423" s="90" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C423" s="90" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D423" s="90">
+        <v>3</v>
+      </c>
+      <c r="E423" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A424" s="90" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B424" s="90" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C424" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D424" s="90">
+        <v>1</v>
+      </c>
+      <c r="E424" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A425" s="90" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B425" s="90" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C425" s="90" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D425" s="90">
+        <v>8</v>
+      </c>
+      <c r="E425" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A426" s="90" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B426" s="90" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C426" s="90" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D426" s="90">
+        <v>100</v>
+      </c>
+      <c r="E426" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A427" s="90" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B427" s="90" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C427" s="90" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D427" s="90">
+        <v>10</v>
+      </c>
+      <c r="E427" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A428" s="90" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B428" s="90" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C428" s="90" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D428" s="90">
+        <v>1</v>
+      </c>
+      <c r="E428" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A429" s="90" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B429" s="90" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C429" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D429" s="90">
+        <v>1</v>
+      </c>
+      <c r="E429" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A430" s="90" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B430" s="90" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C430" s="90" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D430" s="90">
+        <v>25</v>
+      </c>
+      <c r="E430" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A431" s="90" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B431" s="90" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C431" s="90" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D431" s="90">
+        <v>17</v>
+      </c>
+      <c r="E431" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="90" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B432" s="90" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C432" s="90" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D432" s="90">
+        <v>2</v>
+      </c>
+      <c r="E432" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="90" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B433" s="90" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C433" s="90" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D433" s="90">
+        <v>2</v>
+      </c>
+      <c r="E433" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A434" s="90" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B434" s="90" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C434" s="90" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D434" s="90">
+        <v>2</v>
+      </c>
+      <c r="E434" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A435" s="90" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B435" s="90" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C435" s="90" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D435" s="90">
+        <v>2</v>
+      </c>
+      <c r="E435" s="91" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A436" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="B436" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C436" s="110" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D436" s="110">
+        <v>1</v>
+      </c>
+      <c r="E436" s="111" t="s">
+        <v>1606</v>
       </c>
     </row>
   </sheetData>
@@ -14307,11 +17253,12 @@
     <hyperlink ref="E150" r:id="rId149" xr:uid="{F89E4A4A-6E14-457A-87E8-7BF0944B7C63}"/>
     <hyperlink ref="E151" r:id="rId150" xr:uid="{94882609-5374-4EBE-99AA-05E1D5CF2C3E}"/>
     <hyperlink ref="E152" r:id="rId151" xr:uid="{B8333A9E-0F3F-41FA-A29B-C67C5BBEFBCA}"/>
+    <hyperlink ref="E436" r:id="rId152" xr:uid="{6C2B443F-1099-4969-A9B4-85FBE5ECF78D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId152"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
   <tableParts count="1">
-    <tablePart r:id="rId153"/>
+    <tablePart r:id="rId154"/>
   </tableParts>
 </worksheet>
 </file>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC26A5F-5363-4235-ADE3-AC52AA1BE02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F9ABC-A51F-42A6-AF7A-41DA63462329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="1608">
   <si>
     <t>producto</t>
   </si>
@@ -8538,6 +8538,9 @@
   </si>
   <si>
     <t>comercial3@anyx.com.ar</t>
+  </si>
+  <si>
+    <t>matiasc@rioinformatica.com.ar</t>
   </si>
 </sst>
 </file>
@@ -9348,7 +9351,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E436" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E436" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
+  <autoFilter ref="A1:E436" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="matiasc@rioinformtica.com.ar"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1B48A49-4D48-4A1E-89CF-C9F61C327FFC}" name="producto" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{C3AA694B-486B-4DC2-9B24-35452D57BE82}" name="Descripcion" dataDxfId="3"/>
@@ -9679,8 +9688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
   <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="D441" sqref="D441"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9705,7 +9714,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>808</v>
       </c>
@@ -9722,7 +9731,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
         <v>812</v>
       </c>
@@ -9739,7 +9748,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
         <v>814</v>
       </c>
@@ -9756,7 +9765,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
         <v>816</v>
       </c>
@@ -9773,7 +9782,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
         <v>819</v>
       </c>
@@ -9790,7 +9799,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
         <v>821</v>
       </c>
@@ -9807,7 +9816,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
         <v>824</v>
       </c>
@@ -9838,7 +9847,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -9855,7 +9864,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -9872,7 +9881,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -9889,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -9906,7 +9915,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -9923,7 +9932,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -9940,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -9957,7 +9966,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -9974,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -9991,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10008,7 +10017,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10025,7 +10034,7 @@
         <v>191</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10042,7 +10051,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10059,7 +10068,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -10076,7 +10085,7 @@
         <v>100</v>
       </c>
       <c r="E23" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10093,7 +10102,7 @@
         <v>42</v>
       </c>
       <c r="E24" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10110,7 +10119,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10127,7 +10136,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10144,7 +10153,7 @@
         <v>192</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10161,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10178,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10195,7 +10204,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -10212,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10229,7 +10238,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10246,7 +10255,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -10263,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10280,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10297,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10314,7 +10323,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10331,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10348,7 +10357,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10365,7 +10374,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10382,7 +10391,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10399,7 +10408,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10416,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10433,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -10450,7 +10459,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10467,7 +10476,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10484,7 +10493,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10501,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -10518,7 +10527,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10535,7 +10544,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10552,7 +10561,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10569,7 +10578,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10586,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10603,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -10620,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -10637,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -10654,7 +10663,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10671,7 +10680,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -10688,7 +10697,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10705,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10722,7 +10731,7 @@
         <v>7</v>
       </c>
       <c r="E61" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10739,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -10756,7 +10765,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -10773,7 +10782,7 @@
         <v>4</v>
       </c>
       <c r="E64" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10790,7 +10799,7 @@
         <v>4</v>
       </c>
       <c r="E65" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10807,7 +10816,7 @@
         <v>15</v>
       </c>
       <c r="E66" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10824,7 +10833,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10841,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -10858,7 +10867,7 @@
         <v>4</v>
       </c>
       <c r="E69" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -10875,7 +10884,7 @@
         <v>5</v>
       </c>
       <c r="E70" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -10892,7 +10901,7 @@
         <v>11</v>
       </c>
       <c r="E71" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -10909,7 +10918,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10926,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10943,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10960,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -10977,7 +10986,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -10994,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11011,7 +11020,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11028,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11045,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11062,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -11079,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11096,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11113,7 +11122,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11130,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11147,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11164,7 +11173,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11181,7 +11190,7 @@
         <v>12</v>
       </c>
       <c r="E88" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11198,7 +11207,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11215,7 +11224,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11232,7 +11241,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11249,7 +11258,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11266,7 +11275,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -11283,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -11300,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11317,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -11334,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11351,7 +11360,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11368,7 +11377,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
@@ -11385,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11402,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -11419,7 +11428,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -11436,7 +11445,7 @@
         <v>8</v>
       </c>
       <c r="E103" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11453,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11470,7 +11479,7 @@
         <v>23</v>
       </c>
       <c r="E105" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11487,7 +11496,7 @@
         <v>2</v>
       </c>
       <c r="E106" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11504,7 +11513,7 @@
         <v>2</v>
       </c>
       <c r="E107" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11521,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11538,7 +11547,7 @@
         <v>2</v>
       </c>
       <c r="E109" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -11555,7 +11564,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11572,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11589,7 +11598,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11606,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11623,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11640,7 +11649,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11657,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11674,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11691,7 +11700,7 @@
         <v>2</v>
       </c>
       <c r="E118" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11708,7 +11717,7 @@
         <v>198</v>
       </c>
       <c r="E119" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11725,7 +11734,7 @@
         <v>11</v>
       </c>
       <c r="E120" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11742,7 +11751,7 @@
         <v>3</v>
       </c>
       <c r="E121" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11759,7 +11768,7 @@
         <v>2</v>
       </c>
       <c r="E122" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11776,7 +11785,7 @@
         <v>2</v>
       </c>
       <c r="E123" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11793,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11810,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11827,7 +11836,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11844,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11861,7 +11870,7 @@
         <v>6</v>
       </c>
       <c r="E128" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11878,7 +11887,7 @@
         <v>8</v>
       </c>
       <c r="E129" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11895,7 +11904,7 @@
         <v>8</v>
       </c>
       <c r="E130" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11912,7 +11921,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11929,7 +11938,7 @@
         <v>19</v>
       </c>
       <c r="E132" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11946,7 +11955,7 @@
         <v>9</v>
       </c>
       <c r="E133" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11963,7 +11972,7 @@
         <v>10</v>
       </c>
       <c r="E134" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11980,7 +11989,7 @@
         <v>13</v>
       </c>
       <c r="E135" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -11997,7 +12006,7 @@
         <v>2</v>
       </c>
       <c r="E136" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12014,7 +12023,7 @@
         <v>2</v>
       </c>
       <c r="E137" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12031,7 +12040,7 @@
         <v>2</v>
       </c>
       <c r="E138" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12048,7 +12057,7 @@
         <v>3</v>
       </c>
       <c r="E139" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12065,7 +12074,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12082,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -12099,7 +12108,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12116,7 +12125,7 @@
         <v>2</v>
       </c>
       <c r="E143" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -12133,7 +12142,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12150,7 +12159,7 @@
         <v>2</v>
       </c>
       <c r="E145" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -12167,7 +12176,7 @@
         <v>14</v>
       </c>
       <c r="E146" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -12184,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12201,7 +12210,7 @@
         <v>45</v>
       </c>
       <c r="E148" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12218,7 +12227,7 @@
         <v>4</v>
       </c>
       <c r="E149" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12235,7 +12244,7 @@
         <v>1</v>
       </c>
       <c r="E150" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12252,7 +12261,7 @@
         <v>4</v>
       </c>
       <c r="E151" s="91" t="s">
-        <v>830</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12269,10 +12278,10 @@
         <v>4</v>
       </c>
       <c r="E152" s="91" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="90" t="s">
         <v>1126</v>
       </c>
@@ -12289,7 +12298,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="90" t="s">
         <v>1127</v>
       </c>
@@ -12306,7 +12315,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="90" t="s">
         <v>1128</v>
       </c>
@@ -12323,7 +12332,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="90" t="s">
         <v>1129</v>
       </c>
@@ -12340,7 +12349,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="90" t="s">
         <v>1130</v>
       </c>
@@ -12357,7 +12366,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="90" t="s">
         <v>1131</v>
       </c>
@@ -12374,7 +12383,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="90" t="s">
         <v>1132</v>
       </c>
@@ -12391,7 +12400,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="90" t="s">
         <v>1133</v>
       </c>
@@ -12408,7 +12417,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="90" t="s">
         <v>1134</v>
       </c>
@@ -12425,7 +12434,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="90" t="s">
         <v>1135</v>
       </c>
@@ -12442,7 +12451,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="90" t="s">
         <v>1136</v>
       </c>
@@ -12459,7 +12468,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="90" t="s">
         <v>1137</v>
       </c>
@@ -12476,7 +12485,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="90" t="s">
         <v>1138</v>
       </c>
@@ -12493,7 +12502,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="90" t="s">
         <v>1139</v>
       </c>
@@ -12510,7 +12519,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="90" t="s">
         <v>1140</v>
       </c>
@@ -12527,7 +12536,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="90" t="s">
         <v>1141</v>
       </c>
@@ -12544,7 +12553,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="90" t="s">
         <v>1142</v>
       </c>
@@ -12561,7 +12570,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="90" t="s">
         <v>1143</v>
       </c>
@@ -12578,7 +12587,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="90" t="s">
         <v>1144</v>
       </c>
@@ -12595,7 +12604,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="90" t="s">
         <v>1145</v>
       </c>
@@ -12612,7 +12621,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="90" t="s">
         <v>1146</v>
       </c>
@@ -12629,7 +12638,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="90" t="s">
         <v>1147</v>
       </c>
@@ -12646,7 +12655,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="90" t="s">
         <v>1148</v>
       </c>
@@ -12663,7 +12672,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="90" t="s">
         <v>1149</v>
       </c>
@@ -12680,7 +12689,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="90" t="s">
         <v>1150</v>
       </c>
@@ -12697,7 +12706,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="90" t="s">
         <v>1151</v>
       </c>
@@ -12714,7 +12723,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="90" t="s">
         <v>1152</v>
       </c>
@@ -12731,7 +12740,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="90" t="s">
         <v>1151</v>
       </c>
@@ -12748,7 +12757,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="90" t="s">
         <v>1153</v>
       </c>
@@ -12765,7 +12774,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="90" t="s">
         <v>1154</v>
       </c>
@@ -12782,7 +12791,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="90" t="s">
         <v>1155</v>
       </c>
@@ -12799,7 +12808,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="90" t="s">
         <v>1156</v>
       </c>
@@ -12816,7 +12825,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="90" t="s">
         <v>1157</v>
       </c>
@@ -12833,7 +12842,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="90" t="s">
         <v>1158</v>
       </c>
@@ -12850,7 +12859,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="90" t="s">
         <v>1159</v>
       </c>
@@ -12867,7 +12876,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="90" t="s">
         <v>1160</v>
       </c>
@@ -12884,7 +12893,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="90" t="s">
         <v>1161</v>
       </c>
@@ -12901,7 +12910,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="90" t="s">
         <v>1162</v>
       </c>
@@ -12918,7 +12927,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="90" t="s">
         <v>1163</v>
       </c>
@@ -12935,7 +12944,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="90" t="s">
         <v>1164</v>
       </c>
@@ -12952,7 +12961,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="90" t="s">
         <v>1165</v>
       </c>
@@ -12969,7 +12978,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="90" t="s">
         <v>1166</v>
       </c>
@@ -12986,7 +12995,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="90" t="s">
         <v>1167</v>
       </c>
@@ -13003,7 +13012,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="90" t="s">
         <v>1168</v>
       </c>
@@ -13020,7 +13029,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="90" t="s">
         <v>1169</v>
       </c>
@@ -13037,7 +13046,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="90" t="s">
         <v>1170</v>
       </c>
@@ -13054,7 +13063,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="90" t="s">
         <v>1171</v>
       </c>
@@ -13071,7 +13080,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="90" t="s">
         <v>1172</v>
       </c>
@@ -13088,7 +13097,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="90" t="s">
         <v>1173</v>
       </c>
@@ -13105,7 +13114,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="90" t="s">
         <v>1174</v>
       </c>
@@ -13122,7 +13131,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="90" t="s">
         <v>1175</v>
       </c>
@@ -13139,7 +13148,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="90" t="s">
         <v>1176</v>
       </c>
@@ -13156,7 +13165,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="90" t="s">
         <v>1177</v>
       </c>
@@ -13173,7 +13182,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="90" t="s">
         <v>1178</v>
       </c>
@@ -13190,7 +13199,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="90" t="s">
         <v>1179</v>
       </c>
@@ -13207,7 +13216,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="90" t="s">
         <v>1180</v>
       </c>
@@ -13224,7 +13233,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="90" t="s">
         <v>1181</v>
       </c>
@@ -13241,7 +13250,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="90" t="s">
         <v>1182</v>
       </c>
@@ -13258,7 +13267,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="90" t="s">
         <v>1183</v>
       </c>
@@ -13275,7 +13284,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="90" t="s">
         <v>1184</v>
       </c>
@@ -13292,7 +13301,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="90" t="s">
         <v>1185</v>
       </c>
@@ -13309,7 +13318,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="90" t="s">
         <v>1186</v>
       </c>
@@ -13326,7 +13335,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="90" t="s">
         <v>1187</v>
       </c>
@@ -13343,7 +13352,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="90" t="s">
         <v>1188</v>
       </c>
@@ -13360,7 +13369,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="90" t="s">
         <v>1189</v>
       </c>
@@ -13377,7 +13386,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="90" t="s">
         <v>1190</v>
       </c>
@@ -13394,7 +13403,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="90" t="s">
         <v>1191</v>
       </c>
@@ -13411,7 +13420,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="90" t="s">
         <v>1192</v>
       </c>
@@ -13428,7 +13437,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="90" t="s">
         <v>1193</v>
       </c>
@@ -13445,7 +13454,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="90" t="s">
         <v>1194</v>
       </c>
@@ -13462,7 +13471,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="90" t="s">
         <v>1195</v>
       </c>
@@ -13479,7 +13488,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="90" t="s">
         <v>1196</v>
       </c>
@@ -13496,7 +13505,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="90" t="s">
         <v>1197</v>
       </c>
@@ -13513,7 +13522,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="90" t="s">
         <v>1198</v>
       </c>
@@ -13530,7 +13539,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="90" t="s">
         <v>1199</v>
       </c>
@@ -13547,7 +13556,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="90" t="s">
         <v>1200</v>
       </c>
@@ -13564,7 +13573,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="90" t="s">
         <v>1201</v>
       </c>
@@ -13581,7 +13590,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="90" t="s">
         <v>1202</v>
       </c>
@@ -13598,7 +13607,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="90" t="s">
         <v>1203</v>
       </c>
@@ -13615,7 +13624,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="90" t="s">
         <v>1204</v>
       </c>
@@ -13632,7 +13641,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="90" t="s">
         <v>1205</v>
       </c>
@@ -13649,7 +13658,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="90" t="s">
         <v>1206</v>
       </c>
@@ -13666,7 +13675,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="90" t="s">
         <v>1207</v>
       </c>
@@ -13683,7 +13692,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="90" t="s">
         <v>1208</v>
       </c>
@@ -13700,7 +13709,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="90" t="s">
         <v>1209</v>
       </c>
@@ -13717,7 +13726,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="90" t="s">
         <v>1063</v>
       </c>
@@ -13734,7 +13743,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="90" t="s">
         <v>1210</v>
       </c>
@@ -13751,7 +13760,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="90" t="s">
         <v>1211</v>
       </c>
@@ -13768,7 +13777,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="90" t="s">
         <v>1212</v>
       </c>
@@ -13785,7 +13794,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="90" t="s">
         <v>1213</v>
       </c>
@@ -13802,7 +13811,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="90" t="s">
         <v>1214</v>
       </c>
@@ -13819,7 +13828,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="90" t="s">
         <v>1215</v>
       </c>
@@ -13836,7 +13845,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="90" t="s">
         <v>1216</v>
       </c>
@@ -13853,7 +13862,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="90" t="s">
         <v>1217</v>
       </c>
@@ -13870,7 +13879,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="90" t="s">
         <v>1218</v>
       </c>
@@ -13887,7 +13896,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="90" t="s">
         <v>1219</v>
       </c>
@@ -13904,7 +13913,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="90" t="s">
         <v>1220</v>
       </c>
@@ -13921,7 +13930,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="90" t="s">
         <v>1221</v>
       </c>
@@ -13938,7 +13947,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="90" t="s">
         <v>1222</v>
       </c>
@@ -13955,7 +13964,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="90">
         <v>43895002</v>
       </c>
@@ -13972,7 +13981,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="90" t="s">
         <v>1223</v>
       </c>
@@ -13989,7 +13998,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="90" t="s">
         <v>1224</v>
       </c>
@@ -14006,7 +14015,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="90" t="s">
         <v>1225</v>
       </c>
@@ -14023,7 +14032,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="90" t="s">
         <v>1226</v>
       </c>
@@ -14040,7 +14049,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="90" t="s">
         <v>1227</v>
       </c>
@@ -14057,7 +14066,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="90" t="s">
         <v>1228</v>
       </c>
@@ -14074,7 +14083,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="90" t="s">
         <v>1229</v>
       </c>
@@ -14091,7 +14100,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="90" t="s">
         <v>1230</v>
       </c>
@@ -14108,7 +14117,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="90" t="s">
         <v>1231</v>
       </c>
@@ -14125,7 +14134,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="90" t="s">
         <v>1232</v>
       </c>
@@ -14142,7 +14151,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="90" t="s">
         <v>1233</v>
       </c>
@@ -14159,7 +14168,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="90" t="s">
         <v>1234</v>
       </c>
@@ -14176,7 +14185,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="90" t="s">
         <v>1235</v>
       </c>
@@ -14193,7 +14202,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="90" t="s">
         <v>1236</v>
       </c>
@@ -14210,7 +14219,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="90" t="s">
         <v>1237</v>
       </c>
@@ -14227,7 +14236,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="90" t="s">
         <v>1238</v>
       </c>
@@ -14244,7 +14253,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="90" t="s">
         <v>1239</v>
       </c>
@@ -14261,7 +14270,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="90" t="s">
         <v>1240</v>
       </c>
@@ -14278,7 +14287,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="90" t="s">
         <v>1241</v>
       </c>
@@ -14295,7 +14304,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="90" t="s">
         <v>1242</v>
       </c>
@@ -14312,7 +14321,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="90" t="s">
         <v>1243</v>
       </c>
@@ -14329,7 +14338,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="90" t="s">
         <v>1244</v>
       </c>
@@ -14346,7 +14355,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="90" t="s">
         <v>1245</v>
       </c>
@@ -14363,7 +14372,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="90" t="s">
         <v>1246</v>
       </c>
@@ -14380,7 +14389,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="90" t="s">
         <v>1247</v>
       </c>
@@ -14397,7 +14406,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="90" t="s">
         <v>1248</v>
       </c>
@@ -14414,7 +14423,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="90" t="s">
         <v>1249</v>
       </c>
@@ -14431,7 +14440,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="90" t="s">
         <v>1250</v>
       </c>
@@ -14448,7 +14457,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="90" t="s">
         <v>1251</v>
       </c>
@@ -14465,7 +14474,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="90" t="s">
         <v>1135</v>
       </c>
@@ -14482,7 +14491,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="90" t="s">
         <v>1134</v>
       </c>
@@ -14499,7 +14508,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="90" t="s">
         <v>1252</v>
       </c>
@@ -14516,7 +14525,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="90" t="s">
         <v>1253</v>
       </c>
@@ -14533,7 +14542,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="90" t="s">
         <v>1254</v>
       </c>
@@ -14550,7 +14559,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="90" t="s">
         <v>1255</v>
       </c>
@@ -14567,7 +14576,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="90" t="s">
         <v>1256</v>
       </c>
@@ -14584,7 +14593,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="90" t="s">
         <v>1257</v>
       </c>
@@ -14601,7 +14610,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="90" t="s">
         <v>1258</v>
       </c>
@@ -14618,7 +14627,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="90" t="s">
         <v>1259</v>
       </c>
@@ -14635,7 +14644,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="90" t="s">
         <v>1260</v>
       </c>
@@ -14652,7 +14661,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="90" t="s">
         <v>1261</v>
       </c>
@@ -14669,7 +14678,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="90" t="s">
         <v>1262</v>
       </c>
@@ -14686,7 +14695,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="90" t="s">
         <v>1263</v>
       </c>
@@ -14703,7 +14712,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="90" t="s">
         <v>1242</v>
       </c>
@@ -14720,7 +14729,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="90" t="s">
         <v>1264</v>
       </c>
@@ -14737,7 +14746,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="90" t="s">
         <v>1265</v>
       </c>
@@ -14754,7 +14763,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="90" t="s">
         <v>1266</v>
       </c>
@@ -14771,7 +14780,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="90" t="s">
         <v>1267</v>
       </c>
@@ -14788,7 +14797,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="90" t="s">
         <v>1245</v>
       </c>
@@ -14805,7 +14814,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="90" t="s">
         <v>1268</v>
       </c>
@@ -14822,7 +14831,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="90" t="s">
         <v>1269</v>
       </c>
@@ -14839,7 +14848,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="90" t="s">
         <v>1270</v>
       </c>
@@ -14856,7 +14865,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="90" t="s">
         <v>1271</v>
       </c>
@@ -14873,7 +14882,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="90" t="s">
         <v>1272</v>
       </c>
@@ -14890,7 +14899,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="90" t="s">
         <v>1273</v>
       </c>
@@ -14907,7 +14916,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="90" t="s">
         <v>1274</v>
       </c>
@@ -14924,7 +14933,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="90" t="s">
         <v>1275</v>
       </c>
@@ -14941,7 +14950,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="90" t="s">
         <v>1057</v>
       </c>
@@ -14958,7 +14967,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="90" t="s">
         <v>1276</v>
       </c>
@@ -14975,7 +14984,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="90" t="s">
         <v>1277</v>
       </c>
@@ -14992,7 +15001,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="90" t="s">
         <v>1278</v>
       </c>
@@ -15009,7 +15018,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="90" t="s">
         <v>1353</v>
       </c>
@@ -15026,7 +15035,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="90" t="s">
         <v>1354</v>
       </c>
@@ -15043,7 +15052,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="90" t="s">
         <v>1355</v>
       </c>
@@ -15060,7 +15069,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="90" t="s">
         <v>1356</v>
       </c>
@@ -15077,7 +15086,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="90" t="s">
         <v>1357</v>
       </c>
@@ -15094,7 +15103,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="90" t="s">
         <v>1358</v>
       </c>
@@ -15111,7 +15120,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="90" t="s">
         <v>1359</v>
       </c>
@@ -15128,7 +15137,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="90" t="s">
         <v>1360</v>
       </c>
@@ -15145,7 +15154,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="90" t="s">
         <v>1361</v>
       </c>
@@ -15162,7 +15171,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="90" t="s">
         <v>1362</v>
       </c>
@@ -15179,7 +15188,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="90" t="s">
         <v>1363</v>
       </c>
@@ -15196,7 +15205,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="90" t="s">
         <v>1364</v>
       </c>
@@ -15213,7 +15222,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="90" t="s">
         <v>1364</v>
       </c>
@@ -15230,7 +15239,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="90" t="s">
         <v>1365</v>
       </c>
@@ -15247,7 +15256,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="90" t="s">
         <v>1366</v>
       </c>
@@ -15264,7 +15273,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="90" t="s">
         <v>1367</v>
       </c>
@@ -15281,7 +15290,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="90" t="s">
         <v>1368</v>
       </c>
@@ -15298,7 +15307,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="90" t="s">
         <v>1369</v>
       </c>
@@ -15315,7 +15324,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="90" t="s">
         <v>1370</v>
       </c>
@@ -15332,7 +15341,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="90" t="s">
         <v>1371</v>
       </c>
@@ -15349,7 +15358,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="90" t="s">
         <v>1372</v>
       </c>
@@ -15366,7 +15375,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="90" t="s">
         <v>1368</v>
       </c>
@@ -15383,7 +15392,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="90" t="s">
         <v>1373</v>
       </c>
@@ -15400,7 +15409,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="90" t="s">
         <v>1374</v>
       </c>
@@ -15417,7 +15426,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="90" t="s">
         <v>1375</v>
       </c>
@@ -15434,7 +15443,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="90" t="s">
         <v>1376</v>
       </c>
@@ -15451,7 +15460,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="90" t="s">
         <v>1377</v>
       </c>
@@ -15468,7 +15477,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="90" t="s">
         <v>1378</v>
       </c>
@@ -15485,7 +15494,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="90" t="s">
         <v>1379</v>
       </c>
@@ -15502,7 +15511,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="90" t="s">
         <v>1380</v>
       </c>
@@ -15519,7 +15528,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="90" t="s">
         <v>1381</v>
       </c>
@@ -15536,7 +15545,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="90" t="s">
         <v>1382</v>
       </c>
@@ -15553,7 +15562,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="90" t="s">
         <v>1383</v>
       </c>
@@ -15570,7 +15579,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="90" t="s">
         <v>1384</v>
       </c>
@@ -15587,7 +15596,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="90" t="s">
         <v>1385</v>
       </c>
@@ -15604,7 +15613,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="90" t="s">
         <v>1386</v>
       </c>
@@ -15621,7 +15630,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="90" t="s">
         <v>1387</v>
       </c>
@@ -15638,7 +15647,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="90" t="s">
         <v>1388</v>
       </c>
@@ -15655,7 +15664,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="90" t="s">
         <v>1389</v>
       </c>
@@ -15672,7 +15681,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="90" t="s">
         <v>1390</v>
       </c>
@@ -15689,7 +15698,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="90" t="s">
         <v>1391</v>
       </c>
@@ -15706,7 +15715,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="90" t="s">
         <v>1392</v>
       </c>
@@ -15723,7 +15732,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="90" t="s">
         <v>1393</v>
       </c>
@@ -15740,7 +15749,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="90" t="s">
         <v>1394</v>
       </c>
@@ -15757,7 +15766,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="90" t="s">
         <v>1395</v>
       </c>
@@ -15774,7 +15783,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="90" t="s">
         <v>1396</v>
       </c>
@@ -15791,7 +15800,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="90" t="s">
         <v>1397</v>
       </c>
@@ -15808,7 +15817,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="90" t="s">
         <v>1398</v>
       </c>
@@ -15825,7 +15834,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="90" t="s">
         <v>1399</v>
       </c>
@@ -15842,7 +15851,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="90" t="s">
         <v>1400</v>
       </c>
@@ -15859,7 +15868,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="90" t="s">
         <v>1401</v>
       </c>
@@ -15876,7 +15885,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="90" t="s">
         <v>1402</v>
       </c>
@@ -15893,7 +15902,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="90" t="s">
         <v>1403</v>
       </c>
@@ -15910,7 +15919,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="90" t="s">
         <v>1404</v>
       </c>
@@ -15927,7 +15936,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="90" t="s">
         <v>1405</v>
       </c>
@@ -15944,7 +15953,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="90" t="s">
         <v>1406</v>
       </c>
@@ -15961,7 +15970,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="90" t="s">
         <v>1407</v>
       </c>
@@ -15978,7 +15987,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="90" t="s">
         <v>1408</v>
       </c>
@@ -15995,7 +16004,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="90" t="s">
         <v>1409</v>
       </c>
@@ -16012,7 +16021,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="90" t="s">
         <v>1410</v>
       </c>
@@ -16029,7 +16038,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="90" t="s">
         <v>1411</v>
       </c>
@@ -16046,7 +16055,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="90" t="s">
         <v>1412</v>
       </c>
@@ -16063,7 +16072,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="90" t="s">
         <v>1413</v>
       </c>
@@ -16080,7 +16089,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="90" t="s">
         <v>1414</v>
       </c>
@@ -16097,7 +16106,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="90" t="s">
         <v>1415</v>
       </c>
@@ -16114,7 +16123,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="90" t="s">
         <v>1416</v>
       </c>
@@ -16131,7 +16140,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="90" t="s">
         <v>1417</v>
       </c>
@@ -16148,7 +16157,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="90" t="s">
         <v>1418</v>
       </c>
@@ -16165,7 +16174,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="90" t="s">
         <v>1419</v>
       </c>
@@ -16182,7 +16191,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="90" t="s">
         <v>1420</v>
       </c>
@@ -16199,7 +16208,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="90" t="s">
         <v>1421</v>
       </c>
@@ -16216,7 +16225,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="90" t="s">
         <v>1422</v>
       </c>
@@ -16233,7 +16242,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="90" t="s">
         <v>1423</v>
       </c>
@@ -16250,7 +16259,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="90" t="s">
         <v>1424</v>
       </c>
@@ -16267,7 +16276,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="90" t="s">
         <v>1425</v>
       </c>
@@ -16284,7 +16293,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="90" t="s">
         <v>1426</v>
       </c>
@@ -16301,7 +16310,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="90" t="s">
         <v>1426</v>
       </c>
@@ -16318,7 +16327,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="90" t="s">
         <v>1427</v>
       </c>
@@ -16335,7 +16344,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="90" t="s">
         <v>1428</v>
       </c>
@@ -16352,7 +16361,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="90" t="s">
         <v>1429</v>
       </c>
@@ -16369,7 +16378,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="90" t="s">
         <v>1430</v>
       </c>
@@ -16386,7 +16395,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="90" t="s">
         <v>1431</v>
       </c>
@@ -16403,7 +16412,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="90" t="s">
         <v>1432</v>
       </c>
@@ -16420,7 +16429,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="90" t="s">
         <v>1433</v>
       </c>
@@ -16437,7 +16446,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="90" t="s">
         <v>1434</v>
       </c>
@@ -16454,7 +16463,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="90" t="s">
         <v>1435</v>
       </c>
@@ -16471,7 +16480,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="90" t="s">
         <v>1436</v>
       </c>
@@ -16488,7 +16497,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="90" t="s">
         <v>1436</v>
       </c>
@@ -16505,7 +16514,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="90" t="s">
         <v>1437</v>
       </c>
@@ -16522,7 +16531,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="90" t="s">
         <v>1438</v>
       </c>
@@ -16539,7 +16548,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="90" t="s">
         <v>1439</v>
       </c>
@@ -16556,7 +16565,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="90" t="s">
         <v>1440</v>
       </c>
@@ -16573,7 +16582,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="90" t="s">
         <v>1440</v>
       </c>
@@ -16590,7 +16599,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="90" t="s">
         <v>1441</v>
       </c>
@@ -16607,7 +16616,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="90" t="s">
         <v>1442</v>
       </c>
@@ -16624,7 +16633,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="90" t="s">
         <v>1443</v>
       </c>
@@ -16641,7 +16650,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="90" t="s">
         <v>1444</v>
       </c>
@@ -16658,7 +16667,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="90" t="s">
         <v>1445</v>
       </c>
@@ -16675,7 +16684,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="90" t="s">
         <v>1446</v>
       </c>
@@ -16692,7 +16701,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="90" t="s">
         <v>1446</v>
       </c>
@@ -16709,7 +16718,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="90" t="s">
         <v>1447</v>
       </c>
@@ -16726,7 +16735,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="90" t="s">
         <v>1448</v>
       </c>
@@ -16743,7 +16752,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="90" t="s">
         <v>1449</v>
       </c>
@@ -16760,7 +16769,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="90" t="s">
         <v>1450</v>
       </c>
@@ -16777,7 +16786,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="90" t="s">
         <v>1451</v>
       </c>
@@ -16794,7 +16803,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="90" t="s">
         <v>1451</v>
       </c>
@@ -16811,7 +16820,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="90" t="s">
         <v>1452</v>
       </c>
@@ -16828,7 +16837,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="90" t="s">
         <v>1453</v>
       </c>
@@ -16845,7 +16854,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="90" t="s">
         <v>1454</v>
       </c>
@@ -16862,7 +16871,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="90" t="s">
         <v>1455</v>
       </c>
@@ -16879,7 +16888,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="90" t="s">
         <v>1456</v>
       </c>
@@ -16896,7 +16905,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="90" t="s">
         <v>1457</v>
       </c>
@@ -16913,7 +16922,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="90" t="s">
         <v>1458</v>
       </c>
@@ -16930,7 +16939,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="90" t="s">
         <v>1459</v>
       </c>
@@ -16947,7 +16956,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="90" t="s">
         <v>1460</v>
       </c>
@@ -16964,7 +16973,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="90" t="s">
         <v>1461</v>
       </c>
@@ -16981,7 +16990,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="90" t="s">
         <v>1462</v>
       </c>
@@ -16998,7 +17007,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="90" t="s">
         <v>1463</v>
       </c>
@@ -17015,7 +17024,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="90" t="s">
         <v>1464</v>
       </c>
@@ -17032,7 +17041,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="90" t="s">
         <v>1465</v>
       </c>
@@ -17049,7 +17058,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="90" t="s">
         <v>1466</v>
       </c>
@@ -17066,7 +17075,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="90" t="s">
         <v>1467</v>
       </c>
@@ -17083,7 +17092,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="109" t="s">
         <v>144</v>
       </c>
@@ -17109,156 +17118,13 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{EC25493B-62C4-4803-B2C1-73EFA79355A6}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{4EBF3B23-A04D-420B-A344-3678F2F62D4C}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{BFFE00CF-8E00-4B63-BCE1-D22836F7BE26}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{43B8369B-E0A0-42C5-A21D-AA08B15F89EF}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{F0198EFE-DE26-49C0-97B7-7E4B88B8612F}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{1791DEB3-0935-4BCC-8550-168674FDF1FB}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{62057205-5F68-4C69-8EDA-1FD164FE3387}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{2F7497F3-7258-43FD-90AA-2FB167286153}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{CB897016-302A-437B-B680-5431F58E196D}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{19334966-4D2E-4F7F-A9B7-4F15CFF2EF3F}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{80F31428-C73B-4707-8846-2DF1127341E7}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{CA50D4D1-D311-440C-83A4-0DBE19CDEC8B}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{F4CD0860-DA1F-4919-9201-20B789AF6A41}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{88FC515F-2EBD-4DCA-8CA5-C3667D3FAEAB}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{B88DD982-D7B4-40A4-A42D-8B2AA3D50059}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{52AAB0B8-728A-4887-971D-1873A14AD164}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{0B350BD9-11DF-4DCB-927B-CD99AAAE5615}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{2D290FD3-0C7C-494D-A998-A464AD739236}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{3CAA19B1-836E-4859-BDF2-0AB7417CDBF1}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{379B34EC-7771-4F55-A366-636115614627}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{6C61ED76-0063-4929-B432-FE196612D1AC}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{710CC989-24DC-443C-BDFE-FEE8A446F256}"/>
-    <hyperlink ref="E28" r:id="rId27" xr:uid="{1F302017-25C3-483C-BF90-EF76C4374BAA}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{5471C39B-596B-43DD-AB52-F449DE0457C9}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{7F476F9A-12AB-49A6-B501-A5CAAE3EB7A6}"/>
-    <hyperlink ref="E31" r:id="rId30" xr:uid="{D558F72F-D24A-4257-A283-8B7D5F753511}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{BAA32676-45DD-44C3-95BB-E04125F1457C}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{9707FDA8-5C21-4BDE-B6DC-AB8779EEBD88}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{E56AC2FA-F52B-4F76-B2D2-3B88CA22859B}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{8EF44573-4723-4715-997A-B748498D99FE}"/>
-    <hyperlink ref="E36" r:id="rId35" xr:uid="{86169863-FCDB-4F3A-B1EF-2CE597126A1B}"/>
-    <hyperlink ref="E37" r:id="rId36" xr:uid="{E9653EF3-CDBC-48C6-B78A-D34D72D1E335}"/>
-    <hyperlink ref="E38" r:id="rId37" xr:uid="{4EDD1993-FE46-427A-A511-539369423029}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{99F22C26-AAB9-4F21-BBC8-F93E92FD9F95}"/>
-    <hyperlink ref="E40" r:id="rId39" xr:uid="{378FB1E2-BD76-4C60-8065-B70353723F72}"/>
-    <hyperlink ref="E41" r:id="rId40" xr:uid="{B92B55E1-14AF-48FA-B784-275710590038}"/>
-    <hyperlink ref="E42" r:id="rId41" xr:uid="{C2F6AFF1-8A3A-440A-BEC6-1B79C2B04A05}"/>
-    <hyperlink ref="E43" r:id="rId42" xr:uid="{8F7BB7F6-0004-4F07-89F7-C404F69E4474}"/>
-    <hyperlink ref="E44" r:id="rId43" xr:uid="{E01762EE-60F9-44A6-A8B7-83AB640F0073}"/>
-    <hyperlink ref="E45" r:id="rId44" xr:uid="{91D2D448-E99E-4EF9-B3DE-72CA2A6D6EF4}"/>
-    <hyperlink ref="E46" r:id="rId45" xr:uid="{82344718-9A69-46BC-8F7E-BF0B9E69D589}"/>
-    <hyperlink ref="E47" r:id="rId46" xr:uid="{F8744E70-B3EF-476A-ADD6-FE8293C8AD27}"/>
-    <hyperlink ref="E48" r:id="rId47" xr:uid="{30BA5F27-885A-4392-88EA-73F60FEDD007}"/>
-    <hyperlink ref="E49" r:id="rId48" xr:uid="{B31EE9C3-8442-4908-8039-45A57A5A4BAF}"/>
-    <hyperlink ref="E50" r:id="rId49" xr:uid="{12545E4F-9826-43F9-9FAC-24EB1C591FF5}"/>
-    <hyperlink ref="E51" r:id="rId50" xr:uid="{0BCBFF2E-88A8-4594-8078-83511911EE6A}"/>
-    <hyperlink ref="E52" r:id="rId51" xr:uid="{357F590C-DD0E-4949-86A6-14BF1E450794}"/>
-    <hyperlink ref="E53" r:id="rId52" xr:uid="{05D56E2B-A807-40E1-B178-9F1AFCE7C84D}"/>
-    <hyperlink ref="E54" r:id="rId53" xr:uid="{2D2DF832-DD5A-4307-BA71-60674D667AF8}"/>
-    <hyperlink ref="E55" r:id="rId54" xr:uid="{BD1F75C3-26B9-4E7D-BBD5-490A2AC8433A}"/>
-    <hyperlink ref="E56" r:id="rId55" xr:uid="{2861E717-C92A-43F2-BE11-8833DB9AB62F}"/>
-    <hyperlink ref="E57" r:id="rId56" xr:uid="{6CCB7954-B064-4A7A-AE6B-CA6DAB9D80C6}"/>
-    <hyperlink ref="E58" r:id="rId57" xr:uid="{CD9CDD54-4B4E-4BF5-80C4-24590DF24968}"/>
-    <hyperlink ref="E59" r:id="rId58" xr:uid="{C011357E-4544-4194-B913-CA4BC2C9487F}"/>
-    <hyperlink ref="E60" r:id="rId59" xr:uid="{981CDFC1-FD0E-41CC-B548-3E50780C87E3}"/>
-    <hyperlink ref="E61" r:id="rId60" xr:uid="{E639A320-8A7A-4A05-B46F-3CB2B0403B6B}"/>
-    <hyperlink ref="E62" r:id="rId61" xr:uid="{0EB7BEAC-3F74-4312-9536-CF3E57BCE3F4}"/>
-    <hyperlink ref="E63" r:id="rId62" xr:uid="{54E1FBAC-7D5C-422F-9610-2E202CFF3394}"/>
-    <hyperlink ref="E64" r:id="rId63" xr:uid="{B78EF396-0BBD-4BBA-B8D1-F3B9B807D8AE}"/>
-    <hyperlink ref="E65" r:id="rId64" xr:uid="{58FDCF06-932D-4A58-B222-AD92A5DF8B06}"/>
-    <hyperlink ref="E66" r:id="rId65" xr:uid="{CF3CA6DB-19A6-4BA5-813B-B84760B84802}"/>
-    <hyperlink ref="E67" r:id="rId66" xr:uid="{F375154E-D023-4A60-B009-A93681721538}"/>
-    <hyperlink ref="E68" r:id="rId67" xr:uid="{E2BC7969-9FCC-4B11-9BC1-C84C53684F58}"/>
-    <hyperlink ref="E69" r:id="rId68" xr:uid="{02919D35-26EE-485A-B971-A244C6D86B72}"/>
-    <hyperlink ref="E70" r:id="rId69" xr:uid="{8625937D-41BF-4851-BAEA-B66E0EF20B5D}"/>
-    <hyperlink ref="E71" r:id="rId70" xr:uid="{F985B7D5-A109-4C13-9756-D4F4A57D6F79}"/>
-    <hyperlink ref="E72" r:id="rId71" xr:uid="{39DCF522-5932-4E67-B802-269DFD1D1934}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{72BA40C5-8C4A-4CAB-A9BB-F74EA22BB9BA}"/>
-    <hyperlink ref="E74" r:id="rId73" xr:uid="{B6225835-5D1E-43C4-B50B-23A98DBF1657}"/>
-    <hyperlink ref="E75" r:id="rId74" xr:uid="{6EA5F864-CCCB-490D-BE90-66581183F009}"/>
-    <hyperlink ref="E76" r:id="rId75" xr:uid="{DD9EFE03-C1E6-4C04-BBDA-1474D50836FC}"/>
-    <hyperlink ref="E77" r:id="rId76" xr:uid="{62577223-3F75-4052-851F-7282FAADC687}"/>
-    <hyperlink ref="E78" r:id="rId77" xr:uid="{1A4E38A1-1F49-42D7-B4B9-FBB905D3E6FE}"/>
-    <hyperlink ref="E79" r:id="rId78" xr:uid="{5FA58DD3-8C3E-4D7E-B5B1-C5C3E1B14355}"/>
-    <hyperlink ref="E80" r:id="rId79" xr:uid="{F9F7A2F8-D506-4576-9797-B07AF013FF46}"/>
-    <hyperlink ref="E81" r:id="rId80" xr:uid="{B9C54BA8-238F-42EC-B8B5-EF2754B264CF}"/>
-    <hyperlink ref="E82" r:id="rId81" xr:uid="{7BEC9796-14CE-455D-86DF-BE4BA169168D}"/>
-    <hyperlink ref="E83" r:id="rId82" xr:uid="{79E2402A-85BE-4C79-B4C9-BAE61AF34BEB}"/>
-    <hyperlink ref="E84" r:id="rId83" xr:uid="{AEAED2B8-E745-4BB2-B38A-F543D2E46F24}"/>
-    <hyperlink ref="E85" r:id="rId84" xr:uid="{8DB7D954-2F55-44B3-B84B-9262441C9873}"/>
-    <hyperlink ref="E86" r:id="rId85" xr:uid="{07573454-E353-48E5-B202-BB9C62C548D2}"/>
-    <hyperlink ref="E87" r:id="rId86" xr:uid="{F850B40B-ADC6-405F-90CF-DF61D51D20F5}"/>
-    <hyperlink ref="E88" r:id="rId87" xr:uid="{5D8538B0-69F1-40EC-AB80-B4B7BA922089}"/>
-    <hyperlink ref="E89" r:id="rId88" xr:uid="{23172353-4C45-42F5-9EC4-085067BEBC3C}"/>
-    <hyperlink ref="E90" r:id="rId89" xr:uid="{29293D3C-4E90-4C3D-8705-32480A29C922}"/>
-    <hyperlink ref="E91" r:id="rId90" xr:uid="{45709E2D-96DC-477F-ADA6-762F6E23665D}"/>
-    <hyperlink ref="E92" r:id="rId91" xr:uid="{E7C62F23-DDD1-4B37-87F1-11123B81250A}"/>
-    <hyperlink ref="E93" r:id="rId92" xr:uid="{1BE53296-9876-41D3-8298-5FD955C51E8C}"/>
-    <hyperlink ref="E94" r:id="rId93" xr:uid="{721ED2CE-DB6B-4008-AD6D-1FE10066FC44}"/>
-    <hyperlink ref="E95" r:id="rId94" xr:uid="{9BDA5917-4BA5-4B8E-B944-254C799713F9}"/>
-    <hyperlink ref="E96" r:id="rId95" xr:uid="{BD86E955-F684-4A8F-A336-0649D06615CB}"/>
-    <hyperlink ref="E97" r:id="rId96" xr:uid="{F8A7D775-529A-420B-BC67-DFBAE774CE33}"/>
-    <hyperlink ref="E98" r:id="rId97" xr:uid="{9627EDED-6399-4846-A51B-577D086F702F}"/>
-    <hyperlink ref="E99" r:id="rId98" xr:uid="{BEBEC460-9ED6-4312-AABE-735B45ED1D4D}"/>
-    <hyperlink ref="E100" r:id="rId99" xr:uid="{869D730F-B7A2-46DD-BAEB-3BBCB267BDF1}"/>
-    <hyperlink ref="E101" r:id="rId100" xr:uid="{F95EC82A-DC88-423D-A0D9-1B769BE52457}"/>
-    <hyperlink ref="E102" r:id="rId101" xr:uid="{BC32C844-8307-496B-8742-61D7082C1D63}"/>
-    <hyperlink ref="E103" r:id="rId102" xr:uid="{C3232849-2850-4B8B-83EE-B85804DEAF75}"/>
-    <hyperlink ref="E104" r:id="rId103" xr:uid="{A86D00B5-D88A-4993-8AAC-16289D7571A5}"/>
-    <hyperlink ref="E105" r:id="rId104" xr:uid="{7F668CC4-AFFF-45A9-B8BD-5B4660B54271}"/>
-    <hyperlink ref="E106" r:id="rId105" xr:uid="{442D1248-3E2D-46BD-8E13-C9A418E858FA}"/>
-    <hyperlink ref="E107" r:id="rId106" xr:uid="{129989D1-8FB6-4E80-8E48-DF939AA2596C}"/>
-    <hyperlink ref="E108" r:id="rId107" xr:uid="{7D8FC941-9F29-4B28-988C-30BDA56EF020}"/>
-    <hyperlink ref="E109" r:id="rId108" xr:uid="{8C020B48-EA75-4DB4-A7EF-90AEF580B4D0}"/>
-    <hyperlink ref="E110" r:id="rId109" xr:uid="{7AD7FDDD-8180-4469-BC54-A3C44B13C20B}"/>
-    <hyperlink ref="E111" r:id="rId110" xr:uid="{26A41FB8-FDD4-4D19-BF43-DE74553BB14B}"/>
-    <hyperlink ref="E112" r:id="rId111" xr:uid="{71D379AD-15A8-458E-B9E9-ED7ED0F503BE}"/>
-    <hyperlink ref="E113" r:id="rId112" xr:uid="{91196E1F-C1D4-4709-9318-16FC8F9D2440}"/>
-    <hyperlink ref="E114" r:id="rId113" xr:uid="{43526F3F-9704-48F1-9206-576E13AF85AC}"/>
-    <hyperlink ref="E115" r:id="rId114" xr:uid="{48602F83-AF65-427B-BE00-B0FFEC7046EC}"/>
-    <hyperlink ref="E116" r:id="rId115" xr:uid="{3C024A21-1703-4E55-8F85-4956AEDEA1B7}"/>
-    <hyperlink ref="E117" r:id="rId116" xr:uid="{174C349E-388D-4FA1-AAB6-9F6BBDE40556}"/>
-    <hyperlink ref="E118" r:id="rId117" xr:uid="{1EEB2523-EB91-4E79-B78E-E6D48C3B391C}"/>
-    <hyperlink ref="E119" r:id="rId118" xr:uid="{67FB7303-AEF8-408B-8371-BF4C4BB55EF8}"/>
-    <hyperlink ref="E120" r:id="rId119" xr:uid="{9433F44D-6FC5-4357-817E-D98319AF722A}"/>
-    <hyperlink ref="E121" r:id="rId120" xr:uid="{821FF3FC-FA9A-4964-92D3-21A442642F11}"/>
-    <hyperlink ref="E122" r:id="rId121" xr:uid="{51DC386A-7437-4AA3-A10C-E8E52337DFAE}"/>
-    <hyperlink ref="E123" r:id="rId122" xr:uid="{2F6EBEE9-7AC8-4F8F-AB79-A4E9170B8A1A}"/>
-    <hyperlink ref="E124" r:id="rId123" xr:uid="{B242B9BB-15EF-4733-8724-99ABEE796664}"/>
-    <hyperlink ref="E125" r:id="rId124" xr:uid="{345F2F0B-744F-49F9-8F1A-65B6EF6EF4FD}"/>
-    <hyperlink ref="E126" r:id="rId125" xr:uid="{A9526A5D-8F97-4CB0-A8E9-D49883AC587A}"/>
-    <hyperlink ref="E127" r:id="rId126" xr:uid="{594EEAC2-4D1F-4146-B4F5-9FABC7586084}"/>
-    <hyperlink ref="E128" r:id="rId127" xr:uid="{5129DEF3-7030-497C-8C5E-7B5D515B12F7}"/>
-    <hyperlink ref="E129" r:id="rId128" xr:uid="{8BB8A70E-D229-4B45-9309-9E6819982681}"/>
-    <hyperlink ref="E130" r:id="rId129" xr:uid="{26E2FB10-3625-483D-A4F3-4154F7153F8F}"/>
-    <hyperlink ref="E131" r:id="rId130" xr:uid="{73152CF1-B910-4D99-B87D-CC44EAFB1F44}"/>
-    <hyperlink ref="E132" r:id="rId131" xr:uid="{971E3545-24F7-42B4-95E6-63BEC8154089}"/>
-    <hyperlink ref="E133" r:id="rId132" xr:uid="{3FBF4801-16AF-400C-9B3D-FF4FE32B1525}"/>
-    <hyperlink ref="E134" r:id="rId133" xr:uid="{19229E93-1B05-4C83-AF77-34E53287821D}"/>
-    <hyperlink ref="E135" r:id="rId134" xr:uid="{70E016B6-F209-4593-BFEF-60264B64AE71}"/>
-    <hyperlink ref="E136" r:id="rId135" xr:uid="{56DECB5C-66D1-45FF-AAEA-501C9249D477}"/>
-    <hyperlink ref="E137" r:id="rId136" xr:uid="{907E2F98-0809-4751-99BD-6EF09279326E}"/>
-    <hyperlink ref="E138" r:id="rId137" xr:uid="{BD4B67E8-96F3-495C-B0FC-4439FCFC9563}"/>
-    <hyperlink ref="E139" r:id="rId138" xr:uid="{E1D1C54D-F158-4E9D-9F43-FF4DBC263B88}"/>
-    <hyperlink ref="E140" r:id="rId139" xr:uid="{01808F89-CA57-448A-A09E-0D9B212A3DCF}"/>
-    <hyperlink ref="E141" r:id="rId140" xr:uid="{1B0C5D43-2F24-4CC7-8C60-A7BD0426F33A}"/>
-    <hyperlink ref="E142" r:id="rId141" xr:uid="{95C4A5E7-6329-4A35-ADC2-B5857D3B0CAA}"/>
-    <hyperlink ref="E143" r:id="rId142" xr:uid="{DB2BED94-6F46-460C-A636-AF86CD29AEDC}"/>
-    <hyperlink ref="E144" r:id="rId143" xr:uid="{BB63290C-56CC-479A-A73E-1176EA94D0D1}"/>
-    <hyperlink ref="E145" r:id="rId144" xr:uid="{47500863-309A-4002-8CF9-1231D8095C66}"/>
-    <hyperlink ref="E146" r:id="rId145" xr:uid="{400178C8-5445-46DF-859B-9142ED20C280}"/>
-    <hyperlink ref="E147" r:id="rId146" xr:uid="{5D42B728-7A43-41B1-8200-99F6B82FC51A}"/>
-    <hyperlink ref="E148" r:id="rId147" xr:uid="{3891693D-CB68-4F0B-9F97-C3F1646AB60A}"/>
-    <hyperlink ref="E149" r:id="rId148" xr:uid="{F618642B-10C0-44EE-94F4-62B2D27415A0}"/>
-    <hyperlink ref="E150" r:id="rId149" xr:uid="{F89E4A4A-6E14-457A-87E8-7BF0944B7C63}"/>
-    <hyperlink ref="E151" r:id="rId150" xr:uid="{94882609-5374-4EBE-99AA-05E1D5CF2C3E}"/>
-    <hyperlink ref="E152" r:id="rId151" xr:uid="{B8333A9E-0F3F-41FA-A29B-C67C5BBEFBCA}"/>
-    <hyperlink ref="E436" r:id="rId152" xr:uid="{6C2B443F-1099-4969-A9B4-85FBE5ECF78D}"/>
+    <hyperlink ref="E436" r:id="rId8" xr:uid="{6C2B443F-1099-4969-A9B4-85FBE5ECF78D}"/>
+    <hyperlink ref="E9:E152" r:id="rId9" display="comercial3@anyx.com.ar" xr:uid="{7A1568F2-22EF-41F5-84A0-79153E7AEF35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId154"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F9ABC-A51F-42A6-AF7A-41DA63462329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6AD9B6-E41D-451E-B445-93BA8E10C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="1608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="1725">
   <si>
     <t>producto</t>
   </si>
@@ -8541,6 +8541,358 @@
   </si>
   <si>
     <t>matiasc@rioinformatica.com.ar</t>
+  </si>
+  <si>
+    <t>Gigalan</t>
+  </si>
+  <si>
+    <t>HPEAruba</t>
+  </si>
+  <si>
+    <t>TycoElectronics</t>
+  </si>
+  <si>
+    <t>WD10SPZX</t>
+  </si>
+  <si>
+    <t>WD20EZAZ</t>
+  </si>
+  <si>
+    <t>WD42PURZ</t>
+  </si>
+  <si>
+    <t>WD60EFAX</t>
+  </si>
+  <si>
+    <t>COMBO</t>
+  </si>
+  <si>
+    <t>9YZ268-046</t>
+  </si>
+  <si>
+    <t>9FN066-009</t>
+  </si>
+  <si>
+    <t>863127-004</t>
+  </si>
+  <si>
+    <t>MZ-77E4T0E</t>
+  </si>
+  <si>
+    <t>911-7D46-31</t>
+  </si>
+  <si>
+    <t>912-V387-002</t>
+  </si>
+  <si>
+    <t>CCR1016-12S-1S+</t>
+  </si>
+  <si>
+    <t>3TJ-00001</t>
+  </si>
+  <si>
+    <t>PP4-00001</t>
+  </si>
+  <si>
+    <t>4XB7A13554</t>
+  </si>
+  <si>
+    <t>SA400S37/240G</t>
+  </si>
+  <si>
+    <t>SA400S37/960G</t>
+  </si>
+  <si>
+    <t>SKC3000S/1024G</t>
+  </si>
+  <si>
+    <t>SKC3000S/512G</t>
+  </si>
+  <si>
+    <t>SKC600/1024G</t>
+  </si>
+  <si>
+    <t>SKC600/256G</t>
+  </si>
+  <si>
+    <t>SKC600/512G</t>
+  </si>
+  <si>
+    <t>SNV2S/1000G</t>
+  </si>
+  <si>
+    <t>SNV2S/2000G</t>
+  </si>
+  <si>
+    <t>SNV2S/250G</t>
+  </si>
+  <si>
+    <t>SNV2S/4000G</t>
+  </si>
+  <si>
+    <t>SNVS/1000G</t>
+  </si>
+  <si>
+    <t>SNVS/250G</t>
+  </si>
+  <si>
+    <t>BX80715G6900</t>
+  </si>
+  <si>
+    <t>BX8070110400</t>
+  </si>
+  <si>
+    <t>BX8070811400</t>
+  </si>
+  <si>
+    <t>BX8071513400</t>
+  </si>
+  <si>
+    <t>HPJL814A</t>
+  </si>
+  <si>
+    <t>CF279A</t>
+  </si>
+  <si>
+    <t>686121-001</t>
+  </si>
+  <si>
+    <t>CF287A</t>
+  </si>
+  <si>
+    <t>CF362A</t>
+  </si>
+  <si>
+    <t>CF363A</t>
+  </si>
+  <si>
+    <t>W2123A</t>
+  </si>
+  <si>
+    <t>805349-B21</t>
+  </si>
+  <si>
+    <t>B560M DS3H V2</t>
+  </si>
+  <si>
+    <t>B660M DS3H DDR4</t>
+  </si>
+  <si>
+    <t>GENERICO</t>
+  </si>
+  <si>
+    <t>822-W1-15SP-K2</t>
+  </si>
+  <si>
+    <t>0FH1Y</t>
+  </si>
+  <si>
+    <t>2RHHG</t>
+  </si>
+  <si>
+    <t>4F474LT</t>
+  </si>
+  <si>
+    <t>4M4Y9</t>
+  </si>
+  <si>
+    <t>8MGKV</t>
+  </si>
+  <si>
+    <t>9JG4R</t>
+  </si>
+  <si>
+    <t>BGPB</t>
+  </si>
+  <si>
+    <t>L3520I58G256</t>
+  </si>
+  <si>
+    <t>L352I7T</t>
+  </si>
+  <si>
+    <t>N3539</t>
+  </si>
+  <si>
+    <t>KM5221W</t>
+  </si>
+  <si>
+    <t>KM7321WGY</t>
+  </si>
+  <si>
+    <t>98F05</t>
+  </si>
+  <si>
+    <t>MS3220-BLK</t>
+  </si>
+  <si>
+    <t>WM126-BK</t>
+  </si>
+  <si>
+    <t>08W1TG</t>
+  </si>
+  <si>
+    <t>0NYKCD</t>
+  </si>
+  <si>
+    <t>KM717-GY-US</t>
+  </si>
+  <si>
+    <t>470-ABND</t>
+  </si>
+  <si>
+    <t>470-ABQN</t>
+  </si>
+  <si>
+    <t>D6000S</t>
+  </si>
+  <si>
+    <t>07MTR0</t>
+  </si>
+  <si>
+    <t>0FX29R</t>
+  </si>
+  <si>
+    <t>TN-2370</t>
+  </si>
+  <si>
+    <t>KN2116A</t>
+  </si>
+  <si>
+    <t>CS64U</t>
+  </si>
+  <si>
+    <t>MNEH3LL/A</t>
+  </si>
+  <si>
+    <t>BX800CI-AR</t>
+  </si>
+  <si>
+    <t>HDD PURPLE 4TB SATA 3.5"</t>
+  </si>
+  <si>
+    <t>RED 6TB SATA 3.5" HDD</t>
+  </si>
+  <si>
+    <t>TECLADO MOUSE Y PARLANTE SENTE</t>
+  </si>
+  <si>
+    <t>KEY CONFORT CURVE  3000 INGLES</t>
+  </si>
+  <si>
+    <t>1TB LN 7.2K SATA  S/CAB POWER</t>
+  </si>
+  <si>
+    <t>SSD M.2 - 1TB NV1 NVME PCIE</t>
+  </si>
+  <si>
+    <t>SSD M.2 250GB NV1 NVME PCIE</t>
+  </si>
+  <si>
+    <t>SWITCH 1830-48PORTS GBE 4 SFP</t>
+  </si>
+  <si>
+    <t>TONER NEGRO CF279A #79A</t>
+  </si>
+  <si>
+    <t>MOUSE WLS COMFORT GRIP</t>
+  </si>
+  <si>
+    <t>TON # 87A NEGRO</t>
+  </si>
+  <si>
+    <t>TONER HP 508A AMARILLO</t>
+  </si>
+  <si>
+    <t>TONER HP 508A MAGENTA</t>
+  </si>
+  <si>
+    <t>TON # 212A MAGENTA</t>
+  </si>
+  <si>
+    <t>SSD M.2 256GB 2230</t>
+  </si>
+  <si>
+    <t>LATITUDE 7430 I5 8G256G 14"</t>
+  </si>
+  <si>
+    <t>WORKSTATION PRECISION 7780 I9</t>
+  </si>
+  <si>
+    <t>LAT 3520 I5-8-256-15" HD  W11P</t>
+  </si>
+  <si>
+    <t>WLS TEC Y MOUSE KM5221W SPA</t>
+  </si>
+  <si>
+    <t>PC OPTIPLEX 7000 I5 8GB 256GB</t>
+  </si>
+  <si>
+    <t>MOUSE LASER USB</t>
+  </si>
+  <si>
+    <t>MOUSE WIRELESS</t>
+  </si>
+  <si>
+    <t>KB500 - KEYBOARD</t>
+  </si>
+  <si>
+    <t>KB740 - KEYBOARD</t>
+  </si>
+  <si>
+    <t>COMBO MULTI-DEVICE WILS SPA</t>
+  </si>
+  <si>
+    <t>WLS KEYBOARD AND MOUSE ENGLISH</t>
+  </si>
+  <si>
+    <t>DOCK USB D_x000D_
+DOCK D6000 USB-C</t>
+  </si>
+  <si>
+    <t>MOCHILA ECOLOOP URBAN BLUE</t>
+  </si>
+  <si>
+    <t>TONER TN-2370</t>
+  </si>
+  <si>
+    <t>MACBOOK PRO 13"M2 8G 256 SPA</t>
+  </si>
+  <si>
+    <t>SENTEY</t>
+  </si>
+  <si>
+    <t>SEAGATE</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>MicroTik</t>
+  </si>
+  <si>
+    <t>MICROSOFT</t>
+  </si>
+  <si>
+    <t>LENOVO</t>
+  </si>
+  <si>
+    <t>INTEL</t>
+  </si>
+  <si>
+    <t>GIGABYTE</t>
+  </si>
+  <si>
+    <t>EVGA</t>
+  </si>
+  <si>
+    <t>ATEN</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>info@anyx.com.ar</t>
   </si>
 </sst>
 </file>
@@ -8923,7 +9275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9225,10 +9577,9 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -9350,14 +9701,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E436" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E436" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E515" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E515" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}">
     <filterColumn colId="4">
       <filters>
         <filter val="matiasc@rioinformtica.com.ar"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E152">
+    <sortCondition ref="C1:C436"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1B48A49-4D48-4A1E-89CF-C9F61C327FFC}" name="producto" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{C3AA694B-486B-4DC2-9B24-35452D57BE82}" name="Descripcion" dataDxfId="3"/>
@@ -9686,10 +10040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
-  <dimension ref="A1:E436"/>
+  <dimension ref="A1:E515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E152"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9901,49 +10255,49 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>837</v>
+        <v>1052</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>839</v>
+        <v>1054</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>838</v>
+        <v>1053</v>
       </c>
       <c r="D13" s="90">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="E13" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>841</v>
+        <v>871</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>838</v>
+        <v>809</v>
       </c>
       <c r="D14" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
-        <v>35123105</v>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="90" t="s">
+        <v>845</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="D15" s="90">
         <v>1</v>
@@ -9952,15 +10306,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="90">
-        <v>35123101</v>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="90" t="s">
+        <v>848</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="D16" s="90">
         <v>1</v>
@@ -9969,35 +10323,35 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="90" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C17" s="90" t="s">
         <v>846</v>
       </c>
       <c r="D17" s="90">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E17" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C18" s="90" t="s">
         <v>846</v>
       </c>
       <c r="D18" s="90">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="E18" s="91" t="s">
         <v>1607</v>
@@ -10005,33 +10359,33 @@
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="90" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C19" s="90" t="s">
         <v>846</v>
       </c>
       <c r="D19" s="90">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E19" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
-        <v>852</v>
+      <c r="A20" s="90">
+        <v>760237040</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C20" s="90" t="s">
         <v>846</v>
       </c>
       <c r="D20" s="90">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="E20" s="91" t="s">
         <v>1607</v>
@@ -10039,33 +10393,33 @@
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="90" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="B21" s="90" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>846</v>
+        <v>873</v>
       </c>
       <c r="D21" s="90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="90">
-        <v>760237040</v>
+    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="90" t="s">
+        <v>875</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>846</v>
+        <v>876</v>
       </c>
       <c r="D22" s="90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="91" t="s">
         <v>1607</v>
@@ -10123,68 +10477,68 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
-        <v>862</v>
+      <c r="A26" s="90">
+        <v>35123105</v>
       </c>
       <c r="B26" s="90" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>863</v>
+        <v>1608</v>
       </c>
       <c r="D26" s="90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="90" t="s">
-        <v>865</v>
+      <c r="A27" s="90">
+        <v>35123101</v>
       </c>
       <c r="B27" s="90" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="C27" s="90" t="s">
-        <v>863</v>
+        <v>1608</v>
       </c>
       <c r="D27" s="90">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="E27" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="B28" s="90" t="s">
-        <v>869</v>
+        <v>839</v>
       </c>
       <c r="C28" s="90" t="s">
-        <v>868</v>
+        <v>838</v>
       </c>
       <c r="D28" s="90">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E28" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>871</v>
+        <v>841</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>809</v>
+        <v>838</v>
       </c>
       <c r="D29" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="91" t="s">
         <v>1607</v>
@@ -10192,33 +10546,33 @@
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>872</v>
+        <v>1113</v>
       </c>
       <c r="B30" s="90" t="s">
-        <v>874</v>
+        <v>1115</v>
       </c>
       <c r="C30" s="90" t="s">
-        <v>873</v>
+        <v>1114</v>
       </c>
       <c r="D30" s="90">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E30" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B31" s="90" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C31" s="90" t="s">
-        <v>876</v>
+        <v>806</v>
       </c>
       <c r="D31" s="90">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E31" s="91" t="s">
         <v>1607</v>
@@ -10226,44 +10580,44 @@
     </row>
     <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B32" s="90" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C32" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D32" s="90">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E32" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C33" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D33" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
-        <v>882</v>
+        <v>1000</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>883</v>
+        <v>1001</v>
       </c>
       <c r="C34" s="90" t="s">
         <v>806</v>
@@ -10275,15 +10629,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
-        <v>884</v>
+        <v>1002</v>
       </c>
       <c r="B35" s="90" t="s">
-        <v>886</v>
+        <v>1003</v>
       </c>
       <c r="C35" s="90" t="s">
-        <v>885</v>
+        <v>806</v>
       </c>
       <c r="D35" s="90">
         <v>1</v>
@@ -10292,15 +10646,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>887</v>
+        <v>1004</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>888</v>
+        <v>1005</v>
       </c>
       <c r="C36" s="90" t="s">
-        <v>885</v>
+        <v>806</v>
       </c>
       <c r="D36" s="90">
         <v>1</v>
@@ -10311,30 +10665,30 @@
     </row>
     <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
-        <v>889</v>
+        <v>1006</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>890</v>
+        <v>1007</v>
       </c>
       <c r="C37" s="90" t="s">
-        <v>885</v>
+        <v>806</v>
       </c>
       <c r="D37" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
-        <v>891</v>
+        <v>1008</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>892</v>
+        <v>1009</v>
       </c>
       <c r="C38" s="90" t="s">
-        <v>885</v>
+        <v>806</v>
       </c>
       <c r="D38" s="90">
         <v>1</v>
@@ -10345,16 +10699,16 @@
     </row>
     <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>893</v>
+        <v>1010</v>
       </c>
       <c r="B39" s="90" t="s">
-        <v>894</v>
+        <v>1011</v>
       </c>
       <c r="C39" s="90" t="s">
-        <v>885</v>
+        <v>806</v>
       </c>
       <c r="D39" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" s="91" t="s">
         <v>1607</v>
@@ -10362,30 +10716,30 @@
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
-        <v>895</v>
+        <v>1012</v>
       </c>
       <c r="B40" s="90" t="s">
-        <v>896</v>
+        <v>1013</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>885</v>
+        <v>806</v>
       </c>
       <c r="D40" s="90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
-        <v>897</v>
+        <v>1014</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>898</v>
+        <v>1015</v>
       </c>
       <c r="C41" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D41" s="90">
         <v>1</v>
@@ -10396,47 +10750,47 @@
     </row>
     <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
-        <v>899</v>
+        <v>1016</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>900</v>
+        <v>1017</v>
       </c>
       <c r="C42" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D42" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="90" t="s">
-        <v>901</v>
+        <v>1021</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>903</v>
+        <v>1022</v>
       </c>
       <c r="C43" s="90" t="s">
-        <v>902</v>
+        <v>806</v>
       </c>
       <c r="D43" s="90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E43" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>904</v>
+        <v>1023</v>
       </c>
       <c r="B44" s="90" t="s">
-        <v>905</v>
+        <v>1024</v>
       </c>
       <c r="C44" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D44" s="90">
         <v>1</v>
@@ -10447,64 +10801,64 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="90" t="s">
-        <v>906</v>
+        <v>1025</v>
       </c>
       <c r="B45" s="90" t="s">
-        <v>907</v>
+        <v>1026</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D45" s="90">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E45" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
-        <v>908</v>
+        <v>1027</v>
       </c>
       <c r="B46" s="90" t="s">
-        <v>909</v>
+        <v>1028</v>
       </c>
       <c r="C46" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D46" s="90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E46" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="90" t="s">
-        <v>910</v>
+        <v>1029</v>
       </c>
       <c r="B47" s="90" t="s">
-        <v>911</v>
+        <v>1028</v>
       </c>
       <c r="C47" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D47" s="90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="90" t="s">
-        <v>912</v>
+        <v>1030</v>
       </c>
       <c r="B48" s="90" t="s">
-        <v>913</v>
+        <v>1031</v>
       </c>
       <c r="C48" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D48" s="90">
         <v>1</v>
@@ -10513,18 +10867,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="90" t="s">
-        <v>914</v>
+        <v>1035</v>
       </c>
       <c r="B49" s="90" t="s">
-        <v>915</v>
+        <v>1036</v>
       </c>
       <c r="C49" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D49" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="91" t="s">
         <v>1607</v>
@@ -10532,13 +10886,13 @@
     </row>
     <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="90" t="s">
-        <v>916</v>
+        <v>1037</v>
       </c>
       <c r="B50" s="90" t="s">
-        <v>917</v>
+        <v>1038</v>
       </c>
       <c r="C50" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D50" s="90">
         <v>1</v>
@@ -10547,15 +10901,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="90" t="s">
-        <v>918</v>
+        <v>1039</v>
       </c>
       <c r="B51" s="90" t="s">
-        <v>919</v>
+        <v>1040</v>
       </c>
       <c r="C51" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D51" s="90">
         <v>2</v>
@@ -10564,15 +10918,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="90" t="s">
-        <v>920</v>
+        <v>1041</v>
       </c>
       <c r="B52" s="90" t="s">
-        <v>921</v>
+        <v>1042</v>
       </c>
       <c r="C52" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D52" s="90">
         <v>1</v>
@@ -10581,15 +10935,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="90" t="s">
-        <v>922</v>
+        <v>1043</v>
       </c>
       <c r="B53" s="90" t="s">
-        <v>923</v>
+        <v>1044</v>
       </c>
       <c r="C53" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D53" s="90">
         <v>1</v>
@@ -10600,30 +10954,30 @@
     </row>
     <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="90" t="s">
-        <v>924</v>
+        <v>1045</v>
       </c>
       <c r="B54" s="90" t="s">
-        <v>925</v>
+        <v>1046</v>
       </c>
       <c r="C54" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D54" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="90" t="s">
-        <v>926</v>
+        <v>1047</v>
       </c>
       <c r="B55" s="90" t="s">
-        <v>927</v>
+        <v>1048</v>
       </c>
       <c r="C55" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D55" s="90">
         <v>1</v>
@@ -10634,13 +10988,13 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="90" t="s">
-        <v>928</v>
+        <v>1049</v>
       </c>
       <c r="B56" s="90" t="s">
-        <v>929</v>
+        <v>1050</v>
       </c>
       <c r="C56" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D56" s="90">
         <v>1</v>
@@ -10651,64 +11005,64 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="90" t="s">
-        <v>930</v>
+        <v>1051</v>
       </c>
       <c r="B57" s="90" t="s">
-        <v>931</v>
+        <v>1050</v>
       </c>
       <c r="C57" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D57" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="90" t="s">
-        <v>932</v>
+        <v>1061</v>
       </c>
       <c r="B58" s="90" t="s">
-        <v>933</v>
+        <v>1062</v>
       </c>
       <c r="C58" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D58" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="90" t="s">
-        <v>934</v>
+        <v>1063</v>
       </c>
       <c r="B59" s="90" t="s">
-        <v>935</v>
+        <v>1064</v>
       </c>
       <c r="C59" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D59" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="90" t="s">
-        <v>936</v>
+        <v>1065</v>
       </c>
       <c r="B60" s="90" t="s">
-        <v>937</v>
+        <v>1066</v>
       </c>
       <c r="C60" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D60" s="90">
         <v>1</v>
@@ -10717,18 +11071,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="90" t="s">
-        <v>938</v>
+        <v>1067</v>
       </c>
       <c r="B61" s="90" t="s">
-        <v>939</v>
+        <v>1068</v>
       </c>
       <c r="C61" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D61" s="90">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E61" s="91" t="s">
         <v>1607</v>
@@ -10736,13 +11090,13 @@
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="90" t="s">
-        <v>940</v>
+        <v>1069</v>
       </c>
       <c r="B62" s="90" t="s">
-        <v>941</v>
+        <v>1070</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D62" s="90">
         <v>1</v>
@@ -10751,32 +11105,32 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="90" t="s">
-        <v>942</v>
+        <v>1073</v>
       </c>
       <c r="B63" s="90" t="s">
-        <v>943</v>
+        <v>1074</v>
       </c>
       <c r="C63" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D63" s="90">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E63" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="90" t="s">
-        <v>944</v>
+        <v>1077</v>
       </c>
       <c r="B64" s="90" t="s">
-        <v>945</v>
+        <v>1078</v>
       </c>
       <c r="C64" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D64" s="90">
         <v>4</v>
@@ -10785,35 +11139,35 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="90" t="s">
-        <v>946</v>
+        <v>1079</v>
       </c>
       <c r="B65" s="90" t="s">
-        <v>947</v>
+        <v>1080</v>
       </c>
       <c r="C65" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D65" s="90">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E65" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="90" t="s">
-        <v>948</v>
+        <v>1081</v>
       </c>
       <c r="B66" s="90" t="s">
-        <v>949</v>
+        <v>1082</v>
       </c>
       <c r="C66" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D66" s="90">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E66" s="91" t="s">
         <v>1607</v>
@@ -10821,84 +11175,84 @@
     </row>
     <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="90" t="s">
-        <v>950</v>
+        <v>1083</v>
       </c>
       <c r="B67" s="90" t="s">
-        <v>951</v>
+        <v>1084</v>
       </c>
       <c r="C67" s="90" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="D67" s="90">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E67" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="90" t="s">
-        <v>952</v>
+        <v>1085</v>
       </c>
       <c r="B68" s="90" t="s">
-        <v>953</v>
+        <v>1086</v>
       </c>
       <c r="C68" s="90" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="D68" s="90">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E68" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
-        <v>954</v>
+        <v>1087</v>
       </c>
       <c r="B69" s="90" t="s">
-        <v>955</v>
+        <v>1088</v>
       </c>
       <c r="C69" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D69" s="90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="90" t="s">
-        <v>956</v>
+        <v>1089</v>
       </c>
       <c r="B70" s="90" t="s">
-        <v>1352</v>
+        <v>1090</v>
       </c>
       <c r="C70" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D70" s="90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E70" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="90" t="s">
-        <v>957</v>
+        <v>1091</v>
       </c>
       <c r="B71" s="90" t="s">
-        <v>958</v>
+        <v>1092</v>
       </c>
       <c r="C71" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D71" s="90">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E71" s="91" t="s">
         <v>1607</v>
@@ -10906,47 +11260,47 @@
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="90" t="s">
-        <v>959</v>
+        <v>1093</v>
       </c>
       <c r="B72" s="90" t="s">
-        <v>960</v>
+        <v>1094</v>
       </c>
       <c r="C72" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D72" s="90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="90" t="s">
-        <v>961</v>
+        <v>1095</v>
       </c>
       <c r="B73" s="90" t="s">
-        <v>962</v>
+        <v>1096</v>
       </c>
       <c r="C73" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D73" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A74" s="90" t="s">
-        <v>963</v>
+        <v>1018</v>
       </c>
       <c r="B74" s="90" t="s">
-        <v>964</v>
+        <v>1020</v>
       </c>
       <c r="C74" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D74" s="90">
         <v>1</v>
@@ -10955,18 +11309,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="90" t="s">
-        <v>965</v>
+        <v>1055</v>
       </c>
       <c r="B75" s="90" t="s">
-        <v>966</v>
+        <v>1056</v>
       </c>
       <c r="C75" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D75" s="90">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E75" s="91" t="s">
         <v>1607</v>
@@ -10974,33 +11328,33 @@
     </row>
     <row r="76" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="90" t="s">
-        <v>967</v>
+        <v>1057</v>
       </c>
       <c r="B76" s="90" t="s">
-        <v>968</v>
+        <v>1058</v>
       </c>
       <c r="C76" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D76" s="90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
-        <v>969</v>
+        <v>1059</v>
       </c>
       <c r="B77" s="90" t="s">
-        <v>970</v>
+        <v>1060</v>
       </c>
       <c r="C77" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D77" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="91" t="s">
         <v>1607</v>
@@ -11008,33 +11362,33 @@
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="90" t="s">
-        <v>971</v>
+        <v>1071</v>
       </c>
       <c r="B78" s="90" t="s">
-        <v>972</v>
+        <v>1072</v>
       </c>
       <c r="C78" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D78" s="90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E78" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="90" t="s">
-        <v>973</v>
+        <v>1075</v>
       </c>
       <c r="B79" s="90" t="s">
-        <v>974</v>
+        <v>1076</v>
       </c>
       <c r="C79" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D79" s="90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E79" s="91" t="s">
         <v>1607</v>
@@ -11042,16 +11396,16 @@
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="90" t="s">
-        <v>975</v>
+        <v>1032</v>
       </c>
       <c r="B80" s="90" t="s">
-        <v>976</v>
+        <v>1034</v>
       </c>
       <c r="C80" s="90" t="s">
-        <v>817</v>
+        <v>1033</v>
       </c>
       <c r="D80" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" s="91" t="s">
         <v>1607</v>
@@ -11059,10 +11413,10 @@
     </row>
     <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="90" t="s">
-        <v>977</v>
+        <v>897</v>
       </c>
       <c r="B81" s="90" t="s">
-        <v>978</v>
+        <v>898</v>
       </c>
       <c r="C81" s="90" t="s">
         <v>817</v>
@@ -11074,29 +11428,29 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="90" t="s">
-        <v>979</v>
+        <v>899</v>
       </c>
       <c r="B82" s="90" t="s">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="C82" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D82" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="90" t="s">
-        <v>981</v>
+        <v>904</v>
       </c>
       <c r="B83" s="90" t="s">
-        <v>982</v>
+        <v>905</v>
       </c>
       <c r="C83" s="90" t="s">
         <v>817</v>
@@ -11110,61 +11464,61 @@
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="90" t="s">
-        <v>983</v>
+        <v>906</v>
       </c>
       <c r="B84" s="90" t="s">
-        <v>984</v>
+        <v>907</v>
       </c>
       <c r="C84" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D84" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="90" t="s">
-        <v>985</v>
+        <v>908</v>
       </c>
       <c r="B85" s="90" t="s">
-        <v>984</v>
+        <v>909</v>
       </c>
       <c r="C85" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D85" s="90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E85" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="90" t="s">
-        <v>986</v>
+        <v>910</v>
       </c>
       <c r="B86" s="90" t="s">
-        <v>987</v>
+        <v>911</v>
       </c>
       <c r="C86" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D86" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E86" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="90" t="s">
-        <v>988</v>
+        <v>912</v>
       </c>
       <c r="B87" s="90" t="s">
-        <v>989</v>
+        <v>913</v>
       </c>
       <c r="C87" s="90" t="s">
         <v>817</v>
@@ -11176,18 +11530,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="90" t="s">
-        <v>990</v>
+        <v>914</v>
       </c>
       <c r="B88" s="90" t="s">
-        <v>991</v>
+        <v>915</v>
       </c>
       <c r="C88" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D88" s="90">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E88" s="91" t="s">
         <v>1607</v>
@@ -11195,10 +11549,10 @@
     </row>
     <row r="89" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="90" t="s">
-        <v>992</v>
+        <v>916</v>
       </c>
       <c r="B89" s="90" t="s">
-        <v>993</v>
+        <v>917</v>
       </c>
       <c r="C89" s="90" t="s">
         <v>817</v>
@@ -11212,33 +11566,33 @@
     </row>
     <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="90" t="s">
-        <v>994</v>
+        <v>918</v>
       </c>
       <c r="B90" s="90" t="s">
-        <v>995</v>
+        <v>919</v>
       </c>
       <c r="C90" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D90" s="90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E90" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="90" t="s">
-        <v>996</v>
+        <v>920</v>
       </c>
       <c r="B91" s="90" t="s">
-        <v>997</v>
+        <v>921</v>
       </c>
       <c r="C91" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D91" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="91" t="s">
         <v>1607</v>
@@ -11246,16 +11600,16 @@
     </row>
     <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="90" t="s">
-        <v>998</v>
+        <v>922</v>
       </c>
       <c r="B92" s="90" t="s">
-        <v>999</v>
+        <v>923</v>
       </c>
       <c r="C92" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D92" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92" s="91" t="s">
         <v>1607</v>
@@ -11263,13 +11617,13 @@
     </row>
     <row r="93" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="90" t="s">
-        <v>1000</v>
+        <v>924</v>
       </c>
       <c r="B93" s="90" t="s">
-        <v>1001</v>
+        <v>925</v>
       </c>
       <c r="C93" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D93" s="90">
         <v>1</v>
@@ -11280,13 +11634,13 @@
     </row>
     <row r="94" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A94" s="90" t="s">
-        <v>1002</v>
+        <v>926</v>
       </c>
       <c r="B94" s="90" t="s">
-        <v>1003</v>
+        <v>927</v>
       </c>
       <c r="C94" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D94" s="90">
         <v>1</v>
@@ -11295,15 +11649,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="90" t="s">
-        <v>1004</v>
+        <v>928</v>
       </c>
       <c r="B95" s="90" t="s">
-        <v>1005</v>
+        <v>929</v>
       </c>
       <c r="C95" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D95" s="90">
         <v>1</v>
@@ -11312,15 +11666,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="90" t="s">
-        <v>1006</v>
+        <v>930</v>
       </c>
       <c r="B96" s="90" t="s">
-        <v>1007</v>
+        <v>931</v>
       </c>
       <c r="C96" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D96" s="90">
         <v>1</v>
@@ -11329,15 +11683,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="90" t="s">
-        <v>1008</v>
+        <v>932</v>
       </c>
       <c r="B97" s="90" t="s">
-        <v>1009</v>
+        <v>933</v>
       </c>
       <c r="C97" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D97" s="90">
         <v>1</v>
@@ -11346,18 +11700,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="90" t="s">
-        <v>1010</v>
+        <v>934</v>
       </c>
       <c r="B98" s="90" t="s">
-        <v>1011</v>
+        <v>935</v>
       </c>
       <c r="C98" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D98" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98" s="91" t="s">
         <v>1607</v>
@@ -11365,33 +11719,33 @@
     </row>
     <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="90" t="s">
-        <v>1012</v>
+        <v>936</v>
       </c>
       <c r="B99" s="90" t="s">
-        <v>1013</v>
+        <v>937</v>
       </c>
       <c r="C99" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D99" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E99" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="90" t="s">
-        <v>1014</v>
+        <v>938</v>
       </c>
       <c r="B100" s="90" t="s">
-        <v>1015</v>
+        <v>939</v>
       </c>
       <c r="C100" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D100" s="90">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E100" s="91" t="s">
         <v>1607</v>
@@ -11399,13 +11753,13 @@
     </row>
     <row r="101" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="90" t="s">
-        <v>1016</v>
+        <v>940</v>
       </c>
       <c r="B101" s="90" t="s">
-        <v>1017</v>
+        <v>941</v>
       </c>
       <c r="C101" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D101" s="90">
         <v>1</v>
@@ -11416,16 +11770,16 @@
     </row>
     <row r="102" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="90" t="s">
-        <v>1018</v>
+        <v>942</v>
       </c>
       <c r="B102" s="90" t="s">
-        <v>1020</v>
+        <v>943</v>
       </c>
       <c r="C102" s="90" t="s">
-        <v>1019</v>
+        <v>817</v>
       </c>
       <c r="D102" s="90">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E102" s="91" t="s">
         <v>1607</v>
@@ -11433,50 +11787,50 @@
     </row>
     <row r="103" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A103" s="90" t="s">
-        <v>1021</v>
+        <v>944</v>
       </c>
       <c r="B103" s="90" t="s">
-        <v>1022</v>
+        <v>945</v>
       </c>
       <c r="C103" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D103" s="90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E103" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="90" t="s">
-        <v>1023</v>
+        <v>946</v>
       </c>
       <c r="B104" s="90" t="s">
-        <v>1024</v>
+        <v>947</v>
       </c>
       <c r="C104" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D104" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E104" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="90" t="s">
-        <v>1025</v>
+        <v>948</v>
       </c>
       <c r="B105" s="90" t="s">
-        <v>1026</v>
+        <v>949</v>
       </c>
       <c r="C105" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D105" s="90">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E105" s="91" t="s">
         <v>1607</v>
@@ -11484,16 +11838,16 @@
     </row>
     <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="90" t="s">
-        <v>1027</v>
+        <v>954</v>
       </c>
       <c r="B106" s="90" t="s">
-        <v>1028</v>
+        <v>955</v>
       </c>
       <c r="C106" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D106" s="90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E106" s="91" t="s">
         <v>1607</v>
@@ -11501,33 +11855,33 @@
     </row>
     <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="90" t="s">
-        <v>1029</v>
+        <v>956</v>
       </c>
       <c r="B107" s="90" t="s">
-        <v>1028</v>
+        <v>1352</v>
       </c>
       <c r="C107" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D107" s="90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E107" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" s="90" t="s">
-        <v>1030</v>
+        <v>957</v>
       </c>
       <c r="B108" s="90" t="s">
-        <v>1031</v>
+        <v>958</v>
       </c>
       <c r="C108" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D108" s="90">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E108" s="91" t="s">
         <v>1607</v>
@@ -11535,13 +11889,13 @@
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="90" t="s">
-        <v>1032</v>
+        <v>959</v>
       </c>
       <c r="B109" s="90" t="s">
-        <v>1034</v>
+        <v>960</v>
       </c>
       <c r="C109" s="90" t="s">
-        <v>1033</v>
+        <v>817</v>
       </c>
       <c r="D109" s="90">
         <v>2</v>
@@ -11550,15 +11904,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="90" t="s">
-        <v>1035</v>
+        <v>961</v>
       </c>
       <c r="B110" s="90" t="s">
-        <v>1036</v>
+        <v>962</v>
       </c>
       <c r="C110" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D110" s="90">
         <v>1</v>
@@ -11569,13 +11923,13 @@
     </row>
     <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="90" t="s">
-        <v>1037</v>
+        <v>963</v>
       </c>
       <c r="B111" s="90" t="s">
-        <v>1038</v>
+        <v>964</v>
       </c>
       <c r="C111" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D111" s="90">
         <v>1</v>
@@ -11584,49 +11938,49 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="90" t="s">
-        <v>1039</v>
+        <v>965</v>
       </c>
       <c r="B112" s="90" t="s">
-        <v>1040</v>
+        <v>966</v>
       </c>
       <c r="C112" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D112" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="90" t="s">
-        <v>1041</v>
+        <v>967</v>
       </c>
       <c r="B113" s="90" t="s">
-        <v>1042</v>
+        <v>968</v>
       </c>
       <c r="C113" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D113" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A114" s="90" t="s">
-        <v>1043</v>
+        <v>969</v>
       </c>
       <c r="B114" s="90" t="s">
-        <v>1044</v>
+        <v>970</v>
       </c>
       <c r="C114" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D114" s="90">
         <v>1</v>
@@ -11635,18 +11989,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="90" t="s">
-        <v>1045</v>
+        <v>971</v>
       </c>
       <c r="B115" s="90" t="s">
-        <v>1046</v>
+        <v>972</v>
       </c>
       <c r="C115" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D115" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" s="91" t="s">
         <v>1607</v>
@@ -11654,13 +12008,13 @@
     </row>
     <row r="116" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="90" t="s">
-        <v>1047</v>
+        <v>973</v>
       </c>
       <c r="B116" s="90" t="s">
-        <v>1048</v>
+        <v>974</v>
       </c>
       <c r="C116" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D116" s="90">
         <v>1</v>
@@ -11671,13 +12025,13 @@
     </row>
     <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="90" t="s">
-        <v>1049</v>
+        <v>975</v>
       </c>
       <c r="B117" s="90" t="s">
-        <v>1050</v>
+        <v>976</v>
       </c>
       <c r="C117" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D117" s="90">
         <v>1</v>
@@ -11686,35 +12040,35 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="90" t="s">
-        <v>1051</v>
+        <v>977</v>
       </c>
       <c r="B118" s="90" t="s">
-        <v>1050</v>
+        <v>978</v>
       </c>
       <c r="C118" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D118" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A119" s="90" t="s">
-        <v>1052</v>
+        <v>979</v>
       </c>
       <c r="B119" s="90" t="s">
-        <v>1054</v>
+        <v>980</v>
       </c>
       <c r="C119" s="90" t="s">
-        <v>1053</v>
+        <v>817</v>
       </c>
       <c r="D119" s="90">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="E119" s="91" t="s">
         <v>1607</v>
@@ -11722,50 +12076,50 @@
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="90" t="s">
-        <v>1055</v>
+        <v>981</v>
       </c>
       <c r="B120" s="90" t="s">
-        <v>1056</v>
+        <v>982</v>
       </c>
       <c r="C120" s="90" t="s">
-        <v>1019</v>
+        <v>817</v>
       </c>
       <c r="D120" s="90">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E120" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="90" t="s">
-        <v>1057</v>
+        <v>983</v>
       </c>
       <c r="B121" s="90" t="s">
-        <v>1058</v>
+        <v>984</v>
       </c>
       <c r="C121" s="90" t="s">
-        <v>1019</v>
+        <v>817</v>
       </c>
       <c r="D121" s="90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E121" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="90" t="s">
-        <v>1059</v>
+        <v>985</v>
       </c>
       <c r="B122" s="90" t="s">
-        <v>1060</v>
+        <v>984</v>
       </c>
       <c r="C122" s="90" t="s">
-        <v>1019</v>
+        <v>817</v>
       </c>
       <c r="D122" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122" s="91" t="s">
         <v>1607</v>
@@ -11773,30 +12127,30 @@
     </row>
     <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="90" t="s">
-        <v>1061</v>
+        <v>986</v>
       </c>
       <c r="B123" s="90" t="s">
-        <v>1062</v>
+        <v>987</v>
       </c>
       <c r="C123" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D123" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="90" t="s">
-        <v>1063</v>
+        <v>988</v>
       </c>
       <c r="B124" s="90" t="s">
-        <v>1064</v>
+        <v>989</v>
       </c>
       <c r="C124" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D124" s="90">
         <v>1</v>
@@ -11805,32 +12159,32 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="90" t="s">
-        <v>1065</v>
+        <v>990</v>
       </c>
       <c r="B125" s="90" t="s">
-        <v>1066</v>
+        <v>991</v>
       </c>
       <c r="C125" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D125" s="90">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E125" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="90" t="s">
-        <v>1067</v>
+        <v>992</v>
       </c>
       <c r="B126" s="90" t="s">
-        <v>1068</v>
+        <v>993</v>
       </c>
       <c r="C126" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D126" s="90">
         <v>1</v>
@@ -11841,16 +12195,16 @@
     </row>
     <row r="127" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="90" t="s">
-        <v>1069</v>
+        <v>994</v>
       </c>
       <c r="B127" s="90" t="s">
-        <v>1070</v>
+        <v>995</v>
       </c>
       <c r="C127" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D127" s="90">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E127" s="91" t="s">
         <v>1607</v>
@@ -11858,16 +12212,16 @@
     </row>
     <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="90" t="s">
-        <v>1071</v>
+        <v>996</v>
       </c>
       <c r="B128" s="90" t="s">
-        <v>1072</v>
+        <v>997</v>
       </c>
       <c r="C128" s="90" t="s">
-        <v>1019</v>
+        <v>817</v>
       </c>
       <c r="D128" s="90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E128" s="91" t="s">
         <v>1607</v>
@@ -11875,84 +12229,84 @@
     </row>
     <row r="129" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="90" t="s">
-        <v>1073</v>
+        <v>998</v>
       </c>
       <c r="B129" s="90" t="s">
-        <v>1074</v>
+        <v>999</v>
       </c>
       <c r="C129" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D129" s="90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E129" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="90" t="s">
-        <v>1075</v>
+        <v>1103</v>
       </c>
       <c r="B130" s="90" t="s">
-        <v>1076</v>
+        <v>1104</v>
       </c>
       <c r="C130" s="90" t="s">
-        <v>1019</v>
+        <v>817</v>
       </c>
       <c r="D130" s="90">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E130" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="90" t="s">
-        <v>1077</v>
+        <v>901</v>
       </c>
       <c r="B131" s="90" t="s">
-        <v>1078</v>
+        <v>903</v>
       </c>
       <c r="C131" s="90" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D131" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E131" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="90" t="s">
-        <v>1079</v>
+        <v>884</v>
       </c>
       <c r="B132" s="90" t="s">
-        <v>1080</v>
+        <v>886</v>
       </c>
       <c r="C132" s="90" t="s">
-        <v>806</v>
+        <v>1609</v>
       </c>
       <c r="D132" s="90">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E132" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="90" t="s">
-        <v>1081</v>
+        <v>887</v>
       </c>
       <c r="B133" s="90" t="s">
-        <v>1082</v>
+        <v>888</v>
       </c>
       <c r="C133" s="90" t="s">
-        <v>806</v>
+        <v>1609</v>
       </c>
       <c r="D133" s="90">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E133" s="91" t="s">
         <v>1607</v>
@@ -11960,33 +12314,33 @@
     </row>
     <row r="134" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="90" t="s">
-        <v>1083</v>
+        <v>889</v>
       </c>
       <c r="B134" s="90" t="s">
-        <v>1084</v>
+        <v>890</v>
       </c>
       <c r="C134" s="90" t="s">
-        <v>806</v>
+        <v>1609</v>
       </c>
       <c r="D134" s="90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E134" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="90" t="s">
-        <v>1085</v>
+        <v>891</v>
       </c>
       <c r="B135" s="90" t="s">
-        <v>1086</v>
+        <v>892</v>
       </c>
       <c r="C135" s="90" t="s">
-        <v>806</v>
+        <v>1609</v>
       </c>
       <c r="D135" s="90">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E135" s="91" t="s">
         <v>1607</v>
@@ -11994,16 +12348,16 @@
     </row>
     <row r="136" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="90" t="s">
-        <v>1087</v>
+        <v>893</v>
       </c>
       <c r="B136" s="90" t="s">
-        <v>1088</v>
+        <v>894</v>
       </c>
       <c r="C136" s="90" t="s">
-        <v>806</v>
+        <v>1609</v>
       </c>
       <c r="D136" s="90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136" s="91" t="s">
         <v>1607</v>
@@ -12011,13 +12365,13 @@
     </row>
     <row r="137" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="90" t="s">
-        <v>1089</v>
+        <v>895</v>
       </c>
       <c r="B137" s="90" t="s">
-        <v>1090</v>
+        <v>896</v>
       </c>
       <c r="C137" s="90" t="s">
-        <v>806</v>
+        <v>1609</v>
       </c>
       <c r="D137" s="90">
         <v>2</v>
@@ -12028,13 +12382,13 @@
     </row>
     <row r="138" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" s="90" t="s">
-        <v>1091</v>
+        <v>950</v>
       </c>
       <c r="B138" s="90" t="s">
-        <v>1092</v>
+        <v>951</v>
       </c>
       <c r="C138" s="90" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="D138" s="90">
         <v>2</v>
@@ -12043,35 +12397,35 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A139" s="90" t="s">
-        <v>1093</v>
+        <v>952</v>
       </c>
       <c r="B139" s="90" t="s">
-        <v>1094</v>
+        <v>953</v>
       </c>
       <c r="C139" s="90" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="D139" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E139" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="90" t="s">
-        <v>1095</v>
+    <row r="140" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A140" s="90">
+        <v>36200291</v>
       </c>
       <c r="B140" s="90" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="C140" s="90" t="s">
-        <v>806</v>
+        <v>1105</v>
       </c>
       <c r="D140" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E140" s="91" t="s">
         <v>1607</v>
@@ -12079,16 +12433,16 @@
     </row>
     <row r="141" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="90" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="B141" s="90" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C141" s="90" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="D141" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141" s="91" t="s">
         <v>1607</v>
@@ -12096,50 +12450,50 @@
     </row>
     <row r="142" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A142" s="90" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="B142" s="90" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="C142" s="90" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="D142" s="90">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E142" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A143" s="90" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="B143" s="90" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="C143" s="90" t="s">
-        <v>817</v>
+        <v>1105</v>
       </c>
       <c r="D143" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A144" s="90">
-        <v>36200291</v>
+    <row r="144" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="90" t="s">
+        <v>1122</v>
       </c>
       <c r="B144" s="90" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="C144" s="90" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="D144" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E144" s="91" t="s">
         <v>1607</v>
@@ -12147,33 +12501,33 @@
     </row>
     <row r="145" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="90" t="s">
-        <v>1107</v>
+        <v>1122</v>
       </c>
       <c r="B145" s="90" t="s">
-        <v>1108</v>
+        <v>1125</v>
       </c>
       <c r="C145" s="90" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="D145" s="90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E145" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="90" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="B146" s="90" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="C146" s="90" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="D146" s="90">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E146" s="91" t="s">
         <v>1607</v>
@@ -12181,13 +12535,13 @@
     </row>
     <row r="147" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A147" s="90" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="B147" s="90" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="C147" s="90" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="D147" s="90">
         <v>1</v>
@@ -12198,16 +12552,16 @@
     </row>
     <row r="148" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="90" t="s">
-        <v>1113</v>
+        <v>862</v>
       </c>
       <c r="B148" s="90" t="s">
-        <v>1115</v>
+        <v>864</v>
       </c>
       <c r="C148" s="90" t="s">
-        <v>1114</v>
+        <v>863</v>
       </c>
       <c r="D148" s="90">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E148" s="91" t="s">
         <v>1607</v>
@@ -12215,16 +12569,16 @@
     </row>
     <row r="149" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="90" t="s">
-        <v>1116</v>
+        <v>865</v>
       </c>
       <c r="B149" s="90" t="s">
-        <v>1118</v>
+        <v>866</v>
       </c>
       <c r="C149" s="90" t="s">
-        <v>1117</v>
+        <v>863</v>
       </c>
       <c r="D149" s="90">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="E149" s="91" t="s">
         <v>1607</v>
@@ -12249,13 +12603,13 @@
     </row>
     <row r="151" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="90" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="B151" s="90" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="C151" s="90" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="D151" s="90">
         <v>4</v>
@@ -12266,16 +12620,16 @@
     </row>
     <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="90" t="s">
-        <v>1122</v>
+        <v>867</v>
       </c>
       <c r="B152" s="90" t="s">
-        <v>1125</v>
+        <v>869</v>
       </c>
       <c r="C152" s="90" t="s">
-        <v>1123</v>
+        <v>1610</v>
       </c>
       <c r="D152" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E152" s="91" t="s">
         <v>1607</v>
@@ -17099,14 +17453,1357 @@
       <c r="B436" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="C436" s="110" t="s">
+      <c r="C436" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="D436" s="110">
-        <v>1</v>
-      </c>
-      <c r="E436" s="111" t="s">
+      <c r="D436" s="1">
+        <v>1</v>
+      </c>
+      <c r="E436" s="110" t="s">
         <v>1606</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A437" s="90" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B437" s="90" t="s">
+        <v>379</v>
+      </c>
+      <c r="C437" s="90" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D437" s="90">
+        <v>15</v>
+      </c>
+      <c r="E437" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A438" s="90" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B438" s="90" t="s">
+        <v>382</v>
+      </c>
+      <c r="C438" s="90" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D438" s="90">
+        <v>1</v>
+      </c>
+      <c r="E438" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A439" s="90" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B439" s="90" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C439" s="90" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D439" s="90">
+        <v>2</v>
+      </c>
+      <c r="E439" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A440" s="90" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B440" s="90" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C440" s="90" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D440" s="90">
+        <v>1</v>
+      </c>
+      <c r="E440" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A441" s="90" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B441" s="90" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C441" s="90" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D441" s="90">
+        <v>1</v>
+      </c>
+      <c r="E441" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A442" s="90" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B442" s="90" t="s">
+        <v>388</v>
+      </c>
+      <c r="C442" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D442" s="90">
+        <v>2</v>
+      </c>
+      <c r="E442" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A443" s="90" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B443" s="90" t="s">
+        <v>375</v>
+      </c>
+      <c r="C443" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D443" s="90">
+        <v>2</v>
+      </c>
+      <c r="E443" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A444" s="90" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B444" s="90" t="s">
+        <v>379</v>
+      </c>
+      <c r="C444" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D444" s="90">
+        <v>17</v>
+      </c>
+      <c r="E444" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A445" s="90" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B445" s="90" t="s">
+        <v>753</v>
+      </c>
+      <c r="C445" s="90" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D445" s="90">
+        <v>4</v>
+      </c>
+      <c r="E445" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A446" s="90" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B446" s="90" t="s">
+        <v>644</v>
+      </c>
+      <c r="C446" s="90" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D446" s="90">
+        <v>3</v>
+      </c>
+      <c r="E446" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A447" s="90" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B447" s="90" t="s">
+        <v>704</v>
+      </c>
+      <c r="C447" s="90" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D447" s="90">
+        <v>1</v>
+      </c>
+      <c r="E447" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A448" s="90" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B448" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="C448" s="90" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D448" s="90">
+        <v>1</v>
+      </c>
+      <c r="E448" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A449" s="90" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B449" s="90" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C449" s="90" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D449" s="90">
+        <v>1</v>
+      </c>
+      <c r="E449" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A450" s="90" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B450" s="90" t="s">
+        <v>802</v>
+      </c>
+      <c r="C450" s="90" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D450" s="90">
+        <v>2</v>
+      </c>
+      <c r="E450" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A451" s="90">
+        <v>207522</v>
+      </c>
+      <c r="B451" s="90" t="s">
+        <v>774</v>
+      </c>
+      <c r="C451" s="90" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D451" s="90">
+        <v>2</v>
+      </c>
+      <c r="E451" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A452" s="90" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B452" s="90" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C452" s="90" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D452" s="90">
+        <v>1</v>
+      </c>
+      <c r="E452" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A453" s="90" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B453" s="90" t="s">
+        <v>749</v>
+      </c>
+      <c r="C453" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D453" s="90">
+        <v>7</v>
+      </c>
+      <c r="E453" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A454" s="90" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B454" s="90" t="s">
+        <v>749</v>
+      </c>
+      <c r="C454" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D454" s="90">
+        <v>6</v>
+      </c>
+      <c r="E454" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A455" s="90" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B455" s="90" t="s">
+        <v>755</v>
+      </c>
+      <c r="C455" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D455" s="90">
+        <v>16</v>
+      </c>
+      <c r="E455" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A456" s="90" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B456" s="90" t="s">
+        <v>755</v>
+      </c>
+      <c r="C456" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D456" s="90">
+        <v>1</v>
+      </c>
+      <c r="E456" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A457" s="90" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B457" s="90" t="s">
+        <v>757</v>
+      </c>
+      <c r="C457" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D457" s="90">
+        <v>18</v>
+      </c>
+      <c r="E457" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A458" s="90" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B458" s="90" t="s">
+        <v>759</v>
+      </c>
+      <c r="C458" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D458" s="90">
+        <v>3</v>
+      </c>
+      <c r="E458" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A459" s="90" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B459" s="90" t="s">
+        <v>761</v>
+      </c>
+      <c r="C459" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D459" s="90">
+        <v>15</v>
+      </c>
+      <c r="E459" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A460" s="90" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B460" s="90" t="s">
+        <v>763</v>
+      </c>
+      <c r="C460" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D460" s="90">
+        <v>3</v>
+      </c>
+      <c r="E460" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A461" s="90" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B461" s="90" t="s">
+        <v>765</v>
+      </c>
+      <c r="C461" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D461" s="90">
+        <v>8</v>
+      </c>
+      <c r="E461" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A462" s="90" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B462" s="90" t="s">
+        <v>767</v>
+      </c>
+      <c r="C462" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D462" s="90">
+        <v>7</v>
+      </c>
+      <c r="E462" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A463" s="90" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B463" s="90" t="s">
+        <v>769</v>
+      </c>
+      <c r="C463" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D463" s="90">
+        <v>20</v>
+      </c>
+      <c r="E463" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A464" s="90" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B464" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="C464" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D464" s="90">
+        <v>5</v>
+      </c>
+      <c r="E464" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A465" s="90" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B465" s="90" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C465" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D465" s="90">
+        <v>1</v>
+      </c>
+      <c r="E465" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A466" s="90" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B466" s="90" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C466" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D466" s="90">
+        <v>1</v>
+      </c>
+      <c r="E466" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A467" s="90" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B467" s="90" t="s">
+        <v>716</v>
+      </c>
+      <c r="C467" s="90" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D467" s="90">
+        <v>1</v>
+      </c>
+      <c r="E467" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A468" s="90" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B468" s="90" t="s">
+        <v>720</v>
+      </c>
+      <c r="C468" s="90" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D468" s="90">
+        <v>2</v>
+      </c>
+      <c r="E468" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A469" s="90" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B469" s="90" t="s">
+        <v>722</v>
+      </c>
+      <c r="C469" s="90" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D469" s="90">
+        <v>2</v>
+      </c>
+      <c r="E469" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A470" s="90" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B470" s="90" t="s">
+        <v>724</v>
+      </c>
+      <c r="C470" s="90" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D470" s="90">
+        <v>2</v>
+      </c>
+      <c r="E470" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A471" s="90" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B471" s="90" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C471" s="90" t="s">
+        <v>817</v>
+      </c>
+      <c r="D471" s="90">
+        <v>1</v>
+      </c>
+      <c r="E471" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A472" s="90" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B472" s="90" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C472" s="90" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D472" s="90">
+        <v>1</v>
+      </c>
+      <c r="E472" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A473" s="90" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B473" s="90" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C473" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D473" s="90">
+        <v>45</v>
+      </c>
+      <c r="E473" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A474" s="90" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B474" s="90" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C474" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D474" s="90">
+        <v>3</v>
+      </c>
+      <c r="E474" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A475" s="90" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B475" s="90" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C475" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D475" s="90">
+        <v>1</v>
+      </c>
+      <c r="E475" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A476" s="90" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B476" s="90" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C476" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D476" s="90">
+        <v>3</v>
+      </c>
+      <c r="E476" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A477" s="90" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B477" s="90" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C477" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D477" s="90">
+        <v>4</v>
+      </c>
+      <c r="E477" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A478" s="90" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B478" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="C478" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="D478" s="90">
+        <v>2</v>
+      </c>
+      <c r="E478" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A479" s="90" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B479" s="90" t="s">
+        <v>636</v>
+      </c>
+      <c r="C479" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D479" s="90">
+        <v>1</v>
+      </c>
+      <c r="E479" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A480" s="90" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B480" s="90" t="s">
+        <v>638</v>
+      </c>
+      <c r="C480" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D480" s="90">
+        <v>8</v>
+      </c>
+      <c r="E480" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A481" s="90" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B481" s="90" t="s">
+        <v>734</v>
+      </c>
+      <c r="C481" s="90" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D481" s="90">
+        <v>11</v>
+      </c>
+      <c r="E481" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A482" s="90" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B482" s="90" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C482" s="90" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D482" s="90">
+        <v>145</v>
+      </c>
+      <c r="E482" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A483" s="90" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B483" s="90" t="s">
+        <v>742</v>
+      </c>
+      <c r="C483" s="90" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D483" s="90">
+        <v>18</v>
+      </c>
+      <c r="E483" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A484" s="90" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B484" s="90" t="s">
+        <v>742</v>
+      </c>
+      <c r="C484" s="90" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D484" s="90">
+        <v>17</v>
+      </c>
+      <c r="E484" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A485" s="90" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B485" s="90" t="s">
+        <v>784</v>
+      </c>
+      <c r="C485" s="90" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D485" s="90">
+        <v>4</v>
+      </c>
+      <c r="E485" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A486" s="90" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B486" s="90" t="s">
+        <v>672</v>
+      </c>
+      <c r="C486" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D486" s="90">
+        <v>31</v>
+      </c>
+      <c r="E486" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A487" s="90" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B487" s="90" t="s">
+        <v>674</v>
+      </c>
+      <c r="C487" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D487" s="90">
+        <v>6</v>
+      </c>
+      <c r="E487" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A488" s="90" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B488" s="90" t="s">
+        <v>676</v>
+      </c>
+      <c r="C488" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D488" s="90">
+        <v>1</v>
+      </c>
+      <c r="E488" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A489" s="90" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B489" s="90" t="s">
+        <v>678</v>
+      </c>
+      <c r="C489" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D489" s="90">
+        <v>20</v>
+      </c>
+      <c r="E489" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A490" s="90" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B490" s="90" t="s">
+        <v>680</v>
+      </c>
+      <c r="C490" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D490" s="90">
+        <v>7</v>
+      </c>
+      <c r="E490" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A491" s="90" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B491" s="90" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C491" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D491" s="90">
+        <v>20</v>
+      </c>
+      <c r="E491" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A492" s="90" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B492" s="90" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C492" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D492" s="90">
+        <v>1</v>
+      </c>
+      <c r="E492" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A493" s="90">
+        <v>757953694</v>
+      </c>
+      <c r="B493" s="90" t="s">
+        <v>682</v>
+      </c>
+      <c r="C493" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D493" s="90">
+        <v>6</v>
+      </c>
+      <c r="E493" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A494" s="90" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B494" s="90" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C494" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D494" s="90">
+        <v>13</v>
+      </c>
+      <c r="E494" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A495" s="90" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B495" s="90" t="s">
+        <v>686</v>
+      </c>
+      <c r="C495" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D495" s="90">
+        <v>1</v>
+      </c>
+      <c r="E495" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A496" s="90" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B496" s="90" t="s">
+        <v>694</v>
+      </c>
+      <c r="C496" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D496" s="90">
+        <v>3</v>
+      </c>
+      <c r="E496" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A497" s="90" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B497" s="90" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C497" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D497" s="90">
+        <v>46</v>
+      </c>
+      <c r="E497" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A498" s="90" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B498" s="90" t="s">
+        <v>800</v>
+      </c>
+      <c r="C498" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D498" s="90">
+        <v>6</v>
+      </c>
+      <c r="E498" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A499" s="90" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B499" s="90" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C499" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D499" s="90">
+        <v>3</v>
+      </c>
+      <c r="E499" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A500" s="90" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B500" s="90" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C500" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D500" s="90">
+        <v>14</v>
+      </c>
+      <c r="E500" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A501" s="90" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B501" s="90" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C501" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D501" s="90">
+        <v>22</v>
+      </c>
+      <c r="E501" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A502" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B502" s="90" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C502" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D502" s="90">
+        <v>148</v>
+      </c>
+      <c r="E502" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A503" s="90" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B503" s="90" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C503" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D503" s="90">
+        <v>100</v>
+      </c>
+      <c r="E503" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A504" s="90" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B504" s="90" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C504" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D504" s="90">
+        <v>64</v>
+      </c>
+      <c r="E504" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A505" s="90" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B505" s="90" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C505" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D505" s="90">
+        <v>1</v>
+      </c>
+      <c r="E505" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A506" s="90" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B506" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C506" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D506" s="90">
+        <v>2</v>
+      </c>
+      <c r="E506" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A507" s="90" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B507" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C507" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D507" s="90">
+        <v>1</v>
+      </c>
+      <c r="E507" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A508" s="90" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B508" s="90" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C508" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D508" s="90">
+        <v>2</v>
+      </c>
+      <c r="E508" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A509" s="90" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B509" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="C509" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D509" s="90">
+        <v>17</v>
+      </c>
+      <c r="E509" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A510" s="90" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B510" s="90" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C510" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D510" s="90">
+        <v>24</v>
+      </c>
+      <c r="E510" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A511" s="90" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B511" s="90" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C511" s="90" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D511" s="90">
+        <v>2</v>
+      </c>
+      <c r="E511" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A512" s="90" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B512" s="90" t="s">
+        <v>780</v>
+      </c>
+      <c r="C512" s="90" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D512" s="90">
+        <v>1</v>
+      </c>
+      <c r="E512" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A513" s="90" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B513" s="90" t="s">
+        <v>778</v>
+      </c>
+      <c r="C513" s="90" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D513" s="90">
+        <v>2</v>
+      </c>
+      <c r="E513" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A514" s="90" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B514" s="90" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C514" s="90" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D514" s="90">
+        <v>1</v>
+      </c>
+      <c r="E514" s="91" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A515" s="90" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B515" s="90" t="s">
+        <v>804</v>
+      </c>
+      <c r="C515" s="90" t="s">
+        <v>827</v>
+      </c>
+      <c r="D515" s="90">
+        <v>1</v>
+      </c>
+      <c r="E515" s="91" t="s">
+        <v>1724</v>
       </c>
     </row>
   </sheetData>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6AD9B6-E41D-451E-B445-93BA8E10C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B50CCAC-654A-4423-A55D-7C6EBD418976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="1733">
   <si>
     <t>producto</t>
   </si>
@@ -8543,12 +8543,6 @@
     <t>matiasc@rioinformatica.com.ar</t>
   </si>
   <si>
-    <t>Gigalan</t>
-  </si>
-  <si>
-    <t>HPEAruba</t>
-  </si>
-  <si>
     <t>TycoElectronics</t>
   </si>
   <si>
@@ -8868,9 +8862,6 @@
     <t>MSI</t>
   </si>
   <si>
-    <t>MicroTik</t>
-  </si>
-  <si>
     <t>MICROSOFT</t>
   </si>
   <si>
@@ -8893,6 +8884,39 @@
   </si>
   <si>
     <t>info@anyx.com.ar</t>
+  </si>
+  <si>
+    <t>WESTERNDIGITAL</t>
+  </si>
+  <si>
+    <t>CISCO</t>
+  </si>
+  <si>
+    <t>COMMSCOPE</t>
+  </si>
+  <si>
+    <t>DAHUA</t>
+  </si>
+  <si>
+    <t>FURUKAWA</t>
+  </si>
+  <si>
+    <t>GIGALAN</t>
+  </si>
+  <si>
+    <t>GRANDSTREAM</t>
+  </si>
+  <si>
+    <t>HP/SAMSUNG</t>
+  </si>
+  <si>
+    <t>HPE/ARUBA</t>
+  </si>
+  <si>
+    <t>PANDUIT</t>
+  </si>
+  <si>
+    <t>SONY</t>
   </si>
 </sst>
 </file>
@@ -9709,8 +9733,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E152">
-    <sortCondition ref="C1:C436"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E515">
+    <sortCondition ref="C1:C515"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1B48A49-4D48-4A1E-89CF-C9F61C327FFC}" name="producto" dataDxfId="4"/>
@@ -10042,8 +10066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
   <dimension ref="A1:E515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B437" sqref="B437"/>
+    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="C504" sqref="C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10255,205 +10279,205 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>1052</v>
+        <v>1680</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>1054</v>
+        <v>804</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>1053</v>
+        <v>827</v>
       </c>
       <c r="D13" s="90">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>870</v>
+        <v>1679</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>871</v>
+        <v>1710</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>809</v>
+        <v>1720</v>
       </c>
       <c r="D14" s="90">
         <v>1</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
-        <v>845</v>
+        <v>1677</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>847</v>
+        <v>780</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>846</v>
+        <v>1719</v>
       </c>
       <c r="D15" s="90">
         <v>1</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="90" t="s">
-        <v>848</v>
+        <v>1678</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>849</v>
+        <v>778</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>846</v>
+        <v>1719</v>
       </c>
       <c r="D16" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="90" t="s">
-        <v>850</v>
+        <v>1052</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>851</v>
+        <v>1054</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>846</v>
+        <v>1473</v>
       </c>
       <c r="D17" s="90">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="E17" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
-        <v>852</v>
+        <v>1676</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>853</v>
+        <v>1709</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>846</v>
+        <v>1473</v>
       </c>
       <c r="D18" s="90">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="90" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>846</v>
+        <v>1723</v>
       </c>
       <c r="D19" s="90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E19" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="90">
-        <v>760237040</v>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="90" t="s">
+        <v>845</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>846</v>
+        <v>1724</v>
       </c>
       <c r="D20" s="90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="90" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="B21" s="90" t="s">
-        <v>874</v>
+        <v>849</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>873</v>
+        <v>1724</v>
       </c>
       <c r="D21" s="90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="90" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>876</v>
+        <v>1724</v>
       </c>
       <c r="D22" s="90">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E22" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="90" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B23" s="90" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>858</v>
+        <v>1724</v>
       </c>
       <c r="D23" s="90">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="E23" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="90">
-        <v>35030621</v>
+      <c r="A24" s="90" t="s">
+        <v>854</v>
       </c>
       <c r="B24" s="90" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>858</v>
+        <v>1724</v>
       </c>
       <c r="D24" s="90">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E24" s="91" t="s">
         <v>1607</v>
@@ -10461,47 +10485,47 @@
     </row>
     <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="90">
-        <v>35050282</v>
+        <v>760237040</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>858</v>
+        <v>1724</v>
       </c>
       <c r="D25" s="90">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E25" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="90">
-        <v>35123105</v>
+      <c r="A26" s="90" t="s">
+        <v>872</v>
       </c>
       <c r="B26" s="90" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>1608</v>
+        <v>1725</v>
       </c>
       <c r="D26" s="90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="90">
-        <v>35123101</v>
+    <row r="27" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="90" t="s">
+        <v>875</v>
       </c>
       <c r="B27" s="90" t="s">
-        <v>844</v>
+        <v>877</v>
       </c>
       <c r="C27" s="90" t="s">
-        <v>1608</v>
+        <v>1481</v>
       </c>
       <c r="D27" s="90">
         <v>1</v>
@@ -10512,492 +10536,492 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>837</v>
+        <v>1653</v>
       </c>
       <c r="B28" s="90" t="s">
-        <v>839</v>
+        <v>672</v>
       </c>
       <c r="C28" s="90" t="s">
-        <v>838</v>
+        <v>1481</v>
       </c>
       <c r="D28" s="90">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E28" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>840</v>
+        <v>1654</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>841</v>
+        <v>674</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>838</v>
+        <v>1481</v>
       </c>
       <c r="D29" s="90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>1113</v>
+        <v>1655</v>
       </c>
       <c r="B30" s="90" t="s">
-        <v>1115</v>
+        <v>676</v>
       </c>
       <c r="C30" s="90" t="s">
-        <v>1114</v>
+        <v>1481</v>
       </c>
       <c r="D30" s="90">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
-        <v>878</v>
+        <v>1656</v>
       </c>
       <c r="B31" s="90" t="s">
-        <v>879</v>
+        <v>678</v>
       </c>
       <c r="C31" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D31" s="90">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>880</v>
+        <v>1657</v>
       </c>
       <c r="B32" s="90" t="s">
-        <v>881</v>
+        <v>680</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D32" s="90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
-        <v>882</v>
+        <v>1658</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>883</v>
+        <v>1696</v>
       </c>
       <c r="C33" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D33" s="90">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E33" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
-        <v>1000</v>
+        <v>1659</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>1001</v>
+        <v>1697</v>
       </c>
       <c r="C34" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D34" s="90">
         <v>1</v>
       </c>
       <c r="E34" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
-        <v>1002</v>
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="90">
+        <v>757953694</v>
       </c>
       <c r="B35" s="90" t="s">
-        <v>1003</v>
+        <v>682</v>
       </c>
       <c r="C35" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D35" s="90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>1004</v>
+        <v>1660</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>1005</v>
+        <v>1698</v>
       </c>
       <c r="C36" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D36" s="90">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
-        <v>1006</v>
+        <v>1661</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>1007</v>
+        <v>686</v>
       </c>
       <c r="C37" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D37" s="90">
         <v>1</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
-        <v>1008</v>
+        <v>1662</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>1009</v>
+        <v>694</v>
       </c>
       <c r="C38" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D38" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>1010</v>
+        <v>1663</v>
       </c>
       <c r="B39" s="90" t="s">
-        <v>1011</v>
+        <v>1699</v>
       </c>
       <c r="C39" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D39" s="90">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E39" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
-        <v>1012</v>
+        <v>1664</v>
       </c>
       <c r="B40" s="90" t="s">
-        <v>1013</v>
+        <v>800</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D40" s="90">
+        <v>6</v>
+      </c>
+      <c r="E40" s="91" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="90" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C41" s="90" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D41" s="90">
         <v>3</v>
       </c>
-      <c r="E40" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="90" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>806</v>
-      </c>
-      <c r="D41" s="90">
-        <v>1</v>
-      </c>
       <c r="E41" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
-        <v>1016</v>
+        <v>1666</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>1017</v>
+        <v>1701</v>
       </c>
       <c r="C42" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D42" s="90">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="90" t="s">
-        <v>1021</v>
+        <v>1667</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>1022</v>
+        <v>1702</v>
       </c>
       <c r="C43" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D43" s="90">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E43" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>1023</v>
+        <v>1668</v>
       </c>
       <c r="B44" s="90" t="s">
-        <v>1024</v>
+        <v>1703</v>
       </c>
       <c r="C44" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D44" s="90">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="E44" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="90" t="s">
-        <v>1025</v>
+        <v>1669</v>
       </c>
       <c r="B45" s="90" t="s">
-        <v>1026</v>
+        <v>1704</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D45" s="90">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E45" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
-        <v>1027</v>
+        <v>1668</v>
       </c>
       <c r="B46" s="90" t="s">
-        <v>1028</v>
+        <v>1705</v>
       </c>
       <c r="C46" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D46" s="90">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E46" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="90" t="s">
-        <v>1029</v>
+        <v>1670</v>
       </c>
       <c r="B47" s="90" t="s">
-        <v>1028</v>
+        <v>1706</v>
       </c>
       <c r="C47" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D47" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="90" t="s">
-        <v>1030</v>
+        <v>1671</v>
       </c>
       <c r="B48" s="90" t="s">
-        <v>1031</v>
+        <v>167</v>
       </c>
       <c r="C48" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D48" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="90" t="s">
-        <v>1035</v>
+        <v>1672</v>
       </c>
       <c r="B49" s="90" t="s">
-        <v>1036</v>
+        <v>105</v>
       </c>
       <c r="C49" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D49" s="90">
         <v>1</v>
       </c>
       <c r="E49" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="90" t="s">
-        <v>1037</v>
+        <v>1673</v>
       </c>
       <c r="B50" s="90" t="s">
-        <v>1038</v>
+        <v>1707</v>
       </c>
       <c r="C50" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D50" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="90" t="s">
-        <v>1039</v>
+        <v>1674</v>
       </c>
       <c r="B51" s="90" t="s">
-        <v>1040</v>
+        <v>249</v>
       </c>
       <c r="C51" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D51" s="90">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E51" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="90" t="s">
-        <v>1041</v>
+        <v>1675</v>
       </c>
       <c r="B52" s="90" t="s">
-        <v>1042</v>
+        <v>1708</v>
       </c>
       <c r="C52" s="90" t="s">
-        <v>806</v>
+        <v>1481</v>
       </c>
       <c r="D52" s="90">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E52" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="90" t="s">
-        <v>1043</v>
+        <v>1652</v>
       </c>
       <c r="B53" s="90" t="s">
-        <v>1044</v>
+        <v>784</v>
       </c>
       <c r="C53" s="90" t="s">
-        <v>806</v>
+        <v>1718</v>
       </c>
       <c r="D53" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="90" t="s">
-        <v>1045</v>
+        <v>857</v>
       </c>
       <c r="B54" s="90" t="s">
-        <v>1046</v>
+        <v>859</v>
       </c>
       <c r="C54" s="90" t="s">
-        <v>806</v>
+        <v>1726</v>
       </c>
       <c r="D54" s="90">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E54" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="90" t="s">
-        <v>1047</v>
+      <c r="A55" s="90">
+        <v>35030621</v>
       </c>
       <c r="B55" s="90" t="s">
-        <v>1048</v>
+        <v>860</v>
       </c>
       <c r="C55" s="90" t="s">
-        <v>806</v>
+        <v>1726</v>
       </c>
       <c r="D55" s="90">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E55" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="90" t="s">
-        <v>1049</v>
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="90">
+        <v>35050282</v>
       </c>
       <c r="B56" s="90" t="s">
-        <v>1050</v>
+        <v>861</v>
       </c>
       <c r="C56" s="90" t="s">
-        <v>806</v>
+        <v>1726</v>
       </c>
       <c r="D56" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="91" t="s">
         <v>1607</v>
@@ -11005,135 +11029,135 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="90" t="s">
-        <v>1051</v>
+        <v>1651</v>
       </c>
       <c r="B57" s="90" t="s">
-        <v>1050</v>
+        <v>734</v>
       </c>
       <c r="C57" s="90" t="s">
-        <v>806</v>
+        <v>1651</v>
       </c>
       <c r="D57" s="90">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E57" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="90" t="s">
-        <v>1061</v>
+        <v>1651</v>
       </c>
       <c r="B58" s="90" t="s">
-        <v>1062</v>
+        <v>1695</v>
       </c>
       <c r="C58" s="90" t="s">
-        <v>806</v>
+        <v>1651</v>
       </c>
       <c r="D58" s="90">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="E58" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="90" t="s">
-        <v>1063</v>
+        <v>1651</v>
       </c>
       <c r="B59" s="90" t="s">
-        <v>1064</v>
+        <v>742</v>
       </c>
       <c r="C59" s="90" t="s">
-        <v>806</v>
+        <v>1651</v>
       </c>
       <c r="D59" s="90">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E59" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="90" t="s">
-        <v>1065</v>
+        <v>1651</v>
       </c>
       <c r="B60" s="90" t="s">
-        <v>1066</v>
+        <v>742</v>
       </c>
       <c r="C60" s="90" t="s">
-        <v>806</v>
+        <v>1651</v>
       </c>
       <c r="D60" s="90">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E60" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="90" t="s">
-        <v>1067</v>
+        <v>1649</v>
       </c>
       <c r="B61" s="90" t="s">
-        <v>1068</v>
+        <v>636</v>
       </c>
       <c r="C61" s="90" t="s">
-        <v>806</v>
+        <v>1717</v>
       </c>
       <c r="D61" s="90">
         <v>1</v>
       </c>
       <c r="E61" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="90" t="s">
-        <v>1069</v>
+        <v>1650</v>
       </c>
       <c r="B62" s="90" t="s">
-        <v>1070</v>
+        <v>638</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>806</v>
+        <v>1717</v>
       </c>
       <c r="D62" s="90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E62" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="90" t="s">
-        <v>1073</v>
+      <c r="A63" s="90">
+        <v>35123105</v>
       </c>
       <c r="B63" s="90" t="s">
-        <v>1074</v>
+        <v>843</v>
       </c>
       <c r="C63" s="90" t="s">
-        <v>806</v>
+        <v>1727</v>
       </c>
       <c r="D63" s="90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E63" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="90" t="s">
-        <v>1077</v>
+    <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="90">
+        <v>35123101</v>
       </c>
       <c r="B64" s="90" t="s">
-        <v>1078</v>
+        <v>844</v>
       </c>
       <c r="C64" s="90" t="s">
-        <v>806</v>
+        <v>1727</v>
       </c>
       <c r="D64" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E64" s="91" t="s">
         <v>1607</v>
@@ -11141,16 +11165,16 @@
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="90" t="s">
-        <v>1079</v>
+        <v>837</v>
       </c>
       <c r="B65" s="90" t="s">
-        <v>1080</v>
+        <v>839</v>
       </c>
       <c r="C65" s="90" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="D65" s="90">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E65" s="91" t="s">
         <v>1607</v>
@@ -11158,16 +11182,16 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="90" t="s">
-        <v>1081</v>
+        <v>840</v>
       </c>
       <c r="B66" s="90" t="s">
-        <v>1082</v>
+        <v>841</v>
       </c>
       <c r="C66" s="90" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="D66" s="90">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E66" s="91" t="s">
         <v>1607</v>
@@ -11175,33 +11199,33 @@
     </row>
     <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="90" t="s">
-        <v>1083</v>
+        <v>1113</v>
       </c>
       <c r="B67" s="90" t="s">
-        <v>1084</v>
+        <v>1115</v>
       </c>
       <c r="C67" s="90" t="s">
-        <v>806</v>
+        <v>1728</v>
       </c>
       <c r="D67" s="90">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E67" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="90" t="s">
-        <v>1085</v>
+        <v>878</v>
       </c>
       <c r="B68" s="90" t="s">
-        <v>1086</v>
+        <v>879</v>
       </c>
       <c r="C68" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D68" s="90">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E68" s="91" t="s">
         <v>1607</v>
@@ -11209,33 +11233,33 @@
     </row>
     <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
-        <v>1087</v>
+        <v>880</v>
       </c>
       <c r="B69" s="90" t="s">
-        <v>1088</v>
+        <v>881</v>
       </c>
       <c r="C69" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D69" s="90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="90" t="s">
-        <v>1089</v>
+        <v>882</v>
       </c>
       <c r="B70" s="90" t="s">
-        <v>1090</v>
+        <v>883</v>
       </c>
       <c r="C70" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D70" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="91" t="s">
         <v>1607</v>
@@ -11243,61 +11267,61 @@
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="90" t="s">
-        <v>1091</v>
+        <v>1000</v>
       </c>
       <c r="B71" s="90" t="s">
-        <v>1092</v>
+        <v>1001</v>
       </c>
       <c r="C71" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D71" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A72" s="90" t="s">
-        <v>1093</v>
+        <v>1002</v>
       </c>
       <c r="B72" s="90" t="s">
-        <v>1094</v>
+        <v>1003</v>
       </c>
       <c r="C72" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D72" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A73" s="90" t="s">
-        <v>1095</v>
+        <v>1004</v>
       </c>
       <c r="B73" s="90" t="s">
-        <v>1096</v>
+        <v>1005</v>
       </c>
       <c r="C73" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D73" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="90" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="B74" s="90" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="C74" s="90" t="s">
         <v>806</v>
@@ -11309,18 +11333,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A75" s="90" t="s">
-        <v>1055</v>
+        <v>1008</v>
       </c>
       <c r="B75" s="90" t="s">
-        <v>1056</v>
+        <v>1009</v>
       </c>
       <c r="C75" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D75" s="90">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E75" s="91" t="s">
         <v>1607</v>
@@ -11328,16 +11352,16 @@
     </row>
     <row r="76" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="90" t="s">
-        <v>1057</v>
+        <v>1010</v>
       </c>
       <c r="B76" s="90" t="s">
-        <v>1058</v>
+        <v>1011</v>
       </c>
       <c r="C76" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D76" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" s="91" t="s">
         <v>1607</v>
@@ -11345,81 +11369,81 @@
     </row>
     <row r="77" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
-        <v>1059</v>
+        <v>1012</v>
       </c>
       <c r="B77" s="90" t="s">
-        <v>1060</v>
+        <v>1013</v>
       </c>
       <c r="C77" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D77" s="90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A78" s="90" t="s">
-        <v>1071</v>
+        <v>1014</v>
       </c>
       <c r="B78" s="90" t="s">
-        <v>1072</v>
+        <v>1015</v>
       </c>
       <c r="C78" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D78" s="90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E78" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="90" t="s">
-        <v>1075</v>
+        <v>1016</v>
       </c>
       <c r="B79" s="90" t="s">
-        <v>1076</v>
+        <v>1017</v>
       </c>
       <c r="C79" s="90" t="s">
         <v>806</v>
       </c>
       <c r="D79" s="90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E79" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="90" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="B80" s="90" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="C80" s="90" t="s">
-        <v>1033</v>
+        <v>806</v>
       </c>
       <c r="D80" s="90">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E80" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="90" t="s">
-        <v>897</v>
+        <v>1023</v>
       </c>
       <c r="B81" s="90" t="s">
-        <v>898</v>
+        <v>1024</v>
       </c>
       <c r="C81" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D81" s="90">
         <v>1</v>
@@ -11428,35 +11452,35 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="90" t="s">
-        <v>899</v>
+        <v>1025</v>
       </c>
       <c r="B82" s="90" t="s">
-        <v>900</v>
+        <v>1026</v>
       </c>
       <c r="C82" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D82" s="90">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E82" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="90" t="s">
-        <v>904</v>
+        <v>1027</v>
       </c>
       <c r="B83" s="90" t="s">
-        <v>905</v>
+        <v>1028</v>
       </c>
       <c r="C83" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D83" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="91" t="s">
         <v>1607</v>
@@ -11464,50 +11488,50 @@
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="90" t="s">
-        <v>906</v>
+        <v>1029</v>
       </c>
       <c r="B84" s="90" t="s">
-        <v>907</v>
+        <v>1028</v>
       </c>
       <c r="C84" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D84" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="90" t="s">
-        <v>908</v>
+        <v>1030</v>
       </c>
       <c r="B85" s="90" t="s">
-        <v>909</v>
+        <v>1031</v>
       </c>
       <c r="C85" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D85" s="90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E85" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A86" s="90" t="s">
-        <v>910</v>
+        <v>1035</v>
       </c>
       <c r="B86" s="90" t="s">
-        <v>911</v>
+        <v>1036</v>
       </c>
       <c r="C86" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D86" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E86" s="91" t="s">
         <v>1607</v>
@@ -11515,13 +11539,13 @@
     </row>
     <row r="87" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="90" t="s">
-        <v>912</v>
+        <v>1037</v>
       </c>
       <c r="B87" s="90" t="s">
-        <v>913</v>
+        <v>1038</v>
       </c>
       <c r="C87" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D87" s="90">
         <v>1</v>
@@ -11530,15 +11554,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="90" t="s">
-        <v>914</v>
+        <v>1039</v>
       </c>
       <c r="B88" s="90" t="s">
-        <v>915</v>
+        <v>1040</v>
       </c>
       <c r="C88" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D88" s="90">
         <v>2</v>
@@ -11547,15 +11571,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="90" t="s">
-        <v>916</v>
+        <v>1041</v>
       </c>
       <c r="B89" s="90" t="s">
-        <v>917</v>
+        <v>1042</v>
       </c>
       <c r="C89" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D89" s="90">
         <v>1</v>
@@ -11564,18 +11588,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="90" t="s">
-        <v>918</v>
+        <v>1043</v>
       </c>
       <c r="B90" s="90" t="s">
-        <v>919</v>
+        <v>1044</v>
       </c>
       <c r="C90" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D90" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" s="91" t="s">
         <v>1607</v>
@@ -11583,16 +11607,16 @@
     </row>
     <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="90" t="s">
-        <v>920</v>
+        <v>1045</v>
       </c>
       <c r="B91" s="90" t="s">
-        <v>921</v>
+        <v>1046</v>
       </c>
       <c r="C91" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D91" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="91" t="s">
         <v>1607</v>
@@ -11600,13 +11624,13 @@
     </row>
     <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="90" t="s">
-        <v>922</v>
+        <v>1047</v>
       </c>
       <c r="B92" s="90" t="s">
-        <v>923</v>
+        <v>1048</v>
       </c>
       <c r="C92" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D92" s="90">
         <v>1</v>
@@ -11615,15 +11639,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="90" t="s">
-        <v>924</v>
+        <v>1049</v>
       </c>
       <c r="B93" s="90" t="s">
-        <v>925</v>
+        <v>1050</v>
       </c>
       <c r="C93" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D93" s="90">
         <v>1</v>
@@ -11632,18 +11656,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="90" t="s">
-        <v>926</v>
+        <v>1051</v>
       </c>
       <c r="B94" s="90" t="s">
-        <v>927</v>
+        <v>1050</v>
       </c>
       <c r="C94" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D94" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" s="91" t="s">
         <v>1607</v>
@@ -11651,30 +11675,30 @@
     </row>
     <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="90" t="s">
-        <v>928</v>
+        <v>1061</v>
       </c>
       <c r="B95" s="90" t="s">
-        <v>929</v>
+        <v>1062</v>
       </c>
       <c r="C95" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D95" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="90" t="s">
-        <v>930</v>
+        <v>1063</v>
       </c>
       <c r="B96" s="90" t="s">
-        <v>931</v>
+        <v>1064</v>
       </c>
       <c r="C96" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D96" s="90">
         <v>1</v>
@@ -11683,15 +11707,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="90" t="s">
-        <v>932</v>
+        <v>1065</v>
       </c>
       <c r="B97" s="90" t="s">
-        <v>933</v>
+        <v>1066</v>
       </c>
       <c r="C97" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D97" s="90">
         <v>1</v>
@@ -11702,16 +11726,16 @@
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="90" t="s">
-        <v>934</v>
+        <v>1067</v>
       </c>
       <c r="B98" s="90" t="s">
-        <v>935</v>
+        <v>1068</v>
       </c>
       <c r="C98" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D98" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" s="91" t="s">
         <v>1607</v>
@@ -11719,13 +11743,13 @@
     </row>
     <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="90" t="s">
-        <v>936</v>
+        <v>1069</v>
       </c>
       <c r="B99" s="90" t="s">
-        <v>937</v>
+        <v>1070</v>
       </c>
       <c r="C99" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D99" s="90">
         <v>1</v>
@@ -11736,67 +11760,67 @@
     </row>
     <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="90" t="s">
-        <v>938</v>
+        <v>1073</v>
       </c>
       <c r="B100" s="90" t="s">
-        <v>939</v>
+        <v>1074</v>
       </c>
       <c r="C100" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D100" s="90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E100" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="90" t="s">
-        <v>940</v>
+        <v>1077</v>
       </c>
       <c r="B101" s="90" t="s">
-        <v>941</v>
+        <v>1078</v>
       </c>
       <c r="C101" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D101" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="90" t="s">
-        <v>942</v>
+        <v>1079</v>
       </c>
       <c r="B102" s="90" t="s">
-        <v>943</v>
+        <v>1080</v>
       </c>
       <c r="C102" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D102" s="90">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E102" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="90" t="s">
-        <v>944</v>
+        <v>1081</v>
       </c>
       <c r="B103" s="90" t="s">
-        <v>945</v>
+        <v>1082</v>
       </c>
       <c r="C103" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D103" s="90">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E103" s="91" t="s">
         <v>1607</v>
@@ -11804,84 +11828,84 @@
     </row>
     <row r="104" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="90" t="s">
-        <v>946</v>
+        <v>1083</v>
       </c>
       <c r="B104" s="90" t="s">
-        <v>947</v>
+        <v>1084</v>
       </c>
       <c r="C104" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D104" s="90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E104" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="90" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="B105" s="90" t="s">
-        <v>949</v>
+        <v>1086</v>
       </c>
       <c r="C105" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D105" s="90">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E105" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="90" t="s">
-        <v>954</v>
+        <v>1087</v>
       </c>
       <c r="B106" s="90" t="s">
-        <v>955</v>
+        <v>1088</v>
       </c>
       <c r="C106" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D106" s="90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E106" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="90" t="s">
-        <v>956</v>
+        <v>1089</v>
       </c>
       <c r="B107" s="90" t="s">
-        <v>1352</v>
+        <v>1090</v>
       </c>
       <c r="C107" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D107" s="90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E107" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="90" t="s">
-        <v>957</v>
+        <v>1091</v>
       </c>
       <c r="B108" s="90" t="s">
-        <v>958</v>
+        <v>1092</v>
       </c>
       <c r="C108" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D108" s="90">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E108" s="91" t="s">
         <v>1607</v>
@@ -11889,47 +11913,47 @@
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="90" t="s">
-        <v>959</v>
+        <v>1093</v>
       </c>
       <c r="B109" s="90" t="s">
-        <v>960</v>
+        <v>1094</v>
       </c>
       <c r="C109" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D109" s="90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="90" t="s">
-        <v>961</v>
+        <v>1095</v>
       </c>
       <c r="B110" s="90" t="s">
-        <v>962</v>
+        <v>1096</v>
       </c>
       <c r="C110" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D110" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E110" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A111" s="90" t="s">
-        <v>963</v>
+        <v>1018</v>
       </c>
       <c r="B111" s="90" t="s">
-        <v>964</v>
+        <v>1020</v>
       </c>
       <c r="C111" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D111" s="90">
         <v>1</v>
@@ -11938,18 +11962,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="90" t="s">
-        <v>965</v>
+        <v>1055</v>
       </c>
       <c r="B112" s="90" t="s">
-        <v>966</v>
+        <v>1056</v>
       </c>
       <c r="C112" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D112" s="90">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E112" s="91" t="s">
         <v>1607</v>
@@ -11957,33 +11981,33 @@
     </row>
     <row r="113" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="90" t="s">
-        <v>967</v>
+        <v>1057</v>
       </c>
       <c r="B113" s="90" t="s">
-        <v>968</v>
+        <v>1058</v>
       </c>
       <c r="C113" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D113" s="90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="90" t="s">
-        <v>969</v>
+        <v>1059</v>
       </c>
       <c r="B114" s="90" t="s">
-        <v>970</v>
+        <v>1060</v>
       </c>
       <c r="C114" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D114" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114" s="91" t="s">
         <v>1607</v>
@@ -11991,33 +12015,33 @@
     </row>
     <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="90" t="s">
-        <v>971</v>
+        <v>1071</v>
       </c>
       <c r="B115" s="90" t="s">
-        <v>972</v>
+        <v>1072</v>
       </c>
       <c r="C115" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D115" s="90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E115" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="90" t="s">
-        <v>973</v>
+        <v>1075</v>
       </c>
       <c r="B116" s="90" t="s">
-        <v>974</v>
+        <v>1076</v>
       </c>
       <c r="C116" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D116" s="90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E116" s="91" t="s">
         <v>1607</v>
@@ -12025,135 +12049,135 @@
     </row>
     <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="90" t="s">
-        <v>975</v>
+        <v>1642</v>
       </c>
       <c r="B117" s="90" t="s">
-        <v>976</v>
+        <v>1689</v>
       </c>
       <c r="C117" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D117" s="90">
         <v>1</v>
       </c>
       <c r="E117" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="90" t="s">
-        <v>977</v>
+        <v>1643</v>
       </c>
       <c r="B118" s="90" t="s">
-        <v>978</v>
+        <v>1690</v>
       </c>
       <c r="C118" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D118" s="90">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E118" s="91" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="90" t="s">
-        <v>979</v>
+        <v>1644</v>
       </c>
       <c r="B119" s="90" t="s">
-        <v>980</v>
+        <v>1691</v>
       </c>
       <c r="C119" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D119" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E119" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="90" t="s">
-        <v>981</v>
+        <v>1645</v>
       </c>
       <c r="B120" s="90" t="s">
-        <v>982</v>
+        <v>1692</v>
       </c>
       <c r="C120" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D120" s="90">
         <v>1</v>
       </c>
       <c r="E120" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="90" t="s">
-        <v>983</v>
+        <v>1646</v>
       </c>
       <c r="B121" s="90" t="s">
-        <v>984</v>
+        <v>1693</v>
       </c>
       <c r="C121" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D121" s="90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E121" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="90" t="s">
-        <v>985</v>
+        <v>1647</v>
       </c>
       <c r="B122" s="90" t="s">
-        <v>984</v>
+        <v>1694</v>
       </c>
       <c r="C122" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D122" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E122" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="90" t="s">
-        <v>986</v>
+        <v>1648</v>
       </c>
       <c r="B123" s="90" t="s">
-        <v>987</v>
+        <v>369</v>
       </c>
       <c r="C123" s="90" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D123" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" s="91" t="s">
-        <v>1607</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="90" t="s">
-        <v>988</v>
+        <v>1032</v>
       </c>
       <c r="B124" s="90" t="s">
-        <v>989</v>
+        <v>1034</v>
       </c>
       <c r="C124" s="90" t="s">
-        <v>817</v>
+        <v>1729</v>
       </c>
       <c r="D124" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124" s="91" t="s">
         <v>1607</v>
@@ -12161,16 +12185,16 @@
     </row>
     <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="90" t="s">
-        <v>990</v>
+        <v>897</v>
       </c>
       <c r="B125" s="90" t="s">
-        <v>991</v>
+        <v>898</v>
       </c>
       <c r="C125" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D125" s="90">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E125" s="91" t="s">
         <v>1607</v>
@@ -12178,16 +12202,16 @@
     </row>
     <row r="126" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="90" t="s">
-        <v>992</v>
+        <v>899</v>
       </c>
       <c r="B126" s="90" t="s">
-        <v>993</v>
+        <v>900</v>
       </c>
       <c r="C126" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D126" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" s="91" t="s">
         <v>1607</v>
@@ -12195,16 +12219,16 @@
     </row>
     <row r="127" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="90" t="s">
-        <v>994</v>
+        <v>904</v>
       </c>
       <c r="B127" s="90" t="s">
-        <v>995</v>
+        <v>905</v>
       </c>
       <c r="C127" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D127" s="90">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E127" s="91" t="s">
         <v>1607</v>
@@ -12212,16 +12236,16 @@
     </row>
     <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="90" t="s">
-        <v>996</v>
+        <v>906</v>
       </c>
       <c r="B128" s="90" t="s">
-        <v>997</v>
+        <v>907</v>
       </c>
       <c r="C128" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D128" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" s="91" t="s">
         <v>1607</v>
@@ -12229,16 +12253,16 @@
     </row>
     <row r="129" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="90" t="s">
-        <v>998</v>
+        <v>908</v>
       </c>
       <c r="B129" s="90" t="s">
-        <v>999</v>
+        <v>909</v>
       </c>
       <c r="C129" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D129" s="90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E129" s="91" t="s">
         <v>1607</v>
@@ -12246,16 +12270,16 @@
     </row>
     <row r="130" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="90" t="s">
-        <v>1103</v>
+        <v>910</v>
       </c>
       <c r="B130" s="90" t="s">
-        <v>1104</v>
+        <v>911</v>
       </c>
       <c r="C130" s="90" t="s">
         <v>817</v>
       </c>
       <c r="D130" s="90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E130" s="91" t="s">
         <v>1607</v>
@@ -12263,10 +12287,10 @@
     </row>
     <row r="131" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="90" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="B131" s="90" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="C131" s="90" t="s">
         <v>817</v>
@@ -12278,18 +12302,18 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" s="90" t="s">
-        <v>884</v>
+        <v>914</v>
       </c>
       <c r="B132" s="90" t="s">
-        <v>886</v>
+        <v>915</v>
       </c>
       <c r="C132" s="90" t="s">
-        <v>1609</v>
+        <v>817</v>
       </c>
       <c r="D132" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" s="91" t="s">
         <v>1607</v>
@@ -12297,13 +12321,13 @@
     </row>
     <row r="133" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="90" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="B133" s="90" t="s">
-        <v>888</v>
+        <v>917</v>
       </c>
       <c r="C133" s="90" t="s">
-        <v>1609</v>
+        <v>817</v>
       </c>
       <c r="D133" s="90">
         <v>1</v>
@@ -12314,13 +12338,13 @@
     </row>
     <row r="134" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="90" t="s">
-        <v>889</v>
+        <v>918</v>
       </c>
       <c r="B134" s="90" t="s">
-        <v>890</v>
+        <v>919</v>
       </c>
       <c r="C134" s="90" t="s">
-        <v>1609</v>
+        <v>817</v>
       </c>
       <c r="D134" s="90">
         <v>2</v>
@@ -12331,13 +12355,13 @@
     </row>
     <row r="135" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="90" t="s">
-        <v>891</v>
+        <v>920</v>
       </c>
       <c r="B135" s="90" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="C135" s="90" t="s">
-        <v>1609</v>
+        <v>817</v>
       </c>
       <c r="D135" s="90">
         <v>1</v>
@@ -12348,16 +12372,16 @@
     </row>
     <row r="136" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="90" t="s">
-        <v>893</v>
+        <v>922</v>
       </c>
       <c r="B136" s="90" t="s">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="C136" s="90" t="s">
-        <v>1609</v>
+        <v>817</v>
       </c>
       <c r="D136" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E136" s="91" t="s">
         <v>1607</v>
@@ -12365,47 +12389,47 @@
     </row>
     <row r="137" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="90" t="s">
-        <v>895</v>
+        <v>924</v>
       </c>
       <c r="B137" s="90" t="s">
-        <v>896</v>
+        <v>925</v>
       </c>
       <c r="C137" s="90" t="s">
-        <v>1609</v>
+        <v>817</v>
       </c>
       <c r="D137" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A138" s="90" t="s">
-        <v>950</v>
+        <v>926</v>
       </c>
       <c r="B138" s="90" t="s">
-        <v>951</v>
+        <v>927</v>
       </c>
       <c r="C138" s="90" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D138" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="90" t="s">
-        <v>952</v>
+        <v>928</v>
       </c>
       <c r="B139" s="90" t="s">
-        <v>953</v>
+        <v>929</v>
       </c>
       <c r="C139" s="90" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D139" s="90">
         <v>1</v>
@@ -12414,15 +12438,15 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A140" s="90">
-        <v>36200291</v>
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="90" t="s">
+        <v>930</v>
       </c>
       <c r="B140" s="90" t="s">
-        <v>1106</v>
+        <v>931</v>
       </c>
       <c r="C140" s="90" t="s">
-        <v>1105</v>
+        <v>817</v>
       </c>
       <c r="D140" s="90">
         <v>1</v>
@@ -12433,47 +12457,47 @@
     </row>
     <row r="141" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="90" t="s">
-        <v>1107</v>
+        <v>932</v>
       </c>
       <c r="B141" s="90" t="s">
-        <v>1108</v>
+        <v>933</v>
       </c>
       <c r="C141" s="90" t="s">
-        <v>1105</v>
+        <v>817</v>
       </c>
       <c r="D141" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="90" t="s">
-        <v>1109</v>
+        <v>934</v>
       </c>
       <c r="B142" s="90" t="s">
-        <v>1110</v>
+        <v>935</v>
       </c>
       <c r="C142" s="90" t="s">
-        <v>1105</v>
+        <v>817</v>
       </c>
       <c r="D142" s="90">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E142" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="90" t="s">
-        <v>1111</v>
+        <v>936</v>
       </c>
       <c r="B143" s="90" t="s">
-        <v>1112</v>
+        <v>937</v>
       </c>
       <c r="C143" s="90" t="s">
-        <v>1105</v>
+        <v>817</v>
       </c>
       <c r="D143" s="90">
         <v>1</v>
@@ -12484,16 +12508,16 @@
     </row>
     <row r="144" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="90" t="s">
-        <v>1122</v>
+        <v>938</v>
       </c>
       <c r="B144" s="90" t="s">
-        <v>1124</v>
+        <v>939</v>
       </c>
       <c r="C144" s="90" t="s">
-        <v>1123</v>
+        <v>817</v>
       </c>
       <c r="D144" s="90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E144" s="91" t="s">
         <v>1607</v>
@@ -12501,33 +12525,33 @@
     </row>
     <row r="145" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="90" t="s">
-        <v>1122</v>
+        <v>940</v>
       </c>
       <c r="B145" s="90" t="s">
-        <v>1125</v>
+        <v>941</v>
       </c>
       <c r="C145" s="90" t="s">
-        <v>1123</v>
+        <v>817</v>
       </c>
       <c r="D145" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E145" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A146" s="90" t="s">
-        <v>1097</v>
+        <v>942</v>
       </c>
       <c r="B146" s="90" t="s">
-        <v>1099</v>
+        <v>943</v>
       </c>
       <c r="C146" s="90" t="s">
-        <v>1098</v>
+        <v>817</v>
       </c>
       <c r="D146" s="90">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E146" s="91" t="s">
         <v>1607</v>
@@ -12535,16 +12559,16 @@
     </row>
     <row r="147" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A147" s="90" t="s">
-        <v>1100</v>
+        <v>944</v>
       </c>
       <c r="B147" s="90" t="s">
-        <v>1102</v>
+        <v>945</v>
       </c>
       <c r="C147" s="90" t="s">
-        <v>1101</v>
+        <v>817</v>
       </c>
       <c r="D147" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E147" s="91" t="s">
         <v>1607</v>
@@ -12552,16 +12576,16 @@
     </row>
     <row r="148" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="90" t="s">
-        <v>862</v>
+        <v>946</v>
       </c>
       <c r="B148" s="90" t="s">
-        <v>864</v>
+        <v>947</v>
       </c>
       <c r="C148" s="90" t="s">
-        <v>863</v>
+        <v>817</v>
       </c>
       <c r="D148" s="90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E148" s="91" t="s">
         <v>1607</v>
@@ -12569,16 +12593,16 @@
     </row>
     <row r="149" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="90" t="s">
-        <v>865</v>
+        <v>948</v>
       </c>
       <c r="B149" s="90" t="s">
-        <v>866</v>
+        <v>949</v>
       </c>
       <c r="C149" s="90" t="s">
-        <v>863</v>
+        <v>817</v>
       </c>
       <c r="D149" s="90">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="E149" s="91" t="s">
         <v>1607</v>
@@ -12586,50 +12610,50 @@
     </row>
     <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="90" t="s">
-        <v>1119</v>
+        <v>954</v>
       </c>
       <c r="B150" s="90" t="s">
-        <v>1121</v>
+        <v>955</v>
       </c>
       <c r="C150" s="90" t="s">
-        <v>1120</v>
+        <v>817</v>
       </c>
       <c r="D150" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E150" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="90" t="s">
-        <v>1116</v>
+        <v>956</v>
       </c>
       <c r="B151" s="90" t="s">
-        <v>1118</v>
+        <v>1352</v>
       </c>
       <c r="C151" s="90" t="s">
-        <v>1117</v>
+        <v>817</v>
       </c>
       <c r="D151" s="90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E151" s="91" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A152" s="90" t="s">
-        <v>867</v>
+        <v>957</v>
       </c>
       <c r="B152" s="90" t="s">
-        <v>869</v>
+        <v>958</v>
       </c>
       <c r="C152" s="90" t="s">
-        <v>1610</v>
+        <v>817</v>
       </c>
       <c r="D152" s="90">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E152" s="91" t="s">
         <v>1607</v>
@@ -17463,1347 +17487,1347 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="90" t="s">
-        <v>1611</v>
+        <v>959</v>
       </c>
       <c r="B437" s="90" t="s">
-        <v>379</v>
+        <v>960</v>
       </c>
       <c r="C437" s="90" t="s">
-        <v>1470</v>
+        <v>817</v>
       </c>
       <c r="D437" s="90">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E437" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A438" s="90" t="s">
-        <v>1612</v>
+        <v>961</v>
       </c>
       <c r="B438" s="90" t="s">
-        <v>382</v>
+        <v>962</v>
       </c>
       <c r="C438" s="90" t="s">
-        <v>1470</v>
+        <v>817</v>
       </c>
       <c r="D438" s="90">
         <v>1</v>
       </c>
       <c r="E438" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A439" s="90" t="s">
-        <v>1613</v>
+        <v>963</v>
       </c>
       <c r="B439" s="90" t="s">
-        <v>1683</v>
+        <v>964</v>
       </c>
       <c r="C439" s="90" t="s">
-        <v>1470</v>
+        <v>817</v>
       </c>
       <c r="D439" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E439" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A440" s="90" t="s">
-        <v>1614</v>
+        <v>965</v>
       </c>
       <c r="B440" s="90" t="s">
-        <v>1684</v>
+        <v>966</v>
       </c>
       <c r="C440" s="90" t="s">
-        <v>1470</v>
+        <v>817</v>
       </c>
       <c r="D440" s="90">
         <v>1</v>
       </c>
       <c r="E440" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A441" s="90" t="s">
-        <v>1615</v>
+        <v>967</v>
       </c>
       <c r="B441" s="90" t="s">
-        <v>1685</v>
+        <v>968</v>
       </c>
       <c r="C441" s="90" t="s">
-        <v>1713</v>
+        <v>817</v>
       </c>
       <c r="D441" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E441" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A442" s="90" t="s">
-        <v>1616</v>
+        <v>969</v>
       </c>
       <c r="B442" s="90" t="s">
-        <v>388</v>
+        <v>970</v>
       </c>
       <c r="C442" s="90" t="s">
-        <v>1714</v>
+        <v>817</v>
       </c>
       <c r="D442" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E442" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="90" t="s">
-        <v>1617</v>
+        <v>971</v>
       </c>
       <c r="B443" s="90" t="s">
-        <v>375</v>
+        <v>972</v>
       </c>
       <c r="C443" s="90" t="s">
-        <v>1714</v>
+        <v>817</v>
       </c>
       <c r="D443" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E443" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A444" s="90" t="s">
-        <v>1618</v>
+        <v>973</v>
       </c>
       <c r="B444" s="90" t="s">
-        <v>379</v>
+        <v>974</v>
       </c>
       <c r="C444" s="90" t="s">
-        <v>1714</v>
+        <v>817</v>
       </c>
       <c r="D444" s="90">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E444" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="90" t="s">
-        <v>1619</v>
+        <v>975</v>
       </c>
       <c r="B445" s="90" t="s">
-        <v>753</v>
+        <v>976</v>
       </c>
       <c r="C445" s="90" t="s">
-        <v>1479</v>
+        <v>817</v>
       </c>
       <c r="D445" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E445" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A446" s="90" t="s">
-        <v>1620</v>
+        <v>977</v>
       </c>
       <c r="B446" s="90" t="s">
-        <v>644</v>
+        <v>978</v>
       </c>
       <c r="C446" s="90" t="s">
-        <v>1715</v>
+        <v>817</v>
       </c>
       <c r="D446" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E446" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A447" s="90" t="s">
-        <v>1621</v>
+        <v>979</v>
       </c>
       <c r="B447" s="90" t="s">
-        <v>704</v>
+        <v>980</v>
       </c>
       <c r="C447" s="90" t="s">
-        <v>1715</v>
+        <v>817</v>
       </c>
       <c r="D447" s="90">
         <v>1</v>
       </c>
       <c r="E447" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="90" t="s">
-        <v>1622</v>
+        <v>981</v>
       </c>
       <c r="B448" s="90" t="s">
-        <v>776</v>
+        <v>982</v>
       </c>
       <c r="C448" s="90" t="s">
-        <v>1716</v>
+        <v>817</v>
       </c>
       <c r="D448" s="90">
         <v>1</v>
       </c>
       <c r="E448" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" s="90" t="s">
-        <v>1623</v>
+        <v>983</v>
       </c>
       <c r="B449" s="90" t="s">
-        <v>1686</v>
+        <v>984</v>
       </c>
       <c r="C449" s="90" t="s">
-        <v>1717</v>
+        <v>817</v>
       </c>
       <c r="D449" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E449" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="90" t="s">
-        <v>1624</v>
+        <v>985</v>
       </c>
       <c r="B450" s="90" t="s">
-        <v>802</v>
+        <v>984</v>
       </c>
       <c r="C450" s="90" t="s">
-        <v>1717</v>
+        <v>817</v>
       </c>
       <c r="D450" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E450" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A451" s="90">
-        <v>207522</v>
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="90" t="s">
+        <v>986</v>
       </c>
       <c r="B451" s="90" t="s">
-        <v>774</v>
+        <v>987</v>
       </c>
       <c r="C451" s="90" t="s">
-        <v>1485</v>
+        <v>817</v>
       </c>
       <c r="D451" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E451" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" s="90" t="s">
-        <v>1625</v>
+        <v>988</v>
       </c>
       <c r="B452" s="90" t="s">
-        <v>1687</v>
+        <v>989</v>
       </c>
       <c r="C452" s="90" t="s">
-        <v>1718</v>
+        <v>817</v>
       </c>
       <c r="D452" s="90">
         <v>1</v>
       </c>
       <c r="E452" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A453" s="90" t="s">
-        <v>1626</v>
+        <v>990</v>
       </c>
       <c r="B453" s="90" t="s">
-        <v>749</v>
+        <v>991</v>
       </c>
       <c r="C453" s="90" t="s">
-        <v>1469</v>
+        <v>817</v>
       </c>
       <c r="D453" s="90">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E453" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A454" s="90" t="s">
-        <v>1627</v>
+        <v>992</v>
       </c>
       <c r="B454" s="90" t="s">
-        <v>749</v>
+        <v>993</v>
       </c>
       <c r="C454" s="90" t="s">
-        <v>1469</v>
+        <v>817</v>
       </c>
       <c r="D454" s="90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E454" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A455" s="90" t="s">
-        <v>1628</v>
+        <v>994</v>
       </c>
       <c r="B455" s="90" t="s">
-        <v>755</v>
+        <v>995</v>
       </c>
       <c r="C455" s="90" t="s">
-        <v>1469</v>
+        <v>817</v>
       </c>
       <c r="D455" s="90">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E455" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="90" t="s">
-        <v>1629</v>
+        <v>996</v>
       </c>
       <c r="B456" s="90" t="s">
-        <v>755</v>
+        <v>997</v>
       </c>
       <c r="C456" s="90" t="s">
-        <v>1469</v>
+        <v>817</v>
       </c>
       <c r="D456" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E456" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A457" s="90" t="s">
-        <v>1630</v>
+        <v>998</v>
       </c>
       <c r="B457" s="90" t="s">
-        <v>757</v>
+        <v>999</v>
       </c>
       <c r="C457" s="90" t="s">
-        <v>1469</v>
+        <v>817</v>
       </c>
       <c r="D457" s="90">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E457" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A458" s="90" t="s">
-        <v>1631</v>
+        <v>1103</v>
       </c>
       <c r="B458" s="90" t="s">
-        <v>759</v>
+        <v>1104</v>
       </c>
       <c r="C458" s="90" t="s">
-        <v>1469</v>
+        <v>817</v>
       </c>
       <c r="D458" s="90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E458" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A459" s="90" t="s">
-        <v>1632</v>
+        <v>901</v>
       </c>
       <c r="B459" s="90" t="s">
-        <v>761</v>
+        <v>903</v>
       </c>
       <c r="C459" s="90" t="s">
-        <v>1469</v>
+        <v>817</v>
       </c>
       <c r="D459" s="90">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E459" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="90" t="s">
-        <v>1633</v>
+        <v>1641</v>
       </c>
       <c r="B460" s="90" t="s">
-        <v>763</v>
+        <v>1688</v>
       </c>
       <c r="C460" s="90" t="s">
-        <v>1469</v>
+        <v>817</v>
       </c>
       <c r="D460" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E460" s="91" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A461" s="90" t="s">
-        <v>1634</v>
+        <v>884</v>
       </c>
       <c r="B461" s="90" t="s">
-        <v>765</v>
+        <v>886</v>
       </c>
       <c r="C461" s="90" t="s">
-        <v>1469</v>
+        <v>1730</v>
       </c>
       <c r="D461" s="90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E461" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A462" s="90" t="s">
-        <v>1635</v>
+        <v>887</v>
       </c>
       <c r="B462" s="90" t="s">
-        <v>767</v>
+        <v>888</v>
       </c>
       <c r="C462" s="90" t="s">
-        <v>1469</v>
+        <v>1730</v>
       </c>
       <c r="D462" s="90">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E462" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A463" s="90" t="s">
-        <v>1636</v>
+        <v>889</v>
       </c>
       <c r="B463" s="90" t="s">
-        <v>769</v>
+        <v>890</v>
       </c>
       <c r="C463" s="90" t="s">
-        <v>1469</v>
+        <v>1730</v>
       </c>
       <c r="D463" s="90">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E463" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A464" s="90" t="s">
-        <v>1425</v>
+        <v>891</v>
       </c>
       <c r="B464" s="90" t="s">
-        <v>771</v>
+        <v>892</v>
       </c>
       <c r="C464" s="90" t="s">
-        <v>1469</v>
+        <v>1730</v>
       </c>
       <c r="D464" s="90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E464" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A465" s="90" t="s">
-        <v>1637</v>
+        <v>893</v>
       </c>
       <c r="B465" s="90" t="s">
-        <v>1688</v>
+        <v>894</v>
       </c>
       <c r="C465" s="90" t="s">
-        <v>1469</v>
+        <v>1730</v>
       </c>
       <c r="D465" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E465" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A466" s="90" t="s">
-        <v>1638</v>
+        <v>895</v>
       </c>
       <c r="B466" s="90" t="s">
-        <v>1689</v>
+        <v>896</v>
       </c>
       <c r="C466" s="90" t="s">
-        <v>1469</v>
+        <v>1730</v>
       </c>
       <c r="D466" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E466" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A467" s="90" t="s">
-        <v>1639</v>
+        <v>950</v>
       </c>
       <c r="B467" s="90" t="s">
-        <v>716</v>
+        <v>951</v>
       </c>
       <c r="C467" s="90" t="s">
-        <v>1719</v>
+        <v>822</v>
       </c>
       <c r="D467" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E467" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A468" s="90" t="s">
-        <v>1640</v>
+        <v>952</v>
       </c>
       <c r="B468" s="90" t="s">
-        <v>720</v>
+        <v>953</v>
       </c>
       <c r="C468" s="90" t="s">
-        <v>1719</v>
+        <v>822</v>
       </c>
       <c r="D468" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E468" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" s="90" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="B469" s="90" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C469" s="90" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="D469" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E469" s="91" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A470" s="90" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="B470" s="90" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C470" s="90" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="D470" s="90">
         <v>2</v>
       </c>
       <c r="E470" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="90" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="B471" s="90" t="s">
-        <v>1690</v>
+        <v>722</v>
       </c>
       <c r="C471" s="90" t="s">
-        <v>817</v>
+        <v>1716</v>
       </c>
       <c r="D471" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E471" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" s="90" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="B472" s="90" t="s">
-        <v>1691</v>
+        <v>724</v>
       </c>
       <c r="C472" s="90" t="s">
-        <v>1019</v>
+        <v>1716</v>
       </c>
       <c r="D472" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E472" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" s="90" t="s">
-        <v>1645</v>
+        <v>1624</v>
       </c>
       <c r="B473" s="90" t="s">
-        <v>1692</v>
+        <v>749</v>
       </c>
       <c r="C473" s="90" t="s">
-        <v>806</v>
+        <v>1469</v>
       </c>
       <c r="D473" s="90">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E473" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" s="90" t="s">
-        <v>1646</v>
+        <v>1625</v>
       </c>
       <c r="B474" s="90" t="s">
-        <v>1693</v>
+        <v>749</v>
       </c>
       <c r="C474" s="90" t="s">
-        <v>806</v>
+        <v>1469</v>
       </c>
       <c r="D474" s="90">
+        <v>6</v>
+      </c>
+      <c r="E474" s="91" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A475" s="90" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B475" s="90" t="s">
+        <v>755</v>
+      </c>
+      <c r="C475" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D475" s="90">
+        <v>16</v>
+      </c>
+      <c r="E475" s="91" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A476" s="90" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B476" s="90" t="s">
+        <v>755</v>
+      </c>
+      <c r="C476" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D476" s="90">
+        <v>1</v>
+      </c>
+      <c r="E476" s="91" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A477" s="90" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B477" s="90" t="s">
+        <v>757</v>
+      </c>
+      <c r="C477" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D477" s="90">
+        <v>18</v>
+      </c>
+      <c r="E477" s="91" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A478" s="90" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B478" s="90" t="s">
+        <v>759</v>
+      </c>
+      <c r="C478" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D478" s="90">
         <v>3</v>
       </c>
-      <c r="E474" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A475" s="90" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B475" s="90" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C475" s="90" t="s">
-        <v>806</v>
-      </c>
-      <c r="D475" s="90">
-        <v>1</v>
-      </c>
-      <c r="E475" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A476" s="90" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B476" s="90" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C476" s="90" t="s">
-        <v>806</v>
-      </c>
-      <c r="D476" s="90">
+      <c r="E478" s="91" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A479" s="90" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B479" s="90" t="s">
+        <v>761</v>
+      </c>
+      <c r="C479" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D479" s="90">
+        <v>15</v>
+      </c>
+      <c r="E479" s="91" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A480" s="90" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B480" s="90" t="s">
+        <v>763</v>
+      </c>
+      <c r="C480" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D480" s="90">
         <v>3</v>
       </c>
-      <c r="E476" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A477" s="90" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B477" s="90" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C477" s="90" t="s">
-        <v>806</v>
-      </c>
-      <c r="D477" s="90">
-        <v>4</v>
-      </c>
-      <c r="E477" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A478" s="90" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B478" s="90" t="s">
-        <v>369</v>
-      </c>
-      <c r="C478" s="90" t="s">
-        <v>806</v>
-      </c>
-      <c r="D478" s="90">
-        <v>2</v>
-      </c>
-      <c r="E478" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A479" s="90" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B479" s="90" t="s">
-        <v>636</v>
-      </c>
-      <c r="C479" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D479" s="90">
-        <v>1</v>
-      </c>
-      <c r="E479" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A480" s="90" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B480" s="90" t="s">
-        <v>638</v>
-      </c>
-      <c r="C480" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D480" s="90">
+      <c r="E480" s="91" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A481" s="90" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B481" s="90" t="s">
+        <v>765</v>
+      </c>
+      <c r="C481" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D481" s="90">
         <v>8</v>
       </c>
-      <c r="E480" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A481" s="90" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B481" s="90" t="s">
-        <v>734</v>
-      </c>
-      <c r="C481" s="90" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D481" s="90">
-        <v>11</v>
-      </c>
       <c r="E481" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A482" s="90" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
       <c r="B482" s="90" t="s">
-        <v>1697</v>
+        <v>767</v>
       </c>
       <c r="C482" s="90" t="s">
-        <v>1653</v>
+        <v>1469</v>
       </c>
       <c r="D482" s="90">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="E482" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A483" s="90" t="s">
-        <v>1653</v>
+        <v>1634</v>
       </c>
       <c r="B483" s="90" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="C483" s="90" t="s">
-        <v>1653</v>
+        <v>1469</v>
       </c>
       <c r="D483" s="90">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E483" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A484" s="90" t="s">
-        <v>1653</v>
+        <v>1425</v>
       </c>
       <c r="B484" s="90" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="C484" s="90" t="s">
-        <v>1653</v>
+        <v>1469</v>
       </c>
       <c r="D484" s="90">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E484" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" s="90" t="s">
-        <v>1654</v>
+        <v>1635</v>
       </c>
       <c r="B485" s="90" t="s">
-        <v>784</v>
+        <v>1686</v>
       </c>
       <c r="C485" s="90" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D485" s="90">
+        <v>1</v>
+      </c>
+      <c r="E485" s="91" t="s">
         <v>1721</v>
       </c>
-      <c r="D485" s="90">
-        <v>4</v>
-      </c>
-      <c r="E485" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" s="90" t="s">
-        <v>1655</v>
+        <v>1636</v>
       </c>
       <c r="B486" s="90" t="s">
-        <v>672</v>
+        <v>1687</v>
       </c>
       <c r="C486" s="90" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="D486" s="90">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E486" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A487" s="90" t="s">
-        <v>1656</v>
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A487" s="90">
+        <v>36200291</v>
       </c>
       <c r="B487" s="90" t="s">
-        <v>674</v>
+        <v>1106</v>
       </c>
       <c r="C487" s="90" t="s">
-        <v>1481</v>
+        <v>1715</v>
       </c>
       <c r="D487" s="90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E487" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A488" s="90" t="s">
-        <v>1657</v>
+        <v>1107</v>
       </c>
       <c r="B488" s="90" t="s">
-        <v>676</v>
+        <v>1108</v>
       </c>
       <c r="C488" s="90" t="s">
-        <v>1481</v>
+        <v>1715</v>
       </c>
       <c r="D488" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E488" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A489" s="90" t="s">
-        <v>1658</v>
+        <v>1109</v>
       </c>
       <c r="B489" s="90" t="s">
-        <v>678</v>
+        <v>1110</v>
       </c>
       <c r="C489" s="90" t="s">
-        <v>1481</v>
+        <v>1715</v>
       </c>
       <c r="D489" s="90">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E489" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A490" s="90" t="s">
-        <v>1659</v>
+        <v>1111</v>
       </c>
       <c r="B490" s="90" t="s">
-        <v>680</v>
+        <v>1112</v>
       </c>
       <c r="C490" s="90" t="s">
-        <v>1481</v>
+        <v>1715</v>
       </c>
       <c r="D490" s="90">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E490" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A491" s="90" t="s">
-        <v>1660</v>
+        <v>1623</v>
       </c>
       <c r="B491" s="90" t="s">
-        <v>1698</v>
+        <v>1685</v>
       </c>
       <c r="C491" s="90" t="s">
-        <v>1481</v>
+        <v>1715</v>
       </c>
       <c r="D491" s="90">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E491" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A492" s="90" t="s">
-        <v>1661</v>
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A492" s="90">
+        <v>207522</v>
       </c>
       <c r="B492" s="90" t="s">
-        <v>1699</v>
+        <v>774</v>
       </c>
       <c r="C492" s="90" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="D492" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E492" s="91" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A493" s="90">
-        <v>757953694</v>
+      <c r="A493" s="90" t="s">
+        <v>1122</v>
       </c>
       <c r="B493" s="90" t="s">
-        <v>682</v>
+        <v>1124</v>
       </c>
       <c r="C493" s="90" t="s">
-        <v>1481</v>
+        <v>1714</v>
       </c>
       <c r="D493" s="90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E493" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A494" s="90" t="s">
-        <v>1662</v>
+        <v>1122</v>
       </c>
       <c r="B494" s="90" t="s">
-        <v>1700</v>
+        <v>1125</v>
       </c>
       <c r="C494" s="90" t="s">
-        <v>1481</v>
+        <v>1714</v>
       </c>
       <c r="D494" s="90">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E494" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A495" s="90" t="s">
-        <v>1663</v>
+        <v>1621</v>
       </c>
       <c r="B495" s="90" t="s">
-        <v>686</v>
+        <v>1684</v>
       </c>
       <c r="C495" s="90" t="s">
-        <v>1481</v>
+        <v>1714</v>
       </c>
       <c r="D495" s="90">
         <v>1</v>
       </c>
       <c r="E495" s="91" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A496" s="90" t="s">
-        <v>1664</v>
+        <v>1622</v>
       </c>
       <c r="B496" s="90" t="s">
-        <v>694</v>
+        <v>802</v>
       </c>
       <c r="C496" s="90" t="s">
-        <v>1481</v>
+        <v>1714</v>
       </c>
       <c r="D496" s="90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E496" s="91" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A497" s="90" t="s">
-        <v>1665</v>
+        <v>1097</v>
       </c>
       <c r="B497" s="90" t="s">
-        <v>1701</v>
+        <v>1099</v>
       </c>
       <c r="C497" s="90" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="D497" s="90">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E497" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A498" s="90" t="s">
-        <v>1666</v>
+        <v>1100</v>
       </c>
       <c r="B498" s="90" t="s">
-        <v>800</v>
+        <v>1102</v>
       </c>
       <c r="C498" s="90" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="D498" s="90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E498" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A499" s="90" t="s">
-        <v>1667</v>
+        <v>1620</v>
       </c>
       <c r="B499" s="90" t="s">
-        <v>1702</v>
+        <v>776</v>
       </c>
       <c r="C499" s="90" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="D499" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E499" s="91" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A500" s="90" t="s">
-        <v>1668</v>
+        <v>1618</v>
       </c>
       <c r="B500" s="90" t="s">
-        <v>1703</v>
+        <v>644</v>
       </c>
       <c r="C500" s="90" t="s">
-        <v>1481</v>
+        <v>1713</v>
       </c>
       <c r="D500" s="90">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E500" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A501" s="90" t="s">
-        <v>1669</v>
+        <v>1619</v>
       </c>
       <c r="B501" s="90" t="s">
-        <v>1704</v>
+        <v>704</v>
       </c>
       <c r="C501" s="90" t="s">
-        <v>1481</v>
+        <v>1713</v>
       </c>
       <c r="D501" s="90">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E501" s="91" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A502" s="90" t="s">
-        <v>1670</v>
+        <v>862</v>
       </c>
       <c r="B502" s="90" t="s">
-        <v>1705</v>
+        <v>864</v>
       </c>
       <c r="C502" s="90" t="s">
-        <v>1481</v>
+        <v>1731</v>
       </c>
       <c r="D502" s="90">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="E502" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A503" s="90" t="s">
-        <v>1671</v>
+        <v>865</v>
       </c>
       <c r="B503" s="90" t="s">
-        <v>1706</v>
+        <v>866</v>
       </c>
       <c r="C503" s="90" t="s">
-        <v>1481</v>
+        <v>1731</v>
       </c>
       <c r="D503" s="90">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="E503" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A504" s="90" t="s">
-        <v>1670</v>
+        <v>1617</v>
       </c>
       <c r="B504" s="90" t="s">
-        <v>1707</v>
+        <v>753</v>
       </c>
       <c r="C504" s="90" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="D504" s="90">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E504" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A505" s="90" t="s">
-        <v>1672</v>
+        <v>1614</v>
       </c>
       <c r="B505" s="90" t="s">
-        <v>1708</v>
+        <v>388</v>
       </c>
       <c r="C505" s="90" t="s">
-        <v>1481</v>
+        <v>1712</v>
       </c>
       <c r="D505" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E505" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" s="90" t="s">
-        <v>1673</v>
+        <v>1615</v>
       </c>
       <c r="B506" s="90" t="s">
-        <v>167</v>
+        <v>375</v>
       </c>
       <c r="C506" s="90" t="s">
-        <v>1481</v>
+        <v>1712</v>
       </c>
       <c r="D506" s="90">
         <v>2</v>
       </c>
       <c r="E506" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" s="90" t="s">
-        <v>1674</v>
+        <v>1616</v>
       </c>
       <c r="B507" s="90" t="s">
-        <v>105</v>
+        <v>379</v>
       </c>
       <c r="C507" s="90" t="s">
-        <v>1481</v>
+        <v>1712</v>
       </c>
       <c r="D507" s="90">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E507" s="91" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A508" s="90" t="s">
-        <v>1675</v>
+        <v>1613</v>
       </c>
       <c r="B508" s="90" t="s">
-        <v>1709</v>
+        <v>1683</v>
       </c>
       <c r="C508" s="90" t="s">
-        <v>1481</v>
+        <v>1711</v>
       </c>
       <c r="D508" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E508" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="90" t="s">
-        <v>1676</v>
+        <v>1119</v>
       </c>
       <c r="B509" s="90" t="s">
-        <v>249</v>
+        <v>1121</v>
       </c>
       <c r="C509" s="90" t="s">
-        <v>1481</v>
+        <v>1732</v>
       </c>
       <c r="D509" s="90">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E509" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A510" s="90" t="s">
-        <v>1677</v>
+        <v>1116</v>
       </c>
       <c r="B510" s="90" t="s">
-        <v>1710</v>
+        <v>1118</v>
       </c>
       <c r="C510" s="90" t="s">
-        <v>1481</v>
+        <v>1117</v>
       </c>
       <c r="D510" s="90">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E510" s="91" t="s">
-        <v>1724</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A511" s="90" t="s">
-        <v>1678</v>
+        <v>867</v>
       </c>
       <c r="B511" s="90" t="s">
-        <v>1711</v>
+        <v>869</v>
       </c>
       <c r="C511" s="90" t="s">
-        <v>1473</v>
+        <v>1608</v>
       </c>
       <c r="D511" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E511" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" s="90" t="s">
-        <v>1679</v>
+        <v>1609</v>
       </c>
       <c r="B512" s="90" t="s">
-        <v>780</v>
+        <v>379</v>
       </c>
       <c r="C512" s="90" t="s">
         <v>1722</v>
       </c>
       <c r="D512" s="90">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E512" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" s="90" t="s">
-        <v>1680</v>
+        <v>1610</v>
       </c>
       <c r="B513" s="90" t="s">
-        <v>778</v>
+        <v>382</v>
       </c>
       <c r="C513" s="90" t="s">
         <v>1722</v>
       </c>
       <c r="D513" s="90">
+        <v>1</v>
+      </c>
+      <c r="E513" s="91" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A514" s="90" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B514" s="90" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C514" s="90" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D514" s="90">
         <v>2</v>
       </c>
-      <c r="E513" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A514" s="90" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B514" s="90" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C514" s="90" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D514" s="90">
-        <v>1</v>
-      </c>
       <c r="E514" s="91" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A515" s="90" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B515" s="90" t="s">
         <v>1682</v>
       </c>
-      <c r="B515" s="90" t="s">
-        <v>804</v>
-      </c>
       <c r="C515" s="90" t="s">
-        <v>827</v>
+        <v>1722</v>
       </c>
       <c r="D515" s="90">
         <v>1</v>
       </c>
       <c r="E515" s="91" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
   </sheetData>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7CE5B4-3D90-49D2-91B9-20139D03CB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D0878A-06EF-437E-8ABB-B137B6048EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
+    <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="1783">
   <si>
     <t>producto</t>
   </si>
@@ -8911,6 +8911,162 @@
   </si>
   <si>
     <t>XEROX</t>
+  </si>
+  <si>
+    <t>KVR16S11/8WP</t>
+  </si>
+  <si>
+    <t>P00922-B21</t>
+  </si>
+  <si>
+    <t>SDBPMPZ-256G-EA</t>
+  </si>
+  <si>
+    <t>DT01ACA100</t>
+  </si>
+  <si>
+    <t>HKED3081BAA2AZA1</t>
+  </si>
+  <si>
+    <t>KF426C16BB/8</t>
+  </si>
+  <si>
+    <t>HS-SSD-DESIRE/256G</t>
+  </si>
+  <si>
+    <t>HKED4161DAB1D0ZA1/16G</t>
+  </si>
+  <si>
+    <t>HKED3081BAA2A0ZA1</t>
+  </si>
+  <si>
+    <t>1933885-2</t>
+  </si>
+  <si>
+    <t>AJ716B</t>
+  </si>
+  <si>
+    <t>716191-B21</t>
+  </si>
+  <si>
+    <t>832514-B21</t>
+  </si>
+  <si>
+    <t>833926-B21</t>
+  </si>
+  <si>
+    <t>833928-B21</t>
+  </si>
+  <si>
+    <t>NS-MIDPVGBL</t>
+  </si>
+  <si>
+    <t>KVR16S11S8/4WP</t>
+  </si>
+  <si>
+    <t>WDS250G3B0A</t>
+  </si>
+  <si>
+    <t>WDS240G3G0A</t>
+  </si>
+  <si>
+    <t>HKED3081BAA2A0ZA</t>
+  </si>
+  <si>
+    <t>3CBLSF50</t>
+  </si>
+  <si>
+    <t>3CBLSG24</t>
+  </si>
+  <si>
+    <t>3C16472</t>
+  </si>
+  <si>
+    <t>TOSHIBA</t>
+  </si>
+  <si>
+    <t>HIKVISION</t>
+  </si>
+  <si>
+    <t>BLUE PARROT</t>
+  </si>
+  <si>
+    <t>3COM</t>
+  </si>
+  <si>
+    <t>8gb kingston 1600 ddr3 sodimm</t>
+  </si>
+  <si>
+    <t>HPE 16 GB 2RX8 PC4-2933Y-R Smart Kit</t>
+  </si>
+  <si>
+    <t>Disco Sólido Ssd Wd Sn530 256gb M.2 2242 Pcie Nvme Oem. SSD SanDisk Western Digital PC SN530 NVMe M.2 2242</t>
+  </si>
+  <si>
+    <t>Disco Rígido Toshiba 1tb Sata 3 Iii 7200rpm 3.5 Pulgadas-Disco OEM, nuevo sin uso</t>
+  </si>
+  <si>
+    <t>Memoria ram pc ddr3 1600mhz 8gb udimm 1.5v</t>
+  </si>
+  <si>
+    <t>Kingston Fury Beast - Ddr4 - Módulo - 8 Gb - Dimm De 288 Contactos - 2666 Mhz / Pc4-21300</t>
+  </si>
+  <si>
+    <t>Disco Solido Interno Hikvision Desire PCIE NVME</t>
+  </si>
+  <si>
+    <t>Memoria Ram 16 GB Hikvision DDR4 2666MHZ Udimm</t>
+  </si>
+  <si>
+    <t>8GB HIKVISION 1600 DDR3 UDIMM. Empaque Abierto. Sin Uso</t>
+  </si>
+  <si>
+    <t>Commscope F/UTP Cat 6E 0,6 metros</t>
+  </si>
+  <si>
+    <t>Módulo HP 8 Gb S-Wave B Serie S</t>
+  </si>
+  <si>
+    <t>Cable HP 2M MSAS HD-MSAS</t>
+  </si>
+  <si>
+    <t>HDD 1 TB HP SAS 12G 7,2 K SFF SC</t>
+  </si>
+  <si>
+    <t>HDD 2 TB HP SAS 7,2 K LFF LP DS HDD</t>
+  </si>
+  <si>
+    <t>HPE 4 TB SAS 7.2 LFF LP DS HDD</t>
+  </si>
+  <si>
+    <t>Auricular Blue Parrot M300-XT</t>
+  </si>
+  <si>
+    <t>Adaptador Cable Mini Display Port A Vga 1080p 1° Nisuta Htec</t>
+  </si>
+  <si>
+    <t>Memoria Ram 4gb kingston 1600 ddr3 sodimm</t>
+  </si>
+  <si>
+    <t>Disco Interno SSD 250GB Western Digital 3D BLUE SATA</t>
+  </si>
+  <si>
+    <t>Disco SSD 240GB Western Digital Green Sata III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8GB HIKVISION 1600 DDR3 UDIMM. </t>
+  </si>
+  <si>
+    <t>3Com Baseline Switch 2250-SFP Plus</t>
+  </si>
+  <si>
+    <t>3Com Baseline Switch 2924-SFP Plus</t>
+  </si>
+  <si>
+    <t>3Com Baseline Switch 2126 G</t>
+  </si>
+  <si>
+    <t>jcordoba@silicon-tech.com.ar</t>
   </si>
 </sst>
 </file>
@@ -9293,7 +9449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9598,7 +9754,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9609,7 +9765,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9618,26 +9778,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Leelawadee UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -9686,6 +9826,26 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Leelawadee UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -9733,17 +9893,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E515" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E515" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E540" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E540" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E515">
     <sortCondition ref="C1:C515"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1B48A49-4D48-4A1E-89CF-C9F61C327FFC}" name="producto" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C3AA694B-486B-4DC2-9B24-35452D57BE82}" name="Descripcion" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{69E0BAB9-46B8-421E-9E44-8E02765F4D67}" name="marca" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{45F89A05-BD9F-4C34-9C88-DC9214247FDE}" name="unidades" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{62F4E62C-FC39-4122-A1B8-3D8287EECB06}" name="contacto" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C3AA694B-486B-4DC2-9B24-35452D57BE82}" name="Descripcion" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{69E0BAB9-46B8-421E-9E44-8E02765F4D67}" name="marca" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{45F89A05-BD9F-4C34-9C88-DC9214247FDE}" name="unidades" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{62F4E62C-FC39-4122-A1B8-3D8287EECB06}" name="contacto" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10066,10 +10226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
-  <dimension ref="A1:E515"/>
+  <dimension ref="A1:E540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="C511" sqref="C511"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="E516" sqref="E516:E540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18830,6 +18990,431 @@
       </c>
       <c r="E515" s="91" t="s">
         <v>1600</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="116" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B516" s="117" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C516" s="116" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D516" s="116">
+        <v>2</v>
+      </c>
+      <c r="E516" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="116" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B517" s="117" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C517" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="D517" s="116">
+        <v>1</v>
+      </c>
+      <c r="E517" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="116" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B518" s="117" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C518" s="116" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D518" s="116">
+        <v>73</v>
+      </c>
+      <c r="E518" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="116" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B519" s="117" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C519" s="116" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D519" s="116">
+        <v>47</v>
+      </c>
+      <c r="E519" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="116" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B520" s="117" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C520" s="116" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D520" s="116">
+        <v>1</v>
+      </c>
+      <c r="E520" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="116" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B521" s="117" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C521" s="116" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D521" s="116">
+        <v>1</v>
+      </c>
+      <c r="E521" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="116" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B522" s="117" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C522" s="116" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D522" s="116">
+        <v>5</v>
+      </c>
+      <c r="E522" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="116" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B523" s="117" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C523" s="116" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D523" s="116">
+        <v>1</v>
+      </c>
+      <c r="E523" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="116" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B524" s="117" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C524" s="116" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D524" s="116">
+        <v>2</v>
+      </c>
+      <c r="E524" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="116" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B525" s="117" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C525" s="116" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D525" s="116">
+        <v>9</v>
+      </c>
+      <c r="E525" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="116" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B526" s="117" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C526" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="D526" s="116">
+        <v>4</v>
+      </c>
+      <c r="E526" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="116" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B527" s="117" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C527" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="D527" s="116">
+        <v>2</v>
+      </c>
+      <c r="E527" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="116" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B528" s="117" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C528" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="D528" s="116">
+        <v>1</v>
+      </c>
+      <c r="E528" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="116" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B529" s="117" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C529" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="D529" s="116">
+        <v>1</v>
+      </c>
+      <c r="E529" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="116" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B530" s="117" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C530" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="D530" s="116">
+        <v>1</v>
+      </c>
+      <c r="E530" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="116">
+        <v>204347</v>
+      </c>
+      <c r="B531" s="117" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C531" s="116" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D531" s="116">
+        <v>2</v>
+      </c>
+      <c r="E531" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="116" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B532" s="117" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C532" s="116" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D532" s="116">
+        <v>27</v>
+      </c>
+      <c r="E532" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="116" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B533" s="117" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C533" s="116" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D533" s="116">
+        <v>4</v>
+      </c>
+      <c r="E533" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="116" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B534" s="117" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C534" s="116" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D534" s="116">
+        <v>1</v>
+      </c>
+      <c r="E534" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="116" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B535" s="117" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C535" s="116" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D535" s="116">
+        <v>1</v>
+      </c>
+      <c r="E535" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="116" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B536" s="117" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C536" s="116" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D536" s="116">
+        <v>1</v>
+      </c>
+      <c r="E536" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="116" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B537" s="117" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C537" s="116" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D537" s="116">
+        <v>1</v>
+      </c>
+      <c r="E537" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="116" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B538" s="117" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C538" s="116" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D538" s="116">
+        <v>1</v>
+      </c>
+      <c r="E538" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="116" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B539" s="117" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C539" s="116" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D539" s="116">
+        <v>1</v>
+      </c>
+      <c r="E539" s="116" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="116" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B540" s="117" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C540" s="116" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D540" s="116">
+        <v>1</v>
+      </c>
+      <c r="E540" s="116" t="s">
+        <v>1782</v>
       </c>
     </row>
   </sheetData>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D0878A-06EF-437E-8ABB-B137B6048EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92417CAF-A863-4AD7-B5F6-60E47128529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="1783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="1782">
   <si>
     <t>producto</t>
   </si>
@@ -8869,9 +8869,6 @@
   </si>
   <si>
     <t>info@anyx.com.ar</t>
-  </si>
-  <si>
-    <t>WESTERNDIGITAL</t>
   </si>
   <si>
     <t>CISCO</t>
@@ -9449,7 +9446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9768,8 +9765,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10228,8 +10224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
   <dimension ref="A1:E540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="E516" sqref="E516:E540"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C506" sqref="C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10466,7 +10462,7 @@
         <v>810</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D14" s="90">
         <v>3</v>
@@ -10483,7 +10479,7 @@
         <v>813</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D15" s="90">
         <v>2</v>
@@ -10500,7 +10496,7 @@
         <v>815</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D16" s="90">
         <v>6</v>
@@ -10517,7 +10513,7 @@
         <v>871</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D17" s="90">
         <v>1</v>
@@ -10534,7 +10530,7 @@
         <v>847</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D18" s="90">
         <v>1</v>
@@ -10551,7 +10547,7 @@
         <v>849</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D19" s="90">
         <v>1</v>
@@ -10568,7 +10564,7 @@
         <v>851</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D20" s="90">
         <v>25</v>
@@ -10585,7 +10581,7 @@
         <v>853</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D21" s="90">
         <v>191</v>
@@ -10602,7 +10598,7 @@
         <v>855</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D22" s="90">
         <v>6</v>
@@ -10619,7 +10615,7 @@
         <v>856</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D23" s="90">
         <v>8</v>
@@ -10636,7 +10632,7 @@
         <v>874</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D24" s="90">
         <v>5</v>
@@ -11163,7 +11159,7 @@
         <v>859</v>
       </c>
       <c r="C55" s="90" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D55" s="90">
         <v>100</v>
@@ -11180,7 +11176,7 @@
         <v>860</v>
       </c>
       <c r="C56" s="90" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D56" s="90">
         <v>42</v>
@@ -11197,7 +11193,7 @@
         <v>861</v>
       </c>
       <c r="C57" s="90" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D57" s="90">
         <v>2</v>
@@ -11350,7 +11346,7 @@
         <v>843</v>
       </c>
       <c r="C66" s="90" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D66" s="90">
         <v>1</v>
@@ -11367,7 +11363,7 @@
         <v>844</v>
       </c>
       <c r="C67" s="90" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D67" s="90">
         <v>1</v>
@@ -11418,7 +11414,7 @@
         <v>1115</v>
       </c>
       <c r="C70" s="90" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D70" s="90">
         <v>45</v>
@@ -11435,7 +11431,7 @@
         <v>1550</v>
       </c>
       <c r="C71" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D71" s="90">
         <v>4</v>
@@ -11452,7 +11448,7 @@
         <v>1551</v>
       </c>
       <c r="C72" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D72" s="90">
         <v>4</v>
@@ -11469,7 +11465,7 @@
         <v>1552</v>
       </c>
       <c r="C73" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D73" s="90">
         <v>2</v>
@@ -11486,7 +11482,7 @@
         <v>1553</v>
       </c>
       <c r="C74" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D74" s="90">
         <v>2</v>
@@ -11503,7 +11499,7 @@
         <v>1555</v>
       </c>
       <c r="C75" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D75" s="90">
         <v>2</v>
@@ -11520,7 +11516,7 @@
         <v>1585</v>
       </c>
       <c r="C76" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D76" s="90">
         <v>4</v>
@@ -11537,7 +11533,7 @@
         <v>1587</v>
       </c>
       <c r="C77" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D77" s="90">
         <v>3</v>
@@ -11554,7 +11550,7 @@
         <v>1590</v>
       </c>
       <c r="C78" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D78" s="90">
         <v>100</v>
@@ -11571,7 +11567,7 @@
         <v>1594</v>
       </c>
       <c r="C79" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D79" s="90">
         <v>25</v>
@@ -14835,7 +14831,7 @@
         <v>1034</v>
       </c>
       <c r="C271" s="90" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D271" s="90">
         <v>2</v>
@@ -15787,7 +15783,7 @@
         <v>886</v>
       </c>
       <c r="C327" s="90" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D327" s="90">
         <v>1</v>
@@ -15804,7 +15800,7 @@
         <v>888</v>
       </c>
       <c r="C328" s="90" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D328" s="90">
         <v>1</v>
@@ -15821,7 +15817,7 @@
         <v>890</v>
       </c>
       <c r="C329" s="90" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D329" s="90">
         <v>2</v>
@@ -15838,7 +15834,7 @@
         <v>892</v>
       </c>
       <c r="C330" s="90" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D330" s="90">
         <v>1</v>
@@ -15855,7 +15851,7 @@
         <v>894</v>
       </c>
       <c r="C331" s="90" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D331" s="90">
         <v>3</v>
@@ -15872,7 +15868,7 @@
         <v>896</v>
       </c>
       <c r="C332" s="90" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D332" s="90">
         <v>2</v>
@@ -17232,7 +17228,7 @@
         <v>1338</v>
       </c>
       <c r="C412" s="90" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D412" s="90">
         <v>1</v>
@@ -17249,7 +17245,7 @@
         <v>1338</v>
       </c>
       <c r="C413" s="90" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D413" s="90">
         <v>3</v>
@@ -17266,7 +17262,7 @@
         <v>1338</v>
       </c>
       <c r="C414" s="90" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D414" s="90">
         <v>1</v>
@@ -17283,7 +17279,7 @@
         <v>1338</v>
       </c>
       <c r="C415" s="90" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D415" s="90">
         <v>3</v>
@@ -17300,7 +17296,7 @@
         <v>1342</v>
       </c>
       <c r="C416" s="90" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D416" s="90">
         <v>1</v>
@@ -17674,7 +17670,7 @@
         <v>864</v>
       </c>
       <c r="C438" s="90" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D438" s="90">
         <v>8</v>
@@ -17691,7 +17687,7 @@
         <v>866</v>
       </c>
       <c r="C439" s="90" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D439" s="90">
         <v>192</v>
@@ -18660,7 +18656,7 @@
         <v>1121</v>
       </c>
       <c r="C496" s="90" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D496" s="90">
         <v>1</v>
@@ -18779,7 +18775,7 @@
         <v>379</v>
       </c>
       <c r="C503" s="90" t="s">
-        <v>1717</v>
+        <v>1467</v>
       </c>
       <c r="D503" s="90">
         <v>15</v>
@@ -18796,7 +18792,7 @@
         <v>382</v>
       </c>
       <c r="C504" s="90" t="s">
-        <v>1717</v>
+        <v>1467</v>
       </c>
       <c r="D504" s="90">
         <v>1</v>
@@ -18813,7 +18809,7 @@
         <v>1676</v>
       </c>
       <c r="C505" s="90" t="s">
-        <v>1717</v>
+        <v>1467</v>
       </c>
       <c r="D505" s="90">
         <v>2</v>
@@ -18830,7 +18826,7 @@
         <v>1677</v>
       </c>
       <c r="C506" s="90" t="s">
-        <v>1717</v>
+        <v>1467</v>
       </c>
       <c r="D506" s="90">
         <v>1</v>
@@ -18847,7 +18843,7 @@
         <v>1340</v>
       </c>
       <c r="C507" s="90" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D507" s="90">
         <v>1</v>
@@ -18864,7 +18860,7 @@
         <v>1341</v>
       </c>
       <c r="C508" s="90" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D508" s="90">
         <v>5</v>
@@ -18881,7 +18877,7 @@
         <v>1341</v>
       </c>
       <c r="C509" s="90" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D509" s="90">
         <v>9</v>
@@ -18898,7 +18894,7 @@
         <v>1341</v>
       </c>
       <c r="C510" s="90" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D510" s="90">
         <v>5</v>
@@ -18915,7 +18911,7 @@
         <v>1341</v>
       </c>
       <c r="C511" s="90" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D511" s="90">
         <v>25</v>
@@ -18993,428 +18989,428 @@
       </c>
     </row>
     <row r="516" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="116" t="s">
+      <c r="A516" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B516" s="116" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D516" s="1">
+        <v>2</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="B516" s="117" t="s">
+      <c r="B517" s="116" t="s">
         <v>1758</v>
       </c>
-      <c r="C516" s="116" t="s">
+      <c r="C517" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D517" s="1">
+        <v>1</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B518" s="116" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D518" s="1">
+        <v>73</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B519" s="116" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D519" s="1">
+        <v>47</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B520" s="116" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D520" s="1">
+        <v>1</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B521" s="116" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C521" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="D516" s="116">
+      <c r="D521" s="1">
+        <v>1</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B522" s="116" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D522" s="1">
+        <v>5</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B523" s="116" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D523" s="1">
+        <v>1</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B524" s="116" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D524" s="1">
         <v>2</v>
       </c>
-      <c r="E516" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="116" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B517" s="117" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C517" s="116" t="s">
+      <c r="E524" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B525" s="116" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D525" s="1">
+        <v>9</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B526" s="116" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C526" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="D517" s="116">
-        <v>1</v>
-      </c>
-      <c r="E517" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="116" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B518" s="117" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C518" s="116" t="s">
+      <c r="D526" s="1">
+        <v>4</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B527" s="116" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D527" s="1">
+        <v>2</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B528" s="116" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D528" s="1">
+        <v>1</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B529" s="116" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D529" s="1">
+        <v>1</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B530" s="116" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D530" s="1">
+        <v>1</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>204347</v>
+      </c>
+      <c r="B531" s="116" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D531" s="1">
+        <v>2</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B532" s="116" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D532" s="1">
+        <v>27</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B533" s="116" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D533" s="1">
+        <v>4</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B534" s="116" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D534" s="1">
+        <v>1</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B535" s="116" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C535" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="D518" s="116">
-        <v>73</v>
-      </c>
-      <c r="E518" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="116" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B519" s="117" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C519" s="116" t="s">
+      <c r="D535" s="1">
+        <v>1</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B536" s="116" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D536" s="1">
+        <v>1</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B537" s="116" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C537" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="D519" s="116">
-        <v>47</v>
-      </c>
-      <c r="E519" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="116" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B520" s="117" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C520" s="116" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D520" s="116">
-        <v>1</v>
-      </c>
-      <c r="E520" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="116" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B521" s="117" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C521" s="116" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D521" s="116">
-        <v>1</v>
-      </c>
-      <c r="E521" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="116" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B522" s="117" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C522" s="116" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D522" s="116">
-        <v>5</v>
-      </c>
-      <c r="E522" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="116" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B523" s="117" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C523" s="116" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D523" s="116">
-        <v>1</v>
-      </c>
-      <c r="E523" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="116" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B524" s="117" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C524" s="116" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D524" s="116">
-        <v>2</v>
-      </c>
-      <c r="E524" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="116" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B525" s="117" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C525" s="116" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D525" s="116">
-        <v>9</v>
-      </c>
-      <c r="E525" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="116" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B526" s="117" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C526" s="116" t="s">
-        <v>817</v>
-      </c>
-      <c r="D526" s="116">
-        <v>4</v>
-      </c>
-      <c r="E526" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A527" s="116" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B527" s="117" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C527" s="116" t="s">
-        <v>817</v>
-      </c>
-      <c r="D527" s="116">
-        <v>2</v>
-      </c>
-      <c r="E527" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="116" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B528" s="117" t="s">
-        <v>1770</v>
-      </c>
-      <c r="C528" s="116" t="s">
-        <v>817</v>
-      </c>
-      <c r="D528" s="116">
-        <v>1</v>
-      </c>
-      <c r="E528" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="116" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B529" s="117" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C529" s="116" t="s">
-        <v>817</v>
-      </c>
-      <c r="D529" s="116">
-        <v>1</v>
-      </c>
-      <c r="E529" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="116" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B530" s="117" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C530" s="116" t="s">
-        <v>817</v>
-      </c>
-      <c r="D530" s="116">
-        <v>1</v>
-      </c>
-      <c r="E530" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="116">
-        <v>204347</v>
-      </c>
-      <c r="B531" s="117" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C531" s="116" t="s">
+      <c r="D537" s="1">
+        <v>1</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B538" s="116" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C538" s="1" t="s">
         <v>1756</v>
       </c>
-      <c r="D531" s="116">
-        <v>2</v>
-      </c>
-      <c r="E531" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="116" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B532" s="117" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C532" s="116" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D532" s="116">
-        <v>27</v>
-      </c>
-      <c r="E532" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="116" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B533" s="117" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C533" s="116" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D533" s="116">
-        <v>4</v>
-      </c>
-      <c r="E533" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="116" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B534" s="117" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C534" s="116" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D534" s="116">
-        <v>1</v>
-      </c>
-      <c r="E534" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="116" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B535" s="117" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C535" s="116" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D535" s="116">
-        <v>1</v>
-      </c>
-      <c r="E535" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="116" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B536" s="117" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C536" s="116" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D536" s="116">
-        <v>1</v>
-      </c>
-      <c r="E536" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="116" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B537" s="117" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C537" s="116" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D537" s="116">
-        <v>1</v>
-      </c>
-      <c r="E537" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="116" t="s">
+      <c r="D538" s="1">
+        <v>1</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="B538" s="117" t="s">
+      <c r="B539" s="116" t="s">
         <v>1779</v>
       </c>
-      <c r="C538" s="116" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D538" s="116">
-        <v>1</v>
-      </c>
-      <c r="E538" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A539" s="116" t="s">
+      <c r="C539" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D539" s="1">
+        <v>1</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="B539" s="117" t="s">
+      <c r="B540" s="116" t="s">
         <v>1780</v>
       </c>
-      <c r="C539" s="116" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D539" s="116">
-        <v>1</v>
-      </c>
-      <c r="E539" s="116" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="116" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B540" s="117" t="s">
+      <c r="C540" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D540" s="1">
+        <v>1</v>
+      </c>
+      <c r="E540" s="1" t="s">
         <v>1781</v>
-      </c>
-      <c r="C540" s="116" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D540" s="116">
-        <v>1</v>
-      </c>
-      <c r="E540" s="116" t="s">
-        <v>1782</v>
       </c>
     </row>
   </sheetData>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92417CAF-A863-4AD7-B5F6-60E47128529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967E3342-840A-4BC1-A656-E34425529482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
+    <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="1782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="1798">
   <si>
     <t>producto</t>
   </si>
@@ -9064,6 +9064,54 @@
   </si>
   <si>
     <t>jcordoba@silicon-tech.com.ar</t>
+  </si>
+  <si>
+    <t>UBIQUITI</t>
+  </si>
+  <si>
+    <t>DISCOS PARA SERVIDOR LENOVO STORAGE V7000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO V35S-07ADA RYZEN 3 256GB 8GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRESORA HP 137FNW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBIQUITI UAP AC HD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIFI UCK-G2-PLUS CLOUD KEY </t>
+  </si>
+  <si>
+    <t>GLC-MURAL-6U500 RACK 19"</t>
+  </si>
+  <si>
+    <t>ventas@c3i.com.ar</t>
+  </si>
+  <si>
+    <t>ST900MM0006</t>
+  </si>
+  <si>
+    <t>V35S-07ADA</t>
+  </si>
+  <si>
+    <t>137FNW</t>
+  </si>
+  <si>
+    <t>UCK-G2-PLUS</t>
+  </si>
+  <si>
+    <t>HWIC-2T</t>
+  </si>
+  <si>
+    <t>GLC-MURAL-6U500</t>
+  </si>
+  <si>
+    <t>CISCO HWIC-2T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAP AC HD </t>
   </si>
 </sst>
 </file>
@@ -9889,8 +9937,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E540" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E540" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E547" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E547" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E515">
     <sortCondition ref="C1:C515"/>
   </sortState>
@@ -10222,10 +10270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
-  <dimension ref="A1:E540"/>
+  <dimension ref="A1:E547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C506" sqref="C506"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="C544" sqref="C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19411,6 +19459,125 @@
       </c>
       <c r="E540" s="1" t="s">
         <v>1781</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B541" s="116" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D541" s="1">
+        <v>9</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B542" s="116" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D542" s="1">
+        <v>1</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B543" s="116" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D543" s="1">
+        <v>1</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B544" s="116" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D544" s="1">
+        <v>2</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B545" s="116" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D545" s="1">
+        <v>1</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B546" s="116" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D546" s="1">
+        <v>1</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B547" s="116" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D547" s="1">
+        <v>4</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1789</v>
       </c>
     </row>
   </sheetData>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967E3342-840A-4BC1-A656-E34425529482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5B65E8-0938-4C9D-9CC2-8B88D7F47EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="1799">
   <si>
     <t>producto</t>
   </si>
@@ -8606,9 +8606,6 @@
     <t>SNV2S/250G</t>
   </si>
   <si>
-    <t>SNV2S/4000G</t>
-  </si>
-  <si>
     <t>SNVS/1000G</t>
   </si>
   <si>
@@ -9112,6 +9109,12 @@
   </si>
   <si>
     <t xml:space="preserve">UAP AC HD </t>
+  </si>
+  <si>
+    <t>JCNW5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notebook Precision 7780 - i9-13950HX - 64 GB DDR5-5600 - SSD-1 TB NVMe - RTX4000 12GB DDR6 - 17.3” </t>
   </si>
 </sst>
 </file>
@@ -9494,7 +9497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9816,6 +9819,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -9939,8 +9947,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E547" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E547" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E515">
-    <sortCondition ref="C1:C515"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E514">
+    <sortCondition ref="C1:C514"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1B48A49-4D48-4A1E-89CF-C9F61C327FFC}" name="producto" dataDxfId="4"/>
@@ -10272,8 +10280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
   <dimension ref="A1:E547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="C544" sqref="C544"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10368,7 +10376,7 @@
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B6" s="114" t="s">
         <v>804</v>
@@ -10380,58 +10388,58 @@
         <v>1</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B7" s="114" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C7" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D7" s="90">
+        <v>1</v>
+      </c>
+      <c r="E7" s="91" t="s">
         <v>1715</v>
-      </c>
-      <c r="D7" s="90">
-        <v>1</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B8" s="114" t="s">
         <v>780</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D8" s="90">
         <v>1</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B9" s="114" t="s">
         <v>778</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D9" s="90">
         <v>2</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10453,10 +10461,10 @@
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C11" s="90" t="s">
         <v>1469</v>
@@ -10465,7 +10473,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10510,7 +10518,7 @@
         <v>810</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D14" s="90">
         <v>3</v>
@@ -10527,7 +10535,7 @@
         <v>813</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D15" s="90">
         <v>2</v>
@@ -10544,7 +10552,7 @@
         <v>815</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D16" s="90">
         <v>6</v>
@@ -10561,7 +10569,7 @@
         <v>871</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D17" s="90">
         <v>1</v>
@@ -10578,7 +10586,7 @@
         <v>847</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D18" s="90">
         <v>1</v>
@@ -10595,7 +10603,7 @@
         <v>849</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D19" s="90">
         <v>1</v>
@@ -10612,7 +10620,7 @@
         <v>851</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D20" s="90">
         <v>25</v>
@@ -10629,7 +10637,7 @@
         <v>853</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D21" s="90">
         <v>191</v>
@@ -10646,7 +10654,7 @@
         <v>855</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D22" s="90">
         <v>6</v>
@@ -10663,7 +10671,7 @@
         <v>856</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D23" s="90">
         <v>8</v>
@@ -10680,7 +10688,7 @@
         <v>874</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D24" s="90">
         <v>5</v>
@@ -10708,7 +10716,7 @@
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B26" s="114" t="s">
         <v>672</v>
@@ -10720,12 +10728,12 @@
         <v>31</v>
       </c>
       <c r="E26" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="90" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B27" s="114" t="s">
         <v>674</v>
@@ -10737,12 +10745,12 @@
         <v>6</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B28" s="114" t="s">
         <v>676</v>
@@ -10754,12 +10762,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B29" s="114" t="s">
         <v>678</v>
@@ -10771,12 +10779,12 @@
         <v>20</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B30" s="114" t="s">
         <v>680</v>
@@ -10788,15 +10796,15 @@
         <v>7</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B31" s="114" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C31" s="90" t="s">
         <v>1477</v>
@@ -10805,15 +10813,15 @@
         <v>20</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B32" s="114" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C32" s="90" t="s">
         <v>1477</v>
@@ -10822,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10839,15 +10847,15 @@
         <v>6</v>
       </c>
       <c r="E33" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B34" s="114" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C34" s="90" t="s">
         <v>1477</v>
@@ -10856,12 +10864,12 @@
         <v>13</v>
       </c>
       <c r="E34" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B35" s="114" t="s">
         <v>686</v>
@@ -10873,12 +10881,12 @@
         <v>1</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B36" s="114" t="s">
         <v>694</v>
@@ -10890,15 +10898,15 @@
         <v>3</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B37" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C37" s="90" t="s">
         <v>1477</v>
@@ -10907,12 +10915,12 @@
         <v>46</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B38" s="114" t="s">
         <v>800</v>
@@ -10924,15 +10932,15 @@
         <v>6</v>
       </c>
       <c r="E38" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B39" s="114" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C39" s="90" t="s">
         <v>1477</v>
@@ -10941,15 +10949,15 @@
         <v>3</v>
       </c>
       <c r="E39" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B40" s="114" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C40" s="90" t="s">
         <v>1477</v>
@@ -10958,15 +10966,15 @@
         <v>14</v>
       </c>
       <c r="E40" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B41" s="114" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C41" s="90" t="s">
         <v>1477</v>
@@ -10975,15 +10983,15 @@
         <v>22</v>
       </c>
       <c r="E41" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B42" s="114" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C42" s="90" t="s">
         <v>1477</v>
@@ -10992,15 +11000,15 @@
         <v>148</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="90" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B43" s="114" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C43" s="90" t="s">
         <v>1477</v>
@@ -11009,15 +11017,15 @@
         <v>100</v>
       </c>
       <c r="E43" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B44" s="114" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C44" s="90" t="s">
         <v>1477</v>
@@ -11026,15 +11034,15 @@
         <v>64</v>
       </c>
       <c r="E44" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="90" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B45" s="114" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C45" s="90" t="s">
         <v>1477</v>
@@ -11043,12 +11051,12 @@
         <v>1</v>
       </c>
       <c r="E45" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B46" s="114" t="s">
         <v>167</v>
@@ -11060,12 +11068,12 @@
         <v>2</v>
       </c>
       <c r="E46" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="90" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B47" s="114" t="s">
         <v>105</v>
@@ -11077,15 +11085,15 @@
         <v>1</v>
       </c>
       <c r="E47" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="90" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B48" s="114" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C48" s="90" t="s">
         <v>1477</v>
@@ -11094,12 +11102,12 @@
         <v>2</v>
       </c>
       <c r="E48" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="90" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B49" s="114" t="s">
         <v>249</v>
@@ -11111,15 +11119,15 @@
         <v>17</v>
       </c>
       <c r="E49" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="90" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B50" s="114" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C50" s="90" t="s">
         <v>1477</v>
@@ -11128,7 +11136,7 @@
         <v>24</v>
       </c>
       <c r="E50" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11184,19 +11192,19 @@
     </row>
     <row r="54" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="90" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B54" s="114" t="s">
         <v>784</v>
       </c>
       <c r="C54" s="90" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D54" s="90">
         <v>4</v>
       </c>
       <c r="E54" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11207,7 +11215,7 @@
         <v>859</v>
       </c>
       <c r="C55" s="90" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D55" s="90">
         <v>100</v>
@@ -11224,7 +11232,7 @@
         <v>860</v>
       </c>
       <c r="C56" s="90" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D56" s="90">
         <v>42</v>
@@ -11241,7 +11249,7 @@
         <v>861</v>
       </c>
       <c r="C57" s="90" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D57" s="90">
         <v>2</v>
@@ -11252,70 +11260,70 @@
     </row>
     <row r="58" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="90" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B58" s="114" t="s">
         <v>734</v>
       </c>
       <c r="C58" s="90" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D58" s="90">
         <v>11</v>
       </c>
       <c r="E58" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="90" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B59" s="114" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C59" s="90" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D59" s="90">
         <v>145</v>
       </c>
       <c r="E59" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="90" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B60" s="114" t="s">
         <v>742</v>
       </c>
       <c r="C60" s="90" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D60" s="90">
         <v>18</v>
       </c>
       <c r="E60" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="90" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B61" s="114" t="s">
         <v>742</v>
       </c>
       <c r="C61" s="90" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D61" s="90">
         <v>17</v>
       </c>
       <c r="E61" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11326,7 +11334,7 @@
         <v>145</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D62" s="111">
         <v>1</v>
@@ -11354,36 +11362,36 @@
     </row>
     <row r="64" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="90" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B64" s="114" t="s">
         <v>636</v>
       </c>
       <c r="C64" s="90" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D64" s="90">
         <v>1</v>
       </c>
       <c r="E64" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="90" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B65" s="114" t="s">
         <v>638</v>
       </c>
       <c r="C65" s="90" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D65" s="90">
         <v>8</v>
       </c>
       <c r="E65" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11394,7 +11402,7 @@
         <v>843</v>
       </c>
       <c r="C66" s="90" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D66" s="90">
         <v>1</v>
@@ -11411,7 +11419,7 @@
         <v>844</v>
       </c>
       <c r="C67" s="90" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D67" s="90">
         <v>1</v>
@@ -11462,7 +11470,7 @@
         <v>1115</v>
       </c>
       <c r="C70" s="90" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D70" s="90">
         <v>45</v>
@@ -11479,7 +11487,7 @@
         <v>1550</v>
       </c>
       <c r="C71" s="90" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D71" s="90">
         <v>4</v>
@@ -11496,7 +11504,7 @@
         <v>1551</v>
       </c>
       <c r="C72" s="90" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D72" s="90">
         <v>4</v>
@@ -11513,7 +11521,7 @@
         <v>1552</v>
       </c>
       <c r="C73" s="90" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D73" s="90">
         <v>2</v>
@@ -11530,7 +11538,7 @@
         <v>1553</v>
       </c>
       <c r="C74" s="90" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D74" s="90">
         <v>2</v>
@@ -11547,7 +11555,7 @@
         <v>1555</v>
       </c>
       <c r="C75" s="90" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D75" s="90">
         <v>2</v>
@@ -11564,7 +11572,7 @@
         <v>1585</v>
       </c>
       <c r="C76" s="90" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D76" s="90">
         <v>4</v>
@@ -11581,7 +11589,7 @@
         <v>1587</v>
       </c>
       <c r="C77" s="90" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D77" s="90">
         <v>3</v>
@@ -11598,7 +11606,7 @@
         <v>1590</v>
       </c>
       <c r="C78" s="90" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D78" s="90">
         <v>100</v>
@@ -11615,7 +11623,7 @@
         <v>1594</v>
       </c>
       <c r="C79" s="90" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D79" s="90">
         <v>25</v>
@@ -12459,10 +12467,10 @@
     </row>
     <row r="129" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="90" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B129" s="114" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C129" s="90" t="s">
         <v>806</v>
@@ -12471,15 +12479,15 @@
         <v>1</v>
       </c>
       <c r="E129" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="90" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B130" s="114" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C130" s="90" t="s">
         <v>806</v>
@@ -12488,15 +12496,15 @@
         <v>45</v>
       </c>
       <c r="E130" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="90" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B131" s="114" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C131" s="90" t="s">
         <v>806</v>
@@ -12505,15 +12513,15 @@
         <v>3</v>
       </c>
       <c r="E131" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="90" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B132" s="114" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C132" s="90" t="s">
         <v>806</v>
@@ -12522,15 +12530,15 @@
         <v>1</v>
       </c>
       <c r="E132" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="90" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B133" s="114" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C133" s="90" t="s">
         <v>806</v>
@@ -12539,15 +12547,15 @@
         <v>3</v>
       </c>
       <c r="E133" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="90" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B134" s="114" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C134" s="90" t="s">
         <v>806</v>
@@ -12556,12 +12564,12 @@
         <v>4</v>
       </c>
       <c r="E134" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="90" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B135" s="114" t="s">
         <v>369</v>
@@ -12573,7 +12581,7 @@
         <v>2</v>
       </c>
       <c r="E135" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14879,7 +14887,7 @@
         <v>1034</v>
       </c>
       <c r="C271" s="90" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D271" s="90">
         <v>2</v>
@@ -15808,10 +15816,10 @@
     </row>
     <row r="326" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="90" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B326" s="114" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C326" s="90" t="s">
         <v>817</v>
@@ -15820,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="E326" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15831,7 +15839,7 @@
         <v>886</v>
       </c>
       <c r="C327" s="90" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D327" s="90">
         <v>1</v>
@@ -15848,7 +15856,7 @@
         <v>888</v>
       </c>
       <c r="C328" s="90" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D328" s="90">
         <v>1</v>
@@ -15865,7 +15873,7 @@
         <v>890</v>
       </c>
       <c r="C329" s="90" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D329" s="90">
         <v>2</v>
@@ -15882,7 +15890,7 @@
         <v>892</v>
       </c>
       <c r="C330" s="90" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D330" s="90">
         <v>1</v>
@@ -15899,7 +15907,7 @@
         <v>894</v>
       </c>
       <c r="C331" s="90" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D331" s="90">
         <v>3</v>
@@ -15916,7 +15924,7 @@
         <v>896</v>
       </c>
       <c r="C332" s="90" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D332" s="90">
         <v>2</v>
@@ -15995,70 +16003,70 @@
     </row>
     <row r="337" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="90" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B337" s="114" t="s">
         <v>716</v>
       </c>
       <c r="C337" s="90" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D337" s="90">
         <v>1</v>
       </c>
       <c r="E337" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="90" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B338" s="114" t="s">
         <v>720</v>
       </c>
       <c r="C338" s="90" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D338" s="90">
         <v>2</v>
       </c>
       <c r="E338" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="90" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B339" s="114" t="s">
         <v>722</v>
       </c>
       <c r="C339" s="90" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D339" s="90">
         <v>2</v>
       </c>
       <c r="E339" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="90" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B340" s="114" t="s">
         <v>724</v>
       </c>
       <c r="C340" s="90" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D340" s="90">
         <v>2</v>
       </c>
       <c r="E340" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16313,7 +16321,7 @@
         <v>7</v>
       </c>
       <c r="E355" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16330,7 +16338,7 @@
         <v>6</v>
       </c>
       <c r="E356" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16347,7 +16355,7 @@
         <v>16</v>
       </c>
       <c r="E357" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16364,7 +16372,7 @@
         <v>1</v>
       </c>
       <c r="E358" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16381,7 +16389,7 @@
         <v>18</v>
       </c>
       <c r="E359" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16398,7 +16406,7 @@
         <v>3</v>
       </c>
       <c r="E360" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16415,7 +16423,7 @@
         <v>15</v>
       </c>
       <c r="E361" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16432,7 +16440,7 @@
         <v>3</v>
       </c>
       <c r="E362" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16449,7 +16457,7 @@
         <v>8</v>
       </c>
       <c r="E363" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16466,41 +16474,41 @@
         <v>7</v>
       </c>
       <c r="E364" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="90" t="s">
-        <v>1629</v>
+        <v>1422</v>
       </c>
       <c r="B365" s="114" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C365" s="90" t="s">
         <v>1466</v>
       </c>
       <c r="D365" s="90">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E365" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="90" t="s">
-        <v>1422</v>
+        <v>1629</v>
       </c>
       <c r="B366" s="114" t="s">
-        <v>771</v>
+        <v>1680</v>
       </c>
       <c r="C366" s="90" t="s">
         <v>1466</v>
       </c>
       <c r="D366" s="90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E366" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16517,38 +16525,38 @@
         <v>1</v>
       </c>
       <c r="E367" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="90" t="s">
-        <v>1631</v>
+        <v>1372</v>
       </c>
       <c r="B368" s="114" t="s">
-        <v>1682</v>
+        <v>1507</v>
       </c>
       <c r="C368" s="90" t="s">
-        <v>1466</v>
+        <v>1709</v>
       </c>
       <c r="D368" s="90">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E368" s="91" t="s">
-        <v>1716</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="90" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B369" s="114" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C369" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D369" s="90">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="E369" s="91" t="s">
         <v>1600</v>
@@ -16556,16 +16564,16 @@
     </row>
     <row r="370" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="90" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B370" s="114" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C370" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D370" s="90">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E370" s="91" t="s">
         <v>1600</v>
@@ -16573,16 +16581,16 @@
     </row>
     <row r="371" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="90" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B371" s="114" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C371" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D371" s="90">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E371" s="91" t="s">
         <v>1600</v>
@@ -16590,16 +16598,16 @@
     </row>
     <row r="372" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="90" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B372" s="114" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C372" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D372" s="90">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E372" s="91" t="s">
         <v>1600</v>
@@ -16607,13 +16615,13 @@
     </row>
     <row r="373" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="90" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B373" s="114" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C373" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D373" s="90">
         <v>19</v>
@@ -16624,16 +16632,16 @@
     </row>
     <row r="374" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="90" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B374" s="114" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C374" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D374" s="90">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E374" s="91" t="s">
         <v>1600</v>
@@ -16641,16 +16649,16 @@
     </row>
     <row r="375" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="90" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B375" s="114" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C375" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D375" s="90">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E375" s="91" t="s">
         <v>1600</v>
@@ -16658,16 +16666,16 @@
     </row>
     <row r="376" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="90" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B376" s="114" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C376" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D376" s="90">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E376" s="91" t="s">
         <v>1600</v>
@@ -16675,16 +16683,16 @@
     </row>
     <row r="377" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="90" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B377" s="114" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C377" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D377" s="90">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E377" s="91" t="s">
         <v>1600</v>
@@ -16692,16 +16700,16 @@
     </row>
     <row r="378" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="90" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B378" s="114" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C378" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D378" s="90">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E378" s="91" t="s">
         <v>1600</v>
@@ -16709,16 +16717,16 @@
     </row>
     <row r="379" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="90" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B379" s="114" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C379" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D379" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E379" s="91" t="s">
         <v>1600</v>
@@ -16726,16 +16734,16 @@
     </row>
     <row r="380" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="90" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B380" s="114" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C380" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D380" s="90">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E380" s="91" t="s">
         <v>1600</v>
@@ -16743,16 +16751,16 @@
     </row>
     <row r="381" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="90" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B381" s="114" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C381" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D381" s="90">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E381" s="91" t="s">
         <v>1600</v>
@@ -16760,16 +16768,16 @@
     </row>
     <row r="382" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="90" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B382" s="114" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C382" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D382" s="90">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E382" s="91" t="s">
         <v>1600</v>
@@ -16777,16 +16785,16 @@
     </row>
     <row r="383" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="90" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B383" s="114" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C383" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D383" s="90">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="E383" s="91" t="s">
         <v>1600</v>
@@ -16794,16 +16802,16 @@
     </row>
     <row r="384" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="90" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B384" s="114" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C384" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D384" s="90">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="E384" s="91" t="s">
         <v>1600</v>
@@ -16811,16 +16819,16 @@
     </row>
     <row r="385" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="90" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B385" s="114" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C385" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D385" s="90">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E385" s="91" t="s">
         <v>1600</v>
@@ -16828,16 +16836,16 @@
     </row>
     <row r="386" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="90" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B386" s="114" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C386" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D386" s="90">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E386" s="91" t="s">
         <v>1600</v>
@@ -16845,16 +16853,16 @@
     </row>
     <row r="387" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="90" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B387" s="114" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C387" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D387" s="90">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E387" s="91" t="s">
         <v>1600</v>
@@ -16862,16 +16870,16 @@
     </row>
     <row r="388" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="90" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B388" s="114" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C388" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D388" s="90">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E388" s="91" t="s">
         <v>1600</v>
@@ -16879,16 +16887,16 @@
     </row>
     <row r="389" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="90" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B389" s="114" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C389" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D389" s="90">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E389" s="91" t="s">
         <v>1600</v>
@@ -16896,13 +16904,13 @@
     </row>
     <row r="390" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="90" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B390" s="114" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C390" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D390" s="90">
         <v>1</v>
@@ -16913,13 +16921,13 @@
     </row>
     <row r="391" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="90" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B391" s="114" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C391" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D391" s="90">
         <v>1</v>
@@ -16930,16 +16938,16 @@
     </row>
     <row r="392" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="90" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B392" s="114" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C392" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D392" s="90">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E392" s="91" t="s">
         <v>1600</v>
@@ -16947,16 +16955,16 @@
     </row>
     <row r="393" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="90" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B393" s="114" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C393" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D393" s="90">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E393" s="91" t="s">
         <v>1600</v>
@@ -16964,16 +16972,16 @@
     </row>
     <row r="394" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="90" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B394" s="114" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C394" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D394" s="90">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="E394" s="91" t="s">
         <v>1600</v>
@@ -16981,16 +16989,16 @@
     </row>
     <row r="395" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="90" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B395" s="114" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C395" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D395" s="90">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="E395" s="91" t="s">
         <v>1600</v>
@@ -16998,16 +17006,16 @@
     </row>
     <row r="396" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="90" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B396" s="114" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C396" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D396" s="90">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E396" s="91" t="s">
         <v>1600</v>
@@ -17015,16 +17023,16 @@
     </row>
     <row r="397" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="90" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B397" s="114" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C397" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D397" s="90">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E397" s="91" t="s">
         <v>1600</v>
@@ -17032,16 +17040,16 @@
     </row>
     <row r="398" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="90" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B398" s="114" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C398" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D398" s="90">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E398" s="91" t="s">
         <v>1600</v>
@@ -17049,16 +17057,16 @@
     </row>
     <row r="399" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="90" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B399" s="114" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C399" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D399" s="90">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="E399" s="91" t="s">
         <v>1600</v>
@@ -17066,16 +17074,16 @@
     </row>
     <row r="400" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="90" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B400" s="114" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C400" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D400" s="90">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="E400" s="91" t="s">
         <v>1600</v>
@@ -17083,16 +17091,16 @@
     </row>
     <row r="401" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="90" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B401" s="114" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C401" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D401" s="90">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E401" s="91" t="s">
         <v>1600</v>
@@ -17100,16 +17108,16 @@
     </row>
     <row r="402" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="90" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B402" s="114" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C402" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D402" s="90">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E402" s="91" t="s">
         <v>1600</v>
@@ -17117,16 +17125,16 @@
     </row>
     <row r="403" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="90" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B403" s="114" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C403" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D403" s="90">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E403" s="91" t="s">
         <v>1600</v>
@@ -17134,16 +17142,16 @@
     </row>
     <row r="404" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="90" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B404" s="114" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C404" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D404" s="90">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E404" s="91" t="s">
         <v>1600</v>
@@ -17151,50 +17159,50 @@
     </row>
     <row r="405" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="90" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B405" s="114" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C405" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D405" s="90">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E405" s="91" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="90" t="s">
-        <v>1409</v>
+      <c r="A406" s="90">
+        <v>36200291</v>
       </c>
       <c r="B406" s="114" t="s">
-        <v>1544</v>
+        <v>1106</v>
       </c>
       <c r="C406" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D406" s="90">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E406" s="91" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="90">
-        <v>36200291</v>
+      <c r="A407" s="90" t="s">
+        <v>1107</v>
       </c>
       <c r="B407" s="114" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C407" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D407" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E407" s="91" t="s">
         <v>1602</v>
@@ -17202,16 +17210,16 @@
     </row>
     <row r="408" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="90" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B408" s="114" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C408" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D408" s="90">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E408" s="91" t="s">
         <v>1602</v>
@@ -17219,16 +17227,16 @@
     </row>
     <row r="409" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="90" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B409" s="114" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C409" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D409" s="90">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E409" s="91" t="s">
         <v>1602</v>
@@ -17236,50 +17244,50 @@
     </row>
     <row r="410" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="90" t="s">
-        <v>1111</v>
+        <v>1618</v>
       </c>
       <c r="B410" s="114" t="s">
-        <v>1112</v>
+        <v>1679</v>
       </c>
       <c r="C410" s="90" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D410" s="90">
         <v>1</v>
       </c>
       <c r="E410" s="91" t="s">
-        <v>1602</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="90" t="s">
-        <v>1618</v>
+        <v>1225</v>
       </c>
       <c r="B411" s="114" t="s">
-        <v>1680</v>
+        <v>1338</v>
       </c>
       <c r="C411" s="90" t="s">
-        <v>1710</v>
+        <v>1727</v>
       </c>
       <c r="D411" s="90">
         <v>1</v>
       </c>
       <c r="E411" s="91" t="s">
-        <v>1716</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="90" t="s">
-        <v>1225</v>
+        <v>1233</v>
       </c>
       <c r="B412" s="114" t="s">
         <v>1338</v>
       </c>
       <c r="C412" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D412" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E412" s="91" t="s">
         <v>1348</v>
@@ -17287,16 +17295,16 @@
     </row>
     <row r="413" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="90" t="s">
-        <v>1233</v>
+        <v>1252</v>
       </c>
       <c r="B413" s="114" t="s">
         <v>1338</v>
       </c>
       <c r="C413" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D413" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E413" s="91" t="s">
         <v>1348</v>
@@ -17304,16 +17312,16 @@
     </row>
     <row r="414" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="90" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="B414" s="114" t="s">
         <v>1338</v>
       </c>
       <c r="C414" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D414" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E414" s="91" t="s">
         <v>1348</v>
@@ -17321,16 +17329,16 @@
     </row>
     <row r="415" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="90" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="B415" s="114" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="C415" s="90" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D415" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E415" s="91" t="s">
         <v>1348</v>
@@ -17338,19 +17346,19 @@
     </row>
     <row r="416" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="90" t="s">
-        <v>1262</v>
+        <v>1448</v>
       </c>
       <c r="B416" s="114" t="s">
-        <v>1342</v>
+        <v>1583</v>
       </c>
       <c r="C416" s="90" t="s">
-        <v>1728</v>
+        <v>1480</v>
       </c>
       <c r="D416" s="90">
         <v>1</v>
       </c>
       <c r="E416" s="91" t="s">
-        <v>1348</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17372,16 +17380,16 @@
     </row>
     <row r="418" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="90" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B418" s="114" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C418" s="90" t="s">
         <v>1480</v>
       </c>
       <c r="D418" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E418" s="91" t="s">
         <v>1600</v>
@@ -17389,67 +17397,67 @@
     </row>
     <row r="419" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="90" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
       <c r="B419" s="114" t="s">
-        <v>1584</v>
+        <v>1591</v>
       </c>
       <c r="C419" s="90" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D419" s="90">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E419" s="91" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="90" t="s">
-        <v>1456</v>
+      <c r="A420" s="90">
+        <v>207522</v>
       </c>
       <c r="B420" s="114" t="s">
-        <v>1591</v>
+        <v>774</v>
       </c>
       <c r="C420" s="90" t="s">
         <v>1481</v>
       </c>
       <c r="D420" s="90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E420" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="90" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B421" s="114" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C421" s="90" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D421" s="90">
+        <v>3</v>
+      </c>
+      <c r="E421" s="91" t="s">
         <v>1600</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="90">
-        <v>207522</v>
-      </c>
-      <c r="B421" s="114" t="s">
-        <v>774</v>
-      </c>
-      <c r="C421" s="90" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D421" s="90">
-        <v>2</v>
-      </c>
-      <c r="E421" s="91" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="90" t="s">
-        <v>1425</v>
+        <v>1441</v>
       </c>
       <c r="B422" s="114" t="s">
-        <v>1560</v>
+        <v>1576</v>
       </c>
       <c r="C422" s="90" t="s">
         <v>1471</v>
       </c>
       <c r="D422" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E422" s="91" t="s">
         <v>1600</v>
@@ -17457,19 +17465,19 @@
     </row>
     <row r="423" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="90" t="s">
-        <v>1441</v>
+        <v>1122</v>
       </c>
       <c r="B423" s="114" t="s">
-        <v>1576</v>
+        <v>1124</v>
       </c>
       <c r="C423" s="90" t="s">
-        <v>1471</v>
+        <v>1708</v>
       </c>
       <c r="D423" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E423" s="91" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17477,10 +17485,10 @@
         <v>1122</v>
       </c>
       <c r="B424" s="114" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C424" s="90" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D424" s="90">
         <v>4</v>
@@ -17491,67 +17499,67 @@
     </row>
     <row r="425" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="90" t="s">
-        <v>1122</v>
+        <v>1616</v>
       </c>
       <c r="B425" s="114" t="s">
-        <v>1125</v>
+        <v>1678</v>
       </c>
       <c r="C425" s="90" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D425" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E425" s="91" t="s">
-        <v>1602</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="90" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B426" s="114" t="s">
-        <v>1679</v>
+        <v>802</v>
       </c>
       <c r="C426" s="90" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D426" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E426" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="90" t="s">
-        <v>1617</v>
+        <v>1424</v>
       </c>
       <c r="B427" s="114" t="s">
-        <v>802</v>
+        <v>1559</v>
       </c>
       <c r="C427" s="90" t="s">
-        <v>1709</v>
+        <v>1470</v>
       </c>
       <c r="D427" s="90">
         <v>2</v>
       </c>
       <c r="E427" s="91" t="s">
-        <v>1716</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="90" t="s">
-        <v>1424</v>
+        <v>1444</v>
       </c>
       <c r="B428" s="114" t="s">
-        <v>1559</v>
+        <v>1579</v>
       </c>
       <c r="C428" s="90" t="s">
         <v>1470</v>
       </c>
       <c r="D428" s="90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E428" s="91" t="s">
         <v>1600</v>
@@ -17559,27 +17567,27 @@
     </row>
     <row r="429" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="90" t="s">
-        <v>1444</v>
+        <v>1097</v>
       </c>
       <c r="B429" s="114" t="s">
-        <v>1579</v>
+        <v>1099</v>
       </c>
       <c r="C429" s="90" t="s">
         <v>1470</v>
       </c>
       <c r="D429" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E429" s="91" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="90" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="B430" s="114" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="C430" s="90" t="s">
         <v>1470</v>
@@ -17593,10 +17601,10 @@
     </row>
     <row r="431" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="90" t="s">
-        <v>1100</v>
+        <v>1615</v>
       </c>
       <c r="B431" s="114" t="s">
-        <v>1102</v>
+        <v>776</v>
       </c>
       <c r="C431" s="90" t="s">
         <v>1470</v>
@@ -17605,123 +17613,123 @@
         <v>1</v>
       </c>
       <c r="E431" s="91" t="s">
-        <v>1602</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="90" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B432" s="114" t="s">
-        <v>776</v>
+        <v>644</v>
       </c>
       <c r="C432" s="90" t="s">
-        <v>1470</v>
+        <v>1707</v>
       </c>
       <c r="D432" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E432" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="90" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B433" s="114" t="s">
-        <v>644</v>
+        <v>704</v>
       </c>
       <c r="C433" s="90" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D433" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E433" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="90" t="s">
-        <v>1614</v>
+        <v>1429</v>
       </c>
       <c r="B434" s="114" t="s">
-        <v>704</v>
+        <v>1564</v>
       </c>
       <c r="C434" s="90" t="s">
-        <v>1708</v>
+        <v>1474</v>
       </c>
       <c r="D434" s="90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E434" s="91" t="s">
-        <v>1716</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="90" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B435" s="114" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C435" s="90" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D435" s="90">
-        <v>6</v>
-      </c>
-      <c r="E435" s="91" t="s">
+      <c r="A435" s="110" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B435" s="115" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C435" s="110" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D435" s="110">
+        <v>10</v>
+      </c>
+      <c r="E435" s="113" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="110" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B436" s="115" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C436" s="110" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D436" s="110">
-        <v>10</v>
-      </c>
-      <c r="E436" s="113" t="s">
-        <v>1600</v>
+      <c r="A436" s="90">
+        <v>43895002</v>
+      </c>
+      <c r="B436" s="114" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C436" s="90" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D436" s="90">
+        <v>1</v>
+      </c>
+      <c r="E436" s="91" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="90">
-        <v>43895002</v>
+      <c r="A437" s="90" t="s">
+        <v>862</v>
       </c>
       <c r="B437" s="114" t="s">
-        <v>1338</v>
+        <v>864</v>
       </c>
       <c r="C437" s="90" t="s">
-        <v>1279</v>
+        <v>1724</v>
       </c>
       <c r="D437" s="90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E437" s="91" t="s">
-        <v>1348</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="90" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B438" s="114" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C438" s="90" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D438" s="90">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="E438" s="91" t="s">
         <v>1602</v>
@@ -17729,19 +17737,19 @@
     </row>
     <row r="439" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="90" t="s">
-        <v>865</v>
+        <v>1443</v>
       </c>
       <c r="B439" s="114" t="s">
-        <v>866</v>
+        <v>1578</v>
       </c>
       <c r="C439" s="90" t="s">
-        <v>1725</v>
+        <v>1478</v>
       </c>
       <c r="D439" s="90">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="E439" s="91" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17755,7 +17763,7 @@
         <v>1478</v>
       </c>
       <c r="D440" s="90">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E440" s="91" t="s">
         <v>1600</v>
@@ -17763,33 +17771,33 @@
     </row>
     <row r="441" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="90" t="s">
-        <v>1443</v>
+        <v>1170</v>
       </c>
       <c r="B441" s="114" t="s">
-        <v>1578</v>
+        <v>1284</v>
       </c>
       <c r="C441" s="90" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="D441" s="90">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E441" s="91" t="s">
-        <v>1600</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="90" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B442" s="114" t="s">
-        <v>1284</v>
+        <v>1312</v>
       </c>
       <c r="C442" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D442" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E442" s="91" t="s">
         <v>1348</v>
@@ -17797,16 +17805,16 @@
     </row>
     <row r="443" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="90" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B443" s="114" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C443" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D443" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E443" s="91" t="s">
         <v>1348</v>
@@ -17814,16 +17822,16 @@
     </row>
     <row r="444" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="90" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B444" s="114" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C444" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D444" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E444" s="91" t="s">
         <v>1348</v>
@@ -17831,7 +17839,7 @@
     </row>
     <row r="445" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="90" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B445" s="114" t="s">
         <v>1314</v>
@@ -17848,7 +17856,7 @@
     </row>
     <row r="446" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="90" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B446" s="114" t="s">
         <v>1314</v>
@@ -17865,7 +17873,7 @@
     </row>
     <row r="447" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="90" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B447" s="114" t="s">
         <v>1314</v>
@@ -17882,10 +17890,10 @@
     </row>
     <row r="448" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="90" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B448" s="114" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C448" s="90" t="s">
         <v>1475</v>
@@ -17899,10 +17907,10 @@
     </row>
     <row r="449" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="90" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B449" s="114" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C449" s="90" t="s">
         <v>1475</v>
@@ -17916,7 +17924,7 @@
     </row>
     <row r="450" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="90" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B450" s="114" t="s">
         <v>1316</v>
@@ -17933,16 +17941,16 @@
     </row>
     <row r="451" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="90" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B451" s="114" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C451" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D451" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E451" s="91" t="s">
         <v>1348</v>
@@ -17950,16 +17958,16 @@
     </row>
     <row r="452" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="90" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B452" s="114" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C452" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D452" s="90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E452" s="91" t="s">
         <v>1348</v>
@@ -17967,16 +17975,16 @@
     </row>
     <row r="453" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="90" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B453" s="114" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C453" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D453" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E453" s="91" t="s">
         <v>1348</v>
@@ -17984,10 +17992,10 @@
     </row>
     <row r="454" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="90" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B454" s="114" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C454" s="90" t="s">
         <v>1475</v>
@@ -18001,10 +18009,10 @@
     </row>
     <row r="455" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="90" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B455" s="114" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C455" s="90" t="s">
         <v>1475</v>
@@ -18018,16 +18026,16 @@
     </row>
     <row r="456" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="90" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B456" s="114" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="C456" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D456" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E456" s="91" t="s">
         <v>1348</v>
@@ -18035,16 +18043,16 @@
     </row>
     <row r="457" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="90" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B457" s="114" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C457" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D457" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E457" s="91" t="s">
         <v>1348</v>
@@ -18052,10 +18060,10 @@
     </row>
     <row r="458" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="90" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B458" s="114" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C458" s="90" t="s">
         <v>1475</v>
@@ -18069,10 +18077,10 @@
     </row>
     <row r="459" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="90" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B459" s="114" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C459" s="90" t="s">
         <v>1475</v>
@@ -18086,16 +18094,16 @@
     </row>
     <row r="460" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="90" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B460" s="114" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="C460" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D460" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E460" s="91" t="s">
         <v>1348</v>
@@ -18103,10 +18111,10 @@
     </row>
     <row r="461" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="90" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B461" s="114" t="s">
-        <v>1318</v>
+        <v>1325</v>
       </c>
       <c r="C461" s="90" t="s">
         <v>1475</v>
@@ -18120,16 +18128,16 @@
     </row>
     <row r="462" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="90" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B462" s="114" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C462" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D462" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E462" s="91" t="s">
         <v>1348</v>
@@ -18137,16 +18145,16 @@
     </row>
     <row r="463" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="90" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B463" s="114" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C463" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D463" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E463" s="91" t="s">
         <v>1348</v>
@@ -18154,10 +18162,10 @@
     </row>
     <row r="464" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="90" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B464" s="114" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C464" s="90" t="s">
         <v>1475</v>
@@ -18171,10 +18179,10 @@
     </row>
     <row r="465" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="90" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B465" s="114" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C465" s="90" t="s">
         <v>1475</v>
@@ -18188,16 +18196,16 @@
     </row>
     <row r="466" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="90" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B466" s="114" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C466" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D466" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E466" s="91" t="s">
         <v>1348</v>
@@ -18205,10 +18213,10 @@
     </row>
     <row r="467" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="90" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B467" s="114" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C467" s="90" t="s">
         <v>1475</v>
@@ -18222,10 +18230,10 @@
     </row>
     <row r="468" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="90" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B468" s="114" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C468" s="90" t="s">
         <v>1475</v>
@@ -18239,16 +18247,16 @@
     </row>
     <row r="469" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="90" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B469" s="114" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C469" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D469" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E469" s="91" t="s">
         <v>1348</v>
@@ -18256,10 +18264,10 @@
     </row>
     <row r="470" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="90" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B470" s="114" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C470" s="90" t="s">
         <v>1475</v>
@@ -18273,16 +18281,16 @@
     </row>
     <row r="471" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="90" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B471" s="114" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C471" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D471" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E471" s="91" t="s">
         <v>1348</v>
@@ -18290,10 +18298,10 @@
     </row>
     <row r="472" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="90" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B472" s="114" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="C472" s="90" t="s">
         <v>1475</v>
@@ -18307,16 +18315,16 @@
     </row>
     <row r="473" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="90" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B473" s="114" t="s">
-        <v>1327</v>
+        <v>1336</v>
       </c>
       <c r="C473" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D473" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E473" s="91" t="s">
         <v>1348</v>
@@ -18324,16 +18332,16 @@
     </row>
     <row r="474" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="90" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B474" s="114" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C474" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D474" s="90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E474" s="91" t="s">
         <v>1348</v>
@@ -18341,16 +18349,16 @@
     </row>
     <row r="475" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="90" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B475" s="114" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C475" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D475" s="90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E475" s="91" t="s">
         <v>1348</v>
@@ -18358,16 +18366,16 @@
     </row>
     <row r="476" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="90" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B476" s="114" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C476" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D476" s="90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E476" s="91" t="s">
         <v>1348</v>
@@ -18375,10 +18383,10 @@
     </row>
     <row r="477" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="90" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B477" s="114" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C477" s="90" t="s">
         <v>1475</v>
@@ -18392,7 +18400,7 @@
     </row>
     <row r="478" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="90" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B478" s="114" t="s">
         <v>1340</v>
@@ -18409,7 +18417,7 @@
     </row>
     <row r="479" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="90" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B479" s="114" t="s">
         <v>1340</v>
@@ -18426,7 +18434,7 @@
     </row>
     <row r="480" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="90" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B480" s="114" t="s">
         <v>1340</v>
@@ -18443,33 +18451,33 @@
     </row>
     <row r="481" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="90" t="s">
-        <v>1209</v>
+        <v>1431</v>
       </c>
       <c r="B481" s="114" t="s">
-        <v>1340</v>
+        <v>1566</v>
       </c>
       <c r="C481" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D481" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E481" s="91" t="s">
-        <v>1348</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="90" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B482" s="114" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C482" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D482" s="90">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E482" s="91" t="s">
         <v>1600</v>
@@ -18477,135 +18485,135 @@
     </row>
     <row r="483" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="90" t="s">
-        <v>1432</v>
+        <v>1612</v>
       </c>
       <c r="B483" s="114" t="s">
-        <v>1567</v>
+        <v>753</v>
       </c>
       <c r="C483" s="90" t="s">
         <v>1475</v>
       </c>
       <c r="D483" s="90">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E483" s="91" t="s">
-        <v>1600</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="90" t="s">
-        <v>1612</v>
+        <v>1413</v>
       </c>
       <c r="B484" s="114" t="s">
-        <v>753</v>
+        <v>1548</v>
       </c>
       <c r="C484" s="90" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="D484" s="90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E484" s="91" t="s">
-        <v>1716</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="90" t="s">
-        <v>1413</v>
+        <v>1609</v>
       </c>
       <c r="B485" s="114" t="s">
-        <v>1548</v>
+        <v>388</v>
       </c>
       <c r="C485" s="90" t="s">
-        <v>1468</v>
+        <v>1706</v>
       </c>
       <c r="D485" s="90">
         <v>2</v>
       </c>
       <c r="E485" s="91" t="s">
-        <v>1600</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="90" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B486" s="114" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C486" s="90" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D486" s="90">
         <v>2</v>
       </c>
       <c r="E486" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="90" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B487" s="114" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C487" s="90" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D487" s="90">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E487" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="90" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="B488" s="114" t="s">
-        <v>379</v>
+        <v>1677</v>
       </c>
       <c r="C488" s="90" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D488" s="90">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E488" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="90" t="s">
-        <v>1608</v>
+        <v>1426</v>
       </c>
       <c r="B489" s="114" t="s">
-        <v>1678</v>
+        <v>1561</v>
       </c>
       <c r="C489" s="90" t="s">
-        <v>1706</v>
+        <v>1472</v>
       </c>
       <c r="D489" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E489" s="91" t="s">
-        <v>1716</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="90" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B490" s="114" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C490" s="90" t="s">
         <v>1472</v>
       </c>
       <c r="D490" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E490" s="91" t="s">
         <v>1600</v>
@@ -18613,10 +18621,10 @@
     </row>
     <row r="491" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="90" t="s">
-        <v>1427</v>
+        <v>1447</v>
       </c>
       <c r="B491" s="114" t="s">
-        <v>1562</v>
+        <v>1582</v>
       </c>
       <c r="C491" s="90" t="s">
         <v>1472</v>
@@ -18630,16 +18638,16 @@
     </row>
     <row r="492" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="90" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="B492" s="114" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="C492" s="90" t="s">
         <v>1472</v>
       </c>
       <c r="D492" s="90">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E492" s="91" t="s">
         <v>1600</v>
@@ -18647,16 +18655,16 @@
     </row>
     <row r="493" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="90" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="B493" s="114" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="C493" s="90" t="s">
         <v>1472</v>
       </c>
       <c r="D493" s="90">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E493" s="91" t="s">
         <v>1600</v>
@@ -18664,16 +18672,16 @@
     </row>
     <row r="494" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="90" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="B494" s="114" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="C494" s="90" t="s">
         <v>1472</v>
       </c>
       <c r="D494" s="90">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E494" s="91" t="s">
         <v>1600</v>
@@ -18681,33 +18689,33 @@
     </row>
     <row r="495" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="90" t="s">
-        <v>1460</v>
+        <v>1119</v>
       </c>
       <c r="B495" s="114" t="s">
-        <v>1595</v>
+        <v>1121</v>
       </c>
       <c r="C495" s="90" t="s">
-        <v>1472</v>
+        <v>1725</v>
       </c>
       <c r="D495" s="90">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E495" s="91" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="90" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B496" s="114" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C496" s="90" t="s">
-        <v>1726</v>
+        <v>1117</v>
       </c>
       <c r="D496" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E496" s="91" t="s">
         <v>1602</v>
@@ -18715,33 +18723,33 @@
     </row>
     <row r="497" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="90" t="s">
-        <v>1116</v>
+        <v>1428</v>
       </c>
       <c r="B497" s="114" t="s">
-        <v>1118</v>
+        <v>1563</v>
       </c>
       <c r="C497" s="90" t="s">
-        <v>1117</v>
+        <v>1473</v>
       </c>
       <c r="D497" s="90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E497" s="91" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="90" t="s">
-        <v>1428</v>
+        <v>1445</v>
       </c>
       <c r="B498" s="114" t="s">
-        <v>1563</v>
+        <v>1580</v>
       </c>
       <c r="C498" s="90" t="s">
         <v>1473</v>
       </c>
       <c r="D498" s="90">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E498" s="91" t="s">
         <v>1600</v>
@@ -18749,50 +18757,50 @@
     </row>
     <row r="499" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="90" t="s">
-        <v>1445</v>
+        <v>867</v>
       </c>
       <c r="B499" s="114" t="s">
-        <v>1580</v>
+        <v>869</v>
       </c>
       <c r="C499" s="90" t="s">
-        <v>1473</v>
+        <v>1603</v>
       </c>
       <c r="D499" s="90">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E499" s="91" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="90" t="s">
-        <v>867</v>
+        <v>1412</v>
       </c>
       <c r="B500" s="114" t="s">
-        <v>869</v>
+        <v>1547</v>
       </c>
       <c r="C500" s="90" t="s">
-        <v>1603</v>
+        <v>1467</v>
       </c>
       <c r="D500" s="90">
         <v>1</v>
       </c>
       <c r="E500" s="91" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="90" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B501" s="114" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="C501" s="90" t="s">
         <v>1467</v>
       </c>
       <c r="D501" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E501" s="91" t="s">
         <v>1600</v>
@@ -18800,58 +18808,58 @@
     </row>
     <row r="502" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="90" t="s">
-        <v>1414</v>
+        <v>1604</v>
       </c>
       <c r="B502" s="114" t="s">
-        <v>1549</v>
+        <v>379</v>
       </c>
       <c r="C502" s="90" t="s">
         <v>1467</v>
       </c>
       <c r="D502" s="90">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E502" s="91" t="s">
-        <v>1600</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="90" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B503" s="114" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C503" s="90" t="s">
         <v>1467</v>
       </c>
       <c r="D503" s="90">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E503" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="90" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B504" s="114" t="s">
-        <v>382</v>
+        <v>1675</v>
       </c>
       <c r="C504" s="90" t="s">
         <v>1467</v>
       </c>
       <c r="D504" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E504" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="90" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B505" s="114" t="s">
         <v>1676</v>
@@ -18860,41 +18868,41 @@
         <v>1467</v>
       </c>
       <c r="D505" s="90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E505" s="91" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="90" t="s">
-        <v>1607</v>
+        <v>1210</v>
       </c>
       <c r="B506" s="114" t="s">
-        <v>1677</v>
+        <v>1340</v>
       </c>
       <c r="C506" s="90" t="s">
-        <v>1467</v>
+        <v>1728</v>
       </c>
       <c r="D506" s="90">
         <v>1</v>
       </c>
       <c r="E506" s="91" t="s">
-        <v>1716</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="90" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="B507" s="114" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C507" s="90" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D507" s="90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E507" s="91" t="s">
         <v>1348</v>
@@ -18902,16 +18910,16 @@
     </row>
     <row r="508" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="90" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B508" s="114" t="s">
         <v>1341</v>
       </c>
       <c r="C508" s="90" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D508" s="90">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E508" s="91" t="s">
         <v>1348</v>
@@ -18919,16 +18927,16 @@
     </row>
     <row r="509" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="90" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B509" s="114" t="s">
         <v>1341</v>
       </c>
       <c r="C509" s="90" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D509" s="90">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E509" s="91" t="s">
         <v>1348</v>
@@ -18936,16 +18944,16 @@
     </row>
     <row r="510" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="90" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B510" s="114" t="s">
         <v>1341</v>
       </c>
       <c r="C510" s="90" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D510" s="90">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E510" s="91" t="s">
         <v>1348</v>
@@ -18953,27 +18961,27 @@
     </row>
     <row r="511" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="90" t="s">
-        <v>1221</v>
+        <v>1461</v>
       </c>
       <c r="B511" s="114" t="s">
-        <v>1341</v>
+        <v>1596</v>
       </c>
       <c r="C511" s="90" t="s">
-        <v>1729</v>
+        <v>1482</v>
       </c>
       <c r="D511" s="90">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E511" s="91" t="s">
-        <v>1348</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="90" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B512" s="114" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C512" s="90" t="s">
         <v>1482</v>
@@ -18987,10 +18995,10 @@
     </row>
     <row r="513" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="90" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B513" s="114" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C513" s="90" t="s">
         <v>1482</v>
@@ -19004,10 +19012,10 @@
     </row>
     <row r="514" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="90" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B514" s="114" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C514" s="90" t="s">
         <v>1482</v>
@@ -19019,21 +19027,21 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="90" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B515" s="114" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C515" s="90" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D515" s="90">
+    <row r="515" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B515" s="116" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D515" s="1">
         <v>2</v>
       </c>
-      <c r="E515" s="91" t="s">
-        <v>1600</v>
+      <c r="E515" s="1" t="s">
+        <v>1780</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19044,13 +19052,13 @@
         <v>1757</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1466</v>
+        <v>817</v>
       </c>
       <c r="D516" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19061,13 +19069,13 @@
         <v>1758</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>817</v>
+        <v>1467</v>
       </c>
       <c r="D517" s="1">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="518" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19078,13 +19086,13 @@
         <v>1759</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1467</v>
+        <v>1752</v>
       </c>
       <c r="D518" s="1">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19098,10 +19106,10 @@
         <v>1753</v>
       </c>
       <c r="D519" s="1">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="520" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19112,13 +19120,13 @@
         <v>1761</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1754</v>
+        <v>1466</v>
       </c>
       <c r="D520" s="1">
         <v>1</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19129,13 +19137,13 @@
         <v>1762</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1466</v>
+        <v>1753</v>
       </c>
       <c r="D521" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19146,13 +19154,13 @@
         <v>1763</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D522" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19163,13 +19171,13 @@
         <v>1764</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D523" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19180,13 +19188,13 @@
         <v>1765</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1754</v>
+        <v>1717</v>
       </c>
       <c r="D524" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19197,13 +19205,13 @@
         <v>1766</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1718</v>
+        <v>817</v>
       </c>
       <c r="D525" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19217,10 +19225,10 @@
         <v>817</v>
       </c>
       <c r="D526" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19234,10 +19242,10 @@
         <v>817</v>
       </c>
       <c r="D527" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19254,7 +19262,7 @@
         <v>1</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19271,41 +19279,41 @@
         <v>1</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="1" t="s">
-        <v>1744</v>
+      <c r="A530" s="1">
+        <v>204347</v>
       </c>
       <c r="B530" s="116" t="s">
         <v>1771</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>817</v>
+        <v>1754</v>
       </c>
       <c r="D530" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="1">
-        <v>204347</v>
+      <c r="A531" s="1" t="s">
+        <v>1744</v>
       </c>
       <c r="B531" s="116" t="s">
         <v>1772</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1755</v>
+        <v>1474</v>
       </c>
       <c r="D531" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19316,47 +19324,47 @@
         <v>1773</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="D532" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
-        <v>1746</v>
+        <v>1734</v>
       </c>
       <c r="B533" s="116" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>1466</v>
       </c>
       <c r="D533" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="534" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>1735</v>
+        <v>1746</v>
       </c>
       <c r="B534" s="116" t="s">
-        <v>1762</v>
+        <v>1774</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D534" s="1">
         <v>1</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19373,7 +19381,7 @@
         <v>1</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19384,13 +19392,13 @@
         <v>1776</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1467</v>
+        <v>1753</v>
       </c>
       <c r="D536" s="1">
         <v>1</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="537" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19401,13 +19409,13 @@
         <v>1777</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D537" s="1">
         <v>1</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19418,13 +19426,13 @@
         <v>1778</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D538" s="1">
         <v>1</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19435,30 +19443,30 @@
         <v>1779</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D539" s="1">
         <v>1</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="540" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>1752</v>
+        <v>1789</v>
       </c>
       <c r="B540" s="116" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1756</v>
+        <v>822</v>
       </c>
       <c r="D540" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19469,13 +19477,13 @@
         <v>1783</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>822</v>
+        <v>1709</v>
       </c>
       <c r="D541" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19486,98 +19494,98 @@
         <v>1784</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1710</v>
+        <v>806</v>
       </c>
       <c r="D542" s="1">
         <v>1</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="B543" s="116" t="s">
         <v>1785</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>806</v>
+        <v>1781</v>
       </c>
       <c r="D543" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="B544" s="116" t="s">
         <v>1786</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D544" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B545" s="116" t="s">
         <v>1787</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1782</v>
+        <v>838</v>
       </c>
       <c r="D545" s="1">
         <v>1</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B546" s="116" t="s">
         <v>1795</v>
       </c>
-      <c r="B546" s="116" t="s">
+      <c r="C546" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D546" s="1">
+        <v>4</v>
+      </c>
+      <c r="E546" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C546" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D546" s="1">
-        <v>1</v>
-      </c>
-      <c r="E546" s="1" t="s">
-        <v>1789</v>
-      </c>
     </row>
     <row r="547" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B547" s="116" t="s">
-        <v>1796</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D547" s="1">
-        <v>4</v>
-      </c>
-      <c r="E547" s="1" t="s">
-        <v>1789</v>
+      <c r="A547" s="117" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B547" s="118" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C547" s="117" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D547" s="117">
+        <v>1</v>
+      </c>
+      <c r="E547" s="119" t="s">
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
@@ -19591,11 +19599,12 @@
     <hyperlink ref="E274" r:id="rId7" xr:uid="{BFFE00CF-8E00-4B63-BCE1-D22836F7BE26}"/>
     <hyperlink ref="E62" r:id="rId8" xr:uid="{6C2B443F-1099-4969-A9B4-85FBE5ECF78D}"/>
     <hyperlink ref="E9:E152" r:id="rId9" display="comercial3@anyx.com.ar" xr:uid="{7A1568F2-22EF-41F5-84A0-79153E7AEF35}"/>
+    <hyperlink ref="E547" r:id="rId10" xr:uid="{8C1D3629-8194-4123-BE04-A634A0154AB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5B65E8-0938-4C9D-9CC2-8B88D7F47EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F84BB0-2C7F-4ECE-8B16-5913959918BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
@@ -9114,7 +9114,7 @@
     <t>JCNW5</t>
   </si>
   <si>
-    <t xml:space="preserve">Notebook Precision 7780 - i9-13950HX - 64 GB DDR5-5600 - SSD-1 TB NVMe - RTX4000 12GB DDR6 - 17.3” </t>
+    <t>Precision 7780 i9-13950HX 64GB DDR5-5600 SSD 1TB NVMe RTX4000 12GB DDR6 17.3”</t>
   </si>
 </sst>
 </file>
@@ -9497,7 +9497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9817,10 +9817,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -10280,13 +10276,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
   <dimension ref="A1:E547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="A368" sqref="A368"/>
+    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
+      <selection activeCell="B548" sqref="B548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="106.85546875" customWidth="1"/>
+    <col min="3" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19572,19 +19570,19 @@
       </c>
     </row>
     <row r="547" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="117" t="s">
+      <c r="A547" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="B547" s="118" t="s">
+      <c r="B547" s="116" t="s">
         <v>1798</v>
       </c>
-      <c r="C547" s="117" t="s">
+      <c r="C547" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="D547" s="117">
-        <v>1</v>
-      </c>
-      <c r="E547" s="119" t="s">
+      <c r="D547" s="1">
+        <v>1</v>
+      </c>
+      <c r="E547" s="117" t="s">
         <v>1715</v>
       </c>
     </row>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F84BB0-2C7F-4ECE-8B16-5913959918BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064D8B5-245F-46B8-B30E-153CEA1FC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="1911">
   <si>
     <t>producto</t>
   </si>
@@ -9115,6 +9115,342 @@
   </si>
   <si>
     <t>Precision 7780 i9-13950HX 64GB DDR5-5600 SSD 1TB NVMe RTX4000 12GB DDR6 17.3”</t>
+  </si>
+  <si>
+    <t>KBG40ZNV256G</t>
+  </si>
+  <si>
+    <t>WD10EZEX</t>
+  </si>
+  <si>
+    <t>SHD1B83703</t>
+  </si>
+  <si>
+    <t>ST1000LM035</t>
+  </si>
+  <si>
+    <t>HDKJB01H0A01</t>
+  </si>
+  <si>
+    <t>GENÉRICO</t>
+  </si>
+  <si>
+    <t>0GNT1W</t>
+  </si>
+  <si>
+    <t>DX-120</t>
+  </si>
+  <si>
+    <t>S01CA1014733032921</t>
+  </si>
+  <si>
+    <t>0KFV6T</t>
+  </si>
+  <si>
+    <t>PSD48G320081</t>
+  </si>
+  <si>
+    <t>SNA-BR2/35</t>
+  </si>
+  <si>
+    <t>NS-GASA35</t>
+  </si>
+  <si>
+    <t>NS-COUSSE2</t>
+  </si>
+  <si>
+    <t>LOCOM2</t>
+  </si>
+  <si>
+    <t>TL-POE200</t>
+  </si>
+  <si>
+    <t>CMW8GX4M1E3200C16</t>
+  </si>
+  <si>
+    <t>2-231652-1/REV.AK</t>
+  </si>
+  <si>
+    <t>AIR-ANT2524DW-R=</t>
+  </si>
+  <si>
+    <t>NS-MIDPHDBL</t>
+  </si>
+  <si>
+    <t>NS-HE60</t>
+  </si>
+  <si>
+    <t>NS-CAEXUS20</t>
+  </si>
+  <si>
+    <t>NS-CAHDMINI</t>
+  </si>
+  <si>
+    <t>CE310AL</t>
+  </si>
+  <si>
+    <t>CE312AL</t>
+  </si>
+  <si>
+    <t>CE313AL</t>
+  </si>
+  <si>
+    <t>20WNS2QE00</t>
+  </si>
+  <si>
+    <t>6C5Z0LT</t>
+  </si>
+  <si>
+    <t>6C5Y1LT</t>
+  </si>
+  <si>
+    <t>KIOXIA</t>
+  </si>
+  <si>
+    <t>SK HYNIX</t>
+  </si>
+  <si>
+    <t>PATRIOT</t>
+  </si>
+  <si>
+    <t>TP-LINK</t>
+  </si>
+  <si>
+    <t>CORSAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KBG40ZNV256G SSD NVME M.2 256GB // HP P/N L57447-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO SATA 2.5" 1TB </t>
+  </si>
+  <si>
+    <t>DISCO SATA 3.5" BLUE 1TB</t>
+  </si>
+  <si>
+    <t>DISCO SATA 1TB</t>
+  </si>
+  <si>
+    <t>SEAGATE MOBILE HDD 1TB   863127-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO HDD 1TB </t>
+  </si>
+  <si>
+    <t>DISCO SSD M.2 256GB PCLE GEN 4X4 NVME</t>
+  </si>
+  <si>
+    <t>DISCO M.2 256GB (EX OPTIPLEX 5000 SFF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO SSD NVME M.2 256GB </t>
+  </si>
+  <si>
+    <t>GENIUS MOUSE USB CELESTE</t>
+  </si>
+  <si>
+    <t>SAMSUNG MEMORIA 8GB 3200MHz</t>
+  </si>
+  <si>
+    <t>SSD BC711 NMVE 256GB</t>
+  </si>
+  <si>
+    <t>DISCO  Pcle GEN 3X4 SSD M.2 256GB 2280</t>
+  </si>
+  <si>
+    <t>MEMORIA DDR4 8GB 3200MHz</t>
+  </si>
+  <si>
+    <t>SSD NOW HARD DRIVE BRACKET PARA PC 3500097-001.A00LF CON TORNILLOS</t>
+  </si>
+  <si>
+    <t>3.5" USB 3.0 TO SATA HDD ENCLOSURE CAPACITY 6TB</t>
+  </si>
+  <si>
+    <t>USB TO SERIAL CONVERTER 1 PORT</t>
+  </si>
+  <si>
+    <t>NANO STATION LOCO M2 INDOOR/OUTDOOR 2.4GHz 8dBi airMAX CPE</t>
+  </si>
+  <si>
+    <t>ADAPTER KIT POWER OVER ETHERNET 10/100Mbps</t>
+  </si>
+  <si>
+    <t>MEMORIA GAMER VENGEANCE RGB PRO DDR4 8GB 3200MHz</t>
+  </si>
+  <si>
+    <t>JACKNACK TELECOMMUNICATIONS CABLE PREPARATION TOOL 2119000-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPOLE ANTENNA WHITE RP-TNC 2.4GHz </t>
+  </si>
+  <si>
+    <t>COVNERSOR DE VIDEO MINI DISPLAY - HDMI</t>
+  </si>
+  <si>
+    <t>HDMI CAT5 EXTENDER 60M FULL HD1080 SOPORTA 3D</t>
+  </si>
+  <si>
+    <t>ALARGUE USB AMPLIADO 20M</t>
+  </si>
+  <si>
+    <t>CABLE HDMI A MINI HDMI 1,5M</t>
+  </si>
+  <si>
+    <t>TONER 126A NEGRO</t>
+  </si>
+  <si>
+    <t>TONER 126A AMARILLO</t>
+  </si>
+  <si>
+    <t>TONER 126A MAGENTA</t>
+  </si>
+  <si>
+    <t>LENOVO THINKPAD T14s GEN2 Notebook Lenovo T14S Intel® Core™ i7-1165G7, 16GB, 512GB M.2, 14″ FHD, Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>HP ELITEBOOK 840 G8</t>
+  </si>
+  <si>
+    <t>HP ELITEBOOK 1040 G9</t>
+  </si>
+  <si>
+    <t>HP PROBOOK 450 G9</t>
+  </si>
+  <si>
+    <t>hsalvo@pchard.com.ar</t>
+  </si>
+  <si>
+    <t>981-000570</t>
+  </si>
+  <si>
+    <t>981-000518</t>
+  </si>
+  <si>
+    <t>KC-DAA-500</t>
+  </si>
+  <si>
+    <t>DS-2CE56C0T-IPF</t>
+  </si>
+  <si>
+    <t>DS-2CE56D0T-IF</t>
+  </si>
+  <si>
+    <t>DS-2CE16C0T-IPF</t>
+  </si>
+  <si>
+    <t>DS-2CD2121G0-I</t>
+  </si>
+  <si>
+    <t>INKCARTHP711XLM</t>
+  </si>
+  <si>
+    <t>INKCARTHP711XLY</t>
+  </si>
+  <si>
+    <t>ZM826-04495-A</t>
+  </si>
+  <si>
+    <t>i940</t>
+  </si>
+  <si>
+    <t>ZB-354BA</t>
+  </si>
+  <si>
+    <t>FQC-06998</t>
+  </si>
+  <si>
+    <t>NSCAHDMINI</t>
+  </si>
+  <si>
+    <t>8121-0868</t>
+  </si>
+  <si>
+    <t>HKED4042BBA1D0ZA1</t>
+  </si>
+  <si>
+    <t>UNEX-H357</t>
+  </si>
+  <si>
+    <t>ZA8N0032AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headset Logitech H570 monoaural </t>
+  </si>
+  <si>
+    <t>Headset Logitech H650E estéreo</t>
+  </si>
+  <si>
+    <t>Fuente Cromax 500W, 8cm de FAN, 20 + 4P, HDD x2, SATA x2, P4 x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini teclado Genius Luxmate 100 USB </t>
+  </si>
+  <si>
+    <t>Cámara Hikvision color, indoor / outdoor, IR turret camara, 720P, 2.8mm, IR distance 20m.</t>
+  </si>
+  <si>
+    <t>Cámara Hikvision color, indoor / outdoor, IR turret camara, 1080P, 2.8mm, IR distance 20m.</t>
+  </si>
+  <si>
+    <t>Cámara Hikvision color, indoor / outdoor, IR bullet camera, 720P, 2.8mm, IR distance 20 m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cámara Hivision Network, mini domo, 2mpx, 2.8mm, IR distance 20m, a prueba de agua </t>
+  </si>
+  <si>
+    <t>Cartucho alternativo compatible con HP 711XL magenta</t>
+  </si>
+  <si>
+    <t>Cartucho alternativo compatible con HP 711XL amarillo</t>
+  </si>
+  <si>
+    <t>Cartucho alternativo compatible con HP 711XL cian</t>
+  </si>
+  <si>
+    <t>Cargador compatible con iPhone 14 pro max 20W, USB-C</t>
+  </si>
+  <si>
+    <t>Escáner Kodak i940, portátil, smart touch</t>
+  </si>
+  <si>
+    <t>Mochilas para notebook 15,6", lino y poliester, a prueba de agua (ZB-354BA)</t>
+  </si>
+  <si>
+    <t>Windows Pro 8.1 OEM español 1pk</t>
+  </si>
+  <si>
+    <t>Cable Nisuta HDMI a mini HDMI 1.5 m 1.4V 4K</t>
+  </si>
+  <si>
+    <t>Cable USB Impresora</t>
+  </si>
+  <si>
+    <t>Memoria Hikvision sodimm neo DDR4 4GB 2666 MHz</t>
+  </si>
+  <si>
+    <t>Wireless 11N USB adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tablet Lenovo K10 10.3 Wifi 4gb 64gb </t>
+  </si>
+  <si>
+    <t>cgiagnacovo@netit.com.ar</t>
+  </si>
+  <si>
+    <t>CROMAX</t>
+  </si>
+  <si>
+    <t>ALTERNATIVO</t>
+  </si>
+  <si>
+    <t>KODAK</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>ZOM</t>
   </si>
 </sst>
 </file>
@@ -9497,7 +9833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9820,6 +10156,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -9941,8 +10281,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E547" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E547" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E600" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E600" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E514">
     <sortCondition ref="C1:C514"/>
   </sortState>
@@ -10274,10 +10614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
-  <dimension ref="A1:E547"/>
+  <dimension ref="A1:E600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
-      <selection activeCell="B548" sqref="B548"/>
+    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
+      <selection activeCell="C601" sqref="C601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19584,6 +19924,907 @@
       </c>
       <c r="E547" s="117" t="s">
         <v>1715</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="118" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B548" s="119" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C548" s="118" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D548" s="118">
+        <v>128</v>
+      </c>
+      <c r="E548" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="118" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B549" s="119" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C549" s="118" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D549" s="118">
+        <v>4</v>
+      </c>
+      <c r="E549" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="118" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B550" s="119" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C550" s="118" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D550" s="118">
+        <v>35</v>
+      </c>
+      <c r="E550" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="118" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B551" s="119" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C551" s="118" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D551" s="118">
+        <v>3</v>
+      </c>
+      <c r="E551" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="118" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B552" s="119" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C552" s="118" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D552" s="118">
+        <v>43</v>
+      </c>
+      <c r="E552" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="118" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B553" s="119" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C553" s="118" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D553" s="118">
+        <v>15</v>
+      </c>
+      <c r="E553" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="118" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B554" s="119" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C554" s="118" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D554" s="118">
+        <v>30</v>
+      </c>
+      <c r="E554" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="118" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B555" s="119" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C555" s="118" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D555" s="118">
+        <v>3</v>
+      </c>
+      <c r="E555" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="118" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B556" s="119" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C556" s="118" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D556" s="118">
+        <v>137</v>
+      </c>
+      <c r="E556" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="118" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B557" s="119" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C557" s="118" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D557" s="118">
+        <v>1</v>
+      </c>
+      <c r="E557" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="118" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B558" s="119" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C558" s="118" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D558" s="118">
+        <v>3</v>
+      </c>
+      <c r="E558" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="118" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B559" s="119" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C559" s="118" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D559" s="118">
+        <v>1</v>
+      </c>
+      <c r="E559" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="118" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B560" s="119" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C560" s="118" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D560" s="118">
+        <v>1</v>
+      </c>
+      <c r="E560" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="118" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B561" s="119" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C561" s="118" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D561" s="118">
+        <v>1</v>
+      </c>
+      <c r="E561" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="118" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B562" s="119" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C562" s="118" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D562" s="118">
+        <v>8</v>
+      </c>
+      <c r="E562" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="118" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B563" s="119" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C563" s="118" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D563" s="118">
+        <v>4</v>
+      </c>
+      <c r="E563" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="118" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B564" s="119" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C564" s="118" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D564" s="118">
+        <v>10</v>
+      </c>
+      <c r="E564" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="118" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B565" s="119" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C565" s="118" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D565" s="118">
+        <v>6</v>
+      </c>
+      <c r="E565" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="118" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B566" s="119" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C566" s="118" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D566" s="118">
+        <v>3</v>
+      </c>
+      <c r="E566" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="118" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B567" s="119" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C567" s="118" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D567" s="118">
+        <v>3</v>
+      </c>
+      <c r="E567" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="118" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B568" s="119" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C568" s="118" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D568" s="118">
+        <v>3</v>
+      </c>
+      <c r="E568" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="118" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B569" s="119" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C569" s="118" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D569" s="118">
+        <v>16</v>
+      </c>
+      <c r="E569" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="118" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B570" s="119" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C570" s="118" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D570" s="118">
+        <v>14</v>
+      </c>
+      <c r="E570" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="118" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B571" s="119" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C571" s="118" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D571" s="118">
+        <v>4</v>
+      </c>
+      <c r="E571" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="118" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B572" s="119" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C572" s="118" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D572" s="118">
+        <v>1</v>
+      </c>
+      <c r="E572" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="118" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B573" s="119" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C573" s="118" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D573" s="118">
+        <v>1</v>
+      </c>
+      <c r="E573" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="118" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B574" s="119" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C574" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="D574" s="118">
+        <v>2</v>
+      </c>
+      <c r="E574" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="118" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B575" s="119" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C575" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="D575" s="118">
+        <v>2</v>
+      </c>
+      <c r="E575" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="118" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B576" s="119" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C576" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="D576" s="118">
+        <v>2</v>
+      </c>
+      <c r="E576" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="118" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B577" s="119" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C577" s="118" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D577" s="118">
+        <v>1</v>
+      </c>
+      <c r="E577" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="118" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B578" s="119" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C578" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="D578" s="118">
+        <v>1</v>
+      </c>
+      <c r="E578" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="118" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B579" s="119" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C579" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="D579" s="118">
+        <v>5</v>
+      </c>
+      <c r="E579" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="118" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B580" s="119" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C580" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="D580" s="118">
+        <v>9</v>
+      </c>
+      <c r="E580" s="118" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="118" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B581" s="119" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C581" s="118" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D581" s="118">
+        <v>4</v>
+      </c>
+      <c r="E581" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="118" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B582" s="119" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C582" s="118" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D582" s="118">
+        <v>3</v>
+      </c>
+      <c r="E582" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="118" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B583" s="119" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C583" s="118" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D583" s="118">
+        <v>3</v>
+      </c>
+      <c r="E583" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="118">
+        <v>31300725101</v>
+      </c>
+      <c r="B584" s="119" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C584" s="118" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D584" s="118">
+        <v>3</v>
+      </c>
+      <c r="E584" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="118" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B585" s="119" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C585" s="118" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D585" s="118">
+        <v>4</v>
+      </c>
+      <c r="E585" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="118" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B586" s="119" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C586" s="118" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D586" s="118">
+        <v>3</v>
+      </c>
+      <c r="E586" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="118" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B587" s="119" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C587" s="118" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D587" s="118">
+        <v>3</v>
+      </c>
+      <c r="E587" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="118" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B588" s="119" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C588" s="118" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D588" s="118">
+        <v>1</v>
+      </c>
+      <c r="E588" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="118" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B589" s="119" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C589" s="118" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D589" s="118">
+        <v>3</v>
+      </c>
+      <c r="E589" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="118" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B590" s="119" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C590" s="118" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D590" s="118">
+        <v>2</v>
+      </c>
+      <c r="E590" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="118" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B591" s="119" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C591" s="118" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D591" s="118">
+        <v>1</v>
+      </c>
+      <c r="E591" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="118" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B592" s="119" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C592" s="118" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D592" s="118">
+        <v>3</v>
+      </c>
+      <c r="E592" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="118" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B593" s="119" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C593" s="118" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D593" s="118">
+        <v>1</v>
+      </c>
+      <c r="E593" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="118" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B594" s="119" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C594" s="118" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D594" s="118">
+        <v>1</v>
+      </c>
+      <c r="E594" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="118" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B595" s="119" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C595" s="118" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D595" s="118">
+        <v>1</v>
+      </c>
+      <c r="E595" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="118" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B596" s="119" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C596" s="118" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D596" s="118">
+        <v>2</v>
+      </c>
+      <c r="E596" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="118" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B597" s="119" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C597" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="D597" s="118">
+        <v>1</v>
+      </c>
+      <c r="E597" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="118" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B598" s="119" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C598" s="118" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D598" s="118">
+        <v>10</v>
+      </c>
+      <c r="E598" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="118" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B599" s="119" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C599" s="118" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D599" s="118">
+        <v>1</v>
+      </c>
+      <c r="E599" s="118" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="118" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B600" s="119" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C600" s="118" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D600" s="118">
+        <v>1</v>
+      </c>
+      <c r="E600" s="118" t="s">
+        <v>1905</v>
       </c>
     </row>
   </sheetData>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064D8B5-245F-46B8-B30E-153CEA1FC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528776F3-C743-4141-93E1-242BFCFB886D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
+    <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="1911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="1968">
   <si>
     <t>producto</t>
   </si>
@@ -9447,10 +9447,181 @@
     <t>KODAK</t>
   </si>
   <si>
-    <t>WIFI</t>
-  </si>
-  <si>
     <t>ZOM</t>
+  </si>
+  <si>
+    <t>EPOS ADAPT 660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPOS  </t>
+  </si>
+  <si>
+    <t>EPOS IMPACT 1060 ANC Binaural Bluetooth Headset</t>
+  </si>
+  <si>
+    <t>EPOS EXPAND 40T</t>
+  </si>
+  <si>
+    <t>EPOS Adapt 560 II Headset</t>
+  </si>
+  <si>
+    <t>EPOS ADAPT 563</t>
+  </si>
+  <si>
+    <t>EPOS ADAPT 360</t>
+  </si>
+  <si>
+    <t>EPOS ADAPT 361</t>
+  </si>
+  <si>
+    <t>EPOS 30T BT Speakerphone - Ms Teams</t>
+  </si>
+  <si>
+    <t>EPOS ADAPT 461T</t>
+  </si>
+  <si>
+    <t>BlueParrott C300-XT MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JABRA </t>
+  </si>
+  <si>
+    <t> BlueParrott B450-XT MS</t>
+  </si>
+  <si>
+    <t>1159-0159</t>
+  </si>
+  <si>
+    <t>Jabra BIZ 1100 Duo USB</t>
+  </si>
+  <si>
+    <t>930-69-503-105</t>
+  </si>
+  <si>
+    <t>JABRA PRO 930 DUO MS</t>
+  </si>
+  <si>
+    <t>HD-G218</t>
+  </si>
+  <si>
+    <t>GEN2 USB-C HUB HYPER DRIVE 18-IN-1</t>
+  </si>
+  <si>
+    <t>AWU100005GL</t>
+  </si>
+  <si>
+    <t>Portable Laptop Stand + Integrated Dock with 100W PD Pass-Thru</t>
+  </si>
+  <si>
+    <t>AEH102TT</t>
+  </si>
+  <si>
+    <t>TARGUS WIRED STEREO HEADSET AEH102TT</t>
+  </si>
+  <si>
+    <t>AKF003US</t>
+  </si>
+  <si>
+    <t>FOLDABLE ERGONOMIC KEYBOARD</t>
+  </si>
+  <si>
+    <t>ASP96RGLX</t>
+  </si>
+  <si>
+    <t>TARGUS DEFCON Ultimate UniversalResettable Combination Lock,Bulk</t>
+  </si>
+  <si>
+    <t>TSB89104</t>
+  </si>
+  <si>
+    <t>Targus Sport Backpack, Portátil Hasta 15.6''</t>
+  </si>
+  <si>
+    <t>AWE810GL</t>
+  </si>
+  <si>
+    <t>Portable Ergonomic Laptop/Tablet Stand</t>
+  </si>
+  <si>
+    <t>AKM615ESLA</t>
+  </si>
+  <si>
+    <t>Wireles keyboard and Mouse Combo, SpanishTARGUS</t>
+  </si>
+  <si>
+    <t>G Pro</t>
+  </si>
+  <si>
+    <t>Logitech Pro Teclado Gamer Edición Especial League Of Legend</t>
+  </si>
+  <si>
+    <t>KBG5AZNV356G</t>
+  </si>
+  <si>
+    <t>Unidad De Estado Sólido Interna Toshiba 256 Gb Kxg5aznv256g</t>
+  </si>
+  <si>
+    <t>1427071-4</t>
+  </si>
+  <si>
+    <t>Cable De Red Utp Cat 6 Commscope 305m Bobina</t>
+  </si>
+  <si>
+    <t>MZAL4512HBLU</t>
+  </si>
+  <si>
+    <t>Samsung Pm9b1 Mzal4512hblu 512gb Ssd M.2 2242.</t>
+  </si>
+  <si>
+    <t>KF548S38IB-16</t>
+  </si>
+  <si>
+    <t>Kingston Fury Impact 16gb Ddr5 Sodimm Negro</t>
+  </si>
+  <si>
+    <t>AC Pro AP</t>
+  </si>
+  <si>
+    <t>UAP-AC-PRO</t>
+  </si>
+  <si>
+    <t>DHUZ3</t>
+  </si>
+  <si>
+    <t>WEBCAM DAHUA Z3</t>
+  </si>
+  <si>
+    <t>981-001214</t>
+  </si>
+  <si>
+    <t>Zone Vibe 100 wireless headphones-GRAPHITE</t>
+  </si>
+  <si>
+    <t>DOCK190USZ-91</t>
+  </si>
+  <si>
+    <t>DOCKING STATION W/100W POWER USB-C UNIVERSAL DUAL VICDEO 4K</t>
+  </si>
+  <si>
+    <t>USB-C DP Alt Mode Single Video 4K HDMI/VGA Docking Station with 100W PD Pass-T</t>
+  </si>
+  <si>
+    <t>DOCK116GLZ</t>
+  </si>
+  <si>
+    <t>USB-C® Universal Dual HD Docking Station with 80W PD Pass-Thru</t>
+  </si>
+  <si>
+    <t>DOCK182USZ</t>
+  </si>
+  <si>
+    <t>Docking Station DV4K universal USB-C con Power Delivery de 100 W</t>
+  </si>
+  <si>
+    <t>Dell Latitude 15 5530 NB SPA Ci5-1235U 8GB 256GB SSD 15,6"FHD Win 10</t>
+  </si>
+  <si>
+    <t>DELL  </t>
   </si>
 </sst>
 </file>
@@ -10281,8 +10452,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E600" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E600" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E634" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E634" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E514">
     <sortCondition ref="C1:C514"/>
   </sortState>
@@ -10614,10 +10785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
-  <dimension ref="A1:E600"/>
+  <dimension ref="A1:E634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
-      <selection activeCell="C601" sqref="C601"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="D611" sqref="D611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19927,904 +20098,1482 @@
       </c>
     </row>
     <row r="548" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="118" t="s">
+      <c r="A548" s="1" t="s">
         <v>1799</v>
       </c>
-      <c r="B548" s="119" t="s">
+      <c r="B548" s="116" t="s">
         <v>1833</v>
       </c>
-      <c r="C548" s="118" t="s">
+      <c r="C548" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="D548" s="118">
+      <c r="D548" s="1">
         <v>128</v>
       </c>
-      <c r="E548" s="118" t="s">
+      <c r="E548" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A549" s="118" t="s">
+      <c r="A549" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="B549" s="119" t="s">
+      <c r="B549" s="116" t="s">
         <v>1834</v>
       </c>
-      <c r="C549" s="118" t="s">
+      <c r="C549" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="D549" s="118">
+      <c r="D549" s="1">
         <v>4</v>
       </c>
-      <c r="E549" s="118" t="s">
+      <c r="E549" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="118" t="s">
+      <c r="A550" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="B550" s="119" t="s">
+      <c r="B550" s="116" t="s">
         <v>1835</v>
       </c>
-      <c r="C550" s="118" t="s">
+      <c r="C550" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="D550" s="118">
+      <c r="D550" s="1">
         <v>35</v>
       </c>
-      <c r="E550" s="118" t="s">
+      <c r="E550" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A551" s="118" t="s">
+      <c r="A551" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="B551" s="119" t="s">
+      <c r="B551" s="116" t="s">
         <v>1836</v>
       </c>
-      <c r="C551" s="118" t="s">
+      <c r="C551" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="D551" s="118">
+      <c r="D551" s="1">
         <v>3</v>
       </c>
-      <c r="E551" s="118" t="s">
+      <c r="E551" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A552" s="118" t="s">
+      <c r="A552" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="B552" s="119" t="s">
+      <c r="B552" s="116" t="s">
         <v>1837</v>
       </c>
-      <c r="C552" s="118" t="s">
+      <c r="C552" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="D552" s="118">
+      <c r="D552" s="1">
         <v>43</v>
       </c>
-      <c r="E552" s="118" t="s">
+      <c r="E552" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A553" s="118" t="s">
+      <c r="A553" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="B553" s="119" t="s">
+      <c r="B553" s="116" t="s">
         <v>1838</v>
       </c>
-      <c r="C553" s="118" t="s">
+      <c r="C553" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="D553" s="118">
+      <c r="D553" s="1">
         <v>15</v>
       </c>
-      <c r="E553" s="118" t="s">
+      <c r="E553" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A554" s="118" t="s">
+      <c r="A554" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="B554" s="119" t="s">
+      <c r="B554" s="116" t="s">
         <v>1839</v>
       </c>
-      <c r="C554" s="118" t="s">
+      <c r="C554" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="D554" s="118">
+      <c r="D554" s="1">
         <v>30</v>
       </c>
-      <c r="E554" s="118" t="s">
+      <c r="E554" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="555" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A555" s="118" t="s">
+      <c r="A555" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="B555" s="119" t="s">
+      <c r="B555" s="116" t="s">
         <v>1840</v>
       </c>
-      <c r="C555" s="118" t="s">
+      <c r="C555" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="D555" s="118">
+      <c r="D555" s="1">
         <v>3</v>
       </c>
-      <c r="E555" s="118" t="s">
+      <c r="E555" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="118" t="s">
+      <c r="A556" s="1" t="s">
         <v>1799</v>
       </c>
-      <c r="B556" s="119" t="s">
+      <c r="B556" s="116" t="s">
         <v>1841</v>
       </c>
-      <c r="C556" s="118" t="s">
+      <c r="C556" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="D556" s="118">
+      <c r="D556" s="1">
         <v>137</v>
       </c>
-      <c r="E556" s="118" t="s">
+      <c r="E556" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A557" s="118" t="s">
+      <c r="A557" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="B557" s="119" t="s">
+      <c r="B557" s="116" t="s">
         <v>1842</v>
       </c>
-      <c r="C557" s="118" t="s">
+      <c r="C557" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="D557" s="118">
-        <v>1</v>
-      </c>
-      <c r="E557" s="118" t="s">
+      <c r="D557" s="1">
+        <v>1</v>
+      </c>
+      <c r="E557" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A558" s="118" t="s">
+      <c r="A558" s="1" t="s">
         <v>1807</v>
       </c>
-      <c r="B558" s="119" t="s">
+      <c r="B558" s="116" t="s">
         <v>1843</v>
       </c>
-      <c r="C558" s="118" t="s">
+      <c r="C558" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="D558" s="118">
+      <c r="D558" s="1">
         <v>3</v>
       </c>
-      <c r="E558" s="118" t="s">
+      <c r="E558" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A559" s="118" t="s">
+      <c r="A559" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="B559" s="119" t="s">
+      <c r="B559" s="116" t="s">
         <v>1844</v>
       </c>
-      <c r="C559" s="118" t="s">
+      <c r="C559" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="D559" s="118">
-        <v>1</v>
-      </c>
-      <c r="E559" s="118" t="s">
+      <c r="D559" s="1">
+        <v>1</v>
+      </c>
+      <c r="E559" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A560" s="118" t="s">
+      <c r="A560" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="B560" s="119" t="s">
+      <c r="B560" s="116" t="s">
         <v>1845</v>
       </c>
-      <c r="C560" s="118" t="s">
+      <c r="C560" s="1" t="s">
         <v>1830</v>
       </c>
-      <c r="D560" s="118">
-        <v>1</v>
-      </c>
-      <c r="E560" s="118" t="s">
+      <c r="D560" s="1">
+        <v>1</v>
+      </c>
+      <c r="E560" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="561" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="118" t="s">
+      <c r="A561" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="B561" s="119" t="s">
+      <c r="B561" s="116" t="s">
         <v>1846</v>
       </c>
-      <c r="C561" s="118" t="s">
+      <c r="C561" s="1" t="s">
         <v>1830</v>
       </c>
-      <c r="D561" s="118">
-        <v>1</v>
-      </c>
-      <c r="E561" s="118" t="s">
+      <c r="D561" s="1">
+        <v>1</v>
+      </c>
+      <c r="E561" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="118" t="s">
+      <c r="A562" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="B562" s="119" t="s">
+      <c r="B562" s="116" t="s">
         <v>1847</v>
       </c>
-      <c r="C562" s="118" t="s">
+      <c r="C562" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="D562" s="118">
+      <c r="D562" s="1">
         <v>8</v>
       </c>
-      <c r="E562" s="118" t="s">
+      <c r="E562" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="118" t="s">
+      <c r="A563" s="1" t="s">
         <v>1811</v>
       </c>
-      <c r="B563" s="119" t="s">
+      <c r="B563" s="116" t="s">
         <v>1848</v>
       </c>
-      <c r="C563" s="118" t="s">
+      <c r="C563" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="D563" s="118">
+      <c r="D563" s="1">
         <v>4</v>
       </c>
-      <c r="E563" s="118" t="s">
+      <c r="E563" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A564" s="118" t="s">
+      <c r="A564" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="B564" s="119" t="s">
+      <c r="B564" s="116" t="s">
         <v>1849</v>
       </c>
-      <c r="C564" s="118" t="s">
+      <c r="C564" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="D564" s="118">
+      <c r="D564" s="1">
         <v>10</v>
       </c>
-      <c r="E564" s="118" t="s">
+      <c r="E564" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A565" s="118" t="s">
+      <c r="A565" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="B565" s="119" t="s">
+      <c r="B565" s="116" t="s">
         <v>1850</v>
       </c>
-      <c r="C565" s="118" t="s">
+      <c r="C565" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="D565" s="118">
+      <c r="D565" s="1">
         <v>6</v>
       </c>
-      <c r="E565" s="118" t="s">
+      <c r="E565" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A566" s="118" t="s">
+      <c r="A566" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="B566" s="119" t="s">
+      <c r="B566" s="116" t="s">
         <v>1851</v>
       </c>
-      <c r="C566" s="118" t="s">
+      <c r="C566" s="1" t="s">
         <v>1831</v>
       </c>
-      <c r="D566" s="118">
+      <c r="D566" s="1">
         <v>3</v>
       </c>
-      <c r="E566" s="118" t="s">
+      <c r="E566" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A567" s="118" t="s">
+      <c r="A567" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="B567" s="119" t="s">
+      <c r="B567" s="116" t="s">
         <v>1852</v>
       </c>
-      <c r="C567" s="118" t="s">
+      <c r="C567" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="D567" s="118">
+      <c r="D567" s="1">
         <v>3</v>
       </c>
-      <c r="E567" s="118" t="s">
+      <c r="E567" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="568" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A568" s="118" t="s">
+      <c r="A568" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="B568" s="119" t="s">
+      <c r="B568" s="116" t="s">
         <v>1853</v>
       </c>
-      <c r="C568" s="118" t="s">
+      <c r="C568" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="D568" s="118">
+      <c r="D568" s="1">
         <v>3</v>
       </c>
-      <c r="E568" s="118" t="s">
+      <c r="E568" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A569" s="118" t="s">
+      <c r="A569" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="B569" s="119" t="s">
+      <c r="B569" s="116" t="s">
         <v>1854</v>
       </c>
-      <c r="C569" s="118" t="s">
+      <c r="C569" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="D569" s="118">
+      <c r="D569" s="1">
         <v>16</v>
       </c>
-      <c r="E569" s="118" t="s">
+      <c r="E569" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="118" t="s">
+      <c r="A570" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="B570" s="119" t="s">
+      <c r="B570" s="116" t="s">
         <v>1855</v>
       </c>
-      <c r="C570" s="118" t="s">
+      <c r="C570" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="D570" s="118">
+      <c r="D570" s="1">
         <v>14</v>
       </c>
-      <c r="E570" s="118" t="s">
+      <c r="E570" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A571" s="118" t="s">
+      <c r="A571" s="1" t="s">
         <v>1819</v>
       </c>
-      <c r="B571" s="119" t="s">
+      <c r="B571" s="116" t="s">
         <v>1856</v>
       </c>
-      <c r="C571" s="118" t="s">
+      <c r="C571" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="D571" s="118">
+      <c r="D571" s="1">
         <v>4</v>
       </c>
-      <c r="E571" s="118" t="s">
+      <c r="E571" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A572" s="118" t="s">
+      <c r="A572" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="B572" s="119" t="s">
+      <c r="B572" s="116" t="s">
         <v>1857</v>
       </c>
-      <c r="C572" s="118" t="s">
+      <c r="C572" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="D572" s="118">
-        <v>1</v>
-      </c>
-      <c r="E572" s="118" t="s">
+      <c r="D572" s="1">
+        <v>1</v>
+      </c>
+      <c r="E572" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A573" s="118" t="s">
+      <c r="A573" s="1" t="s">
         <v>1821</v>
       </c>
-      <c r="B573" s="119" t="s">
+      <c r="B573" s="116" t="s">
         <v>1858</v>
       </c>
-      <c r="C573" s="118" t="s">
+      <c r="C573" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="D573" s="118">
-        <v>1</v>
-      </c>
-      <c r="E573" s="118" t="s">
+      <c r="D573" s="1">
+        <v>1</v>
+      </c>
+      <c r="E573" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="118" t="s">
+      <c r="A574" s="1" t="s">
         <v>1822</v>
       </c>
-      <c r="B574" s="119" t="s">
+      <c r="B574" s="116" t="s">
         <v>1859</v>
       </c>
-      <c r="C574" s="118" t="s">
+      <c r="C574" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D574" s="118">
+      <c r="D574" s="1">
         <v>2</v>
       </c>
-      <c r="E574" s="118" t="s">
+      <c r="E574" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="575" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="118" t="s">
+      <c r="A575" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="B575" s="119" t="s">
+      <c r="B575" s="116" t="s">
         <v>1860</v>
       </c>
-      <c r="C575" s="118" t="s">
+      <c r="C575" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D575" s="118">
+      <c r="D575" s="1">
         <v>2</v>
       </c>
-      <c r="E575" s="118" t="s">
+      <c r="E575" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="576" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A576" s="118" t="s">
+      <c r="A576" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="B576" s="119" t="s">
+      <c r="B576" s="116" t="s">
         <v>1861</v>
       </c>
-      <c r="C576" s="118" t="s">
+      <c r="C576" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D576" s="118">
+      <c r="D576" s="1">
         <v>2</v>
       </c>
-      <c r="E576" s="118" t="s">
+      <c r="E576" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="577" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A577" s="118" t="s">
+      <c r="A577" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="B577" s="119" t="s">
+      <c r="B577" s="116" t="s">
         <v>1862</v>
       </c>
-      <c r="C577" s="118" t="s">
+      <c r="C577" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="D577" s="118">
-        <v>1</v>
-      </c>
-      <c r="E577" s="118" t="s">
+      <c r="D577" s="1">
+        <v>1</v>
+      </c>
+      <c r="E577" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A578" s="118" t="s">
+      <c r="A578" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="B578" s="119" t="s">
+      <c r="B578" s="116" t="s">
         <v>1863</v>
       </c>
-      <c r="C578" s="118" t="s">
+      <c r="C578" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D578" s="118">
-        <v>1</v>
-      </c>
-      <c r="E578" s="118" t="s">
+      <c r="D578" s="1">
+        <v>1</v>
+      </c>
+      <c r="E578" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A579" s="118" t="s">
+      <c r="A579" s="1" t="s">
         <v>1826</v>
       </c>
-      <c r="B579" s="119" t="s">
+      <c r="B579" s="116" t="s">
         <v>1864</v>
       </c>
-      <c r="C579" s="118" t="s">
+      <c r="C579" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D579" s="118">
+      <c r="D579" s="1">
         <v>5</v>
       </c>
-      <c r="E579" s="118" t="s">
+      <c r="E579" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A580" s="118" t="s">
+      <c r="A580" s="1" t="s">
         <v>1827</v>
       </c>
-      <c r="B580" s="119" t="s">
+      <c r="B580" s="116" t="s">
         <v>1865</v>
       </c>
-      <c r="C580" s="118" t="s">
+      <c r="C580" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D580" s="118">
+      <c r="D580" s="1">
         <v>9</v>
       </c>
-      <c r="E580" s="118" t="s">
+      <c r="E580" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A581" s="118" t="s">
+      <c r="A581" s="1" t="s">
         <v>1867</v>
       </c>
-      <c r="B581" s="119" t="s">
+      <c r="B581" s="116" t="s">
         <v>1885</v>
       </c>
-      <c r="C581" s="118" t="s">
+      <c r="C581" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="D581" s="118">
+      <c r="D581" s="1">
         <v>4</v>
       </c>
-      <c r="E581" s="118" t="s">
+      <c r="E581" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A582" s="118" t="s">
+      <c r="A582" s="1" t="s">
         <v>1868</v>
       </c>
-      <c r="B582" s="119" t="s">
+      <c r="B582" s="116" t="s">
         <v>1886</v>
       </c>
-      <c r="C582" s="118" t="s">
+      <c r="C582" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="D582" s="118">
+      <c r="D582" s="1">
         <v>3</v>
       </c>
-      <c r="E582" s="118" t="s">
+      <c r="E582" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A583" s="118" t="s">
+      <c r="A583" s="1" t="s">
         <v>1869</v>
       </c>
-      <c r="B583" s="119" t="s">
+      <c r="B583" s="116" t="s">
         <v>1887</v>
       </c>
-      <c r="C583" s="118" t="s">
+      <c r="C583" s="1" t="s">
         <v>1906</v>
       </c>
-      <c r="D583" s="118">
+      <c r="D583" s="1">
         <v>3</v>
       </c>
-      <c r="E583" s="118" t="s">
+      <c r="E583" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="118">
+      <c r="A584" s="1">
         <v>31300725101</v>
       </c>
-      <c r="B584" s="119" t="s">
+      <c r="B584" s="116" t="s">
         <v>1888</v>
       </c>
-      <c r="C584" s="118" t="s">
+      <c r="C584" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="D584" s="118">
+      <c r="D584" s="1">
         <v>3</v>
       </c>
-      <c r="E584" s="118" t="s">
+      <c r="E584" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A585" s="118" t="s">
+      <c r="A585" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="B585" s="119" t="s">
+      <c r="B585" s="116" t="s">
         <v>1889</v>
       </c>
-      <c r="C585" s="118" t="s">
+      <c r="C585" s="1" t="s">
         <v>1753</v>
       </c>
-      <c r="D585" s="118">
+      <c r="D585" s="1">
         <v>4</v>
       </c>
-      <c r="E585" s="118" t="s">
+      <c r="E585" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="118" t="s">
+      <c r="A586" s="1" t="s">
         <v>1871</v>
       </c>
-      <c r="B586" s="119" t="s">
+      <c r="B586" s="116" t="s">
         <v>1890</v>
       </c>
-      <c r="C586" s="118" t="s">
+      <c r="C586" s="1" t="s">
         <v>1753</v>
       </c>
-      <c r="D586" s="118">
+      <c r="D586" s="1">
         <v>3</v>
       </c>
-      <c r="E586" s="118" t="s">
+      <c r="E586" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A587" s="118" t="s">
+      <c r="A587" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="B587" s="119" t="s">
+      <c r="B587" s="116" t="s">
         <v>1891</v>
       </c>
-      <c r="C587" s="118" t="s">
+      <c r="C587" s="1" t="s">
         <v>1753</v>
       </c>
-      <c r="D587" s="118">
+      <c r="D587" s="1">
         <v>3</v>
       </c>
-      <c r="E587" s="118" t="s">
+      <c r="E587" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A588" s="118" t="s">
+      <c r="A588" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="B588" s="119" t="s">
+      <c r="B588" s="116" t="s">
         <v>1892</v>
       </c>
-      <c r="C588" s="118" t="s">
+      <c r="C588" s="1" t="s">
         <v>1753</v>
       </c>
-      <c r="D588" s="118">
-        <v>1</v>
-      </c>
-      <c r="E588" s="118" t="s">
+      <c r="D588" s="1">
+        <v>1</v>
+      </c>
+      <c r="E588" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A589" s="118" t="s">
+      <c r="A589" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="B589" s="119" t="s">
+      <c r="B589" s="116" t="s">
         <v>1893</v>
       </c>
-      <c r="C589" s="118" t="s">
+      <c r="C589" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="D589" s="118">
+      <c r="D589" s="1">
         <v>3</v>
       </c>
-      <c r="E589" s="118" t="s">
+      <c r="E589" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A590" s="118" t="s">
+      <c r="A590" s="1" t="s">
         <v>1875</v>
       </c>
-      <c r="B590" s="119" t="s">
+      <c r="B590" s="116" t="s">
         <v>1894</v>
       </c>
-      <c r="C590" s="118" t="s">
+      <c r="C590" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="D590" s="118">
+      <c r="D590" s="1">
         <v>2</v>
       </c>
-      <c r="E590" s="118" t="s">
+      <c r="E590" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A591" s="118" t="s">
+      <c r="A591" s="1" t="s">
         <v>1875</v>
       </c>
-      <c r="B591" s="119" t="s">
+      <c r="B591" s="116" t="s">
         <v>1895</v>
       </c>
-      <c r="C591" s="118" t="s">
+      <c r="C591" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="D591" s="118">
-        <v>1</v>
-      </c>
-      <c r="E591" s="118" t="s">
+      <c r="D591" s="1">
+        <v>1</v>
+      </c>
+      <c r="E591" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A592" s="118" t="s">
+      <c r="A592" s="1" t="s">
         <v>1876</v>
       </c>
-      <c r="B592" s="119" t="s">
+      <c r="B592" s="116" t="s">
         <v>1896</v>
       </c>
-      <c r="C592" s="118" t="s">
+      <c r="C592" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D592" s="118">
+      <c r="D592" s="1">
         <v>3</v>
       </c>
-      <c r="E592" s="118" t="s">
+      <c r="E592" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A593" s="118" t="s">
+      <c r="A593" s="1" t="s">
         <v>1877</v>
       </c>
-      <c r="B593" s="119" t="s">
+      <c r="B593" s="116" t="s">
         <v>1897</v>
       </c>
-      <c r="C593" s="118" t="s">
+      <c r="C593" s="1" t="s">
         <v>1908</v>
       </c>
-      <c r="D593" s="118">
-        <v>1</v>
-      </c>
-      <c r="E593" s="118" t="s">
+      <c r="D593" s="1">
+        <v>1</v>
+      </c>
+      <c r="E593" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="594" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A594" s="118" t="s">
+      <c r="A594" s="1" t="s">
         <v>1878</v>
       </c>
-      <c r="B594" s="119" t="s">
+      <c r="B594" s="116" t="s">
         <v>1898</v>
       </c>
-      <c r="C594" s="118" t="s">
+      <c r="C594" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D594" s="1">
+        <v>1</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B595" s="116" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D595" s="1">
+        <v>1</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B596" s="116" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D596" s="1">
+        <v>2</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B597" s="116" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D597" s="1">
+        <v>1</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B598" s="116" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D598" s="1">
+        <v>10</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B599" s="116" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D599" s="1">
+        <v>1</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B600" s="116" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D600" s="1">
+        <v>1</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="118">
+        <v>1000200</v>
+      </c>
+      <c r="B601" s="119" t="s">
         <v>1910</v>
       </c>
-      <c r="D594" s="118">
-        <v>1</v>
-      </c>
-      <c r="E594" s="118" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="595" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A595" s="118" t="s">
-        <v>1879</v>
-      </c>
-      <c r="B595" s="119" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C595" s="118" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D595" s="118">
-        <v>1</v>
-      </c>
-      <c r="E595" s="118" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="596" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A596" s="118" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B596" s="119" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C596" s="118" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D596" s="118">
+      <c r="C601" s="118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D601" s="118">
+        <v>4</v>
+      </c>
+      <c r="E601" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="118">
+        <v>1001130</v>
+      </c>
+      <c r="B602" s="119" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C602" s="118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D602" s="118">
+        <v>19</v>
+      </c>
+      <c r="E602" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="118">
+        <v>1000937</v>
+      </c>
+      <c r="B603" s="119" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C603" s="118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D603" s="118">
+        <v>26</v>
+      </c>
+      <c r="E603" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="118">
+        <v>1001160</v>
+      </c>
+      <c r="B604" s="119" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C604" s="118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D604" s="118">
+        <v>24</v>
+      </c>
+      <c r="E604" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="118">
+        <v>1000208</v>
+      </c>
+      <c r="B605" s="119" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C605" s="118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D605" s="118">
+        <v>99</v>
+      </c>
+      <c r="E605" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="118">
+        <v>1000209</v>
+      </c>
+      <c r="B606" s="119" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C606" s="118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D606" s="118">
+        <v>49</v>
+      </c>
+      <c r="E606" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="118">
+        <v>1001008</v>
+      </c>
+      <c r="B607" s="119" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C607" s="118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D607" s="118">
+        <v>84</v>
+      </c>
+      <c r="E607" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="118">
+        <v>1000225</v>
+      </c>
+      <c r="B608" s="119" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C608" s="118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D608" s="118">
+        <v>27</v>
+      </c>
+      <c r="E608" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="118">
+        <v>1001006</v>
+      </c>
+      <c r="B609" s="119" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C609" s="118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D609" s="118">
+        <v>4</v>
+      </c>
+      <c r="E609" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="118">
+        <v>204288</v>
+      </c>
+      <c r="B610" s="119" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C610" s="118" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D610" s="118">
+        <v>6</v>
+      </c>
+      <c r="E610" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="118">
+        <v>204305</v>
+      </c>
+      <c r="B611" s="119" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C611" s="118" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D611" s="118">
         <v>2</v>
       </c>
-      <c r="E596" s="118" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="597" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A597" s="118" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B597" s="119" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C597" s="118" t="s">
-        <v>806</v>
-      </c>
-      <c r="D597" s="118">
-        <v>1</v>
-      </c>
-      <c r="E597" s="118" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="598" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A598" s="118" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B598" s="119" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C598" s="118" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D598" s="118">
+      <c r="E611" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="118" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B612" s="119" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C612" s="118" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D612" s="118">
+        <v>30</v>
+      </c>
+      <c r="E612" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="118" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B613" s="119" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C613" s="118" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D613" s="118">
+        <v>1</v>
+      </c>
+      <c r="E613" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="118" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B614" s="119" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C614" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D614" s="118">
+        <v>7</v>
+      </c>
+      <c r="E614" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="118" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B615" s="119" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C615" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D615" s="118">
         <v>10</v>
       </c>
-      <c r="E598" s="118" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="599" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A599" s="118" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B599" s="119" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C599" s="118" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D599" s="118">
-        <v>1</v>
-      </c>
-      <c r="E599" s="118" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="600" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A600" s="118" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B600" s="119" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C600" s="118" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D600" s="118">
-        <v>1</v>
-      </c>
-      <c r="E600" s="118" t="s">
-        <v>1905</v>
+      <c r="E615" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="118" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B616" s="119" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C616" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D616" s="118">
+        <v>1</v>
+      </c>
+      <c r="E616" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="118" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B617" s="119" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C617" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D617" s="118">
+        <v>3</v>
+      </c>
+      <c r="E617" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="118" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B618" s="119" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C618" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D618" s="118">
+        <v>66</v>
+      </c>
+      <c r="E618" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="118" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B619" s="119" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C619" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D619" s="118">
+        <v>19</v>
+      </c>
+      <c r="E619" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="118" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B620" s="119" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C620" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D620" s="118">
+        <v>9</v>
+      </c>
+      <c r="E620" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="118" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B621" s="119" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C621" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D621" s="118">
+        <v>12</v>
+      </c>
+      <c r="E621" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="118" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B622" s="119" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C622" s="118" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D622" s="118">
+        <v>1</v>
+      </c>
+      <c r="E622" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="118" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B623" s="119" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C623" s="118" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D623" s="118">
+        <v>15</v>
+      </c>
+      <c r="E623" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="118" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B624" s="119" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C624" s="118" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D624" s="118">
+        <v>2</v>
+      </c>
+      <c r="E624" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="118" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B625" s="119" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C625" s="118" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D625" s="118">
+        <v>5</v>
+      </c>
+      <c r="E625" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="118" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B626" s="119" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C626" s="118" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D626" s="118">
+        <v>1</v>
+      </c>
+      <c r="E626" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="118" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B627" s="119" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C627" s="118" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D627" s="118">
+        <v>6</v>
+      </c>
+      <c r="E627" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="118" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B628" s="119" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C628" s="118" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D628" s="118">
+        <v>1</v>
+      </c>
+      <c r="E628" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="118" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B629" s="119" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C629" s="118" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D629" s="118">
+        <v>10</v>
+      </c>
+      <c r="E629" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="118" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B630" s="119" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C630" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D630" s="118">
+        <v>5</v>
+      </c>
+      <c r="E630" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="118" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B631" s="119" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C631" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D631" s="118">
+        <v>13</v>
+      </c>
+      <c r="E631" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="118" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B632" s="119" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C632" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D632" s="118">
+        <v>3</v>
+      </c>
+      <c r="E632" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="118" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B633" s="119" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C633" s="118" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D633" s="118">
+        <v>1</v>
+      </c>
+      <c r="E633" s="91" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="118" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B634" s="119" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C634" s="118" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D634" s="118">
+        <v>7</v>
+      </c>
+      <c r="E634" s="91" t="s">
+        <v>1715</v>
       </c>
     </row>
   </sheetData>

--- a/datosweb.xlsx
+++ b/datosweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\htdocs\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C2FCC-4493-4566-8055-ACD5FA1431B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B69D7DF-698F-49DD-81F7-E44B2696D57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21270" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{71058AA6-94AE-4BB4-A228-4E7F4171E6B2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4161" uniqueCount="1964">
   <si>
     <t>producto</t>
   </si>
@@ -9103,12 +9103,6 @@
   </si>
   <si>
     <t xml:space="preserve">UAP AC HD </t>
-  </si>
-  <si>
-    <t>JCNW5</t>
-  </si>
-  <si>
-    <t>Precision 7780 i9-13950HX 64GB DDR5-5600 SSD 1TB NVMe RTX4000 12GB DDR6 17.3”</t>
   </si>
   <si>
     <t>KBG40ZNV256G</t>
@@ -9998,7 +9992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10320,7 +10314,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -10442,8 +10435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E633" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E633" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}" name="Tabla1" displayName="Tabla1" ref="A1:E632" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E632" xr:uid="{53EFE1EF-12E4-4B8A-9264-BACBCEDAF6F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E513">
     <sortCondition ref="C1:C513"/>
   </sortState>
@@ -10775,10 +10768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC916C3-2C33-4E19-8D3B-5829CC096B50}">
-  <dimension ref="A1:E633"/>
+  <dimension ref="A1:E632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="B548" sqref="B548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20058,432 +20051,432 @@
         <v>1795</v>
       </c>
       <c r="B546" s="116" t="s">
-        <v>1796</v>
+        <v>1829</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1477</v>
+        <v>1824</v>
       </c>
       <c r="D546" s="1">
-        <v>1</v>
-      </c>
-      <c r="E546" s="117" t="s">
-        <v>1713</v>
+        <v>128</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1862</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
-        <v>1797</v>
+        <v>1604</v>
       </c>
       <c r="B547" s="116" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1826</v>
+        <v>1467</v>
       </c>
       <c r="D547" s="1">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>1604</v>
+        <v>1796</v>
       </c>
       <c r="B548" s="116" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>1467</v>
       </c>
       <c r="D548" s="1">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B549" s="116" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1467</v>
+        <v>1750</v>
       </c>
       <c r="D549" s="1">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B550" s="116" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1750</v>
+        <v>1704</v>
       </c>
       <c r="D550" s="1">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B551" s="116" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1704</v>
+        <v>1750</v>
       </c>
       <c r="D551" s="1">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B552" s="116" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="D552" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B553" s="116" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="D553" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="B554" s="116" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="D554" s="1">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="555" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
-        <v>1797</v>
+        <v>1802</v>
       </c>
       <c r="B555" s="116" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1802</v>
+        <v>1479</v>
       </c>
       <c r="D555" s="1">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B556" s="116" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="D556" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B557" s="116" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1475</v>
+        <v>1825</v>
       </c>
       <c r="D557" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>1806</v>
+        <v>1426</v>
       </c>
       <c r="B558" s="116" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D558" s="1">
         <v>1</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
-        <v>1426</v>
+        <v>1805</v>
       </c>
       <c r="B559" s="116" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="D559" s="1">
         <v>1</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B560" s="116" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1828</v>
+        <v>1466</v>
       </c>
       <c r="D560" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="561" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B561" s="116" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1466</v>
+        <v>1474</v>
       </c>
       <c r="D561" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B562" s="116" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>1474</v>
       </c>
       <c r="D562" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B563" s="116" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1474</v>
+        <v>1779</v>
       </c>
       <c r="D563" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B564" s="116" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1779</v>
+        <v>1827</v>
       </c>
       <c r="D564" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B565" s="116" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D565" s="1">
         <v>3</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B566" s="116" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1830</v>
+        <v>1715</v>
       </c>
       <c r="D566" s="1">
         <v>3</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B567" s="116" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D567" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="568" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B568" s="116" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1714</v>
+        <v>1474</v>
       </c>
       <c r="D568" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B569" s="116" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>1474</v>
       </c>
       <c r="D569" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B570" s="116" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>1474</v>
       </c>
       <c r="D570" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B571" s="116" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>1474</v>
@@ -20492,32 +20485,32 @@
         <v>1</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B572" s="116" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1474</v>
+        <v>806</v>
       </c>
       <c r="D572" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B573" s="116" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>806</v>
@@ -20526,15 +20519,15 @@
         <v>2</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B574" s="116" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>806</v>
@@ -20543,185 +20536,185 @@
         <v>2</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="575" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B575" s="116" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>806</v>
+        <v>1707</v>
       </c>
       <c r="D575" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="576" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>1823</v>
+        <v>1361</v>
       </c>
       <c r="B576" s="116" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1707</v>
+        <v>806</v>
       </c>
       <c r="D576" s="1">
         <v>1</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="577" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
-        <v>1361</v>
+        <v>1822</v>
       </c>
       <c r="B577" s="116" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>806</v>
       </c>
       <c r="D577" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B578" s="116" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>806</v>
       </c>
       <c r="D578" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
-        <v>1825</v>
+        <v>1863</v>
       </c>
       <c r="B579" s="116" t="s">
-        <v>1863</v>
+        <v>1881</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>806</v>
+        <v>1480</v>
       </c>
       <c r="D579" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>1864</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B580" s="116" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>1480</v>
       </c>
       <c r="D580" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B581" s="116" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1480</v>
+        <v>1902</v>
       </c>
       <c r="D581" s="1">
         <v>3</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A582" s="1" t="s">
-        <v>1867</v>
+      <c r="A582" s="1">
+        <v>31300725101</v>
       </c>
       <c r="B582" s="116" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1904</v>
+        <v>1479</v>
       </c>
       <c r="D582" s="1">
         <v>3</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A583" s="1">
-        <v>31300725101</v>
+      <c r="A583" s="1" t="s">
+        <v>1866</v>
       </c>
       <c r="B583" s="116" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1479</v>
+        <v>1751</v>
       </c>
       <c r="D583" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B584" s="116" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>1751</v>
       </c>
       <c r="D584" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B585" s="116" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>1751</v>
@@ -20730,259 +20723,259 @@
         <v>3</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B586" s="116" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>1751</v>
       </c>
       <c r="D586" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B587" s="116" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1751</v>
+        <v>1903</v>
       </c>
       <c r="D587" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B588" s="116" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D588" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B589" s="116" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D589" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B590" s="116" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1905</v>
+        <v>1645</v>
       </c>
       <c r="D590" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B591" s="116" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1645</v>
+        <v>1904</v>
       </c>
       <c r="D591" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B592" s="116" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D592" s="1">
         <v>1</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B593" s="116" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1907</v>
+        <v>1706</v>
       </c>
       <c r="D593" s="1">
         <v>1</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="594" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B594" s="116" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1706</v>
+        <v>1474</v>
       </c>
       <c r="D594" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B595" s="116" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1474</v>
+        <v>806</v>
       </c>
       <c r="D595" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B596" s="116" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>806</v>
+        <v>1751</v>
       </c>
       <c r="D596" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B597" s="116" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1751</v>
+        <v>1349</v>
       </c>
       <c r="D597" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B598" s="116" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D598" s="1">
+        <v>1</v>
+      </c>
+      <c r="E598" s="1" t="s">
         <v>1901</v>
       </c>
-      <c r="C598" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D598" s="1">
-        <v>1</v>
-      </c>
-      <c r="E598" s="1" t="s">
-        <v>1903</v>
-      </c>
     </row>
     <row r="599" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A599" s="1" t="s">
-        <v>1882</v>
+      <c r="A599" s="1">
+        <v>1000200</v>
       </c>
       <c r="B599" s="116" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1707</v>
+        <v>1907</v>
       </c>
       <c r="D599" s="1">
-        <v>1</v>
-      </c>
-      <c r="E599" s="1" t="s">
-        <v>1903</v>
+        <v>4</v>
+      </c>
+      <c r="E599" s="91" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="600" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
-        <v>1000200</v>
+        <v>1001130</v>
       </c>
       <c r="B600" s="116" t="s">
         <v>1908</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D600" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E600" s="91" t="s">
         <v>1713</v>
@@ -20990,16 +20983,16 @@
     </row>
     <row r="601" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
-        <v>1001130</v>
+        <v>1000937</v>
       </c>
       <c r="B601" s="116" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D601" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E601" s="91" t="s">
         <v>1713</v>
@@ -21007,16 +21000,16 @@
     </row>
     <row r="602" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
-        <v>1000937</v>
+        <v>1001160</v>
       </c>
       <c r="B602" s="116" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D602" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E602" s="91" t="s">
         <v>1713</v>
@@ -21024,16 +21017,16 @@
     </row>
     <row r="603" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
-        <v>1001160</v>
+        <v>1000208</v>
       </c>
       <c r="B603" s="116" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D603" s="1">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E603" s="91" t="s">
         <v>1713</v>
@@ -21041,16 +21034,16 @@
     </row>
     <row r="604" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
-        <v>1000208</v>
+        <v>1000209</v>
       </c>
       <c r="B604" s="116" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D604" s="1">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E604" s="91" t="s">
         <v>1713</v>
@@ -21058,16 +21051,16 @@
     </row>
     <row r="605" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
-        <v>1000209</v>
+        <v>1001008</v>
       </c>
       <c r="B605" s="116" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D605" s="1">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E605" s="91" t="s">
         <v>1713</v>
@@ -21075,16 +21068,16 @@
     </row>
     <row r="606" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
-        <v>1001008</v>
+        <v>1000225</v>
       </c>
       <c r="B606" s="116" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D606" s="1">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E606" s="91" t="s">
         <v>1713</v>
@@ -21092,16 +21085,16 @@
     </row>
     <row r="607" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
-        <v>1000225</v>
+        <v>1001006</v>
       </c>
       <c r="B607" s="116" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D607" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E607" s="91" t="s">
         <v>1713</v>
@@ -21109,16 +21102,16 @@
     </row>
     <row r="608" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
-        <v>1001006</v>
+        <v>204288</v>
       </c>
       <c r="B608" s="116" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C608" s="1" t="s">
         <v>1917</v>
       </c>
-      <c r="C608" s="1" t="s">
-        <v>1909</v>
-      </c>
       <c r="D608" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E608" s="91" t="s">
         <v>1713</v>
@@ -21126,33 +21119,33 @@
     </row>
     <row r="609" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
-        <v>204288</v>
+        <v>204305</v>
       </c>
       <c r="B609" s="116" t="s">
         <v>1918</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D609" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E609" s="91" t="s">
         <v>1713</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="1">
-        <v>204305</v>
+      <c r="A610" s="1" t="s">
+        <v>1919</v>
       </c>
       <c r="B610" s="116" t="s">
         <v>1920</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D610" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E610" s="91" t="s">
         <v>1713</v>
@@ -21166,10 +21159,10 @@
         <v>1922</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D611" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E611" s="91" t="s">
         <v>1713</v>
@@ -21183,10 +21176,10 @@
         <v>1924</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1919</v>
+        <v>1473</v>
       </c>
       <c r="D612" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E612" s="91" t="s">
         <v>1713</v>
@@ -21203,7 +21196,7 @@
         <v>1473</v>
       </c>
       <c r="D613" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E613" s="91" t="s">
         <v>1713</v>
@@ -21220,7 +21213,7 @@
         <v>1473</v>
       </c>
       <c r="D614" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E614" s="91" t="s">
         <v>1713</v>
@@ -21237,7 +21230,7 @@
         <v>1473</v>
       </c>
       <c r="D615" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E615" s="91" t="s">
         <v>1713</v>
@@ -21254,7 +21247,7 @@
         <v>1473</v>
       </c>
       <c r="D616" s="1">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="E616" s="91" t="s">
         <v>1713</v>
@@ -21271,7 +21264,7 @@
         <v>1473</v>
       </c>
       <c r="D617" s="1">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E617" s="91" t="s">
         <v>1713</v>
@@ -21288,7 +21281,7 @@
         <v>1473</v>
       </c>
       <c r="D618" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E618" s="91" t="s">
         <v>1713</v>
@@ -21305,7 +21298,7 @@
         <v>1473</v>
       </c>
       <c r="D619" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E619" s="91" t="s">
         <v>1713</v>
@@ -21319,10 +21312,10 @@
         <v>1940</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
       <c r="D620" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E620" s="91" t="s">
         <v>1713</v>
@@ -21336,10 +21329,10 @@
         <v>1942</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1480</v>
+        <v>1824</v>
       </c>
       <c r="D621" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E621" s="91" t="s">
         <v>1713</v>
@@ -21353,10 +21346,10 @@
         <v>1944</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>1826</v>
+        <v>1715</v>
       </c>
       <c r="D622" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E622" s="91" t="s">
         <v>1713</v>
@@ -21370,10 +21363,10 @@
         <v>1946</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>1715</v>
+        <v>1475</v>
       </c>
       <c r="D623" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E623" s="91" t="s">
         <v>1713</v>
@@ -21387,10 +21380,10 @@
         <v>1948</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="D624" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E624" s="91" t="s">
         <v>1713</v>
@@ -21404,10 +21397,10 @@
         <v>1950</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>1466</v>
+        <v>1779</v>
       </c>
       <c r="D625" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E625" s="91" t="s">
         <v>1713</v>
@@ -21421,10 +21414,10 @@
         <v>1952</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>1779</v>
+        <v>1716</v>
       </c>
       <c r="D626" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E626" s="91" t="s">
         <v>1713</v>
@@ -21438,10 +21431,10 @@
         <v>1954</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>1716</v>
+        <v>1480</v>
       </c>
       <c r="D627" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E627" s="91" t="s">
         <v>1713</v>
@@ -21455,10 +21448,10 @@
         <v>1956</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="D628" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E628" s="91" t="s">
         <v>1713</v>
@@ -21466,16 +21459,16 @@
     </row>
     <row r="629" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B629" s="116" t="s">
         <v>1957</v>
-      </c>
-      <c r="B629" s="116" t="s">
-        <v>1958</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>1473</v>
       </c>
       <c r="D629" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E629" s="91" t="s">
         <v>1713</v>
@@ -21483,7 +21476,7 @@
     </row>
     <row r="630" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
-        <v>1445</v>
+        <v>1958</v>
       </c>
       <c r="B630" s="116" t="s">
         <v>1959</v>
@@ -21492,7 +21485,7 @@
         <v>1473</v>
       </c>
       <c r="D630" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E630" s="91" t="s">
         <v>1713</v>
@@ -21509,7 +21502,7 @@
         <v>1473</v>
       </c>
       <c r="D631" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E631" s="91" t="s">
         <v>1713</v>
@@ -21517,35 +21510,18 @@
     </row>
     <row r="632" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B632" s="116" t="s">
         <v>1962</v>
       </c>
-      <c r="B632" s="116" t="s">
+      <c r="C632" s="1" t="s">
         <v>1963</v>
       </c>
-      <c r="C632" s="1" t="s">
-        <v>1473</v>
-      </c>
       <c r="D632" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E632" s="91" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="633" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A633" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B633" s="116" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C633" s="1" t="s">
-        <v>1965</v>
-      </c>
-      <c r="D633" s="1">
-        <v>7</v>
-      </c>
-      <c r="E633" s="91" t="s">
         <v>1713</v>
       </c>
     </row>
@@ -21560,12 +21536,11 @@
     <hyperlink ref="E273" r:id="rId7" xr:uid="{BFFE00CF-8E00-4B63-BCE1-D22836F7BE26}"/>
     <hyperlink ref="E61" r:id="rId8" xr:uid="{6C2B443F-1099-4969-A9B4-85FBE5ECF78D}"/>
     <hyperlink ref="E9:E151" r:id="rId9" display="comercial3@anyx.com.ar" xr:uid="{7A1568F2-22EF-41F5-84A0-79153E7AEF35}"/>
-    <hyperlink ref="E546" r:id="rId10" xr:uid="{8C1D3629-8194-4123-BE04-A634A0154AB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
